--- a/Experiments/Rolling_motion/Final.xlsx
+++ b/Experiments/Rolling_motion/Final.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Rolling motion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Data_git\Data_Analysis\Experiments\Rolling_motion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>下落高度h(m)</t>
   </si>
@@ -157,7 +159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -176,6 +178,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,10 +483,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
@@ -957,10 +960,10 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="7"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1716,10 +1719,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K41"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1783,17 +1786,17 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1">
-        <v>-1.7899999999999999E-3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>-4.3400000000000001E-2</v>
+        <v>-1.810095015E-3</v>
+      </c>
+      <c r="F2" s="6">
+        <v>-2.0361657179999999E-2</v>
       </c>
       <c r="G2" s="2">
         <f>(A2*9.8*ABS(E2)*SIN(RADIANS(D2))-0.5*A2*ABS(F2)^2)/(0.5*(ABS(F2)/B2)^2)</f>
-        <v>1.3306312578080536E-3</v>
+        <v>1.5412912872977143E-2</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H29" si="0">0.5*A2*(POWER(B2,2)+POWER(C2,2))</f>
@@ -1801,19 +1804,19 @@
       </c>
       <c r="J2" s="2">
         <f>A2*9.8*ABS(E2)*SIN(RADIANS(D2))-A2*ABS(F2)^2/2</f>
-        <v>4.8180004074527836E-4</v>
+        <v>1.2284022913216053E-3</v>
       </c>
       <c r="K2">
         <f>(ABS(F2)/B2)^2/2</f>
-        <v>0.36208381391772404</v>
-      </c>
-      <c r="M2" s="1">
+        <v>7.9699554616656204E-2</v>
+      </c>
+      <c r="M2" s="2">
         <f>ABS(E2)*SIN(RADIANS(D2))</f>
-        <v>1.3732706034700538E-4</v>
-      </c>
-      <c r="N2" s="1">
+        <v>1.262658453882196E-4</v>
+      </c>
+      <c r="N2" s="2">
         <f>ABS(F2)^2</f>
-        <v>1.8835600000000001E-3</v>
+        <v>4.1459708311584553E-4</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1827,17 +1830,17 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>-3.64E-3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-4.1700000000000001E-2</v>
+        <v>-3.0699583279999998E-3</v>
+      </c>
+      <c r="F3" s="6">
+        <v>-4.340570379E-2</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:G29" si="1">(A3*9.8*ABS(E3)*SIN(RADIANS(D3))-0.5*A3*ABS(F3)^2)/(0.5*(ABS(F3)/B3)^2)</f>
-        <v>6.6613949083307216E-3</v>
+        <v>3.808310013805374E-3</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
@@ -1845,19 +1848,19 @@
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J29" si="2">A3*9.8*ABS(E3)*SIN(RADIANS(D3))-A3*ABS(F3)^2/2</f>
-        <v>2.226726834322801E-3</v>
+        <v>1.3792898857727088E-3</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K29" si="3">(ABS(F3)/B3)^2/2</f>
-        <v>0.33427335640138417</v>
-      </c>
-      <c r="M3" s="1">
-        <f t="shared" ref="M3:M46" si="4">ABS(E3)*SIN(RADIANS(D3))</f>
-        <v>2.7925726238161989E-4</v>
-      </c>
-      <c r="N3" s="1">
-        <f t="shared" ref="N3:N46" si="5">ABS(F3)^2</f>
-        <v>1.7388900000000001E-3</v>
+        <v>0.36217899298447143</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M12" si="4">ABS(E3)*SIN(RADIANS(D3))</f>
+        <v>2.1414946750269079E-4</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N12" si="5">ABS(F3)^2</f>
+        <v>1.8840551215052203E-3</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1871,17 +1874,17 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
-        <v>-4.5700000000000003E-3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-4.8099999999999997E-2</v>
+        <v>-4.7038086019999996E-3</v>
+      </c>
+      <c r="F4" s="6">
+        <v>-4.9014219060000003E-2</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="1"/>
-        <v>6.1109443283013905E-3</v>
+        <v>5.2014940765331636E-3</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
@@ -1889,19 +1892,19 @@
       </c>
       <c r="J4" s="2">
         <f t="shared" si="2"/>
-        <v>2.7178665719725832E-3</v>
+        <v>2.4021600238997567E-3</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
-        <v>0.44475394079200303</v>
-      </c>
-      <c r="M4" s="1">
+        <v>0.46182115918140487</v>
+      </c>
+      <c r="M4" s="2">
         <f t="shared" si="4"/>
-        <v>3.5060595853956124E-4</v>
-      </c>
-      <c r="N4" s="1">
+        <v>3.281211012428037E-4</v>
+      </c>
+      <c r="N4" s="2">
         <f t="shared" si="5"/>
-        <v>2.3136099999999998E-3</v>
+        <v>2.4023936700616677E-3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1915,17 +1918,17 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>-6.8399999999999997E-3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-7.7600000000000002E-2</v>
+        <v>-6.3375729320000003E-3</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-6.9113501529999996E-2</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="1"/>
-        <v>2.1960465565631936E-3</v>
+        <v>2.524783971972277E-3</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
@@ -1933,19 +1936,19 @@
       </c>
       <c r="J5" s="2">
         <f t="shared" si="2"/>
-        <v>2.542111747875813E-3</v>
+        <v>2.3183535641620747E-3</v>
       </c>
       <c r="K5">
         <f t="shared" si="3"/>
-        <v>1.1575855440215304</v>
-      </c>
-      <c r="M5" s="1">
+        <v>0.91823838787722267</v>
+      </c>
+      <c r="M5" s="2">
         <f t="shared" si="4"/>
-        <v>5.2475815238743953E-4</v>
-      </c>
-      <c r="N5" s="1">
+        <v>4.4208673983253726E-4</v>
+      </c>
+      <c r="N5" s="2">
         <f t="shared" si="5"/>
-        <v>6.0217600000000001E-3</v>
+        <v>4.7766760937373118E-3</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1959,17 +1962,17 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>-9.7400000000000004E-3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-8.6800000000000002E-2</v>
+        <v>-9.3113753699999996E-3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-9.7614794409999997E-2</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>2.927753505733302E-3</v>
+        <v>1.0423278231759584E-3</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
@@ -1977,19 +1980,19 @@
       </c>
       <c r="J6" s="2">
         <f t="shared" si="2"/>
-        <v>4.2403686222676042E-3</v>
+        <v>1.9092608648729227E-3</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
-        <v>1.4483352556708962</v>
-      </c>
-      <c r="M6" s="1">
+        <v>1.8317278138613162</v>
+      </c>
+      <c r="M6" s="2">
         <f t="shared" si="4"/>
-        <v>7.4724333395521361E-4</v>
-      </c>
-      <c r="N6" s="1">
+        <v>6.4952871151909995E-4</v>
+      </c>
+      <c r="N6" s="2">
         <f t="shared" si="5"/>
-        <v>7.5342400000000002E-3</v>
+        <v>9.5286480877065666E-3</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2003,17 +2006,17 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>-1.26E-2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-0.10199999999999999</v>
+        <v>-1.2845225890000001E-2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-0.1080899971</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>2.5467421098856182E-3</v>
+        <v>1.5607132461134025E-3</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
@@ -2021,19 +2024,19 @@
       </c>
       <c r="J7" s="2">
         <f t="shared" si="2"/>
-        <v>5.0934842197712365E-3</v>
+        <v>3.5052885873708209E-3</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="M7" s="1">
+        <v>2.2459529936712821</v>
+      </c>
+      <c r="M7" s="2">
         <f t="shared" si="4"/>
-        <v>9.6665975439791493E-4</v>
-      </c>
-      <c r="N7" s="1">
+        <v>8.9603766253314361E-4</v>
+      </c>
+      <c r="N7" s="2">
         <f t="shared" si="5"/>
-        <v>1.0403999999999998E-2</v>
+        <v>1.1683447473078009E-2</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2047,17 +2050,17 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>-1.6500000000000001E-2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-0.129</v>
+        <v>-1.6517375179999998E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-0.1152348919</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>1.5227824091726219E-3</v>
+        <v>2.1731848479350493E-3</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
@@ -2065,19 +2068,19 @@
       </c>
       <c r="J8" s="2">
         <f t="shared" si="2"/>
-        <v>4.8713229663670914E-3</v>
+        <v>5.5474617698621029E-3</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
-        <v>3.1989619377162639</v>
-      </c>
-      <c r="M8" s="1">
+        <v>2.552687487736387</v>
+      </c>
+      <c r="M8" s="2">
         <f t="shared" si="4"/>
-        <v>1.2658639640925078E-3</v>
-      </c>
-      <c r="N8" s="1">
+        <v>1.1521938480655368E-3</v>
+      </c>
+      <c r="N8" s="2">
         <f t="shared" si="5"/>
-        <v>1.6641E-2</v>
+        <v>1.3279080311204686E-2</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2091,17 +2094,17 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>-2.1299999999999999E-2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-0.13400000000000001</v>
+        <v>-2.0527552019999999E-2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>-0.132289032</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>2.430890150936079E-3</v>
+        <v>1.8725713051331225E-3</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
@@ -2109,19 +2112,19 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" si="2"/>
-        <v>8.3908234429466069E-3</v>
+        <v>6.2996394413847214E-3</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
-        <v>3.4517493271818545</v>
-      </c>
-      <c r="M9" s="1">
+        <v>3.364165318626879</v>
+      </c>
+      <c r="M9" s="2">
         <f t="shared" si="4"/>
-        <v>1.6341152991012371E-3</v>
-      </c>
-      <c r="N9" s="1">
+        <v>1.4319296435142963E-3</v>
+      </c>
+      <c r="N9" s="2">
         <f t="shared" si="5"/>
-        <v>1.7956000000000003E-2</v>
+        <v>1.7500387987497024E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2135,17 +2138,17 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>-2.5399999999999999E-2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-0.14899999999999999</v>
+        <v>-2.533664398E-2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>-0.14888244710000001</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="1"/>
-        <v>2.2343475879402293E-3</v>
+        <v>1.7456244954334736E-3</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
@@ -2153,19 +2156,19 @@
       </c>
       <c r="J10" s="2">
         <f t="shared" si="2"/>
-        <v>9.5357075739832837E-3</v>
+        <v>7.4381935765611487E-3</v>
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
-        <v>4.2677816224529037</v>
-      </c>
-      <c r="M10" s="1">
+        <v>4.2610501834841035</v>
+      </c>
+      <c r="M10" s="2">
         <f t="shared" si="4"/>
-        <v>1.9486633144211935E-3</v>
-      </c>
-      <c r="N10" s="1">
+        <v>1.7673949405551204E-3</v>
+      </c>
+      <c r="N10" s="2">
         <f t="shared" si="5"/>
-        <v>2.2200999999999999E-2</v>
+        <v>2.2165983054484303E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2179,17 +2182,17 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1">
-        <v>-3.1199999999999999E-2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-0.17699999999999999</v>
+        <v>-3.0453048489999999E-2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>-0.1627115113</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>1.543096234346237E-3</v>
+        <v>1.776214836216796E-3</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
@@ -2197,19 +2200,19 @@
       </c>
       <c r="J11" s="2">
         <f t="shared" si="2"/>
-        <v>9.2932837227668701E-3</v>
+        <v>9.0398599715262734E-3</v>
       </c>
       <c r="K11">
         <f t="shared" si="3"/>
-        <v>6.0224913494809691</v>
-      </c>
-      <c r="M11" s="1">
+        <v>5.0893955996789755</v>
+      </c>
+      <c r="M11" s="2">
         <f t="shared" si="4"/>
-        <v>2.3936336775567417E-3</v>
-      </c>
-      <c r="N11" s="1">
+        <v>2.1242972774212594E-3</v>
+      </c>
+      <c r="N11" s="2">
         <f t="shared" si="5"/>
-        <v>3.1328999999999996E-2</v>
+        <v>2.6475035909530029E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2223,17 +2226,17 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>-3.73E-2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-0.187</v>
+        <v>-3.618407807E-2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>-0.17538754440000001</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>1.8731979592380992E-3</v>
+        <v>1.8866853982361675E-3</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
@@ -2241,19 +2244,19 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" si="2"/>
-        <v>1.2592052948211668E-2</v>
+        <v>1.1156465726593311E-2</v>
       </c>
       <c r="K12">
         <f t="shared" si="3"/>
-        <v>6.7222222222222232</v>
-      </c>
-      <c r="M12" s="1">
+        <v>5.9132623473014183</v>
+      </c>
+      <c r="M12" s="2">
         <f t="shared" si="4"/>
-        <v>2.8616197491303356E-3</v>
-      </c>
-      <c r="N12" s="1">
+        <v>2.5240736918453353E-3</v>
+      </c>
+      <c r="N12" s="2">
         <f t="shared" si="5"/>
-        <v>3.4969E-2</v>
+        <v>3.0760790730661975E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2267,17 +2270,17 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1">
-        <v>-4.36E-2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-0.19600000000000001</v>
+        <v>-4.2145551449999999E-2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>-0.1983805079</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>2.1916774841139637E-3</v>
+        <v>1.4397422086926152E-3</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
@@ -2285,19 +2288,19 @@
       </c>
       <c r="J13" s="2">
         <f t="shared" si="2"/>
-        <v>1.618521380809728E-2</v>
+        <v>1.0892119182062437E-2</v>
       </c>
       <c r="K13">
         <f t="shared" si="3"/>
-        <v>7.3848519800076913</v>
-      </c>
-      <c r="M13" s="1">
-        <f t="shared" si="4"/>
-        <v>3.344949626329293E-3</v>
-      </c>
-      <c r="N13" s="1">
-        <f t="shared" si="5"/>
-        <v>3.8416000000000006E-2</v>
+        <v>7.5653260120457455</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" ref="M13:M76" si="6">ABS(E13)*SIN(RADIANS(D13))</f>
+        <v>2.9399250531536069E-3</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" ref="N13:N76" si="7">ABS(F13)^2</f>
+        <v>3.935482591466196E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2311,17 +2314,17 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1">
-        <v>-5.0299999999999997E-2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-0.21199999999999999</v>
+        <v>-4.9409445269999998E-2</v>
+      </c>
+      <c r="F14" s="6">
+        <v>-0.2153701465</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>2.1181111536594261E-3</v>
+        <v>1.4156009180147462E-3</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
@@ -2329,19 +2332,19 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="2"/>
-        <v>1.8299959186864525E-2</v>
+        <v>1.2622387094642248E-2</v>
       </c>
       <c r="K14">
         <f t="shared" si="3"/>
-        <v>8.639753940792005</v>
-      </c>
-      <c r="M14" s="1">
-        <f t="shared" si="4"/>
-        <v>3.8589671147789776E-3</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" si="5"/>
-        <v>4.4943999999999998E-2</v>
+        <v>8.9166282205750598</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="6"/>
+        <v>3.4466286716885509E-3</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="7"/>
+        <v>4.638430000343146E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2355,17 +2358,17 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1">
-        <v>-5.7799999999999997E-2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>-0.23699999999999999</v>
+        <v>-5.6503561209999997E-2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>-0.23531167759999999</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>1.6977307411091688E-3</v>
+        <v>1.2257189544345095E-3</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
@@ -2373,19 +2376,19 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="2"/>
-        <v>1.8331379853395023E-2</v>
+        <v>1.3046905425857062E-2</v>
       </c>
       <c r="K15">
         <f t="shared" si="3"/>
-        <v>10.797577854671282</v>
-      </c>
-      <c r="M15" s="1">
-        <f t="shared" si="4"/>
-        <v>4.4343598257301177E-3</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="5"/>
-        <v>5.6168999999999997E-2</v>
+        <v>10.644287892142703</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="6"/>
+        <v>3.941489183994942E-3</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="7"/>
+        <v>5.537158561492634E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2399,17 +2402,17 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1">
-        <v>-6.6100000000000006E-2</v>
-      </c>
-      <c r="F16" s="1">
-        <v>-0.254</v>
+        <v>-6.5096890439999999E-2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>-0.25926668590000002</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="1"/>
-        <v>1.6768112381284805E-3</v>
+        <v>1.0051319670398632E-3</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
@@ -2417,19 +2420,19 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" si="2"/>
-        <v>2.0796069557688784E-2</v>
+        <v>1.2988116341869617E-2</v>
       </c>
       <c r="K16">
         <f t="shared" si="3"/>
-        <v>12.402153018069974</v>
-      </c>
-      <c r="M16" s="1">
-        <f t="shared" si="4"/>
-        <v>5.0711277591827131E-3</v>
-      </c>
-      <c r="N16" s="1">
-        <f t="shared" si="5"/>
-        <v>6.4516000000000004E-2</v>
+        <v>12.921802079501978</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="6"/>
+        <v>4.5409295288020611E-3</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="7"/>
+        <v>6.721921441756927E-2</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2443,17 +2446,17 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E17" s="1">
-        <v>-7.4700000000000003E-2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>-0.26300000000000001</v>
+        <v>-7.3788006939999998E-2</v>
+      </c>
+      <c r="F17" s="6">
+        <v>-0.2661112202</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="1"/>
-        <v>1.9352501802921073E-3</v>
+        <v>1.3170504373911881E-3</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
@@ -2461,19 +2464,19 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" si="2"/>
-        <v>2.5732279838643748E-2</v>
+        <v>1.7929097614383431E-2</v>
       </c>
       <c r="K17">
         <f t="shared" si="3"/>
-        <v>13.296616685890044</v>
-      </c>
-      <c r="M17" s="1">
-        <f t="shared" si="4"/>
-        <v>5.7309114010733533E-3</v>
-      </c>
-      <c r="N17" s="1">
-        <f t="shared" si="5"/>
-        <v>6.9169000000000008E-2</v>
+        <v>13.613068342240078</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="6"/>
+        <v>5.147191168741445E-3</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="7"/>
+        <v>7.0815181516332884E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2487,17 +2490,17 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>-8.3699999999999997E-2</v>
-      </c>
-      <c r="F18" s="1">
-        <v>-0.28100000000000003</v>
+        <v>-8.2837638450000001E-2</v>
+      </c>
+      <c r="F18" s="6">
+        <v>-0.27409679729999997</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="1"/>
-        <v>1.8422193881077319E-3</v>
+        <v>1.574141850602413E-3</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
@@ -2505,19 +2508,19 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="2"/>
-        <v>2.796299213848033E-2</v>
+        <v>2.2734292301855891E-2</v>
       </c>
       <c r="K18">
         <f t="shared" si="3"/>
-        <v>15.178969627066518</v>
-      </c>
-      <c r="M18" s="1">
-        <f t="shared" si="4"/>
-        <v>6.4213826542147204E-3</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" si="5"/>
-        <v>7.8961000000000017E-2</v>
+        <v>14.44234030951889</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="6"/>
+        <v>5.7784615515627698E-3</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="7"/>
+        <v>7.5129054290117278E-2</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2531,17 +2534,17 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1">
-        <v>-9.35E-2</v>
-      </c>
-      <c r="F19" s="1">
-        <v>-0.29599999999999999</v>
+        <v>-9.2061126760000001E-2</v>
+      </c>
+      <c r="F19" s="6">
+        <v>-0.28257188500000002</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="1"/>
-        <v>1.8755189620625137E-3</v>
+        <v>1.7877317063888206E-3</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
@@ -2549,19 +2552,19 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="2"/>
-        <v>3.1588902226080198E-2</v>
+        <v>2.7440365532287792E-2</v>
       </c>
       <c r="K19">
         <f t="shared" si="3"/>
-        <v>16.842752787389465</v>
-      </c>
-      <c r="M19" s="1">
-        <f t="shared" si="4"/>
-        <v>7.1732291298575437E-3</v>
-      </c>
-      <c r="N19" s="1">
-        <f t="shared" si="5"/>
-        <v>8.7615999999999986E-2</v>
+        <v>15.349263781709581</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="6"/>
+        <v>6.421859571688531E-3</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="7"/>
+        <v>7.9846870192453234E-2</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2575,17 +2578,17 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1">
-        <v>-0.10299999999999999</v>
-      </c>
-      <c r="F20" s="1">
-        <v>-0.307</v>
+        <v>-0.1016757641</v>
+      </c>
+      <c r="F20" s="6">
+        <v>-0.2882736534</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="1"/>
-        <v>1.9953514408213549E-3</v>
+        <v>2.086867823994071E-3</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
@@ -2593,19 +2596,19 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
-        <v>3.6151456737018819E-2</v>
+        <v>3.3337612893647325E-2</v>
       </c>
       <c r="K20">
         <f t="shared" si="3"/>
-        <v>18.117839292579777</v>
-      </c>
-      <c r="M20" s="1">
-        <f t="shared" si="4"/>
-        <v>7.9020598970623197E-3</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" si="5"/>
-        <v>9.4248999999999999E-2</v>
+        <v>15.974951796344357</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="6"/>
+        <v>7.0925427688555281E-3</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="7"/>
+        <v>8.3101699244583327E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2619,17 +2622,17 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.114</v>
-      </c>
-      <c r="F21" s="1">
-        <v>-0.32900000000000001</v>
+        <v>-0.1112793703</v>
+      </c>
+      <c r="F21" s="6">
+        <v>-0.3205382819</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
-        <v>1.8104500247441626E-3</v>
+        <v>1.4912835379374202E-3</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
@@ -2637,19 +2640,19 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="2"/>
-        <v>3.7671072881263548E-2</v>
+        <v>2.9454366432048976E-2</v>
       </c>
       <c r="K21">
         <f t="shared" si="3"/>
-        <v>20.807574009996163</v>
-      </c>
-      <c r="M21" s="1">
-        <f t="shared" si="4"/>
-        <v>8.7459692064573262E-3</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" si="5"/>
-        <v>0.108241</v>
+        <v>19.75101694798229</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="6"/>
+        <v>7.7624564725947472E-3</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="7"/>
+        <v>0.10274479016340386</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2663,17 +2666,17 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.125</v>
-      </c>
-      <c r="F22" s="1">
-        <v>-0.32900000000000001</v>
+        <v>-0.1230449829</v>
+      </c>
+      <c r="F22" s="6">
+        <v>-0.33830201119999997</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="1"/>
-        <v>2.2844286894124588E-3</v>
+        <v>1.457564574465188E-3</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
@@ -2681,19 +2684,19 @@
       </c>
       <c r="J22" s="2">
         <f t="shared" si="2"/>
-        <v>4.7533419025508269E-2</v>
+        <v>3.2067611678066099E-2</v>
       </c>
       <c r="K22">
         <f t="shared" si="3"/>
-        <v>20.807574009996163</v>
-      </c>
-      <c r="M22" s="1">
-        <f t="shared" si="4"/>
-        <v>9.5898785158523309E-3</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" si="5"/>
-        <v>0.108241</v>
+        <v>22.000817143784108</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="6"/>
+        <v>8.5831841190101964E-3</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11444825078196491</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2707,17 +2710,17 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1">
-        <v>-0.13600000000000001</v>
-      </c>
-      <c r="F23" s="1">
-        <v>-0.34599999999999997</v>
+        <v>-0.13383283770000001</v>
+      </c>
+      <c r="F23" s="6">
+        <v>-0.34237667199999999</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="1"/>
-        <v>2.1967059455340575E-3</v>
+        <v>1.739960762446043E-3</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
@@ -2725,19 +2728,19 @@
       </c>
       <c r="J23" s="2">
         <f t="shared" si="2"/>
-        <v>5.0553796419753022E-2</v>
+        <v>3.9208248236391713E-2</v>
       </c>
       <c r="K23">
         <f t="shared" si="3"/>
-        <v>23.01345636293733</v>
-      </c>
-      <c r="M23" s="1">
-        <f t="shared" si="4"/>
-        <v>1.0433787825247337E-2</v>
-      </c>
-      <c r="N23" s="1">
-        <f t="shared" si="5"/>
-        <v>0.11971599999999999</v>
+        <v>22.53398414644283</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="6"/>
+        <v>9.3357068291218346E-3</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11722178552979558</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2751,17 +2754,17 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E24" s="1">
-        <v>-0.14799999999999999</v>
-      </c>
-      <c r="F24" s="1">
-        <v>-0.38400000000000001</v>
+        <v>-0.14587009440000001</v>
+      </c>
+      <c r="F24" s="6">
+        <v>-0.36861376610000002</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="1"/>
-        <v>1.5795072212539452E-3</v>
+        <v>1.4509389416306961E-3</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
@@ -2769,19 +2772,19 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" si="2"/>
-        <v>4.4772744486201804E-2</v>
+        <v>3.7898488493783064E-2</v>
       </c>
       <c r="K24">
         <f t="shared" si="3"/>
-        <v>28.346020761245679</v>
-      </c>
-      <c r="M24" s="1">
-        <f t="shared" si="4"/>
-        <v>1.135441616276916E-2</v>
-      </c>
-      <c r="N24" s="1">
-        <f t="shared" si="5"/>
-        <v>0.147456</v>
+        <v>26.119974732492413</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="6"/>
+        <v>1.017538341006668E-2</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="7"/>
+        <v>0.13587610855842552</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2795,17 +2798,17 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E25" s="1">
-        <v>-0.161</v>
-      </c>
-      <c r="F25" s="1">
-        <v>-0.39500000000000002</v>
+        <v>-0.15840708880000001</v>
+      </c>
+      <c r="F25" s="6">
+        <v>-0.38691986859999999</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="1"/>
-        <v>1.7110163417765993E-3</v>
+        <v>1.3854708428110245E-3</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
@@ -2813,19 +2816,19 @@
       </c>
       <c r="J25" s="2">
         <f t="shared" si="2"/>
-        <v>5.1318978224854664E-2</v>
+        <v>3.9872099633058544E-2</v>
       </c>
       <c r="K25">
         <f t="shared" si="3"/>
-        <v>29.993271818531341</v>
-      </c>
-      <c r="M25" s="1">
-        <f t="shared" si="4"/>
-        <v>1.2351763528417803E-2</v>
-      </c>
-      <c r="N25" s="1">
-        <f t="shared" si="5"/>
-        <v>0.15602500000000002</v>
+        <v>28.778736008735351</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1049919930760526E-2</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="7"/>
+        <v>0.14970698471744126</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2839,17 +2842,17 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E26" s="1">
-        <v>-0.17499999999999999</v>
-      </c>
-      <c r="F26" s="1">
-        <v>-0.40300000000000002</v>
+        <v>-0.1716647523</v>
+      </c>
+      <c r="F26" s="6">
+        <v>-0.40191770430000001</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="1"/>
-        <v>1.9238836757567101E-3</v>
+        <v>1.4048781791566806E-3</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
@@ -2857,19 +2860,19 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" si="2"/>
-        <v>6.0064595135711579E-2</v>
+        <v>4.3625718564171828E-2</v>
       </c>
       <c r="K26">
         <f t="shared" si="3"/>
-        <v>31.220492118416004</v>
-      </c>
-      <c r="M26" s="1">
-        <f t="shared" si="4"/>
-        <v>1.3425829922193263E-2</v>
-      </c>
-      <c r="N26" s="1">
-        <f t="shared" si="5"/>
-        <v>0.16240900000000003</v>
+        <v>31.053025957282252</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1974727786606723E-2</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="7"/>
+        <v>0.16153784102978225</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2883,17 +2886,17 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E27" s="1">
-        <v>-0.188</v>
-      </c>
-      <c r="F27" s="1">
-        <v>-0.41899999999999998</v>
+        <v>-0.1852016024</v>
+      </c>
+      <c r="F27" s="6">
+        <v>-0.41513933609999998</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="1"/>
-        <v>1.8927579307303096E-3</v>
+        <v>1.4554886969335636E-3</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
@@ -2901,19 +2904,19 @@
       </c>
       <c r="J27" s="2">
         <f t="shared" si="2"/>
-        <v>6.3878215124364465E-2</v>
+        <v>4.8219895202902319E-2</v>
       </c>
       <c r="K27">
         <f t="shared" si="3"/>
-        <v>33.748750480584398</v>
-      </c>
-      <c r="M27" s="1">
-        <f t="shared" si="4"/>
-        <v>1.4423177287841905E-2</v>
-      </c>
-      <c r="N27" s="1">
-        <f t="shared" si="5"/>
-        <v>0.17556099999999999</v>
+        <v>33.12969403643767</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="6"/>
+        <v>1.2919010715185534E-2</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="7"/>
+        <v>0.17234066837754874</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2927,17 +2930,17 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E28" s="1">
-        <v>-0.20300000000000001</v>
-      </c>
-      <c r="F28" s="1">
-        <v>-0.44</v>
+        <v>-0.19934070800000001</v>
+      </c>
+      <c r="F28" s="6">
+        <v>-0.42540446240000002</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="1"/>
-        <v>1.7887548621334051E-3</v>
+        <v>1.5695374166760476E-3</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
@@ -2945,19 +2948,19 @@
       </c>
       <c r="J28" s="2">
         <f t="shared" si="2"/>
-        <v>6.657111520742548E-2</v>
+        <v>5.4601604899528616E-2</v>
       </c>
       <c r="K28">
         <f t="shared" si="3"/>
-        <v>37.216455209534807</v>
-      </c>
-      <c r="M28" s="1">
-        <f t="shared" si="4"/>
-        <v>1.5573962709744187E-2</v>
-      </c>
-      <c r="N28" s="1">
-        <f t="shared" si="5"/>
-        <v>0.19359999999999999</v>
+        <v>34.788342297161293</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3905304863737349E-2</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="7"/>
+        <v>0.18096895662983303</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2971,17 +2974,17 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E29" s="1">
-        <v>-0.218</v>
-      </c>
-      <c r="F29" s="1">
-        <v>-0.46500000000000002</v>
+        <v>-0.21356189989999999</v>
+      </c>
+      <c r="F29" s="6">
+        <v>-0.44306169540000001</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="1"/>
-        <v>1.6005875626597765E-3</v>
+        <v>1.5118518039514976E-3</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
@@ -2989,19 +2992,19 @@
       </c>
       <c r="J29" s="2">
         <f t="shared" si="2"/>
-        <v>6.6529612790486414E-2</v>
+        <v>5.7051528538957105E-2</v>
       </c>
       <c r="K29">
         <f t="shared" si="3"/>
-        <v>41.565743944636694</v>
-      </c>
-      <c r="M29" s="1">
-        <f t="shared" si="4"/>
-        <v>1.6724748131646466E-2</v>
-      </c>
-      <c r="N29" s="1">
-        <f t="shared" si="5"/>
-        <v>0.21622500000000003</v>
+        <v>37.736191067036224</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4897325063119865E-2</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1963036659307224</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -3015,37 +3018,37 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E30" s="1">
-        <v>-0.23400000000000001</v>
-      </c>
-      <c r="F30" s="1">
-        <v>-0.45600000000000002</v>
+        <v>-0.22887815440000001</v>
+      </c>
+      <c r="F30" s="6">
+        <v>-0.47344881379999998</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" ref="G30:G41" si="6">(A30*9.8*ABS(E30)*SIN(RADIANS(D30))-0.5*A30*ABS(F30)^2)/(0.5*(ABS(F30)/B30)^2)</f>
-        <v>2.1469147490453763E-3</v>
+        <f t="shared" ref="G30:G38" si="8">(A30*9.8*ABS(E30)*SIN(RADIANS(D30))-0.5*A30*ABS(F30)^2)/(0.5*(ABS(F30)/B30)^2)</f>
+        <v>1.2284043178015765E-3</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H41" si="7">0.5*A30*(POWER(B30,2)+POWER(C30,2))</f>
+        <f t="shared" ref="H30:H38" si="9">0.5*A30*(POWER(B30,2)+POWER(C30,2))</f>
         <v>1.5508462499999997E-3</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" ref="J30:J41" si="8">A30*9.8*ABS(E30)*SIN(RADIANS(D30))-A30*ABS(F30)^2/2</f>
-        <v>8.581715979575151E-2</v>
+        <f t="shared" ref="J30:J38" si="10">A30*9.8*ABS(E30)*SIN(RADIANS(D30))-A30*ABS(F30)^2/2</f>
+        <v>5.2931847429775303E-2</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="K30:K41" si="9">(ABS(F30)/B30)^2/2</f>
-        <v>39.972318339100347</v>
-      </c>
-      <c r="M30" s="1">
-        <f t="shared" ref="M30:M41" si="10">ABS(E30)*SIN(RADIANS(D30))</f>
-        <v>1.7952252581675564E-2</v>
-      </c>
-      <c r="N30" s="1">
-        <f t="shared" ref="N30:N41" si="11">ABS(F30)^2</f>
-        <v>0.20793600000000001</v>
+        <f t="shared" ref="K30:K38" si="11">(ABS(F30)/B30)^2/2</f>
+        <v>43.089922969747619</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5965732968007459E-2</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="7"/>
+        <v>0.22415377928862706</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -3059,37 +3062,37 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E31" s="1">
-        <v>-0.248</v>
-      </c>
-      <c r="F31" s="1">
-        <v>-0.47</v>
+        <v>-0.2451251542</v>
+      </c>
+      <c r="F31" s="6">
+        <v>-0.48001788680000002</v>
       </c>
       <c r="G31" s="2">
+        <f t="shared" si="8"/>
+        <v>1.4097182309115877E-3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="9"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="10"/>
+        <v>6.2442000689577531E-2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="11"/>
+        <v>44.293958409830381</v>
+      </c>
+      <c r="M31" s="2">
         <f t="shared" si="6"/>
-        <v>2.1344790754992179E-3</v>
-      </c>
-      <c r="H31">
+        <v>1.7099066382976966E-2</v>
+      </c>
+      <c r="N31" s="2">
         <f t="shared" si="7"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J31" s="2">
-        <f t="shared" si="8"/>
-        <v>9.0639451706608448E-2</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="9"/>
-        <v>42.464436755094191</v>
-      </c>
-      <c r="M31" s="1">
-        <f t="shared" si="10"/>
-        <v>1.9026318975451026E-2</v>
-      </c>
-      <c r="N31" s="1">
-        <f t="shared" si="11"/>
-        <v>0.22089999999999999</v>
+        <v>0.23041717164793762</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3103,37 +3106,37 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.26500000000000001</v>
-      </c>
-      <c r="F32" s="1">
-        <v>-0.504</v>
+        <v>-0.26087934680000002</v>
+      </c>
+      <c r="F32" s="6">
+        <v>-0.50013770810000002</v>
       </c>
       <c r="G32" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3211332450529609E-3</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="9"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="10"/>
+        <v>6.3526579597385835E-2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="11"/>
+        <v>48.08491485265683</v>
+      </c>
+      <c r="M32" s="2">
         <f t="shared" si="6"/>
-        <v>1.7639781056546496E-3</v>
-      </c>
-      <c r="H32">
+        <v>1.8198023305438762E-2</v>
+      </c>
+      <c r="N32" s="2">
         <f t="shared" si="7"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J32" s="2">
-        <f t="shared" si="8"/>
-        <v>8.6135844384077564E-2</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="9"/>
-        <v>48.830449826989621</v>
-      </c>
-      <c r="M32" s="1">
-        <f t="shared" si="10"/>
-        <v>2.0330542453606944E-2</v>
-      </c>
-      <c r="N32" s="1">
-        <f t="shared" si="11"/>
-        <v>0.25401600000000002</v>
+        <v>0.25013772706352083</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3147,37 +3150,37 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E33" s="1">
-        <v>-0.28199999999999997</v>
-      </c>
-      <c r="F33" s="1">
-        <v>-0.52500000000000002</v>
+        <v>-0.278467668</v>
+      </c>
+      <c r="F33" s="6">
+        <v>-0.51750192750000001</v>
       </c>
       <c r="G33" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3078157977953538E-3</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="9"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="10"/>
+        <v>6.7328691569908589E-2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="11"/>
+        <v>51.481784883932207</v>
+      </c>
+      <c r="M33" s="2">
         <f t="shared" si="6"/>
-        <v>1.6701753207860881E-3</v>
-      </c>
-      <c r="H33">
+        <v>1.9424922571429803E-2</v>
+      </c>
+      <c r="N33" s="2">
         <f t="shared" si="7"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J33" s="2">
-        <f t="shared" si="8"/>
-        <v>8.849328581154664E-2</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="9"/>
-        <v>52.984429065743953</v>
-      </c>
-      <c r="M33" s="1">
-        <f t="shared" si="10"/>
-        <v>2.1634765931762858E-2</v>
-      </c>
-      <c r="N33" s="1">
-        <f t="shared" si="11"/>
-        <v>0.27562500000000001</v>
+        <v>0.26780824496621525</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3191,37 +3194,37 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E34" s="1">
-        <v>-0.3</v>
-      </c>
-      <c r="F34" s="1">
-        <v>-0.51900000000000002</v>
+        <v>-0.29537947530000003</v>
+      </c>
+      <c r="F34" s="6">
+        <v>-0.53494420710000001</v>
       </c>
       <c r="G34" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2755707560981075E-3</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="9"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="10"/>
+        <v>7.0169952729293689E-2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="11"/>
+        <v>55.010631432112206</v>
+      </c>
+      <c r="M34" s="2">
         <f t="shared" si="6"/>
-        <v>2.0928157799353485E-3</v>
-      </c>
-      <c r="H34">
+        <v>2.0604630613317961E-2</v>
+      </c>
+      <c r="N34" s="2">
         <f t="shared" si="7"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J34" s="2">
-        <f t="shared" si="8"/>
-        <v>0.10836658041121983</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="9"/>
-        <v>51.78027681660901</v>
-      </c>
-      <c r="M34" s="1">
-        <f t="shared" si="10"/>
-        <v>2.3015708438045592E-2</v>
-      </c>
-      <c r="N34" s="1">
-        <f t="shared" si="11"/>
-        <v>0.26936100000000002</v>
+        <v>0.28616530470984769</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3235,37 +3238,37 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.316</v>
+        <v>-0.31413061520000002</v>
       </c>
       <c r="F35" s="1">
-        <v>-0.503</v>
+        <v>-0.56122940779999997</v>
       </c>
       <c r="G35" s="2">
+        <f t="shared" si="8"/>
+        <v>1.1276100633126319E-3</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="9"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="10"/>
+        <v>6.8276214512465239E-2</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="11"/>
+        <v>60.549490230591829</v>
+      </c>
+      <c r="M35" s="2">
         <f t="shared" si="6"/>
-        <v>2.7234830280664108E-3</v>
-      </c>
-      <c r="H35">
+        <v>2.1912644011424731E-2</v>
+      </c>
+      <c r="N35" s="2">
         <f t="shared" si="7"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" si="8"/>
-        <v>0.13246169116648493</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="9"/>
-        <v>48.636870434448291</v>
-      </c>
-      <c r="M35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.4243212888074694E-2</v>
-      </c>
-      <c r="N35" s="1">
-        <f t="shared" si="11"/>
-        <v>0.25300899999999998</v>
+        <v>0.31497844817953868</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3279,37 +3282,37 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E36" s="1">
-        <v>-0.33300000000000002</v>
+        <v>-0.33279476920000001</v>
       </c>
       <c r="F36" s="1">
-        <v>-0.54500000000000004</v>
+        <v>-0.56080100860000004</v>
       </c>
       <c r="G36" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3857433087147435E-3</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="9"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="10"/>
+        <v>8.3778005019400553E-2</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="11"/>
+        <v>60.457087898265534</v>
+      </c>
+      <c r="M36" s="2">
         <f t="shared" si="6"/>
-        <v>2.1271930103737022E-3</v>
-      </c>
-      <c r="H36">
+        <v>2.3214589579882039E-2</v>
+      </c>
+      <c r="N36" s="2">
         <f t="shared" si="7"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J36" s="2">
-        <f t="shared" si="8"/>
-        <v>0.12145895884395408</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="9"/>
-        <v>57.098231449442537</v>
-      </c>
-      <c r="M36" s="1">
-        <f t="shared" si="10"/>
-        <v>2.5547436366230612E-2</v>
-      </c>
-      <c r="N36" s="1">
-        <f t="shared" si="11"/>
-        <v>0.29702500000000004</v>
+        <v>0.3144977712467773</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3323,37 +3326,37 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E37" s="1">
-        <v>-0.35299999999999998</v>
+        <v>-0.35151734909999999</v>
       </c>
       <c r="F37" s="1">
-        <v>-0.59</v>
+        <v>-0.57422760129999995</v>
       </c>
       <c r="G37" s="2">
+        <f t="shared" si="8"/>
+        <v>1.4191353170019336E-3</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="9"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="10"/>
+        <v>8.9954229493362015E-2</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="11"/>
+        <v>63.386647077038006</v>
+      </c>
+      <c r="M37" s="2">
         <f t="shared" si="6"/>
-        <v>1.6279529516083314E-3</v>
-      </c>
-      <c r="H37">
+        <v>2.4520610733098677E-2</v>
+      </c>
+      <c r="N37" s="2">
         <f t="shared" si="7"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" si="8"/>
-        <v>0.10893702853803541</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="9"/>
-        <v>66.916570549788545</v>
-      </c>
-      <c r="M37" s="1">
-        <f t="shared" si="10"/>
-        <v>2.7081816928766982E-2</v>
-      </c>
-      <c r="N37" s="1">
-        <f t="shared" si="11"/>
-        <v>0.34809999999999997</v>
+        <v>0.3297373380947517</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3367,133 +3370,87 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E38" s="1">
-        <v>-0.373</v>
+        <v>-0.37107660930000003</v>
       </c>
       <c r="F38" s="1">
-        <v>-0.58899999999999997</v>
+        <v>-0.57877113739999997</v>
       </c>
       <c r="G38" s="2">
+        <f t="shared" si="8"/>
+        <v>1.596049685813104E-3</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="9"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="10"/>
+        <v>0.10277554529375427</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="11"/>
+        <v>64.393700401247528</v>
+      </c>
+      <c r="M38" s="2">
         <f t="shared" si="6"/>
-        <v>1.9129057649968479E-3</v>
-      </c>
-      <c r="H38">
+        <v>2.5884995753694493E-2</v>
+      </c>
+      <c r="N38" s="2">
         <f t="shared" si="7"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J38" s="2">
-        <f t="shared" si="8"/>
-        <v>0.12757154573211676</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="9"/>
-        <v>66.689926951172623</v>
-      </c>
-      <c r="M38" s="1">
-        <f t="shared" si="10"/>
-        <v>2.8616197491303355E-2</v>
-      </c>
-      <c r="N38" s="1">
-        <f t="shared" si="11"/>
-        <v>0.34692099999999998</v>
+        <v>0.33497602948728966</v>
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39">
-        <v>1.1924999999999999</v>
-      </c>
-      <c r="B39">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E39" s="1">
-        <v>-0.39200000000000002</v>
-      </c>
-      <c r="F39" s="1">
-        <v>-0.57799999999999996</v>
-      </c>
-      <c r="G39" s="2">
-        <f t="shared" si="6"/>
-        <v>2.3708393019653043E-3</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="7"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J39" s="2">
-        <f t="shared" si="8"/>
-        <v>0.152260568503994</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="9"/>
-        <v>64.222222222222229</v>
-      </c>
-      <c r="M39" s="1">
-        <f t="shared" si="10"/>
-        <v>3.0073859025712912E-2</v>
-      </c>
-      <c r="N39" s="1">
-        <f t="shared" si="11"/>
-        <v>0.33408399999999994</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40">
-        <v>1.1924999999999999</v>
-      </c>
-      <c r="B40">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E40" s="1">
-        <v>-0.41099999999999998</v>
-      </c>
-      <c r="F40" s="1">
-        <v>-0.61099999999999999</v>
-      </c>
-      <c r="G40" s="2">
-        <f t="shared" si="6"/>
-        <v>2.0330338731871021E-3</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="7"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J40" s="2">
-        <f t="shared" si="8"/>
-        <v>0.14590046877587123</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="9"/>
-        <v>71.764898116109194</v>
-      </c>
-      <c r="M40" s="1">
-        <f t="shared" si="10"/>
-        <v>3.1531520560122463E-2</v>
-      </c>
-      <c r="N40" s="1">
-        <f t="shared" si="11"/>
-        <v>0.37332099999999996</v>
-      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" s="5" customFormat="1">
+      <c r="A40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41">
-        <v>1.1924999999999999</v>
-      </c>
-      <c r="B41">
-        <v>5.0999999999999997E-2</v>
+      <c r="A41" s="4">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="B41" s="3">
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -3502,80 +3459,122 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E41" s="1">
-        <v>-0.44600000000000001</v>
+        <v>-7.484331407E-4</v>
       </c>
       <c r="F41" s="1">
-        <v>-0.64100000000000001</v>
+        <v>-1.966006885E-2</v>
       </c>
       <c r="G41" s="2">
+        <f t="shared" ref="G41:G78" si="12">(A41*9.8*ABS(E41)*SIN(RADIANS(D41))-0.5*A41*ABS(F41)^2)/(0.5*(ABS(F41)/B41)^2)</f>
+        <v>2.2419130140241394E-3</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ref="H41:H78" si="13">0.5*A41*(POWER(B41,2)+POWER(C41,2))</f>
+        <v>5.8637562500000009E-4</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" ref="J41:J78" si="14">A41*9.8*ABS(E41)*SIN(RADIANS(D41))-A41*ABS(F41)^2/2</f>
+        <v>3.8607281044354328E-4</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ref="K41:K78" si="15">(ABS(F41)/B41)^2/2</f>
+        <v>0.17220686441824024</v>
+      </c>
+      <c r="M41" s="2">
         <f t="shared" si="6"/>
-        <v>1.9609435055351204E-3</v>
-      </c>
-      <c r="H41">
+        <v>5.7419063172406515E-5</v>
+      </c>
+      <c r="N41" s="2">
         <f t="shared" si="7"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J41" s="2">
-        <f t="shared" si="8"/>
-        <v>0.15488551105301349</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="9"/>
-        <v>78.98519800076896</v>
-      </c>
-      <c r="M41" s="1">
-        <f t="shared" si="10"/>
-        <v>3.4216686544561115E-2</v>
-      </c>
-      <c r="N41" s="1">
-        <f t="shared" si="11"/>
-        <v>0.410881</v>
+        <v>3.8651830718674032E-4</v>
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" s="5" customFormat="1">
-      <c r="A43" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>25</v>
+      <c r="A42" s="4">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="B42" s="3">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-1.459792355E-3</v>
+      </c>
+      <c r="F42" s="1">
+        <v>-2.264367565E-2</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="12"/>
+        <v>3.8479259834107533E-3</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="13"/>
+        <v>5.8637562500000009E-4</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="14"/>
+        <v>8.7902444092714978E-4</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="15"/>
+        <v>0.22844109910554816</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1199385074255984E-4</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="7"/>
+        <v>5.1273604694240295E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="4">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="B43" s="3">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-2.258011518E-3</v>
+      </c>
+      <c r="F43" s="1">
+        <v>-2.919703194E-2</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="12"/>
+        <v>3.4982911711286279E-3</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="13"/>
+        <v>5.8637562500000009E-4</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="14"/>
+        <v>1.3286596746287531E-3</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="15"/>
+        <v>0.37980248345082646</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="6"/>
+        <v>1.7323244916012248E-4</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="7"/>
+        <v>8.524666741053801E-4</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3592,34 +3591,34 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E44" s="1">
-        <v>-7.484331407E-4</v>
+        <v>-3.4062611510000001E-3</v>
       </c>
       <c r="F44" s="1">
-        <v>-1.966006885E-2</v>
+        <v>-3.856452095E-2</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" ref="G44:G81" si="12">(A44*9.8*ABS(E44)*SIN(RADIANS(D44))-0.5*A44*ABS(F44)^2)/(0.5*(ABS(F44)/B44)^2)</f>
-        <v>2.2419130140241394E-3</v>
+        <f t="shared" si="12"/>
+        <v>2.8661862054272544E-3</v>
       </c>
       <c r="H44">
-        <f t="shared" ref="H44:H81" si="13">0.5*A44*(POWER(B44,2)+POWER(C44,2))</f>
+        <f t="shared" si="13"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" ref="J44:J81" si="14">A44*9.8*ABS(E44)*SIN(RADIANS(D44))-A44*ABS(F44)^2/2</f>
-        <v>3.8607281044354328E-4</v>
+        <f t="shared" si="14"/>
+        <v>1.8991561471020319E-3</v>
       </c>
       <c r="K44">
-        <f t="shared" ref="K44:K81" si="15">(ABS(F44)/B44)^2/2</f>
-        <v>0.17220686441824024</v>
-      </c>
-      <c r="M44" s="1">
-        <f t="shared" si="4"/>
-        <v>5.7419063172406515E-5</v>
-      </c>
-      <c r="N44" s="1">
-        <f t="shared" si="5"/>
-        <v>3.8651830718674032E-4</v>
+        <f t="shared" si="15"/>
+        <v>0.66260738520961859</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" si="6"/>
+        <v>2.6132504505085868E-4</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" si="7"/>
+        <v>1.4872222761029888E-3</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3636,14 +3635,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E45" s="1">
-        <v>-1.459792355E-3</v>
+        <v>-4.8289795809999996E-3</v>
       </c>
       <c r="F45" s="1">
-        <v>-2.264367565E-2</v>
+        <v>-5.2974132729999998E-2</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" si="12"/>
-        <v>3.8479259834107533E-3</v>
+        <v>1.8617877732670163E-3</v>
       </c>
       <c r="H45">
         <f t="shared" si="13"/>
@@ -3651,19 +3650,19 @@
       </c>
       <c r="J45" s="2">
         <f t="shared" si="14"/>
-        <v>8.7902444092714978E-4</v>
+        <v>2.3277603956136936E-3</v>
       </c>
       <c r="K45">
         <f t="shared" si="15"/>
-        <v>0.22844109910554816</v>
-      </c>
-      <c r="M45" s="1">
-        <f t="shared" si="4"/>
-        <v>1.1199385074255984E-4</v>
-      </c>
-      <c r="N45" s="1">
-        <f t="shared" si="5"/>
-        <v>5.1273604694240295E-4</v>
+        <v>1.250282351746784</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" si="6"/>
+        <v>3.7047462029857187E-4</v>
+      </c>
+      <c r="N45" s="2">
+        <f t="shared" si="7"/>
+        <v>2.8062587384956573E-3</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3680,14 +3679,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E46" s="1">
-        <v>-2.258011518E-3</v>
+        <v>-6.9378699999999996E-3</v>
       </c>
       <c r="F46" s="1">
-        <v>-2.919703194E-2</v>
+        <v>-8.4060206560000003E-2</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" si="12"/>
-        <v>3.4982911711286279E-3</v>
+        <v>5.5870020881278984E-4</v>
       </c>
       <c r="H46">
         <f t="shared" si="13"/>
@@ -3695,19 +3694,19 @@
       </c>
       <c r="J46" s="2">
         <f t="shared" si="14"/>
-        <v>1.3286596746287531E-3</v>
+        <v>1.7588958720162278E-3</v>
       </c>
       <c r="K46">
         <f t="shared" si="15"/>
-        <v>0.37980248345082646</v>
-      </c>
-      <c r="M46" s="1">
-        <f t="shared" si="4"/>
-        <v>1.7323244916012248E-4</v>
-      </c>
-      <c r="N46" s="1">
-        <f t="shared" si="5"/>
-        <v>8.524666741053801E-4</v>
+        <v>3.1481926161327092</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="6"/>
+        <v>5.322666436702113E-4</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" si="7"/>
+        <v>7.0661183269098678E-3</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3724,14 +3723,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E47" s="1">
-        <v>-3.4062611510000001E-3</v>
+        <v>-1.0432993349999999E-2</v>
       </c>
       <c r="F47" s="1">
-        <v>-3.856452095E-2</v>
+        <v>-9.9225435099999995E-2</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" si="12"/>
-        <v>2.8661862054272544E-3</v>
+        <v>6.9589879262986183E-4</v>
       </c>
       <c r="H47">
         <f t="shared" si="13"/>
@@ -3739,19 +3738,19 @@
       </c>
       <c r="J47" s="2">
         <f t="shared" si="14"/>
-        <v>1.8991561471020319E-3</v>
+        <v>3.0526182559948156E-3</v>
       </c>
       <c r="K47">
         <f t="shared" si="15"/>
-        <v>0.66260738520961859</v>
-      </c>
-      <c r="M47" s="1">
-        <f t="shared" ref="M47:M81" si="16">ABS(E47)*SIN(RADIANS(D47))</f>
-        <v>2.6132504505085868E-4</v>
-      </c>
-      <c r="N47" s="1">
-        <f t="shared" ref="N47:N81" si="17">ABS(F47)^2</f>
-        <v>1.4872222761029888E-3</v>
+        <v>4.3865836359030119</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" si="6"/>
+        <v>8.0040911026556185E-4</v>
+      </c>
+      <c r="N47" s="2">
+        <f t="shared" si="7"/>
+        <v>9.8456869707843116E-3</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3768,14 +3767,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E48" s="1">
-        <v>-4.8289795809999996E-3</v>
+        <v>-1.3552899009999999E-2</v>
       </c>
       <c r="F48" s="1">
-        <v>-5.2974132729999998E-2</v>
+        <v>-0.1017053907</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" si="12"/>
-        <v>1.8617877732670163E-3</v>
+        <v>1.1377665874200357E-3</v>
       </c>
       <c r="H48">
         <f t="shared" si="13"/>
@@ -3783,19 +3782,19 @@
       </c>
       <c r="J48" s="2">
         <f t="shared" si="14"/>
-        <v>2.3277603956136936E-3</v>
+        <v>5.243502881492907E-3</v>
       </c>
       <c r="K48">
         <f t="shared" si="15"/>
-        <v>1.250282351746784</v>
-      </c>
-      <c r="M48" s="1">
-        <f t="shared" si="16"/>
-        <v>3.7047462029857187E-4</v>
-      </c>
-      <c r="N48" s="1">
-        <f t="shared" si="17"/>
-        <v>2.8062587384956573E-3</v>
+        <v>4.6085927812161476</v>
+      </c>
+      <c r="M48" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0397652403481225E-3</v>
+      </c>
+      <c r="N48" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0343986497439646E-2</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3812,14 +3811,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E49" s="1">
-        <v>-6.9378699999999996E-3</v>
+        <v>-1.7213352729999999E-2</v>
       </c>
       <c r="F49" s="1">
-        <v>-8.4060206560000003E-2</v>
+        <v>-0.12762718040000001</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="12"/>
-        <v>5.5870020881278984E-4</v>
+        <v>6.9081221390385823E-4</v>
       </c>
       <c r="H49">
         <f t="shared" si="13"/>
@@ -3827,19 +3826,19 @@
       </c>
       <c r="J49" s="2">
         <f t="shared" si="14"/>
-        <v>1.7588958720162278E-3</v>
+        <v>5.0133352454230957E-3</v>
       </c>
       <c r="K49">
         <f t="shared" si="15"/>
-        <v>3.1481926161327092</v>
-      </c>
-      <c r="M49" s="1">
-        <f t="shared" si="16"/>
-        <v>5.322666436702113E-4</v>
-      </c>
-      <c r="N49" s="1">
-        <f t="shared" si="17"/>
-        <v>7.0661183269098678E-3</v>
+        <v>7.257160693630718</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3205916922497205E-3</v>
+      </c>
+      <c r="N49" s="2">
+        <f t="shared" si="7"/>
+        <v>1.6288697176854147E-2</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3856,14 +3855,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E50" s="1">
-        <v>-1.0432993349999999E-2</v>
+        <v>-2.2061377699999999E-2</v>
       </c>
       <c r="F50" s="1">
-        <v>-9.9225435099999995E-2</v>
+        <v>-0.14605513379999999</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" si="12"/>
-        <v>6.9589879262986183E-4</v>
+        <v>6.509934576190492E-4</v>
       </c>
       <c r="H50">
         <f t="shared" si="13"/>
@@ -3871,19 +3870,19 @@
       </c>
       <c r="J50" s="2">
         <f t="shared" si="14"/>
-        <v>3.0526182559948156E-3</v>
+        <v>6.1871503276628142E-3</v>
       </c>
       <c r="K50">
         <f t="shared" si="15"/>
-        <v>4.3865836359030119</v>
-      </c>
-      <c r="M50" s="1">
-        <f t="shared" si="16"/>
-        <v>8.0040911026556185E-4</v>
-      </c>
-      <c r="N50" s="1">
-        <f t="shared" si="17"/>
-        <v>9.8456869707843116E-3</v>
+        <v>9.5041666782516785</v>
+      </c>
+      <c r="M50" s="2">
+        <f t="shared" si="6"/>
+        <v>1.6925274562826695E-3</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" si="7"/>
+        <v>2.13321021093359E-2</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3900,14 +3899,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E51" s="1">
-        <v>-1.3552899009999999E-2</v>
+        <v>-2.6950361650000001E-2</v>
       </c>
       <c r="F51" s="1">
-        <v>-0.1017053907</v>
+        <v>-0.1603447298</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" si="12"/>
-        <v>1.1377665874200357E-3</v>
+        <v>6.7575228564524948E-4</v>
       </c>
       <c r="H51">
         <f t="shared" si="13"/>
@@ -3915,19 +3914,19 @@
       </c>
       <c r="J51" s="2">
         <f t="shared" si="14"/>
-        <v>5.243502881492907E-3</v>
+        <v>7.7406475571785358E-3</v>
       </c>
       <c r="K51">
         <f t="shared" si="15"/>
-        <v>4.6085927812161476</v>
-      </c>
-      <c r="M51" s="1">
-        <f t="shared" si="16"/>
-        <v>1.0397652403481225E-3</v>
-      </c>
-      <c r="N51" s="1">
-        <f t="shared" si="17"/>
-        <v>1.0343986497439646E-2</v>
+        <v>11.454859601084877</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" si="6"/>
+        <v>2.0676055534542847E-3</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" si="7"/>
+        <v>2.5710432374635009E-2</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3944,14 +3943,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E52" s="1">
-        <v>-1.7213352729999999E-2</v>
+        <v>-3.2751026349999997E-2</v>
       </c>
       <c r="F52" s="1">
-        <v>-0.12762718040000001</v>
+        <v>-0.1717090302</v>
       </c>
       <c r="G52" s="2">
         <f t="shared" si="12"/>
-        <v>6.9081221390385823E-4</v>
+        <v>7.8611016694126313E-4</v>
       </c>
       <c r="H52">
         <f t="shared" si="13"/>
@@ -3959,19 +3958,19 @@
       </c>
       <c r="J52" s="2">
         <f t="shared" si="14"/>
-        <v>5.0133352454230957E-3</v>
+        <v>1.0326426878217382E-2</v>
       </c>
       <c r="K52">
         <f t="shared" si="15"/>
-        <v>7.257160693630718</v>
-      </c>
-      <c r="M52" s="1">
-        <f t="shared" si="16"/>
-        <v>1.3205916922497205E-3</v>
-      </c>
-      <c r="N52" s="1">
-        <f t="shared" si="17"/>
-        <v>1.6288697176854147E-2</v>
+        <v>13.136106505780576</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" si="6"/>
+        <v>2.5126269117278282E-3</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" si="7"/>
+        <v>2.9483991052224514E-2</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3988,14 +3987,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E53" s="1">
-        <v>-2.2061377699999999E-2</v>
+        <v>-3.8397630330000002E-2</v>
       </c>
       <c r="F53" s="1">
-        <v>-0.14605513379999999</v>
+        <v>-0.18515036330000001</v>
       </c>
       <c r="G53" s="2">
         <f t="shared" si="12"/>
-        <v>6.509934576190492E-4</v>
+        <v>8.0249094549711777E-4</v>
       </c>
       <c r="H53">
         <f t="shared" si="13"/>
@@ -4003,19 +4002,19 @@
       </c>
       <c r="J53" s="2">
         <f t="shared" si="14"/>
-        <v>6.1871503276628142E-3</v>
+        <v>1.2256590275056812E-2</v>
       </c>
       <c r="K53">
         <f t="shared" si="15"/>
-        <v>9.5041666782516785</v>
-      </c>
-      <c r="M53" s="1">
-        <f t="shared" si="16"/>
-        <v>1.6925274562826695E-3</v>
-      </c>
-      <c r="N53" s="1">
-        <f t="shared" si="17"/>
-        <v>2.13321021093359E-2</v>
+        <v>15.27318201386589</v>
+      </c>
+      <c r="M53" s="2">
+        <f t="shared" si="6"/>
+        <v>2.9458288812904548E-3</v>
+      </c>
+      <c r="N53" s="2">
+        <f t="shared" si="7"/>
+        <v>3.4280657030121987E-2</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -4032,14 +4031,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E54" s="1">
-        <v>-2.6950361650000001E-2</v>
+        <v>-4.50943839E-2</v>
       </c>
       <c r="F54" s="1">
-        <v>-0.1603447298</v>
+        <v>-0.20887385559999999</v>
       </c>
       <c r="G54" s="2">
         <f t="shared" si="12"/>
-        <v>6.7575228564524948E-4</v>
+        <v>6.4996623340322381E-4</v>
       </c>
       <c r="H54">
         <f t="shared" si="13"/>
@@ -4047,19 +4046,19 @@
       </c>
       <c r="J54" s="2">
         <f t="shared" si="14"/>
-        <v>7.7406475571785358E-3</v>
+        <v>1.2633955772239885E-2</v>
       </c>
       <c r="K54">
         <f t="shared" si="15"/>
-        <v>11.454859601084877</v>
-      </c>
-      <c r="M54" s="1">
-        <f t="shared" si="16"/>
-        <v>2.0676055534542847E-3</v>
-      </c>
-      <c r="N54" s="1">
-        <f t="shared" si="17"/>
-        <v>2.5710432374635009E-2</v>
+        <v>19.437864804281418</v>
+      </c>
+      <c r="M54" s="2">
+        <f t="shared" si="6"/>
+        <v>3.4595973067856581E-3</v>
+      </c>
+      <c r="N54" s="2">
+        <f t="shared" si="7"/>
+        <v>4.3628287553209646E-2</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -4076,14 +4075,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E55" s="1">
-        <v>-3.2751026349999997E-2</v>
+        <v>-5.2322554030000003E-2</v>
       </c>
       <c r="F55" s="1">
-        <v>-0.1717090302</v>
+        <v>-0.22443584599999999</v>
       </c>
       <c r="G55" s="2">
         <f t="shared" si="12"/>
-        <v>7.8611016694126313E-4</v>
+        <v>6.5901291981893743E-4</v>
       </c>
       <c r="H55">
         <f t="shared" si="13"/>
@@ -4091,19 +4090,19 @@
       </c>
       <c r="J55" s="2">
         <f t="shared" si="14"/>
-        <v>1.0326426878217382E-2</v>
+        <v>1.4789679510383666E-2</v>
       </c>
       <c r="K55">
         <f t="shared" si="15"/>
-        <v>13.136106505780576</v>
-      </c>
-      <c r="M55" s="1">
-        <f t="shared" si="16"/>
-        <v>2.5126269117278282E-3</v>
-      </c>
-      <c r="N55" s="1">
-        <f t="shared" si="17"/>
-        <v>2.9483991052224514E-2</v>
+        <v>22.442169289256274</v>
+      </c>
+      <c r="M55" s="2">
+        <f t="shared" si="6"/>
+        <v>4.0141354942945587E-3</v>
+      </c>
+      <c r="N55" s="2">
+        <f t="shared" si="7"/>
+        <v>5.0371448969735715E-2</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -4120,14 +4119,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E56" s="1">
-        <v>-3.8397630330000002E-2</v>
+        <v>-6.0056773629999997E-2</v>
       </c>
       <c r="F56" s="1">
-        <v>-0.18515036330000001</v>
+        <v>-0.2525909066</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" si="12"/>
-        <v>8.0249094549711777E-4</v>
+        <v>4.8718589121155985E-4</v>
       </c>
       <c r="H56">
         <f t="shared" si="13"/>
@@ -4135,19 +4134,19 @@
       </c>
       <c r="J56" s="2">
         <f t="shared" si="14"/>
-        <v>1.2256590275056812E-2</v>
+        <v>1.3848748118155375E-2</v>
       </c>
       <c r="K56">
         <f t="shared" si="15"/>
-        <v>15.27318201386589</v>
-      </c>
-      <c r="M56" s="1">
-        <f t="shared" si="16"/>
-        <v>2.9458288812904548E-3</v>
-      </c>
-      <c r="N56" s="1">
-        <f t="shared" si="17"/>
-        <v>3.4280657030121987E-2</v>
+        <v>28.426004053022904</v>
+      </c>
+      <c r="M56" s="2">
+        <f t="shared" si="6"/>
+        <v>4.6074973053259506E-3</v>
+      </c>
+      <c r="N56" s="2">
+        <f t="shared" si="7"/>
+        <v>6.3802166097009921E-2</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -4164,14 +4163,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E57" s="1">
-        <v>-4.50943839E-2</v>
+        <v>-6.9161947809999999E-2</v>
       </c>
       <c r="F57" s="1">
-        <v>-0.20887385559999999</v>
+        <v>-0.25763685949999998</v>
       </c>
       <c r="G57" s="2">
         <f t="shared" si="12"/>
-        <v>6.4996623340322381E-4</v>
+        <v>6.6470196957283149E-4</v>
       </c>
       <c r="H57">
         <f t="shared" si="13"/>
@@ -4179,19 +4178,19 @@
       </c>
       <c r="J57" s="2">
         <f t="shared" si="14"/>
-        <v>1.2633955772239885E-2</v>
+        <v>1.965727661906632E-2</v>
       </c>
       <c r="K57">
         <f t="shared" si="15"/>
-        <v>19.437864804281418</v>
-      </c>
-      <c r="M57" s="1">
-        <f t="shared" si="16"/>
-        <v>3.4595973067856581E-3</v>
-      </c>
-      <c r="N57" s="1">
-        <f t="shared" si="17"/>
-        <v>4.3628287553209646E-2</v>
+        <v>29.573068110056909</v>
+      </c>
+      <c r="M57" s="2">
+        <f t="shared" si="6"/>
+        <v>5.306037419340953E-3</v>
+      </c>
+      <c r="N57" s="2">
+        <f t="shared" si="7"/>
+        <v>6.6376751373022735E-2</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -4208,14 +4207,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E58" s="1">
-        <v>-5.2322554030000003E-2</v>
+        <v>-7.7232564269999998E-2</v>
       </c>
       <c r="F58" s="1">
-        <v>-0.22443584599999999</v>
+        <v>-0.26310694400000001</v>
       </c>
       <c r="G58" s="2">
         <f t="shared" si="12"/>
-        <v>6.5901291981893743E-4</v>
+        <v>7.9468605734989714E-4</v>
       </c>
       <c r="H58">
         <f t="shared" si="13"/>
@@ -4223,19 +4222,19 @@
       </c>
       <c r="J58" s="2">
         <f t="shared" si="14"/>
-        <v>1.4789679510383666E-2</v>
+        <v>2.4509847227481375E-2</v>
       </c>
       <c r="K58">
         <f t="shared" si="15"/>
-        <v>22.442169289256274</v>
-      </c>
-      <c r="M58" s="1">
-        <f t="shared" si="16"/>
-        <v>4.0141354942945587E-3</v>
-      </c>
-      <c r="N58" s="1">
-        <f t="shared" si="17"/>
-        <v>5.0371448969735715E-2</v>
+        <v>30.842175977286317</v>
+      </c>
+      <c r="M58" s="2">
+        <f t="shared" si="6"/>
+        <v>5.9252072705364587E-3</v>
+      </c>
+      <c r="N58" s="2">
+        <f t="shared" si="7"/>
+        <v>6.9225263981019136E-2</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -4252,14 +4251,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E59" s="1">
-        <v>-6.0056773629999997E-2</v>
+        <v>-8.6702410739999999E-2</v>
       </c>
       <c r="F59" s="1">
-        <v>-0.2525909066</v>
+        <v>-0.29314878379999998</v>
       </c>
       <c r="G59" s="2">
         <f t="shared" si="12"/>
-        <v>4.8718589121155985E-4</v>
+        <v>6.0642940584443143E-4</v>
       </c>
       <c r="H59">
         <f t="shared" si="13"/>
@@ -4267,19 +4266,19 @@
       </c>
       <c r="J59" s="2">
         <f t="shared" si="14"/>
-        <v>1.3848748118155375E-2</v>
+        <v>2.3218643097926164E-2</v>
       </c>
       <c r="K59">
         <f t="shared" si="15"/>
-        <v>28.426004053022904</v>
-      </c>
-      <c r="M59" s="1">
-        <f t="shared" si="16"/>
-        <v>4.6074973053259506E-3</v>
-      </c>
-      <c r="N59" s="1">
-        <f t="shared" si="17"/>
-        <v>6.3802166097009921E-2</v>
+        <v>38.287462438591724</v>
+      </c>
+      <c r="M59" s="2">
+        <f t="shared" si="6"/>
+        <v>6.6517246882250433E-3</v>
+      </c>
+      <c r="N59" s="2">
+        <f t="shared" si="7"/>
+        <v>8.5936209443419134E-2</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -4296,14 +4295,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E60" s="1">
-        <v>-6.9161947809999999E-2</v>
+        <v>-9.6775816520000002E-2</v>
       </c>
       <c r="F60" s="1">
-        <v>-0.25763685949999998</v>
+        <v>-0.31290846430000002</v>
       </c>
       <c r="G60" s="2">
         <f t="shared" si="12"/>
-        <v>6.6470196957283149E-4</v>
+        <v>5.7024836190366337E-4</v>
       </c>
       <c r="H60">
         <f t="shared" si="13"/>
@@ -4311,19 +4310,19 @@
       </c>
       <c r="J60" s="2">
         <f t="shared" si="14"/>
-        <v>1.965727661906632E-2</v>
+        <v>2.4875914700548958E-2</v>
       </c>
       <c r="K60">
         <f t="shared" si="15"/>
-        <v>29.573068110056909</v>
-      </c>
-      <c r="M60" s="1">
-        <f t="shared" si="16"/>
-        <v>5.306037419340953E-3</v>
-      </c>
-      <c r="N60" s="1">
-        <f t="shared" si="17"/>
-        <v>6.6376751373022735E-2</v>
+        <v>43.622948108970533</v>
+      </c>
+      <c r="M60" s="2">
+        <f t="shared" si="6"/>
+        <v>7.4245465895937208E-3</v>
+      </c>
+      <c r="N60" s="2">
+        <f t="shared" si="7"/>
+        <v>9.7911707030584383E-2</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -4340,14 +4339,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E61" s="1">
-        <v>-7.7232564269999998E-2</v>
+        <v>-0.10756297500000001</v>
       </c>
       <c r="F61" s="1">
-        <v>-0.26310694400000001</v>
+        <v>-0.32950897109999999</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" si="12"/>
-        <v>7.9468605734989714E-4</v>
+        <v>5.7425069254260334E-4</v>
       </c>
       <c r="H61">
         <f t="shared" si="13"/>
@@ -4355,19 +4354,19 @@
       </c>
       <c r="J61" s="2">
         <f t="shared" si="14"/>
-        <v>2.4509847227481375E-2</v>
+        <v>2.7778986964773995E-2</v>
       </c>
       <c r="K61">
         <f t="shared" si="15"/>
-        <v>30.842175977286317</v>
-      </c>
-      <c r="M61" s="1">
-        <f t="shared" si="16"/>
-        <v>5.9252072705364587E-3</v>
-      </c>
-      <c r="N61" s="1">
-        <f t="shared" si="17"/>
-        <v>6.9225263981019136E-2</v>
+        <v>48.374320354368727</v>
+      </c>
+      <c r="M61" s="2">
+        <f t="shared" si="6"/>
+        <v>8.2521269044292921E-3</v>
+      </c>
+      <c r="N61" s="2">
+        <f t="shared" si="7"/>
+        <v>0.10857616203538063</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4384,14 +4383,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E62" s="1">
-        <v>-8.6702410739999999E-2</v>
+        <v>-0.1187430813</v>
       </c>
       <c r="F62" s="1">
-        <v>-0.29314878379999998</v>
+        <v>-0.34063939329999998</v>
       </c>
       <c r="G62" s="2">
         <f t="shared" si="12"/>
-        <v>6.0642940584443143E-4</v>
+        <v>6.3185992189318985E-4</v>
       </c>
       <c r="H62">
         <f t="shared" si="13"/>
@@ -4399,19 +4398,19 @@
       </c>
       <c r="J62" s="2">
         <f t="shared" si="14"/>
-        <v>2.3218643097926164E-2</v>
+        <v>3.2665622655659636E-2</v>
       </c>
       <c r="K62">
         <f t="shared" si="15"/>
-        <v>38.287462438591724</v>
-      </c>
-      <c r="M62" s="1">
-        <f t="shared" si="16"/>
-        <v>6.6517246882250433E-3</v>
-      </c>
-      <c r="N62" s="1">
-        <f t="shared" si="17"/>
-        <v>8.5936209443419134E-2</v>
+        <v>51.697570179457372</v>
+      </c>
+      <c r="M62" s="2">
+        <f t="shared" si="6"/>
+        <v>9.1098537941198127E-3</v>
+      </c>
+      <c r="N62" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11603519626779207</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -4428,14 +4427,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E63" s="1">
-        <v>-9.6775816520000002E-2</v>
+        <v>-0.13027226789999999</v>
       </c>
       <c r="F63" s="1">
-        <v>-0.31290846430000002</v>
+        <v>-0.36544502680000002</v>
       </c>
       <c r="G63" s="2">
         <f t="shared" si="12"/>
-        <v>5.7024836190366337E-4</v>
+        <v>5.4742493205510142E-4</v>
       </c>
       <c r="H63">
         <f t="shared" si="13"/>
@@ -4443,19 +4442,19 @@
       </c>
       <c r="J63" s="2">
         <f t="shared" si="14"/>
-        <v>2.4875914700548958E-2</v>
+        <v>3.2572348714154639E-2</v>
       </c>
       <c r="K63">
         <f t="shared" si="15"/>
-        <v>43.622948108970533</v>
-      </c>
-      <c r="M63" s="1">
-        <f t="shared" si="16"/>
-        <v>7.4245465895937208E-3</v>
-      </c>
-      <c r="N63" s="1">
-        <f t="shared" si="17"/>
-        <v>9.7911707030584383E-2</v>
+        <v>59.501032574227089</v>
+      </c>
+      <c r="M63" s="2">
+        <f t="shared" si="6"/>
+        <v>9.9943617851645534E-3</v>
+      </c>
+      <c r="N63" s="2">
+        <f t="shared" si="7"/>
+        <v>0.13355006761285274</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -4472,14 +4471,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E64" s="1">
-        <v>-0.10756297500000001</v>
+        <v>-0.143106083</v>
       </c>
       <c r="F64" s="1">
-        <v>-0.32950897109999999</v>
+        <v>-0.37638519580000002</v>
       </c>
       <c r="G64" s="2">
         <f t="shared" si="12"/>
-        <v>5.7425069254260334E-4</v>
+        <v>6.0863500405517433E-4</v>
       </c>
       <c r="H64">
         <f t="shared" si="13"/>
@@ -4487,19 +4486,19 @@
       </c>
       <c r="J64" s="2">
         <f t="shared" si="14"/>
-        <v>2.7778986964773995E-2</v>
+        <v>3.8415136673102465E-2</v>
       </c>
       <c r="K64">
         <f t="shared" si="15"/>
-        <v>48.374320354368727</v>
-      </c>
-      <c r="M64" s="1">
-        <f t="shared" si="16"/>
-        <v>8.2521269044292921E-3</v>
-      </c>
-      <c r="N64" s="1">
-        <f t="shared" si="17"/>
-        <v>0.10857616203538063</v>
+        <v>63.116870402051397</v>
+      </c>
+      <c r="M64" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0978959606795843E-2</v>
+      </c>
+      <c r="N64" s="2">
+        <f t="shared" si="7"/>
+        <v>0.14166581561740435</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4516,14 +4515,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E65" s="1">
-        <v>-0.1187430813</v>
+        <v>-0.15536461430000001</v>
       </c>
       <c r="F65" s="1">
-        <v>-0.34063939329999998</v>
+        <v>-0.39529661329999999</v>
       </c>
       <c r="G65" s="2">
         <f t="shared" si="12"/>
-        <v>6.3185992189318985E-4</v>
+        <v>5.8060833803404892E-4</v>
       </c>
       <c r="H65">
         <f t="shared" si="13"/>
@@ -4531,19 +4530,19 @@
       </c>
       <c r="J65" s="2">
         <f t="shared" si="14"/>
-        <v>3.2665622655659636E-2</v>
+        <v>4.0421259873439294E-2</v>
       </c>
       <c r="K65">
         <f t="shared" si="15"/>
-        <v>51.697570179457372</v>
-      </c>
-      <c r="M65" s="1">
-        <f t="shared" si="16"/>
-        <v>9.1098537941198127E-3</v>
-      </c>
-      <c r="N65" s="1">
-        <f t="shared" si="17"/>
-        <v>0.11603519626779207</v>
+        <v>69.618807077945974</v>
+      </c>
+      <c r="M65" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1919422214394031E-2</v>
+      </c>
+      <c r="N65" s="2">
+        <f t="shared" si="7"/>
+        <v>0.15625941248644973</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -4560,14 +4559,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E66" s="1">
-        <v>-0.13027226789999999</v>
+        <v>-0.1694591906</v>
       </c>
       <c r="F66" s="1">
-        <v>-0.36544502680000002</v>
+        <v>-0.41736720449999998</v>
       </c>
       <c r="G66" s="2">
         <f t="shared" si="12"/>
-        <v>5.4742493205510142E-4</v>
+        <v>5.4275993997845572E-4</v>
       </c>
       <c r="H66">
         <f t="shared" si="13"/>
@@ -4575,19 +4574,19 @@
       </c>
       <c r="J66" s="2">
         <f t="shared" si="14"/>
-        <v>3.2572348714154639E-2</v>
+        <v>4.2123535680304997E-2</v>
       </c>
       <c r="K66">
         <f t="shared" si="15"/>
-        <v>59.501032574227089</v>
-      </c>
-      <c r="M66" s="1">
-        <f t="shared" si="16"/>
-        <v>9.9943617851645534E-3</v>
-      </c>
-      <c r="N66" s="1">
-        <f t="shared" si="17"/>
-        <v>0.13355006761285274</v>
+        <v>77.609883444929721</v>
+      </c>
+      <c r="M66" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3000744409989322E-2</v>
+      </c>
+      <c r="N66" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1741953833921448</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -4604,14 +4603,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E67" s="1">
-        <v>-0.143106083</v>
+        <v>-0.18318909459999999</v>
       </c>
       <c r="F67" s="1">
-        <v>-0.37638519580000002</v>
+        <v>-0.42472406829999998</v>
       </c>
       <c r="G67" s="2">
         <f t="shared" si="12"/>
-        <v>6.0863500405517433E-4</v>
+        <v>6.1806464306775875E-4</v>
       </c>
       <c r="H67">
         <f t="shared" si="13"/>
@@ -4619,19 +4618,19 @@
       </c>
       <c r="J67" s="2">
         <f t="shared" si="14"/>
-        <v>3.8415136673102465E-2</v>
+        <v>4.9673874417013222E-2</v>
       </c>
       <c r="K67">
         <f t="shared" si="15"/>
-        <v>63.116870402051397</v>
-      </c>
-      <c r="M67" s="1">
-        <f t="shared" si="16"/>
-        <v>1.0978959606795843E-2</v>
-      </c>
-      <c r="N67" s="1">
-        <f t="shared" si="17"/>
-        <v>0.14166581561740435</v>
+        <v>80.370030827936304</v>
+      </c>
+      <c r="M67" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4054089301143841E-2</v>
+      </c>
+      <c r="N67" s="2">
+        <f t="shared" si="7"/>
+        <v>0.18039053419330306</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4648,14 +4647,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E68" s="1">
-        <v>-0.15536461430000001</v>
+        <v>-0.19777412850000001</v>
       </c>
       <c r="F68" s="1">
-        <v>-0.39529661329999999</v>
+        <v>-0.436278622</v>
       </c>
       <c r="G68" s="2">
         <f t="shared" si="12"/>
-        <v>5.8060833803404892E-4</v>
+        <v>6.5959136619851645E-4</v>
       </c>
       <c r="H68">
         <f t="shared" si="13"/>
@@ -4663,19 +4662,19 @@
       </c>
       <c r="J68" s="2">
         <f t="shared" si="14"/>
-        <v>4.0421259873439294E-2</v>
+        <v>5.5934945335498878E-2</v>
       </c>
       <c r="K68">
         <f t="shared" si="15"/>
-        <v>69.618807077945974</v>
-      </c>
-      <c r="M68" s="1">
-        <f t="shared" si="16"/>
-        <v>1.1919422214394031E-2</v>
-      </c>
-      <c r="N68" s="1">
-        <f t="shared" si="17"/>
-        <v>0.15625941248644973</v>
+        <v>84.802421926584472</v>
+      </c>
+      <c r="M68" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5173038927148545E-2</v>
+      </c>
+      <c r="N68" s="2">
+        <f t="shared" si="7"/>
+        <v>0.19033903601421889</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -4692,14 +4691,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E69" s="1">
-        <v>-0.1694591906</v>
+        <v>-0.21227433609999999</v>
       </c>
       <c r="F69" s="1">
-        <v>-0.41736720449999998</v>
+        <v>-0.44971995510000001</v>
       </c>
       <c r="G69" s="2">
         <f t="shared" si="12"/>
-        <v>5.4275993997845572E-4</v>
+        <v>6.7812866414892743E-4</v>
       </c>
       <c r="H69">
         <f t="shared" si="13"/>
@@ -4707,19 +4706,19 @@
       </c>
       <c r="J69" s="2">
         <f t="shared" si="14"/>
-        <v>4.2123535680304997E-2</v>
+        <v>6.1105008619270415E-2</v>
       </c>
       <c r="K69">
         <f t="shared" si="15"/>
-        <v>77.609883444929721</v>
-      </c>
-      <c r="M69" s="1">
-        <f t="shared" si="16"/>
-        <v>1.3000744409989322E-2</v>
-      </c>
-      <c r="N69" s="1">
-        <f t="shared" si="17"/>
-        <v>0.1741953833921448</v>
+        <v>90.10828158393673</v>
+      </c>
+      <c r="M69" s="2">
+        <f t="shared" si="6"/>
+        <v>1.6285480761857655E-2</v>
+      </c>
+      <c r="N69" s="2">
+        <f t="shared" si="7"/>
+        <v>0.20224803801514601</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4736,14 +4735,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E70" s="1">
-        <v>-0.18318909459999999</v>
+        <v>-0.2277554588</v>
       </c>
       <c r="F70" s="1">
-        <v>-0.42472406829999998</v>
+        <v>-0.47009402030000003</v>
       </c>
       <c r="G70" s="2">
         <f t="shared" si="12"/>
-        <v>6.1806464306775875E-4</v>
+        <v>6.4470685904922313E-4</v>
       </c>
       <c r="H70">
         <f t="shared" si="13"/>
@@ -4751,22 +4750,22 @@
       </c>
       <c r="J70" s="2">
         <f t="shared" si="14"/>
-        <v>4.9673874417013222E-2</v>
+        <v>6.3476377573368589E-2</v>
       </c>
       <c r="K70">
         <f t="shared" si="15"/>
-        <v>80.370030827936304</v>
-      </c>
-      <c r="M70" s="1">
-        <f t="shared" si="16"/>
-        <v>1.4054089301143841E-2</v>
-      </c>
-      <c r="N70" s="1">
-        <f t="shared" si="17"/>
-        <v>0.18039053419330306</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>98.457735763785621</v>
+      </c>
+      <c r="M70" s="2">
+        <f t="shared" si="6"/>
+        <v>1.7473177449713686E-2</v>
+      </c>
+      <c r="N70" s="2">
+        <f t="shared" si="7"/>
+        <v>0.22098838792181683</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="5" customFormat="1">
       <c r="A71" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -4780,34 +4779,36 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E71" s="1">
-        <v>-0.19777412850000001</v>
+        <v>-0.24361393740000001</v>
       </c>
       <c r="F71" s="1">
-        <v>-0.436278622</v>
+        <v>-0.47976179479999997</v>
       </c>
       <c r="G71" s="2">
         <f t="shared" si="12"/>
-        <v>6.5959136619851645E-4</v>
+        <v>6.936966797908878E-4</v>
       </c>
       <c r="H71">
         <f t="shared" si="13"/>
         <v>5.8637562500000009E-4</v>
       </c>
+      <c r="I71"/>
       <c r="J71" s="2">
         <f t="shared" si="14"/>
-        <v>5.5934945335498878E-2</v>
+        <v>7.1137946943758731E-2</v>
       </c>
       <c r="K71">
         <f t="shared" si="15"/>
-        <v>84.802421926584472</v>
-      </c>
-      <c r="M71" s="1">
-        <f t="shared" si="16"/>
-        <v>1.5173038927148545E-2</v>
-      </c>
-      <c r="N71" s="1">
-        <f t="shared" si="17"/>
-        <v>0.19033903601421889</v>
+        <v>102.54906649575285</v>
+      </c>
+      <c r="L71"/>
+      <c r="M71" s="2">
+        <f t="shared" si="6"/>
+        <v>1.8689824515475639E-2</v>
+      </c>
+      <c r="N71" s="2">
+        <f t="shared" si="7"/>
+        <v>0.23017137974971727</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4824,14 +4825,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E72" s="1">
-        <v>-0.21227433609999999</v>
+        <v>-0.25973957850000001</v>
       </c>
       <c r="F72" s="1">
-        <v>-0.44971995510000001</v>
+        <v>-0.50225651760000001</v>
       </c>
       <c r="G72" s="2">
         <f t="shared" si="12"/>
-        <v>6.7812866414892743E-4</v>
+        <v>6.4298196274831449E-4</v>
       </c>
       <c r="H72">
         <f t="shared" si="13"/>
@@ -4839,19 +4840,19 @@
       </c>
       <c r="J72" s="2">
         <f t="shared" si="14"/>
-        <v>6.1105008619270415E-2</v>
+        <v>7.2265388631832933E-2</v>
       </c>
       <c r="K72">
         <f t="shared" si="15"/>
-        <v>90.10828158393673</v>
-      </c>
-      <c r="M72" s="1">
-        <f t="shared" si="16"/>
-        <v>1.6285480761857655E-2</v>
-      </c>
-      <c r="N72" s="1">
-        <f t="shared" si="17"/>
-        <v>0.20224803801514601</v>
+        <v>112.39100444271735</v>
+      </c>
+      <c r="M72" s="2">
+        <f t="shared" si="6"/>
+        <v>1.9926968028589519E-2</v>
+      </c>
+      <c r="N72" s="2">
+        <f t="shared" si="7"/>
+        <v>0.25226160947167914</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4868,14 +4869,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E73" s="1">
-        <v>-0.2277554588</v>
+        <v>-0.2770977053</v>
       </c>
       <c r="F73" s="1">
-        <v>-0.47009402030000003</v>
+        <v>-0.51169041390000003</v>
       </c>
       <c r="G73" s="2">
         <f t="shared" si="12"/>
-        <v>6.4470685904922313E-4</v>
+        <v>6.9355725833404808E-4</v>
       </c>
       <c r="H73">
         <f t="shared" si="13"/>
@@ -4883,22 +4884,22 @@
       </c>
       <c r="J73" s="2">
         <f t="shared" si="14"/>
-        <v>6.3476377573368589E-2</v>
+        <v>8.0905355998439205E-2</v>
       </c>
       <c r="K73">
         <f t="shared" si="15"/>
-        <v>98.457735763785621</v>
-      </c>
-      <c r="M73" s="1">
-        <f t="shared" si="16"/>
-        <v>1.7473177449713686E-2</v>
-      </c>
-      <c r="N73" s="1">
-        <f t="shared" si="17"/>
-        <v>0.22098838792181683</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" s="5" customFormat="1">
+        <v>116.65274211501594</v>
+      </c>
+      <c r="M73" s="2">
+        <f t="shared" si="6"/>
+        <v>2.1258666646787605E-2</v>
+      </c>
+      <c r="N73" s="2">
+        <f t="shared" si="7"/>
+        <v>0.26182707967715335</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -4912,36 +4913,34 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E74" s="1">
-        <v>-0.24361393740000001</v>
+        <v>-0.29385227269999997</v>
       </c>
       <c r="F74" s="1">
-        <v>-0.47976179479999997</v>
+        <v>-0.53395125840000002</v>
       </c>
       <c r="G74" s="2">
         <f t="shared" si="12"/>
-        <v>6.936966797908878E-4</v>
+        <v>6.4481769467253825E-4</v>
       </c>
       <c r="H74">
         <f t="shared" si="13"/>
         <v>5.8637562500000009E-4</v>
       </c>
-      <c r="I74"/>
       <c r="J74" s="2">
         <f t="shared" si="14"/>
-        <v>7.1137946943758731E-2</v>
+        <v>8.1906914424361404E-2</v>
       </c>
       <c r="K74">
         <f t="shared" si="15"/>
-        <v>102.54906649575285</v>
-      </c>
-      <c r="L74"/>
-      <c r="M74" s="1">
-        <f t="shared" si="16"/>
-        <v>1.8689824515475639E-2</v>
-      </c>
-      <c r="N74" s="1">
-        <f t="shared" si="17"/>
-        <v>0.23017137974971727</v>
+        <v>127.02336660590045</v>
+      </c>
+      <c r="M74" s="2">
+        <f t="shared" si="6"/>
+        <v>2.2544060774400881E-2</v>
+      </c>
+      <c r="N74" s="2">
+        <f t="shared" si="7"/>
+        <v>0.28510394634694358</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4958,14 +4957,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E75" s="1">
-        <v>-0.25973957850000001</v>
+        <v>-0.31269445579999999</v>
       </c>
       <c r="F75" s="1">
-        <v>-0.50225651760000001</v>
+        <v>-0.57997922020000003</v>
       </c>
       <c r="G75" s="2">
         <f t="shared" si="12"/>
-        <v>6.4298196274831449E-4</v>
+        <v>4.66556085036086E-4</v>
       </c>
       <c r="H75">
         <f t="shared" si="13"/>
@@ -4973,19 +4972,19 @@
       </c>
       <c r="J75" s="2">
         <f t="shared" si="14"/>
-        <v>7.2265388631832933E-2</v>
+        <v>6.992123906202749E-2</v>
       </c>
       <c r="K75">
         <f t="shared" si="15"/>
-        <v>112.39100444271735</v>
-      </c>
-      <c r="M75" s="1">
-        <f t="shared" si="16"/>
-        <v>1.9926968028589519E-2</v>
-      </c>
-      <c r="N75" s="1">
-        <f t="shared" si="17"/>
-        <v>0.25226160947167914</v>
+        <v>149.86673907943864</v>
+      </c>
+      <c r="M75" s="2">
+        <f t="shared" si="6"/>
+        <v>2.3989614749620448E-2</v>
+      </c>
+      <c r="N75" s="2">
+        <f t="shared" si="7"/>
+        <v>0.33637589586380012</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -5002,14 +5001,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.2770977053</v>
+        <v>-0.3325175541</v>
       </c>
       <c r="F76" s="1">
-        <v>-0.51169041390000003</v>
+        <v>-0.57917458209999995</v>
       </c>
       <c r="G76" s="2">
         <f t="shared" si="12"/>
-        <v>6.9355725833404808E-4</v>
+        <v>5.7532614889376258E-4</v>
       </c>
       <c r="H76">
         <f t="shared" si="13"/>
@@ -5017,19 +5016,19 @@
       </c>
       <c r="J76" s="2">
         <f t="shared" si="14"/>
-        <v>8.0905355998439205E-2</v>
+        <v>8.5983177742986472E-2</v>
       </c>
       <c r="K76">
         <f t="shared" si="15"/>
-        <v>116.65274211501594</v>
-      </c>
-      <c r="M76" s="1">
-        <f t="shared" si="16"/>
-        <v>2.1258666646787605E-2</v>
-      </c>
-      <c r="N76" s="1">
-        <f t="shared" si="17"/>
-        <v>0.26182707967715335</v>
+        <v>149.45119026540854</v>
+      </c>
+      <c r="M76" s="2">
+        <f t="shared" si="6"/>
+        <v>2.5510423585658842E-2</v>
+      </c>
+      <c r="N76" s="2">
+        <f t="shared" si="7"/>
+        <v>0.33544319655070959</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -5046,14 +5045,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.29385227269999997</v>
+        <v>-0.35130609460000001</v>
       </c>
       <c r="F77" s="1">
-        <v>-0.53395125840000002</v>
+        <v>-0.60987443149999998</v>
       </c>
       <c r="G77" s="2">
         <f t="shared" si="12"/>
-        <v>6.4481769467253825E-4</v>
+        <v>4.9284563537525653E-4</v>
       </c>
       <c r="H77">
         <f t="shared" si="13"/>
@@ -5061,19 +5060,19 @@
       </c>
       <c r="J77" s="2">
         <f t="shared" si="14"/>
-        <v>8.1906914424361404E-2</v>
+        <v>8.1671805708045858E-2</v>
       </c>
       <c r="K77">
         <f t="shared" si="15"/>
-        <v>127.02336660590045</v>
-      </c>
-      <c r="M77" s="1">
-        <f t="shared" si="16"/>
-        <v>2.2544060774400881E-2</v>
-      </c>
-      <c r="N77" s="1">
-        <f t="shared" si="17"/>
-        <v>0.28510394634694358</v>
+        <v>165.71477932610745</v>
+      </c>
+      <c r="M77" s="2">
+        <f t="shared" ref="M77:M122" si="16">ABS(E77)*SIN(RADIANS(D77))</f>
+        <v>2.6951862152740213E-2</v>
+      </c>
+      <c r="N77" s="2">
+        <f t="shared" ref="N77:N122" si="17">ABS(F77)^2</f>
+        <v>0.37194682219744818</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -5090,14 +5089,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E78" s="1">
-        <v>-0.31269445579999999</v>
+        <v>-0.37317584949999999</v>
       </c>
       <c r="F78" s="1">
-        <v>-0.57997922020000003</v>
+        <v>-0.63024849679999995</v>
       </c>
       <c r="G78" s="2">
         <f t="shared" si="12"/>
-        <v>4.66556085036086E-4</v>
+        <v>4.8399105278445711E-4</v>
       </c>
       <c r="H78">
         <f t="shared" si="13"/>
@@ -5105,115 +5104,67 @@
       </c>
       <c r="J78" s="2">
         <f t="shared" si="14"/>
-        <v>6.992123906202749E-2</v>
+        <v>8.5652759734463429E-2</v>
       </c>
       <c r="K78">
         <f t="shared" si="15"/>
-        <v>149.86673907943864</v>
-      </c>
-      <c r="M78" s="1">
+        <v>176.97178334535957</v>
+      </c>
+      <c r="M78" s="2">
         <f t="shared" si="16"/>
-        <v>2.3989614749620448E-2</v>
-      </c>
-      <c r="N78" s="1">
+        <v>2.8629688494039941E-2</v>
+      </c>
+      <c r="N78" s="2">
         <f t="shared" si="17"/>
-        <v>0.33637589586380012</v>
+        <v>0.39721316771865955</v>
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="4">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="B79" s="3">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E79" s="1">
-        <v>-0.3325175541</v>
-      </c>
-      <c r="F79" s="1">
-        <v>-0.57917458209999995</v>
-      </c>
-      <c r="G79" s="2">
-        <f t="shared" si="12"/>
-        <v>5.7532614889376258E-4</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="13"/>
-        <v>5.8637562500000009E-4</v>
-      </c>
-      <c r="J79" s="2">
-        <f t="shared" si="14"/>
-        <v>8.5983177742986472E-2</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="15"/>
-        <v>149.45119026540854</v>
-      </c>
-      <c r="M79" s="1">
-        <f t="shared" si="16"/>
-        <v>2.5510423585658842E-2</v>
-      </c>
-      <c r="N79" s="1">
-        <f t="shared" si="17"/>
-        <v>0.33544319655070959</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="4">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="B80" s="3">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E80" s="1">
-        <v>-0.35130609460000001</v>
-      </c>
-      <c r="F80" s="1">
-        <v>-0.60987443149999998</v>
-      </c>
-      <c r="G80" s="2">
-        <f t="shared" si="12"/>
-        <v>4.9284563537525653E-4</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="13"/>
-        <v>5.8637562500000009E-4</v>
-      </c>
-      <c r="J80" s="2">
-        <f t="shared" si="14"/>
-        <v>8.1671805708045858E-2</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="15"/>
-        <v>165.71477932610745</v>
-      </c>
-      <c r="M80" s="1">
-        <f t="shared" si="16"/>
-        <v>2.6951862152740213E-2</v>
-      </c>
-      <c r="N80" s="1">
-        <f t="shared" si="17"/>
-        <v>0.37194682219744818</v>
-      </c>
+      <c r="G79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+    </row>
+    <row r="80" spans="1:14" s="5" customFormat="1">
+      <c r="A80" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="4">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="B81" s="3">
-        <v>3.3500000000000002E-2</v>
+      <c r="A81">
+        <v>2.4095</v>
+      </c>
+      <c r="B81">
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -5221,79 +5172,123 @@
       <c r="D81">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E81" s="1">
-        <v>-0.37317584949999999</v>
-      </c>
-      <c r="F81" s="1">
-        <v>-0.63024849679999995</v>
+      <c r="E81" s="6">
+        <v>-4.84E-4</v>
+      </c>
+      <c r="F81" s="6">
+        <v>-4.1099999999999998E-2</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="12"/>
-        <v>4.8399105278445711E-4</v>
+        <f t="shared" ref="G81:G115" si="18">(A81*9.8*ABS(E81)*SIN(RADIANS(D81))-0.5*A81*ABS(F81)^2)/(0.5*(ABS(F81)/B81)^2)</f>
+        <v>-3.5669577983398807E-3</v>
       </c>
       <c r="H81">
-        <f t="shared" si="13"/>
-        <v>5.8637562500000009E-4</v>
+        <f t="shared" ref="H81" si="19">0.5*A81*(POWER(B81,2)+POWER(C81,2))</f>
+        <v>3.1335547499999994E-3</v>
       </c>
       <c r="J81" s="2">
-        <f t="shared" si="14"/>
-        <v>8.5652759734463429E-2</v>
+        <f t="shared" ref="J81:J115" si="20">A81*9.8*ABS(E81)*SIN(RADIANS(D81))-A81*ABS(F81)^2/2</f>
+        <v>-1.1582738912982911E-3</v>
       </c>
       <c r="K81">
-        <f t="shared" si="15"/>
-        <v>176.97178334535957</v>
-      </c>
-      <c r="M81" s="1">
+        <f t="shared" ref="K81:K115" si="21">(ABS(F81)/B81)^2/2</f>
+        <v>0.32472318339100348</v>
+      </c>
+      <c r="M81" s="2">
         <f t="shared" si="16"/>
-        <v>2.8629688494039941E-2</v>
-      </c>
-      <c r="N81" s="1">
+        <v>3.7132009613380224E-5</v>
+      </c>
+      <c r="N81" s="2">
         <f t="shared" si="17"/>
-        <v>0.39721316771865955</v>
+        <v>1.6892099999999998E-3</v>
       </c>
     </row>
     <row r="82" spans="1:14">
-      <c r="G82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="1:14" s="5" customFormat="1">
-      <c r="A83" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K83" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M83" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N83" s="5" t="s">
-        <v>25</v>
+      <c r="A82">
+        <v>2.4095</v>
+      </c>
+      <c r="B82">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E82" s="6">
+        <v>-1.32E-3</v>
+      </c>
+      <c r="F82" s="6">
+        <v>-4.2200000000000001E-2</v>
+      </c>
+      <c r="G82" s="2">
+        <f t="shared" si="18"/>
+        <v>7.1803630855809977E-4</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ref="H82:H112" si="22">0.5*A82*(POWER(B82,2)+POWER(C82,2))</f>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J82" s="2">
+        <f t="shared" si="20"/>
+        <v>2.4581079964102392E-4</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="21"/>
+        <v>0.3423375624759708</v>
+      </c>
+      <c r="M82" s="2">
+        <f t="shared" si="16"/>
+        <v>1.0126911712740062E-4</v>
+      </c>
+      <c r="N82" s="2">
+        <f t="shared" si="17"/>
+        <v>1.7808400000000001E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83">
+        <v>2.4095</v>
+      </c>
+      <c r="B83">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E83" s="6">
+        <v>-3.3E-3</v>
+      </c>
+      <c r="F83" s="6">
+        <v>-5.8299999999999998E-2</v>
+      </c>
+      <c r="G83" s="2">
+        <f t="shared" si="18"/>
+        <v>2.8825151287115835E-3</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="22"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J83" s="2">
+        <f t="shared" si="20"/>
+        <v>1.8833817466025592E-3</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="21"/>
+        <v>0.65338139177239518</v>
+      </c>
+      <c r="M83" s="2">
+        <f t="shared" si="16"/>
+        <v>2.5317279281850152E-4</v>
+      </c>
+      <c r="N83" s="2">
+        <f t="shared" si="17"/>
+        <v>3.3988899999999999E-3</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -5307,37 +5302,37 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>5</v>
-      </c>
-      <c r="E84" s="1">
-        <v>-1.897815643E-3</v>
-      </c>
-      <c r="F84" s="1">
-        <v>-5.4355324310000001E-2</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E84" s="6">
+        <v>-5.2100000000000002E-3</v>
+      </c>
+      <c r="F84" s="6">
+        <v>-8.5900000000000004E-2</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" ref="G84" si="18">(A84*9.8*ABS(E84)*SIN(RADIANS(D84))-0.5*A84*ABS(F84)^2)/(0.5*(ABS(F84)/B84)^2)</f>
-        <v>6.0973496572803889E-4</v>
+        <f t="shared" si="18"/>
+        <v>3.8681459619497563E-4</v>
       </c>
       <c r="H84">
-        <f t="shared" ref="H84" si="19">0.5*A84*(POWER(B84,2)+POWER(C84,2))</f>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J84" s="2">
-        <f t="shared" ref="J84" si="20">A84*9.8*ABS(E84)*SIN(RADIANS(D84))-A84*ABS(F84)^2/2</f>
-        <v>3.4630194871580972E-4</v>
+        <f t="shared" si="20"/>
+        <v>5.4867962524979795E-4</v>
       </c>
       <c r="K84">
-        <f t="shared" ref="K84" si="21">(ABS(F84)/B84)^2/2</f>
-        <v>0.56795487905522435</v>
-      </c>
-      <c r="M84" s="1">
-        <f t="shared" ref="M84" si="22">ABS(E84)*SIN(RADIANS(D84))</f>
-        <v>1.6540553196378946E-4</v>
-      </c>
-      <c r="N84" s="1">
-        <f t="shared" ref="N84" si="23">ABS(F84)^2</f>
-        <v>2.9545012808452772E-3</v>
+        <f t="shared" si="21"/>
+        <v>1.4184563629373321</v>
+      </c>
+      <c r="M84" s="2">
+        <f t="shared" si="16"/>
+        <v>3.9970613654072518E-4</v>
+      </c>
+      <c r="N84" s="2">
+        <f t="shared" si="17"/>
+        <v>7.3788100000000004E-3</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -5351,37 +5346,37 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>5</v>
-      </c>
-      <c r="E85" s="1">
-        <v>-3.8667236760000002E-3</v>
-      </c>
-      <c r="F85" s="1">
-        <v>-7.2193294520000006E-2</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E85" s="6">
+        <v>-9.0200000000000002E-3</v>
+      </c>
+      <c r="F85" s="6">
+        <v>-0.111</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" ref="G85:G115" si="24">(A85*9.8*ABS(E85)*SIN(RADIANS(D85))-0.5*A85*ABS(F85)^2)/(0.5*(ABS(F85)/B85)^2)</f>
-        <v>1.6756018109744749E-3</v>
+        <f t="shared" si="18"/>
+        <v>6.3190450765923851E-4</v>
       </c>
       <c r="H85">
-        <f t="shared" ref="H85:H115" si="25">0.5*A85*(POWER(B85,2)+POWER(C85,2))</f>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J85" s="2">
-        <f t="shared" ref="J85:J115" si="26">A85*9.8*ABS(E85)*SIN(RADIANS(D85))-A85*ABS(F85)^2/2</f>
-        <v>1.6787815806415113E-3</v>
+        <f t="shared" si="20"/>
+        <v>1.496673479213664E-3</v>
       </c>
       <c r="K85">
-        <f t="shared" ref="K85:K115" si="27">(ABS(F85)/B85)^2/2</f>
-        <v>1.0018976881298469</v>
-      </c>
-      <c r="M85" s="1">
-        <f t="shared" ref="M85:M115" si="28">ABS(E85)*SIN(RADIANS(D85))</f>
-        <v>3.3700717398173517E-4</v>
-      </c>
-      <c r="N85" s="1">
-        <f t="shared" ref="N85:N115" si="29">ABS(F85)^2</f>
-        <v>5.2118717736514631E-3</v>
+        <f t="shared" si="21"/>
+        <v>2.3685121107266442</v>
+      </c>
+      <c r="M85" s="2">
+        <f t="shared" si="16"/>
+        <v>6.9200563370390422E-4</v>
+      </c>
+      <c r="N85" s="2">
+        <f t="shared" si="17"/>
+        <v>1.2321E-2</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -5395,37 +5390,37 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>5</v>
-      </c>
-      <c r="E86" s="1">
-        <v>-6.710701944E-3</v>
-      </c>
-      <c r="F86" s="1">
-        <v>-9.7856412030000006E-2</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E86" s="6">
+        <v>-1.26E-2</v>
+      </c>
+      <c r="F86" s="6">
+        <v>-0.11799999999999999</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="24"/>
-        <v>1.2354377031576712E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.2606113840185921E-3</v>
       </c>
       <c r="H86">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J86" s="2">
-        <f t="shared" si="26"/>
-        <v>2.2742022203701105E-3</v>
+        <f t="shared" si="20"/>
+        <v>6.0508944465734113E-3</v>
       </c>
       <c r="K86">
-        <f t="shared" si="27"/>
-        <v>1.840806877236665</v>
-      </c>
-      <c r="M86" s="1">
-        <f t="shared" si="28"/>
-        <v>5.8487621228747353E-4</v>
-      </c>
-      <c r="N86" s="1">
-        <f t="shared" si="29"/>
-        <v>9.5758773753851292E-3</v>
+        <f t="shared" si="21"/>
+        <v>2.6766628219915423</v>
+      </c>
+      <c r="M86" s="2">
+        <f t="shared" si="16"/>
+        <v>9.6665975439791493E-4</v>
+      </c>
+      <c r="N86" s="2">
+        <f t="shared" si="17"/>
+        <v>1.3923999999999999E-2</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -5439,37 +5434,37 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>5</v>
-      </c>
-      <c r="E87" s="1">
-        <v>-1.039048448E-2</v>
-      </c>
-      <c r="F87" s="1">
-        <v>-0.10231590459999999</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E87" s="6">
+        <v>-1.6899999999999998E-2</v>
+      </c>
+      <c r="F87" s="6">
+        <v>-0.13400000000000001</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="24"/>
-        <v>4.3588673131001792E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.6024806995679235E-3</v>
       </c>
       <c r="H87">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J87" s="2">
-        <f t="shared" si="26"/>
-        <v>8.7718177073663247E-3</v>
+        <f t="shared" si="20"/>
+        <v>8.9831110037373423E-3</v>
       </c>
       <c r="K87">
-        <f t="shared" si="27"/>
-        <v>2.0124075997916764</v>
-      </c>
-      <c r="M87" s="1">
-        <f t="shared" si="28"/>
-        <v>9.0559039236241476E-4</v>
-      </c>
-      <c r="N87" s="1">
-        <f t="shared" si="29"/>
-        <v>1.04685443341163E-2</v>
+        <f t="shared" si="21"/>
+        <v>3.4517493271818545</v>
+      </c>
+      <c r="M87" s="2">
+        <f t="shared" si="16"/>
+        <v>1.296551575343235E-3</v>
+      </c>
+      <c r="N87" s="2">
+        <f t="shared" si="17"/>
+        <v>1.7956000000000003E-2</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -5483,37 +5478,37 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>5</v>
-      </c>
-      <c r="E88" s="1">
-        <v>-1.3531762250000001E-2</v>
-      </c>
-      <c r="F88" s="1">
-        <v>-0.1076168108</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E88" s="6">
+        <v>-2.1499999999999998E-2</v>
+      </c>
+      <c r="F88" s="6">
+        <v>-0.14699999999999999</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="24"/>
-        <v>6.241628203959417E-3</v>
+        <f t="shared" si="18"/>
+        <v>3.1091633572277334E-3</v>
       </c>
       <c r="H88">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J88" s="2">
-        <f t="shared" si="26"/>
-        <v>1.3895935286055767E-2</v>
+        <f t="shared" si="20"/>
+        <v>1.2915400035819702E-2</v>
       </c>
       <c r="K88">
-        <f t="shared" si="27"/>
-        <v>2.2263317890740097</v>
-      </c>
-      <c r="M88" s="1">
-        <f t="shared" si="28"/>
-        <v>1.1793707895834721E-3</v>
-      </c>
-      <c r="N88" s="1">
-        <f t="shared" si="29"/>
-        <v>1.1581377966762998E-2</v>
+        <f t="shared" si="21"/>
+        <v>4.1539792387543253</v>
+      </c>
+      <c r="M88" s="2">
+        <f t="shared" si="16"/>
+        <v>1.6494591047266007E-3</v>
+      </c>
+      <c r="N88" s="2">
+        <f t="shared" si="17"/>
+        <v>2.1608999999999996E-2</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -5527,37 +5522,37 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>5</v>
-      </c>
-      <c r="E89" s="1">
-        <v>-1.7564938530000001E-2</v>
-      </c>
-      <c r="F89" s="1">
-        <v>-0.1262961947</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E89" s="6">
+        <v>-2.6700000000000002E-2</v>
+      </c>
+      <c r="F89" s="6">
+        <v>-0.16500000000000001</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="24"/>
-        <v>5.522121186074703E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.974972547686968E-3</v>
       </c>
       <c r="H89">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J89" s="2">
-        <f t="shared" si="26"/>
-        <v>1.6932306308356116E-2</v>
+        <f t="shared" si="20"/>
+        <v>1.5569709267738895E-2</v>
       </c>
       <c r="K89">
-        <f t="shared" si="27"/>
-        <v>3.0662685112841812</v>
-      </c>
-      <c r="M89" s="1">
-        <f t="shared" si="28"/>
-        <v>1.530885263899109E-3</v>
-      </c>
-      <c r="N89" s="1">
-        <f t="shared" si="29"/>
-        <v>1.5950728795700309E-2</v>
+        <f t="shared" si="21"/>
+        <v>5.2335640138408319</v>
+      </c>
+      <c r="M89" s="2">
+        <f t="shared" si="16"/>
+        <v>2.0483980509860581E-3</v>
+      </c>
+      <c r="N89" s="2">
+        <f t="shared" si="17"/>
+        <v>2.7225000000000003E-2</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -5571,37 +5566,37 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>5</v>
-      </c>
-      <c r="E90" s="1">
-        <v>-2.195150857E-2</v>
-      </c>
-      <c r="F90" s="1">
-        <v>-0.13437376610000001</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E90" s="6">
+        <v>-3.2500000000000001E-2</v>
+      </c>
+      <c r="F90" s="6">
+        <v>-0.187</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="24"/>
-        <v>6.7482076559534773E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.4913271825694893E-3</v>
       </c>
       <c r="H90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J90" s="2">
-        <f t="shared" si="26"/>
-        <v>2.3423245432399348E-2</v>
+        <f t="shared" si="20"/>
+        <v>1.6747254949494902E-2</v>
       </c>
       <c r="K90">
-        <f t="shared" si="27"/>
-        <v>3.4710321060933325</v>
-      </c>
-      <c r="M90" s="1">
-        <f t="shared" si="28"/>
-        <v>1.9132000338499336E-3</v>
-      </c>
-      <c r="N90" s="1">
-        <f t="shared" si="29"/>
-        <v>1.8056309015897512E-2</v>
+        <f t="shared" si="21"/>
+        <v>6.7222222222222232</v>
+      </c>
+      <c r="M90" s="2">
+        <f t="shared" si="16"/>
+        <v>2.4933684141216061E-3</v>
+      </c>
+      <c r="N90" s="2">
+        <f t="shared" si="17"/>
+        <v>3.4969E-2</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -5615,37 +5610,37 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>5</v>
-      </c>
-      <c r="E91" s="1">
-        <v>-2.6523189610000001E-2</v>
-      </c>
-      <c r="F91" s="1">
-        <v>-0.1697972824</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E91" s="6">
+        <v>-3.9199999999999999E-2</v>
+      </c>
+      <c r="F91" s="6">
+        <v>-0.20799999999999999</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="24"/>
-        <v>3.5816978482626511E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.2714742763346911E-3</v>
       </c>
       <c r="H91">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J91" s="2">
-        <f t="shared" si="26"/>
-        <v>1.9850893909538446E-2</v>
+        <f t="shared" si="20"/>
+        <v>1.8891400056006161E-2</v>
       </c>
       <c r="K91">
-        <f t="shared" si="27"/>
-        <v>5.5423139389514331</v>
-      </c>
-      <c r="M91" s="1">
-        <f t="shared" si="28"/>
-        <v>2.31164829049652E-3</v>
-      </c>
-      <c r="N91" s="1">
-        <f t="shared" si="29"/>
-        <v>2.8831117110425349E-2</v>
+        <f t="shared" si="21"/>
+        <v>8.3168012302960381</v>
+      </c>
+      <c r="M91" s="2">
+        <f t="shared" si="16"/>
+        <v>3.0073859025712907E-3</v>
+      </c>
+      <c r="N91" s="2">
+        <f t="shared" si="17"/>
+        <v>4.3263999999999997E-2</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -5659,37 +5654,37 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>5</v>
-      </c>
-      <c r="E92" s="1">
-        <v>-3.3271327390000001E-2</v>
-      </c>
-      <c r="F92" s="1">
-        <v>-0.1876352527</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E92" s="6">
+        <v>-4.6300000000000001E-2</v>
+      </c>
+      <c r="F92" s="6">
+        <v>-0.22500000000000001</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="24"/>
-        <v>3.8500970699919031E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.3516031518113511E-3</v>
       </c>
       <c r="H92">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J92" s="2">
-        <f t="shared" si="26"/>
-        <v>2.605734747344253E-2</v>
+        <f t="shared" si="20"/>
+        <v>2.288541129574196E-2</v>
       </c>
       <c r="K92">
-        <f t="shared" si="27"/>
-        <v>6.7679715601293475</v>
-      </c>
-      <c r="M92" s="1">
-        <f t="shared" si="28"/>
-        <v>2.8997872508759533E-3</v>
-      </c>
-      <c r="N92" s="1">
-        <f t="shared" si="29"/>
-        <v>3.5206988055792858E-2</v>
+        <f t="shared" si="21"/>
+        <v>9.7318339100346041</v>
+      </c>
+      <c r="M92" s="2">
+        <f t="shared" si="16"/>
+        <v>3.5520910022717035E-3</v>
+      </c>
+      <c r="N92" s="2">
+        <f t="shared" si="17"/>
+        <v>5.0625000000000003E-2</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -5703,37 +5698,37 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>5</v>
-      </c>
-      <c r="E93" s="1">
-        <v>-3.9032206450000002E-2</v>
-      </c>
-      <c r="F93" s="1">
-        <v>-0.1725739476</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E93" s="6">
+        <v>-5.4199999999999998E-2</v>
+      </c>
+      <c r="F93" s="6">
+        <v>-0.23</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="24"/>
-        <v>7.7639994681156354E-3</v>
+        <f t="shared" si="18"/>
+        <v>3.3882858535089519E-3</v>
       </c>
       <c r="H93">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J93" s="2">
-        <f t="shared" si="26"/>
-        <v>4.4449370660789224E-2</v>
+        <f t="shared" si="20"/>
+        <v>3.445604030192688E-2</v>
       </c>
       <c r="K93">
-        <f t="shared" si="27"/>
-        <v>5.7250610131194826</v>
-      </c>
-      <c r="M93" s="1">
-        <f t="shared" si="28"/>
-        <v>3.4018809442296839E-3</v>
-      </c>
-      <c r="N93" s="1">
-        <f t="shared" si="29"/>
-        <v>2.9781767390247547E-2</v>
+        <f t="shared" si="21"/>
+        <v>10.169165705497889</v>
+      </c>
+      <c r="M93" s="2">
+        <f t="shared" si="16"/>
+        <v>4.1581713244735708E-3</v>
+      </c>
+      <c r="N93" s="2">
+        <f t="shared" si="17"/>
+        <v>5.2900000000000003E-2</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -5747,37 +5742,37 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>5</v>
-      </c>
-      <c r="E94" s="1">
-        <v>-4.4776257239999999E-2</v>
-      </c>
-      <c r="F94" s="1">
-        <v>-0.19571282409999999</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E94" s="6">
+        <v>-6.1699999999999998E-2</v>
+      </c>
+      <c r="F94" s="6">
+        <v>-0.253</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="24"/>
-        <v>6.2478250847073039E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.8167533482129615E-3</v>
       </c>
       <c r="H94">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J94" s="2">
-        <f t="shared" si="26"/>
-        <v>4.6004157553608566E-2</v>
+        <f t="shared" si="20"/>
+        <v>3.4659278174887245E-2</v>
       </c>
       <c r="K94">
-        <f t="shared" si="27"/>
-        <v>7.3632275119564676</v>
-      </c>
-      <c r="M94" s="1">
-        <f t="shared" si="28"/>
-        <v>3.9025079572124065E-3</v>
-      </c>
-      <c r="N94" s="1">
-        <f t="shared" si="29"/>
-        <v>3.8303509517197534E-2</v>
+        <f t="shared" si="21"/>
+        <v>12.304690503652441</v>
+      </c>
+      <c r="M94" s="2">
+        <f t="shared" si="16"/>
+        <v>4.73356403542471E-3</v>
+      </c>
+      <c r="N94" s="2">
+        <f t="shared" si="17"/>
+        <v>6.4008999999999996E-2</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -5791,37 +5786,37 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>5</v>
-      </c>
-      <c r="E95" s="1">
-        <v>-5.2079728059999997E-2</v>
-      </c>
-      <c r="F95" s="1">
-        <v>-0.2127093806</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E95" s="6">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="F95" s="6">
+        <v>-0.28299999999999997</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="24"/>
-        <v>6.0558432842150334E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.0872262388162777E-3</v>
       </c>
       <c r="H95">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J95" s="2">
-        <f t="shared" si="26"/>
-        <v>5.2671727919085469E-2</v>
+        <f t="shared" si="20"/>
+        <v>3.2134537147358103E-2</v>
       </c>
       <c r="K95">
-        <f t="shared" si="27"/>
-        <v>8.6976702412986651</v>
-      </c>
-      <c r="M95" s="1">
-        <f t="shared" si="28"/>
-        <v>4.5390473811653545E-3</v>
-      </c>
-      <c r="N95" s="1">
-        <f t="shared" si="29"/>
-        <v>4.5245280595235658E-2</v>
+        <f t="shared" si="21"/>
+        <v>15.395809304113801</v>
+      </c>
+      <c r="M95" s="2">
+        <f t="shared" si="16"/>
+        <v>5.4470509970041235E-3</v>
+      </c>
+      <c r="N95" s="2">
+        <f t="shared" si="17"/>
+        <v>8.008899999999998E-2</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -5835,37 +5830,37 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>5</v>
-      </c>
-      <c r="E96" s="1">
-        <v>-5.8956882609999997E-2</v>
-      </c>
-      <c r="F96" s="1">
-        <v>-0.22246977940000001</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E96" s="6">
+        <v>-8.0500000000000002E-2</v>
+      </c>
+      <c r="F96" s="6">
+        <v>-0.27800000000000002</v>
       </c>
       <c r="G96" s="2">
-        <f t="shared" si="24"/>
-        <v>6.485874828248848E-3</v>
+        <f t="shared" si="18"/>
+        <v>3.5488494901773585E-3</v>
       </c>
       <c r="H96">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J96" s="2">
-        <f t="shared" si="26"/>
-        <v>6.1707828433605019E-2</v>
+        <f t="shared" si="20"/>
+        <v>5.2723814686441189E-2</v>
       </c>
       <c r="K96">
-        <f t="shared" si="27"/>
-        <v>9.5141873791396936</v>
-      </c>
-      <c r="M96" s="1">
-        <f t="shared" si="28"/>
-        <v>5.1384308939610409E-3</v>
-      </c>
-      <c r="N96" s="1">
-        <f t="shared" si="29"/>
-        <v>4.9492802746284668E-2</v>
+        <f t="shared" si="21"/>
+        <v>14.856593617839298</v>
+      </c>
+      <c r="M96" s="2">
+        <f t="shared" si="16"/>
+        <v>6.1758817642089013E-3</v>
+      </c>
+      <c r="N96" s="2">
+        <f t="shared" si="17"/>
+        <v>7.7284000000000019E-2</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5879,37 +5874,37 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>5</v>
-      </c>
-      <c r="E97" s="1">
-        <v>-6.6911046680000003E-2</v>
-      </c>
-      <c r="F97" s="1">
-        <v>-0.2528448136</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E97" s="6">
+        <v>-8.9499999999999996E-2</v>
+      </c>
+      <c r="F97" s="6">
+        <v>-0.30199999999999999</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="24"/>
-        <v>4.9378189226961565E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.9806301826634232E-3</v>
       </c>
       <c r="H97">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J97" s="2">
-        <f t="shared" si="26"/>
-        <v>6.0683819968121708E-2</v>
+        <f t="shared" si="20"/>
+        <v>5.2257861433993635E-2</v>
       </c>
       <c r="K97">
-        <f t="shared" si="27"/>
-        <v>12.289600108500338</v>
-      </c>
-      <c r="M97" s="1">
-        <f t="shared" si="28"/>
-        <v>5.831681971418627E-3</v>
-      </c>
-      <c r="N97" s="1">
-        <f t="shared" si="29"/>
-        <v>6.3930499764418738E-2</v>
+        <f t="shared" si="21"/>
+        <v>17.532487504805847</v>
+      </c>
+      <c r="M97" s="2">
+        <f t="shared" si="16"/>
+        <v>6.8663530173502683E-3</v>
+      </c>
+      <c r="N97" s="2">
+        <f t="shared" si="17"/>
+        <v>9.1203999999999993E-2</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5923,37 +5918,37 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>5</v>
-      </c>
-      <c r="E98" s="1">
-        <v>-7.5813203509999996E-2</v>
-      </c>
-      <c r="F98" s="1">
-        <v>-0.27236561110000002</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E98" s="6">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="F98" s="6">
+        <v>-0.32500000000000001</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="24"/>
-        <v>4.6739571964260025E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.7440587498330504E-3</v>
       </c>
       <c r="H98">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J98" s="2">
-        <f t="shared" si="26"/>
-        <v>6.6652881341583078E-2</v>
+        <f t="shared" si="20"/>
+        <v>5.5717263639199544E-2</v>
       </c>
       <c r="K98">
-        <f t="shared" si="27"/>
-        <v>14.260481758915123</v>
-      </c>
-      <c r="M98" s="1">
-        <f t="shared" si="28"/>
-        <v>6.6075560619934144E-3</v>
-      </c>
-      <c r="N98" s="1">
-        <f t="shared" si="29"/>
-        <v>7.4183026109876454E-2</v>
+        <f t="shared" si="21"/>
+        <v>20.304690503652445</v>
+      </c>
+      <c r="M98" s="2">
+        <f t="shared" si="16"/>
+        <v>7.7486218408086838E-3</v>
+      </c>
+      <c r="N98" s="2">
+        <f t="shared" si="17"/>
+        <v>0.10562500000000001</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5967,37 +5962,37 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>5</v>
-      </c>
-      <c r="E99" s="1">
-        <v>-8.5068754090000004E-2</v>
-      </c>
-      <c r="F99" s="1">
-        <v>-0.27598369</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E99" s="6">
+        <v>-0.111</v>
+      </c>
+      <c r="F99" s="6">
+        <v>-0.34300000000000003</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" si="24"/>
-        <v>5.6899007266034045E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.6241070015382106E-3</v>
       </c>
       <c r="H99">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J99" s="2">
-        <f t="shared" si="26"/>
-        <v>8.3310775164228468E-2</v>
+        <f t="shared" si="20"/>
+        <v>5.9347090469813346E-2</v>
       </c>
       <c r="K99">
-        <f t="shared" si="27"/>
-        <v>14.641867963478683</v>
-      </c>
-      <c r="M99" s="1">
-        <f t="shared" si="28"/>
-        <v>7.4142304473318339E-3</v>
-      </c>
-      <c r="N99" s="1">
-        <f t="shared" si="29"/>
-        <v>7.6166997146016102E-2</v>
+        <f t="shared" si="21"/>
+        <v>22.616109188773557</v>
+      </c>
+      <c r="M99" s="2">
+        <f t="shared" si="16"/>
+        <v>8.5158121220768705E-3</v>
+      </c>
+      <c r="N99" s="2">
+        <f t="shared" si="17"/>
+        <v>0.11764900000000002</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -6011,37 +6006,37 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>5</v>
-      </c>
-      <c r="E100" s="1">
-        <v>-9.421211618E-2</v>
-      </c>
-      <c r="F100" s="1">
-        <v>-0.30080539379999999</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E100" s="6">
+        <v>-0.123</v>
+      </c>
+      <c r="F100" s="6">
+        <v>-0.36799999999999999</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="24"/>
-        <v>4.8798104591244061E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.292144625934051E-3</v>
       </c>
       <c r="H100">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J100" s="2">
-        <f t="shared" si="26"/>
-        <v>8.4879701674045779E-2</v>
+        <f t="shared" si="20"/>
+        <v>5.9671548216549963E-2</v>
       </c>
       <c r="K100">
-        <f t="shared" si="27"/>
-        <v>17.394057081732619</v>
-      </c>
-      <c r="M100" s="1">
-        <f t="shared" si="28"/>
-        <v>8.2111269614965638E-3</v>
-      </c>
-      <c r="N100" s="1">
-        <f t="shared" si="29"/>
-        <v>9.0483884939173073E-2</v>
+        <f t="shared" si="21"/>
+        <v>26.033064206074588</v>
+      </c>
+      <c r="M100" s="2">
+        <f t="shared" si="16"/>
+        <v>9.4364404595986932E-3</v>
+      </c>
+      <c r="N100" s="2">
+        <f t="shared" si="17"/>
+        <v>0.13542399999999999</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -6055,37 +6050,37 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>5</v>
-      </c>
-      <c r="E101" s="1">
-        <v>-0.10512244699999999</v>
-      </c>
-      <c r="F101" s="1">
-        <v>-0.32865618689999998</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E101" s="6">
+        <v>-0.13600000000000001</v>
+      </c>
+      <c r="F101" s="6">
+        <v>-0.373</v>
       </c>
       <c r="G101" s="2">
-        <f t="shared" si="24"/>
-        <v>4.1520143338735329E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.9447581889189296E-3</v>
       </c>
       <c r="H101">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J101" s="2">
-        <f t="shared" si="26"/>
-        <v>8.6212873544574131E-2</v>
+        <f t="shared" si="20"/>
+        <v>7.8758412546347911E-2</v>
       </c>
       <c r="K101">
-        <f t="shared" si="27"/>
-        <v>20.764107879209483</v>
-      </c>
-      <c r="M101" s="1">
-        <f t="shared" si="28"/>
-        <v>9.1620249477363299E-3</v>
-      </c>
-      <c r="N101" s="1">
-        <f t="shared" si="29"/>
-        <v>0.10801488918764772</v>
+        <f t="shared" si="21"/>
+        <v>26.745290272971939</v>
+      </c>
+      <c r="M101" s="2">
+        <f t="shared" si="16"/>
+        <v>1.0433787825247337E-2</v>
+      </c>
+      <c r="N101" s="2">
+        <f t="shared" si="17"/>
+        <v>0.139129</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -6099,37 +6094,37 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>5</v>
-      </c>
-      <c r="E102" s="1">
-        <v>-0.1161225286</v>
-      </c>
-      <c r="F102" s="1">
-        <v>-0.33951042349999999</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E102" s="6">
+        <v>-0.14799999999999999</v>
+      </c>
+      <c r="F102" s="6">
+        <v>-0.39800000000000002</v>
       </c>
       <c r="G102" s="2">
-        <f t="shared" si="24"/>
-        <v>4.5181257379021244E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.5377416417175394E-3</v>
       </c>
       <c r="H102">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J102" s="2">
-        <f t="shared" si="26"/>
-        <v>0.10011385618283525</v>
+        <f t="shared" si="20"/>
+        <v>7.7275745293084425E-2</v>
       </c>
       <c r="K102">
-        <f t="shared" si="27"/>
-        <v>22.158271369694226</v>
-      </c>
-      <c r="M102" s="1">
-        <f t="shared" si="28"/>
-        <v>1.0120745229869178E-2</v>
-      </c>
-      <c r="N102" s="1">
-        <f t="shared" si="29"/>
-        <v>0.11526732766514934</v>
+        <f t="shared" si="21"/>
+        <v>30.450595924644372</v>
+      </c>
+      <c r="M102" s="2">
+        <f t="shared" si="16"/>
+        <v>1.135441616276916E-2</v>
+      </c>
+      <c r="N102" s="2">
+        <f t="shared" si="17"/>
+        <v>0.15840400000000002</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -6143,37 +6138,37 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>5</v>
-      </c>
-      <c r="E103" s="1">
-        <v>-0.1277564752</v>
-      </c>
-      <c r="F103" s="1">
-        <v>-0.34985981189999998</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E103" s="6">
+        <v>-0.16200000000000001</v>
+      </c>
+      <c r="F103" s="6">
+        <v>-0.41399999999999998</v>
       </c>
       <c r="G103" s="2">
-        <f t="shared" si="24"/>
-        <v>4.9070320106750585E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.6400817855248646E-3</v>
       </c>
       <c r="H103">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J103" s="2">
-        <f t="shared" si="26"/>
-        <v>0.11546135765055524</v>
+        <f t="shared" si="20"/>
+        <v>8.6985670455943798E-2</v>
       </c>
       <c r="K103">
-        <f t="shared" si="27"/>
-        <v>23.529774698712686</v>
-      </c>
-      <c r="M103" s="1">
-        <f t="shared" si="28"/>
-        <v>1.1134710486878771E-2</v>
-      </c>
-      <c r="N103" s="1">
-        <f t="shared" si="29"/>
-        <v>0.12240188798270336</v>
+        <f t="shared" si="21"/>
+        <v>32.948096885813143</v>
+      </c>
+      <c r="M103" s="2">
+        <f t="shared" si="16"/>
+        <v>1.2428482556544621E-2</v>
+      </c>
+      <c r="N103" s="2">
+        <f t="shared" si="17"/>
+        <v>0.17139599999999999</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -6187,37 +6182,37 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>5</v>
-      </c>
-      <c r="E104" s="1">
-        <v>-0.1394465161</v>
-      </c>
-      <c r="F104" s="1">
-        <v>-0.38107625979999998</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E104" s="6">
+        <v>-0.17599999999999999</v>
+      </c>
+      <c r="F104" s="6">
+        <v>-0.42399999999999999</v>
       </c>
       <c r="G104" s="2">
-        <f t="shared" si="24"/>
-        <v>4.0131302432679997E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.958762000617514E-3</v>
       </c>
       <c r="H104">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J104" s="2">
-        <f t="shared" si="26"/>
-        <v>0.11203060850634852</v>
+        <f t="shared" si="20"/>
+        <v>0.10225190261880321</v>
       </c>
       <c r="K104">
-        <f t="shared" si="27"/>
-        <v>27.916016105950998</v>
-      </c>
-      <c r="M104" s="1">
-        <f t="shared" si="28"/>
-        <v>1.2153564684268772E-2</v>
-      </c>
-      <c r="N104" s="1">
-        <f t="shared" si="29"/>
-        <v>0.14521911578315708</v>
+        <f t="shared" si="21"/>
+        <v>34.55901576316802</v>
+      </c>
+      <c r="M104" s="2">
+        <f t="shared" si="16"/>
+        <v>1.3502548950320081E-2</v>
+      </c>
+      <c r="N104" s="2">
+        <f t="shared" si="17"/>
+        <v>0.17977599999999999</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -6231,37 +6226,37 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>5</v>
-      </c>
-      <c r="E105" s="1">
-        <v>-0.15316155919999999</v>
-      </c>
-      <c r="F105" s="1">
-        <v>-0.40699180140000002</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E105" s="6">
+        <v>-0.191</v>
+      </c>
+      <c r="F105" s="6">
+        <v>-0.435</v>
       </c>
       <c r="G105" s="2">
-        <f t="shared" si="24"/>
-        <v>3.6320385592882986E-3</v>
+        <f t="shared" si="18"/>
+        <v>3.2450976639386642E-3</v>
       </c>
       <c r="H105">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J105" s="2">
-        <f t="shared" si="26"/>
-        <v>0.11565154105339831</v>
+        <f t="shared" si="20"/>
+        <v>0.11804183111472391</v>
       </c>
       <c r="K105">
-        <f t="shared" si="27"/>
-        <v>31.842046598772988</v>
-      </c>
-      <c r="M105" s="1">
-        <f t="shared" si="28"/>
-        <v>1.3348909452465417E-2</v>
-      </c>
-      <c r="N105" s="1">
-        <f t="shared" si="29"/>
-        <v>0.16564232640681706</v>
+        <f t="shared" si="21"/>
+        <v>36.37543252595156</v>
+      </c>
+      <c r="M105" s="2">
+        <f t="shared" si="16"/>
+        <v>1.4653334372222361E-2</v>
+      </c>
+      <c r="N105" s="2">
+        <f t="shared" si="17"/>
+        <v>0.189225</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -6275,37 +6270,37 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>5</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-0.1665793029</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-0.41675220019999998</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E106" s="6">
+        <v>-0.20499999999999999</v>
+      </c>
+      <c r="F106" s="6">
+        <v>-0.44800000000000001</v>
       </c>
       <c r="G106" s="2">
-        <f t="shared" si="24"/>
-        <v>4.0008607147244768E-3</v>
+        <f t="shared" si="18"/>
+        <v>3.3584122530168183E-3</v>
       </c>
       <c r="H106">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J106" s="2">
-        <f t="shared" si="26"/>
-        <v>0.13357921501001596</v>
+        <f t="shared" si="20"/>
+        <v>0.12957454302758317</v>
       </c>
       <c r="K106">
-        <f t="shared" si="27"/>
-        <v>33.387619448585333</v>
-      </c>
-      <c r="M106" s="1">
-        <f t="shared" si="28"/>
-        <v>1.4518342870636629E-2</v>
-      </c>
-      <c r="N106" s="1">
-        <f t="shared" si="29"/>
-        <v>0.17368239637154087</v>
+        <f t="shared" si="21"/>
+        <v>38.582083813917734</v>
+      </c>
+      <c r="M106" s="2">
+        <f t="shared" si="16"/>
+        <v>1.5727400765997823E-2</v>
+      </c>
+      <c r="N106" s="2">
+        <f t="shared" si="17"/>
+        <v>0.20070400000000002</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -6319,37 +6314,37 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>5</v>
-      </c>
-      <c r="E107" s="1">
-        <v>-0.18094503919999999</v>
-      </c>
-      <c r="F107" s="1">
-        <v>-0.43097209149999999</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E107" s="6">
+        <v>-0.22</v>
+      </c>
+      <c r="F107" s="6">
+        <v>-0.45900000000000002</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" si="24"/>
-        <v>4.162492808316107E-3</v>
+        <f t="shared" si="18"/>
+        <v>3.5735398400865157E-3</v>
       </c>
       <c r="H107">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J107" s="2">
-        <f t="shared" si="26"/>
-        <v>0.14862143256239577</v>
+        <f t="shared" si="20"/>
+        <v>0.14472836352350393</v>
       </c>
       <c r="K107">
-        <f t="shared" si="27"/>
-        <v>35.704910352150016</v>
-      </c>
-      <c r="M107" s="1">
-        <f t="shared" si="28"/>
-        <v>1.5770399287980123E-2</v>
-      </c>
-      <c r="N107" s="1">
-        <f t="shared" si="29"/>
-        <v>0.18573694365188437</v>
+        <f t="shared" si="21"/>
+        <v>40.500000000000014</v>
+      </c>
+      <c r="M107" s="2">
+        <f t="shared" si="16"/>
+        <v>1.6878186187900102E-2</v>
+      </c>
+      <c r="N107" s="2">
+        <f t="shared" si="17"/>
+        <v>0.21068100000000001</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -6363,37 +6358,37 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>5</v>
-      </c>
-      <c r="E108" s="1">
-        <v>-0.19531077559999999</v>
-      </c>
-      <c r="F108" s="1">
-        <v>-0.45579379530000003</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E108" s="6">
+        <v>-0.23599999999999999</v>
+      </c>
+      <c r="F108" s="6">
+        <v>-0.44700000000000001</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="24"/>
-        <v>3.7977739333774369E-3</v>
+        <f t="shared" si="18"/>
+        <v>4.8636142296624883E-3</v>
       </c>
       <c r="H108">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J108" s="2">
-        <f t="shared" si="26"/>
-        <v>0.15166856549719343</v>
+        <f t="shared" si="20"/>
+        <v>0.18681159085248603</v>
       </c>
       <c r="K108">
-        <f t="shared" si="27"/>
-        <v>39.936175285270735</v>
-      </c>
-      <c r="M108" s="1">
-        <f t="shared" si="28"/>
-        <v>1.7022455714039191E-2</v>
-      </c>
-      <c r="N108" s="1">
-        <f t="shared" si="29"/>
-        <v>0.20774798383397833</v>
+        <f t="shared" si="21"/>
+        <v>38.410034602076131</v>
+      </c>
+      <c r="M108" s="2">
+        <f t="shared" si="16"/>
+        <v>1.81056906379292E-2</v>
+      </c>
+      <c r="N108" s="2">
+        <f t="shared" si="17"/>
+        <v>0.19980900000000001</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -6407,37 +6402,37 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>5</v>
-      </c>
-      <c r="E109" s="1">
-        <v>-0.2113312923</v>
-      </c>
-      <c r="F109" s="1">
-        <v>-0.48145691289999998</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E109" s="6">
+        <v>-0.25</v>
+      </c>
+      <c r="F109" s="6">
+        <v>-0.46600000000000003</v>
       </c>
       <c r="G109" s="2">
-        <f t="shared" si="24"/>
-        <v>3.4933062635971479E-3</v>
+        <f t="shared" si="18"/>
+        <v>4.5820132275383894E-3</v>
       </c>
       <c r="H109">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J109" s="2">
-        <f t="shared" si="26"/>
-        <v>0.15566148466908997</v>
+        <f t="shared" si="20"/>
+        <v>0.19127482976534538</v>
       </c>
       <c r="K109">
-        <f t="shared" si="27"/>
-        <v>44.559930599615193</v>
-      </c>
-      <c r="M109" s="1">
-        <f t="shared" si="28"/>
-        <v>1.8418735746228952E-2</v>
-      </c>
-      <c r="N109" s="1">
-        <f t="shared" si="29"/>
-        <v>0.23180075897919816</v>
+        <f t="shared" si="21"/>
+        <v>41.744713571703201</v>
+      </c>
+      <c r="M109" s="2">
+        <f t="shared" si="16"/>
+        <v>1.9179757031704662E-2</v>
+      </c>
+      <c r="N109" s="2">
+        <f t="shared" si="17"/>
+        <v>0.21715600000000002</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -6451,37 +6446,37 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>5</v>
-      </c>
-      <c r="E110" s="1">
-        <v>-0.22740790320000001</v>
-      </c>
-      <c r="F110" s="1">
-        <v>-0.49845346940000002</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E110" s="6">
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="F110" s="6">
+        <v>-0.51900000000000002</v>
       </c>
       <c r="G110" s="2">
-        <f t="shared" si="24"/>
-        <v>3.531753144567335E-3</v>
+        <f t="shared" si="18"/>
+        <v>3.0740974211310355E-3</v>
       </c>
       <c r="H110">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J110" s="2">
-        <f t="shared" si="26"/>
-        <v>0.16868219318090261</v>
+        <f t="shared" si="20"/>
+        <v>0.1591776154273889</v>
       </c>
       <c r="K110">
-        <f t="shared" si="27"/>
-        <v>47.761603451921715</v>
-      </c>
-      <c r="M110" s="1">
-        <f t="shared" si="28"/>
-        <v>1.981990471008355E-2</v>
-      </c>
-      <c r="N110" s="1">
-        <f t="shared" si="29"/>
-        <v>0.24845586115689675</v>
+        <f t="shared" si="21"/>
+        <v>51.78027681660901</v>
+      </c>
+      <c r="M110" s="2">
+        <f t="shared" si="16"/>
+        <v>2.048398050986058E-2</v>
+      </c>
+      <c r="N110" s="2">
+        <f t="shared" si="17"/>
+        <v>0.26936100000000002</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -6495,37 +6490,37 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>5</v>
-      </c>
-      <c r="E111" s="1">
-        <v>-0.2445615236</v>
-      </c>
-      <c r="F111" s="1">
-        <v>-0.51183194700000001</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E111" s="6">
+        <v>-0.28499999999999998</v>
+      </c>
+      <c r="F111" s="6">
+        <v>-0.52200000000000002</v>
       </c>
       <c r="G111" s="2">
-        <f t="shared" si="24"/>
-        <v>3.7271981589618048E-3</v>
+        <f t="shared" si="18"/>
+        <v>3.5895624085315546E-3</v>
       </c>
       <c r="H111">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J111" s="2">
-        <f t="shared" si="26"/>
-        <v>0.1877011418318969</v>
+        <f t="shared" si="20"/>
+        <v>0.18802351467249373</v>
       </c>
       <c r="K111">
-        <f t="shared" si="27"/>
-        <v>50.359850436334263</v>
-      </c>
-      <c r="M111" s="1">
-        <f t="shared" si="28"/>
-        <v>2.131494123685693E-2</v>
-      </c>
-      <c r="N111" s="1">
-        <f t="shared" si="29"/>
-        <v>0.26197194196981083</v>
+        <f t="shared" si="21"/>
+        <v>52.380622837370254</v>
+      </c>
+      <c r="M111" s="2">
+        <f t="shared" si="16"/>
+        <v>2.1864923016143314E-2</v>
+      </c>
+      <c r="N111" s="2">
+        <f t="shared" si="17"/>
+        <v>0.272484</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -6539,37 +6534,37 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>5</v>
-      </c>
-      <c r="E112" s="1">
-        <v>-0.261530033</v>
-      </c>
-      <c r="F112" s="1">
-        <v>-0.52133992169999999</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E112" s="6">
+        <v>-0.30099999999999999</v>
+      </c>
+      <c r="F112" s="6">
+        <v>-0.50600000000000001</v>
       </c>
       <c r="G112" s="2">
-        <f t="shared" si="24"/>
-        <v>4.0343549079446331E-3</v>
+        <f t="shared" si="18"/>
+        <v>4.8116697435660509E-3</v>
       </c>
       <c r="H112">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J112" s="2">
-        <f t="shared" si="26"/>
-        <v>0.21078791980458744</v>
+        <f t="shared" si="20"/>
+        <v>0.23682442800147585</v>
       </c>
       <c r="K112">
-        <f t="shared" si="27"/>
-        <v>52.248234132672465</v>
-      </c>
-      <c r="M112" s="1">
-        <f t="shared" si="28"/>
-        <v>2.2793844276934549E-2</v>
-      </c>
-      <c r="N112" s="1">
-        <f t="shared" si="29"/>
-        <v>0.27179531395816214</v>
+        <f t="shared" si="21"/>
+        <v>49.218762014609766</v>
+      </c>
+      <c r="M112" s="2">
+        <f t="shared" si="16"/>
+        <v>2.3092427466172412E-2</v>
+      </c>
+      <c r="N112" s="2">
+        <f t="shared" si="17"/>
+        <v>0.25603599999999999</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -6583,37 +6578,37 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>5</v>
-      </c>
-      <c r="E113" s="1">
-        <v>-0.27931751830000001</v>
-      </c>
-      <c r="F113" s="1">
-        <v>-0.53927051439999996</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E113" s="6">
+        <v>-0.31900000000000001</v>
+      </c>
+      <c r="F113" s="6">
+        <v>-0.54200000000000004</v>
       </c>
       <c r="G113" s="2">
-        <f t="shared" si="24"/>
-        <v>4.0155199840005264E-3</v>
+        <f t="shared" si="18"/>
+        <v>3.9662576697254009E-3</v>
       </c>
       <c r="H113">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="H113:H115" si="23">0.5*A113*(POWER(B113,2)+POWER(C113,2))</f>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J113" s="2">
-        <f t="shared" si="26"/>
-        <v>0.22448369070842666</v>
+        <f t="shared" si="20"/>
+        <v>0.22397995349658073</v>
       </c>
       <c r="K113">
-        <f t="shared" si="27"/>
-        <v>55.904015321268851</v>
-      </c>
-      <c r="M113" s="1">
-        <f t="shared" si="28"/>
-        <v>2.4344125769869104E-2</v>
-      </c>
-      <c r="N113" s="1">
-        <f t="shared" si="29"/>
-        <v>0.29081268770124058</v>
+        <f t="shared" si="21"/>
+        <v>56.471357170319123</v>
+      </c>
+      <c r="M113" s="2">
+        <f t="shared" si="16"/>
+        <v>2.4473369972455149E-2</v>
+      </c>
+      <c r="N113" s="2">
+        <f t="shared" si="17"/>
+        <v>0.29376400000000003</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -6627,37 +6622,37 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>5</v>
-      </c>
-      <c r="E114" s="1">
-        <v>-0.2974814006</v>
-      </c>
-      <c r="F114" s="1">
-        <v>-0.54258104200000001</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E114" s="6">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="F114" s="6">
+        <v>-0.60699999999999998</v>
       </c>
       <c r="G114" s="2">
-        <f t="shared" si="24"/>
-        <v>4.5509645419235445E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.3779057733996681E-3</v>
       </c>
       <c r="H114">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J114" s="2">
-        <f t="shared" si="26"/>
-        <v>0.25755046270906545</v>
+        <f t="shared" si="20"/>
+        <v>0.16842310732474708</v>
       </c>
       <c r="K114">
-        <f t="shared" si="27"/>
-        <v>56.592500410958436</v>
-      </c>
-      <c r="M114" s="1">
-        <f t="shared" si="28"/>
-        <v>2.5927212422906645E-2</v>
-      </c>
-      <c r="N114" s="1">
-        <f t="shared" si="29"/>
-        <v>0.2943941871378058</v>
+        <f t="shared" si="21"/>
+        <v>70.828335255670893</v>
+      </c>
+      <c r="M114" s="2">
+        <f t="shared" si="16"/>
+        <v>2.5931031506864703E-2</v>
+      </c>
+      <c r="N114" s="2">
+        <f t="shared" si="17"/>
+        <v>0.36844899999999997</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -6671,58 +6666,346 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>5</v>
-      </c>
-      <c r="E115" s="1">
-        <v>-0.31548958780000003</v>
-      </c>
-      <c r="F115" s="1">
-        <v>-0.55498151579999999</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E115" s="6">
+        <v>-0.35899999999999999</v>
+      </c>
+      <c r="F115" s="6">
+        <v>-0.629</v>
       </c>
       <c r="G115" s="2">
+        <f t="shared" si="18"/>
+        <v>2.283943622529325E-3</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="23"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J115" s="2">
+        <f t="shared" si="20"/>
+        <v>0.1737066010690359</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="21"/>
+        <v>76.055555555555557</v>
+      </c>
+      <c r="M115" s="2">
+        <f t="shared" si="16"/>
+        <v>2.7542131097527893E-2</v>
+      </c>
+      <c r="N115" s="2">
+        <f t="shared" si="17"/>
+        <v>0.39564100000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116">
+        <v>2.4095</v>
+      </c>
+      <c r="B116">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E116" s="6">
+        <v>-0.379</v>
+      </c>
+      <c r="F116" s="6">
+        <v>-0.63100000000000001</v>
+      </c>
+      <c r="G116" s="2">
+        <f t="shared" ref="G116:G122" si="24">(A116*9.8*ABS(E116)*SIN(RADIANS(D116))-0.5*A116*ABS(F116)^2)/(0.5*(ABS(F116)/B116)^2)</f>
+        <v>2.7031898915836341E-3</v>
+      </c>
+      <c r="H116">
+        <f t="shared" ref="H116:H122" si="25">0.5*A116*(POWER(B116,2)+POWER(C116,2))</f>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J116" s="2">
+        <f t="shared" ref="J116:J122" si="26">A116*9.8*ABS(E116)*SIN(RADIANS(D116))-A116*ABS(F116)^2/2</f>
+        <v>0.20690211273026365</v>
+      </c>
+      <c r="K116">
+        <f t="shared" ref="K116:K122" si="27">(ABS(F116)/B116)^2/2</f>
+        <v>76.53998462129951</v>
+      </c>
+      <c r="M116" s="2">
+        <f t="shared" si="16"/>
+        <v>2.9076511660064266E-2</v>
+      </c>
+      <c r="N116" s="2">
+        <f t="shared" si="17"/>
+        <v>0.39816099999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117">
+        <v>2.4095</v>
+      </c>
+      <c r="B117">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E117" s="6">
+        <v>-0.40100000000000002</v>
+      </c>
+      <c r="F117" s="6">
+        <v>-0.66100000000000003</v>
+      </c>
+      <c r="G117" s="2">
         <f t="shared" si="24"/>
-        <v>4.6988681311400824E-3</v>
-      </c>
-      <c r="H115">
+        <v>2.3819303960320231E-3</v>
+      </c>
+      <c r="H117">
         <f t="shared" si="25"/>
         <v>3.1335547499999994E-3</v>
       </c>
-      <c r="J115" s="2">
+      <c r="J117" s="2">
         <f t="shared" si="26"/>
-        <v>0.27821461915639023</v>
-      </c>
-      <c r="K115">
+        <v>0.20006063255761397</v>
+      </c>
+      <c r="K117">
         <f t="shared" si="27"/>
-        <v>59.208858685056832</v>
-      </c>
-      <c r="M115" s="1">
-        <f t="shared" si="28"/>
-        <v>2.7496729353861517E-2</v>
-      </c>
-      <c r="N115" s="1">
-        <f t="shared" si="29"/>
-        <v>0.30800448287966564</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
-    </row>
-    <row r="117" spans="1:14">
-      <c r="G117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
+        <v>83.990965013456389</v>
+      </c>
+      <c r="M117" s="2">
+        <f t="shared" si="16"/>
+        <v>3.0764330278854279E-2</v>
+      </c>
+      <c r="N117" s="2">
+        <f t="shared" si="17"/>
+        <v>0.43692100000000006</v>
+      </c>
     </row>
     <row r="118" spans="1:14">
-      <c r="G118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
+      <c r="A118">
+        <v>2.4095</v>
+      </c>
+      <c r="B118">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E118" s="6">
+        <v>-0.42299999999999999</v>
+      </c>
+      <c r="F118" s="6">
+        <v>-0.66900000000000004</v>
+      </c>
+      <c r="G118" s="2">
+        <f t="shared" si="24"/>
+        <v>2.6395444416438961E-3</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="25"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J118" s="2">
+        <f t="shared" si="26"/>
+        <v>0.22709672238496426</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="27"/>
+        <v>86.03633217993081</v>
+      </c>
+      <c r="M118" s="2">
+        <f t="shared" si="16"/>
+        <v>3.2452148897644285E-2</v>
+      </c>
+      <c r="N118" s="2">
+        <f t="shared" si="17"/>
+        <v>0.44756100000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119">
+        <v>2.4095</v>
+      </c>
+      <c r="B119">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E119" s="6">
+        <v>-0.44600000000000001</v>
+      </c>
+      <c r="F119" s="6">
+        <v>-0.67800000000000005</v>
+      </c>
+      <c r="G119" s="2">
+        <f t="shared" si="24"/>
+        <v>2.8761683550440013E-3</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="25"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J119" s="2">
+        <f t="shared" si="26"/>
+        <v>0.25415774204537622</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="27"/>
+        <v>88.366782006920445</v>
+      </c>
+      <c r="M119" s="2">
+        <f t="shared" si="16"/>
+        <v>3.4216686544561115E-2</v>
+      </c>
+      <c r="N119" s="2">
+        <f t="shared" si="17"/>
+        <v>0.45968400000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120">
+        <v>2.4095</v>
+      </c>
+      <c r="B120">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E120" s="6">
+        <v>-0.46899999999999997</v>
+      </c>
+      <c r="F120" s="6">
+        <v>-0.70799999999999996</v>
+      </c>
+      <c r="G120" s="2">
+        <f t="shared" si="24"/>
+        <v>2.5501327720562602E-3</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="25"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J120" s="2">
+        <f t="shared" si="26"/>
+        <v>0.245730440955788</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="27"/>
+        <v>96.359861591695505</v>
+      </c>
+      <c r="M120" s="2">
+        <f t="shared" si="16"/>
+        <v>3.5981224191477944E-2</v>
+      </c>
+      <c r="N120" s="2">
+        <f t="shared" si="17"/>
+        <v>0.50126399999999993</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121">
+        <v>2.4095</v>
+      </c>
+      <c r="B121">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E121" s="6">
+        <v>-0.49299999999999999</v>
+      </c>
+      <c r="F121" s="6">
+        <v>-0.73599999999999999</v>
+      </c>
+      <c r="G121" s="2">
+        <f t="shared" si="24"/>
+        <v>2.3095414839135911E-3</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="25"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J121" s="2">
+        <f t="shared" si="26"/>
+        <v>0.24049776694926117</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="27"/>
+        <v>104.13225682429835</v>
+      </c>
+      <c r="M121" s="2">
+        <f t="shared" si="16"/>
+        <v>3.7822480866521596E-2</v>
+      </c>
+      <c r="N121" s="2">
+        <f t="shared" si="17"/>
+        <v>0.54169599999999996</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122">
+        <v>2.4095</v>
+      </c>
+      <c r="B122">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E122" s="6">
+        <v>-0.51800000000000002</v>
+      </c>
+      <c r="F122" s="6">
+        <v>-0.72199999999999998</v>
+      </c>
+      <c r="G122" s="2">
+        <f t="shared" si="24"/>
+        <v>3.0973304998545689E-3</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="25"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J122" s="2">
+        <f t="shared" si="26"/>
+        <v>0.31037847602579571</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="27"/>
+        <v>100.20838139177241</v>
+      </c>
+      <c r="M122" s="2">
+        <f t="shared" si="16"/>
+        <v>3.9740456569692058E-2</v>
+      </c>
+      <c r="N122" s="2">
+        <f t="shared" si="17"/>
+        <v>0.52128399999999997</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6732,332 +7015,978 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2">
+        <v>1.262658453882196E-4</v>
+      </c>
+      <c r="B1" s="2">
+        <v>4.1459708311584553E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>2.1414946750269079E-4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.8840551215052203E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>3.281211012428037E-4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.4023936700616677E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>4.4208673983253726E-4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.7766760937373118E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>6.4952871151909995E-4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9.5286480877065666E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>8.9603766253314361E-4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.1683447473078009E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>1.1521938480655368E-3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.3279080311204686E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>1.4319296435142963E-3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.7500387987497024E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>1.7673949405551204E-3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.2165983054484303E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>2.1242972774212594E-3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.6475035909530029E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
+        <v>2.5240736918453353E-3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3.0760790730661975E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
+        <v>2.9399250531536069E-3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3.935482591466196E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
+        <v>3.4466286716885509E-3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4.638430000343146E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
+        <v>3.941489183994942E-3</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5.537158561492634E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2">
+        <v>4.5409295288020611E-3</v>
+      </c>
+      <c r="B15" s="2">
+        <v>6.721921441756927E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
+        <v>5.147191168741445E-3</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7.0815181516332884E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>5.7784615515627698E-3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>7.5129054290117278E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>6.421859571688531E-3</v>
+      </c>
+      <c r="B18" s="2">
+        <v>7.9846870192453234E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>7.0925427688555281E-3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>8.3101699244583327E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>7.7624564725947472E-3</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.10274479016340386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>8.5831841190101964E-3</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.11444825078196491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>9.3357068291218346E-3</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.11722178552979558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
+        <v>1.017538341006668E-2</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.13587610855842552</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
+        <v>1.1049919930760526E-2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.14970698471744126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
+        <v>1.1974727786606723E-2</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.16153784102978225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
+        <v>1.2919010715185534E-2</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.17234066837754874</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
+        <v>1.3905304863737349E-2</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.18096895662983303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
+        <v>1.4897325063119865E-2</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.1963036659307224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
+        <v>1.5965732968007459E-2</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.22415377928862706</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
+        <v>1.7099066382976966E-2</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.23041717164793762</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
+        <v>1.8198023305438762E-2</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.25013772706352083</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
+        <v>1.9424922571429803E-2</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.26780824496621525</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
+        <v>2.0604630613317961E-2</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.28616530470984769</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
+        <v>2.1912644011424731E-2</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.31497844817953868</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
+        <v>2.3214589579882039E-2</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.3144977712467773</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
+        <v>2.4520610733098677E-2</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.3297373380947517</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
+        <v>2.5884995753694493E-2</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.33497602948728966</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2">
+        <v>5.7419063172406515E-5</v>
+      </c>
+      <c r="B1" s="2">
+        <v>3.8651830718674032E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>1.1199385074255984E-4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5.1273604694240295E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>1.7323244916012248E-4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8.524666741053801E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>2.6132504505085868E-4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.4872222761029888E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>3.7047462029857187E-4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.8062587384956573E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>5.322666436702113E-4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7.0661183269098678E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>8.0040911026556185E-4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>9.8456869707843116E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>1.0397652403481225E-3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.0343986497439646E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>1.3205916922497205E-3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.6288697176854147E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>1.6925274562826695E-3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.13321021093359E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
+        <v>2.0676055534542847E-3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.5710432374635009E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
+        <v>2.5126269117278282E-3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.9483991052224514E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
+        <v>2.9458288812904548E-3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.4280657030121987E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
+        <v>3.4595973067856581E-3</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4.3628287553209646E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2">
+        <v>4.0141354942945587E-3</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5.0371448969735715E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
+        <v>4.6074973053259506E-3</v>
+      </c>
+      <c r="B16" s="2">
+        <v>6.3802166097009921E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>5.306037419340953E-3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6.6376751373022735E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>5.9252072705364587E-3</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6.9225263981019136E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>6.6517246882250433E-3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>8.5936209443419134E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>7.4245465895937208E-3</v>
+      </c>
+      <c r="B20" s="2">
+        <v>9.7911707030584383E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>8.2521269044292921E-3</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.10857616203538063</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>9.1098537941198127E-3</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.11603519626779207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
+        <v>9.9943617851645534E-3</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.13355006761285274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
+        <v>1.0978959606795843E-2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.14166581561740435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
+        <v>1.1919422214394031E-2</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.15625941248644973</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
+        <v>1.3000744409989322E-2</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.1741953833921448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
+        <v>1.4054089301143841E-2</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.18039053419330306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
+        <v>1.5173038927148545E-2</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.19033903601421889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
+        <v>1.6285480761857655E-2</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.20224803801514601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
+        <v>1.7473177449713686E-2</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.22098838792181683</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
+        <v>1.8689824515475639E-2</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.23017137974971727</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
+        <v>1.9926968028589519E-2</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.25226160947167914</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
+        <v>2.1258666646787605E-2</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.26182707967715335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
+        <v>2.2544060774400881E-2</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.28510394634694358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
+        <v>2.3989614749620448E-2</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.33637589586380012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
+        <v>2.5510423585658842E-2</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.33544319655070959</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
+        <v>2.6951862152740213E-2</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.37194682219744818</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
+        <v>2.8629688494039941E-2</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.39721316771865955</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>4.8180004074527836E-4</v>
+        <v>3.7132009613380224E-5</v>
       </c>
       <c r="B1">
-        <v>0.36208381391772404</v>
+        <v>1.6892099999999998E-3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2.226726834322801E-3</v>
+        <v>1.0126911712740062E-4</v>
       </c>
       <c r="B2">
-        <v>0.33427335640138417</v>
+        <v>1.7808400000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2.7178665719725832E-3</v>
+        <v>2.5317279281850152E-4</v>
       </c>
       <c r="B3">
-        <v>0.44475394079200303</v>
+        <v>3.3988899999999999E-3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>2.542111747875813E-3</v>
+        <v>3.9970613654072518E-4</v>
       </c>
       <c r="B4">
-        <v>1.1575855440215304</v>
+        <v>7.3788100000000004E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>4.2403686222676042E-3</v>
+        <v>6.9200563370390422E-4</v>
       </c>
       <c r="B5">
-        <v>1.4483352556708962</v>
+        <v>1.2321E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5.0934842197712365E-3</v>
+        <v>9.6665975439791493E-4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1.3923999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>4.8713229663670914E-3</v>
+        <v>1.296551575343235E-3</v>
       </c>
       <c r="B7">
-        <v>3.1989619377162639</v>
+        <v>1.7956000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>8.3908234429466069E-3</v>
+        <v>1.6494591047266007E-3</v>
       </c>
       <c r="B8">
-        <v>3.4517493271818545</v>
+        <v>2.1608999999999996E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>9.5357075739832837E-3</v>
+        <v>2.0483980509860581E-3</v>
       </c>
       <c r="B9">
-        <v>4.2677816224529037</v>
+        <v>2.7225000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>9.2932837227668701E-3</v>
+        <v>2.4933684141216061E-3</v>
       </c>
       <c r="B10">
-        <v>6.0224913494809691</v>
+        <v>3.4969E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>1.2592052948211668E-2</v>
+        <v>3.0073859025712907E-3</v>
       </c>
       <c r="B11">
-        <v>6.7222222222222232</v>
+        <v>4.3263999999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>1.618521380809728E-2</v>
+        <v>3.5520910022717035E-3</v>
       </c>
       <c r="B12">
-        <v>7.3848519800076913</v>
+        <v>5.0625000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>1.8299959186864525E-2</v>
+        <v>4.1581713244735708E-3</v>
       </c>
       <c r="B13">
-        <v>8.639753940792005</v>
+        <v>5.2900000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>1.8331379853395023E-2</v>
+        <v>4.73356403542471E-3</v>
       </c>
       <c r="B14">
-        <v>10.797577854671282</v>
+        <v>6.4008999999999996E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>2.0796069557688784E-2</v>
+        <v>5.4470509970041235E-3</v>
       </c>
       <c r="B15">
-        <v>12.402153018069974</v>
+        <v>8.008899999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>2.5732279838643748E-2</v>
+        <v>6.1758817642089013E-3</v>
       </c>
       <c r="B16">
-        <v>13.296616685890044</v>
+        <v>7.7284000000000019E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>2.796299213848033E-2</v>
+        <v>6.8663530173502683E-3</v>
       </c>
       <c r="B17">
-        <v>15.178969627066518</v>
+        <v>9.1203999999999993E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>3.1588902226080198E-2</v>
+        <v>7.7486218408086838E-3</v>
       </c>
       <c r="B18">
-        <v>16.842752787389465</v>
+        <v>0.10562500000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>3.6151456737018819E-2</v>
+        <v>8.5158121220768705E-3</v>
       </c>
       <c r="B19">
-        <v>18.117839292579777</v>
+        <v>0.11764900000000002</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>3.7671072881263548E-2</v>
+        <v>9.4364404595986932E-3</v>
       </c>
       <c r="B20">
-        <v>20.807574009996163</v>
+        <v>0.13542399999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>4.7533419025508269E-2</v>
+        <v>1.0433787825247337E-2</v>
       </c>
       <c r="B21">
-        <v>20.807574009996163</v>
+        <v>0.139129</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5.0553796419753022E-2</v>
+        <v>1.135441616276916E-2</v>
       </c>
       <c r="B22">
-        <v>23.01345636293733</v>
+        <v>0.15840400000000002</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>4.4772744486201804E-2</v>
+        <v>1.2428482556544621E-2</v>
       </c>
       <c r="B23">
-        <v>28.346020761245679</v>
+        <v>0.17139599999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5.1318978224854664E-2</v>
+        <v>1.3502548950320081E-2</v>
       </c>
       <c r="B24">
-        <v>29.993271818531341</v>
+        <v>0.17977599999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>6.0064595135711579E-2</v>
+        <v>1.4653334372222361E-2</v>
       </c>
       <c r="B25">
-        <v>31.220492118416004</v>
+        <v>0.189225</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>6.3878215124364465E-2</v>
+        <v>1.5727400765997823E-2</v>
       </c>
       <c r="B26">
-        <v>33.748750480584398</v>
+        <v>0.20070400000000002</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>6.657111520742548E-2</v>
+        <v>1.6878186187900102E-2</v>
       </c>
       <c r="B27">
-        <v>37.216455209534807</v>
+        <v>0.21068100000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>6.6529612790486414E-2</v>
+        <v>1.81056906379292E-2</v>
       </c>
       <c r="B28">
-        <v>41.565743944636694</v>
+        <v>0.19980900000000001</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>8.581715979575151E-2</v>
+        <v>1.9179757031704662E-2</v>
       </c>
       <c r="B29">
-        <v>39.972318339100347</v>
+        <v>0.21715600000000002</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>9.0639451706608448E-2</v>
+        <v>2.048398050986058E-2</v>
       </c>
       <c r="B30">
-        <v>42.464436755094191</v>
+        <v>0.26936100000000002</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>8.6135844384077564E-2</v>
+        <v>2.1864923016143314E-2</v>
       </c>
       <c r="B31">
-        <v>48.830449826989621</v>
+        <v>0.272484</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>8.849328581154664E-2</v>
+        <v>2.3092427466172412E-2</v>
       </c>
       <c r="B32">
-        <v>52.984429065743953</v>
+        <v>0.25603599999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>0.10836658041121983</v>
+        <v>2.4473369972455149E-2</v>
       </c>
       <c r="B33">
-        <v>51.78027681660901</v>
+        <v>0.29376400000000003</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>0.13246169116648493</v>
+        <v>2.5931031506864703E-2</v>
       </c>
       <c r="B34">
-        <v>48.636870434448291</v>
+        <v>0.36844899999999997</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>0.12145895884395408</v>
+        <v>2.7542131097527893E-2</v>
       </c>
       <c r="B35">
-        <v>57.098231449442537</v>
+        <v>0.39564100000000002</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>0.10893702853803541</v>
+        <v>2.9076511660064266E-2</v>
       </c>
       <c r="B36">
-        <v>66.916570549788545</v>
+        <v>0.39816099999999999</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>0.12757154573211676</v>
+        <v>3.0764330278854279E-2</v>
       </c>
       <c r="B37">
-        <v>66.689926951172623</v>
+        <v>0.43692100000000006</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>0.152260568503994</v>
+        <v>3.2452148897644285E-2</v>
       </c>
       <c r="B38">
-        <v>64.222222222222229</v>
+        <v>0.44756100000000004</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>0.14590046877587123</v>
+        <v>3.4216686544561115E-2</v>
       </c>
       <c r="B39">
-        <v>71.764898116109194</v>
+        <v>0.45968400000000004</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>0.15488551105301349</v>
+        <v>3.5981224191477944E-2</v>
       </c>
       <c r="B40">
-        <v>78.98519800076896</v>
+        <v>0.50126399999999993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>3.7822480866521596E-2</v>
+      </c>
+      <c r="B41">
+        <v>0.54169599999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>3.9740456569692058E-2</v>
+      </c>
+      <c r="B42">
+        <v>0.52128399999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Experiments/Rolling_motion/Final.xlsx
+++ b/Experiments/Rolling_motion/Final.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>下落高度h(m)</t>
   </si>
@@ -107,12 +107,39 @@
   <si>
     <t>Vx^2</t>
   </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>slope err</t>
+  </si>
+  <si>
+    <t>r^2</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Reg SS</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>Intercept error</t>
+  </si>
+  <si>
+    <t>std error on y</t>
+  </si>
+  <si>
+    <t>Deg of freedom</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +161,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -159,7 +194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -179,6 +214,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -197,6 +235,1199 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10587270341207349"/>
+          <c:y val="0.11615740740740743"/>
+          <c:w val="0.86164129483814522"/>
+          <c:h val="0.83291666666666664"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$R$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>4.3046946586199547E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$R$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>4.3046946586199547E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$N$2:$N$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>4.1459708311584553E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8840551215052203E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4023936700616677E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7766760937373118E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5286480877065666E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1683447473078009E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3279080311204686E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7500387987497024E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2165983054484303E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6475035909530029E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0760790730661975E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.935482591466196E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.638430000343146E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.537158561492634E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.721921441756927E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.0815181516332884E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.5129054290117278E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.9846870192453234E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.3101699244583327E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10274479016340386</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.11444825078196491</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.11722178552979558</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.13587610855842552</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.14970698471744126</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.16153784102978225</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.17234066837754874</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.18096895662983303</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1963036659307224</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.22415377928862706</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.23041717164793762</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.25013772706352083</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.26780824496621525</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.28616530470984769</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.31497844817953868</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.3144977712467773</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.3297373380947517</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.33497602948728966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$O$2:$O$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1.262658453882196E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1414946750269079E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.281211012428037E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4208673983253726E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4952871151909995E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9603766253314361E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1521938480655368E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4319296435142963E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7673949405551204E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1242972774212594E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5240736918453353E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9399250531536069E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4466286716885509E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.941489183994942E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5409295288020611E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.147191168741445E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.7784615515627698E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.421859571688531E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0925427688555281E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.7624564725947472E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.5831841190101964E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.3357068291218346E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.017538341006668E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1049919930760526E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1974727786606723E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2919010715185534E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3905304863737349E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4897325063119865E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5965732968007459E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7099066382976966E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8198023305438762E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9424922571429803E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0604630613317961E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1912644011424731E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3214589579882039E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.4520610733098677E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5884995753694493E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-850D-4610-A822-16BBC467C03A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="561533984"/>
+        <c:axId val="561538904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="561533984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561538904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="561538904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561533984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>252411</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,10 +1714,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
@@ -960,10 +2191,10 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="8"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1719,10 +2950,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1735,9 +2966,12 @@
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1">
+    <row r="1" spans="1:19" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1775,7 +3009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1.1924999999999999</v>
       </c>
@@ -1818,8 +3052,24 @@
         <f>ABS(F2)^2</f>
         <v>4.1459708311584553E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>1.262658453882196E-4</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2">
+        <f t="array" ref="Q2:R6">LINEST(M2:M38,N2:N38,FALSE,TRUE)</f>
+        <v>7.3902359919299207E-2</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1.1924999999999999</v>
       </c>
@@ -1862,8 +3112,23 @@
         <f t="shared" ref="N3:N12" si="5">ABS(F3)^2</f>
         <v>1.8840551215052203E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>2.1414946750269079E-4</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3">
+        <v>4.3439000992437577E-4</v>
+      </c>
+      <c r="R3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>1.1924999999999999</v>
       </c>
@@ -1906,8 +3171,23 @@
         <f t="shared" si="5"/>
         <v>2.4023936700616677E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>3.281211012428037E-4</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4">
+        <v>0.99875775942334399</v>
+      </c>
+      <c r="R4">
+        <v>4.3046946586199547E-4</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>1.1924999999999999</v>
       </c>
@@ -1950,8 +3230,23 @@
         <f t="shared" si="5"/>
         <v>4.7766760937373118E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>4.4208673983253726E-4</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5">
+        <v>28943.893811639398</v>
+      </c>
+      <c r="R5">
+        <v>36</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>1.1924999999999999</v>
       </c>
@@ -1994,8 +3289,23 @@
         <f t="shared" si="5"/>
         <v>9.5286480877065666E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>6.4952871151909995E-4</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6">
+        <v>5.3634181712037899E-3</v>
+      </c>
+      <c r="R6">
+        <v>6.6709425974224206E-6</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>1.1924999999999999</v>
       </c>
@@ -2038,8 +3348,11 @@
         <f t="shared" si="5"/>
         <v>1.1683447473078009E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>8.9603766253314361E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>1.1924999999999999</v>
       </c>
@@ -2082,8 +3395,11 @@
         <f t="shared" si="5"/>
         <v>1.3279080311204686E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.1521938480655368E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>1.1924999999999999</v>
       </c>
@@ -2126,8 +3442,11 @@
         <f t="shared" si="5"/>
         <v>1.7500387987497024E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.4319296435142963E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>1.1924999999999999</v>
       </c>
@@ -2170,8 +3489,11 @@
         <f t="shared" si="5"/>
         <v>2.2165983054484303E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.7673949405551204E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>1.1924999999999999</v>
       </c>
@@ -2214,8 +3536,11 @@
         <f t="shared" si="5"/>
         <v>2.6475035909530029E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>2.1242972774212594E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>1.1924999999999999</v>
       </c>
@@ -2258,8 +3583,11 @@
         <f t="shared" si="5"/>
         <v>3.0760790730661975E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>2.5240736918453353E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>1.1924999999999999</v>
       </c>
@@ -2302,8 +3630,11 @@
         <f t="shared" ref="N13:N76" si="7">ABS(F13)^2</f>
         <v>3.935482591466196E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>2.9399250531536069E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>1.1924999999999999</v>
       </c>
@@ -2346,8 +3677,11 @@
         <f t="shared" si="7"/>
         <v>4.638430000343146E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>3.4466286716885509E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>1.1924999999999999</v>
       </c>
@@ -2390,8 +3724,11 @@
         <f t="shared" si="7"/>
         <v>5.537158561492634E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>3.941489183994942E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>1.1924999999999999</v>
       </c>
@@ -2434,8 +3771,11 @@
         <f t="shared" si="7"/>
         <v>6.721921441756927E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>4.5409295288020611E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>1.1924999999999999</v>
       </c>
@@ -2478,8 +3818,13 @@
         <f t="shared" si="7"/>
         <v>7.0815181516332884E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>5.147191168741445E-3</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>1.1924999999999999</v>
       </c>
@@ -2522,8 +3867,11 @@
         <f t="shared" si="7"/>
         <v>7.5129054290117278E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>5.7784615515627698E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>1.1924999999999999</v>
       </c>
@@ -2566,8 +3914,11 @@
         <f t="shared" si="7"/>
         <v>7.9846870192453234E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>6.421859571688531E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>1.1924999999999999</v>
       </c>
@@ -2610,8 +3961,11 @@
         <f t="shared" si="7"/>
         <v>8.3101699244583327E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>7.0925427688555281E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>1.1924999999999999</v>
       </c>
@@ -2654,8 +4008,11 @@
         <f t="shared" si="7"/>
         <v>0.10274479016340386</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>7.7624564725947472E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>1.1924999999999999</v>
       </c>
@@ -2698,8 +4055,11 @@
         <f t="shared" si="7"/>
         <v>0.11444825078196491</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>8.5831841190101964E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>1.1924999999999999</v>
       </c>
@@ -2742,8 +4102,11 @@
         <f t="shared" si="7"/>
         <v>0.11722178552979558</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>9.3357068291218346E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>1.1924999999999999</v>
       </c>
@@ -2786,8 +4149,11 @@
         <f t="shared" si="7"/>
         <v>0.13587610855842552</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.017538341006668E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>1.1924999999999999</v>
       </c>
@@ -2830,8 +4196,11 @@
         <f t="shared" si="7"/>
         <v>0.14970698471744126</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25">
+        <v>1.1049919930760526E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>1.1924999999999999</v>
       </c>
@@ -2874,8 +4243,11 @@
         <f t="shared" si="7"/>
         <v>0.16153784102978225</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26">
+        <v>1.1974727786606723E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>1.1924999999999999</v>
       </c>
@@ -2918,8 +4290,11 @@
         <f t="shared" si="7"/>
         <v>0.17234066837754874</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27">
+        <v>1.2919010715185534E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>1.1924999999999999</v>
       </c>
@@ -2962,8 +4337,11 @@
         <f t="shared" si="7"/>
         <v>0.18096895662983303</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28">
+        <v>1.3905304863737349E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>1.1924999999999999</v>
       </c>
@@ -3006,8 +4384,11 @@
         <f t="shared" si="7"/>
         <v>0.1963036659307224</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29">
+        <v>1.4897325063119865E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>1.1924999999999999</v>
       </c>
@@ -3050,8 +4431,11 @@
         <f t="shared" si="7"/>
         <v>0.22415377928862706</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30">
+        <v>1.5965732968007459E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>1.1924999999999999</v>
       </c>
@@ -3094,8 +4478,11 @@
         <f t="shared" si="7"/>
         <v>0.23041717164793762</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31">
+        <v>1.7099066382976966E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>1.1924999999999999</v>
       </c>
@@ -3138,8 +4525,11 @@
         <f t="shared" si="7"/>
         <v>0.25013772706352083</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32">
+        <v>1.8198023305438762E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>1.1924999999999999</v>
       </c>
@@ -3182,8 +4572,11 @@
         <f t="shared" si="7"/>
         <v>0.26780824496621525</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33">
+        <v>1.9424922571429803E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>1.1924999999999999</v>
       </c>
@@ -3226,8 +4619,11 @@
         <f t="shared" si="7"/>
         <v>0.28616530470984769</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34">
+        <v>2.0604630613317961E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>1.1924999999999999</v>
       </c>
@@ -3270,8 +4666,11 @@
         <f t="shared" si="7"/>
         <v>0.31497844817953868</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35">
+        <v>2.1912644011424731E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>1.1924999999999999</v>
       </c>
@@ -3314,8 +4713,11 @@
         <f t="shared" si="7"/>
         <v>0.3144977712467773</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36">
+        <v>2.3214589579882039E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>1.1924999999999999</v>
       </c>
@@ -3358,8 +4760,11 @@
         <f t="shared" si="7"/>
         <v>0.3297373380947517</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37">
+        <v>2.4520610733098677E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>1.1924999999999999</v>
       </c>
@@ -3402,8 +4807,11 @@
         <f t="shared" si="7"/>
         <v>0.33497602948728966</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38">
+        <v>2.5884995753694493E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="2"/>
@@ -3411,7 +4819,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" s="5" customFormat="1">
+    <row r="40" spans="1:15" s="5" customFormat="1">
       <c r="A40" s="5" t="s">
         <v>16</v>
       </c>
@@ -3445,7 +4853,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:15">
       <c r="A41" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -3489,7 +4897,7 @@
         <v>3.8651830718674032E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:15">
       <c r="A42" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -3533,7 +4941,7 @@
         <v>5.1273604694240295E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:15">
       <c r="A43" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -3577,7 +4985,7 @@
         <v>8.524666741053801E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:15">
       <c r="A44" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -3621,7 +5029,7 @@
         <v>1.4872222761029888E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:15">
       <c r="A45" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -3665,7 +5073,7 @@
         <v>2.8062587384956573E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:15">
       <c r="A46" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -3709,7 +5117,7 @@
         <v>7.0661183269098678E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:15">
       <c r="A47" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -3753,7 +5161,7 @@
         <v>9.8456869707843116E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:15">
       <c r="A48" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7010,6 +8418,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Experiments/Rolling_motion/Final.xlsx
+++ b/Experiments/Rolling_motion/Final.xlsx
@@ -1399,16 +1399,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>252411</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2953,7 +2953,7 @@
   <dimension ref="A1:S122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4199,6 +4199,10 @@
       <c r="O25">
         <v>1.1049919930760526E-2</v>
       </c>
+      <c r="Q25">
+        <f>(Q2*A2*9.8-0.5*A2)*2*B2^2</f>
+        <v>1.3910664516822221E-3</v>
+      </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26">

--- a/Experiments/Rolling_motion/Final.xlsx
+++ b/Experiments/Rolling_motion/Final.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
   <si>
     <t>下落高度h(m)</t>
   </si>
@@ -381,7 +381,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>4.3046946586199547E-4</c:v>
+                    <c:v>4.4121305192811695E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -393,7 +393,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>4.3046946586199547E-4</c:v>
+                    <c:v>4.4121305192811695E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -839,7 +839,1307 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$R$43</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>6.2313451908579357E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$R$43</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>6.2313451908579357E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$N$41:$N$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>3.8651830718674032E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1273604694240295E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.524666741053801E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4872222761029888E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8062587384956573E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0661183269098678E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8456869707843116E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0343986497439646E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6288697176854147E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.13321021093359E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5710432374635009E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9483991052224514E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4280657030121987E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3628287553209646E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0371448969735715E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.3802166097009921E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.6376751373022735E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.9225263981019136E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.5936209443419134E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.7911707030584383E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.10857616203538063</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.11603519626779207</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.13355006761285274</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.14166581561740435</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.15625941248644973</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1741953833921448</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.18039053419330306</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.19033903601421889</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.20224803801514601</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.22098838792181683</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.23017137974971727</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25226160947167914</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.26182707967715335</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.28510394634694358</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.33637589586380012</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.33544319655070959</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37194682219744818</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.39721316771865955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$O$41:$O$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>5.7419063172406515E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1199385074255984E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7323244916012248E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6132504505085868E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7047462029857187E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.322666436702113E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0040911026556185E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0397652403481225E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3205916922497205E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6925274562826695E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0676055534542847E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5126269117278282E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9458288812904548E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4595973067856581E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0141354942945587E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6074973053259506E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.306037419340953E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9252072705364587E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.6517246882250433E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.4245465895937208E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.2521269044292921E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1098537941198127E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.9943617851645534E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0978959606795843E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1919422214394031E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3000744409989322E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4054089301143841E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5173038927148545E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.6285480761857655E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7473177449713686E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8689824515475639E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9926968028589519E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.1258666646787605E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2544060774400881E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3989614749620448E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.5510423585658842E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.6951862152740213E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.8629688494039941E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4654-45EF-97F7-26F9DF26B7C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="515750544"/>
+        <c:axId val="515751528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="515750544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515751528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="515751528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515750544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$R$83</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.3177037825844974E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$R$83</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.3177037825844974E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$N$81:$N$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1.6892099999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7808400000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3988899999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3788100000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2321E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3923999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7956000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1608999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7225000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4969E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3263999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0625000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2900000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.4008999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.008899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.7284000000000019E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.1203999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10562500000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.11764900000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13542399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.139129</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.15840400000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.17139599999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.17977599999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.189225</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20070400000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.21068100000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.19980900000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.21715600000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.26936100000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.272484</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25603599999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.29376400000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.36844899999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.39564100000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.39816099999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.43692100000000006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.44756100000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.45968400000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.50126399999999993</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.54169599999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.52128399999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$O$81:$O$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>3.7132009613380224E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0126911712740062E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5317279281850152E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9970613654072518E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9200563370390422E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6665975439791493E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.296551575343235E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6494591047266007E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0483980509860581E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4933684141216061E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0073859025712907E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5520910022717035E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1581713244735708E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.73356403542471E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.4470509970041235E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1758817642089013E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8663530173502683E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.7486218408086838E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.5158121220768705E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.4364404595986932E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0433787825247337E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.135441616276916E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2428482556544621E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3502548950320081E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4653334372222361E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5727400765997823E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6878186187900102E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.81056906379292E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9179757031704662E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.048398050986058E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.1864923016143314E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.3092427466172412E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.4473369972455149E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.5931031506864703E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.7542131097527893E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.9076511660064266E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0764330278854279E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.2452148897644285E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.4216686544561115E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.5981224191477944E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.7822480866521596E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.9740456569692058E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D83-4967-BF06-5BE71659D89A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="469633568"/>
+        <c:axId val="469623072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="469633568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469623072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="469623072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469633568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1395,6 +2695,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1422,6 +3754,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2953,7 +5345,7 @@
   <dimension ref="A1:S122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="D2" sqref="D2:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3020,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E2" s="1">
         <v>-1.810095015E-3</v>
@@ -3030,7 +5422,7 @@
       </c>
       <c r="G2" s="2">
         <f>(A2*9.8*ABS(E2)*SIN(RADIANS(D2))-0.5*A2*ABS(F2)^2)/(0.5*(ABS(F2)/B2)^2)</f>
-        <v>1.5412912872977143E-2</v>
+        <v>1.5874997346045482E-2</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H29" si="0">0.5*A2*(POWER(B2,2)+POWER(C2,2))</f>
@@ -3038,7 +5430,7 @@
       </c>
       <c r="J2" s="2">
         <f>A2*9.8*ABS(E2)*SIN(RADIANS(D2))-A2*ABS(F2)^2/2</f>
-        <v>1.2284022913216053E-3</v>
+        <v>1.2652302180204242E-3</v>
       </c>
       <c r="K2">
         <f>(ABS(F2)/B2)^2/2</f>
@@ -3046,7 +5438,7 @@
       </c>
       <c r="M2" s="2">
         <f>ABS(E2)*SIN(RADIANS(D2))</f>
-        <v>1.262658453882196E-4</v>
+        <v>1.2941716757183477E-4</v>
       </c>
       <c r="N2" s="2">
         <f>ABS(F2)^2</f>
@@ -3060,7 +5452,7 @@
       </c>
       <c r="Q2">
         <f t="array" ref="Q2:R6">LINEST(M2:M38,N2:N38,FALSE,TRUE)</f>
-        <v>7.3902359919299207E-2</v>
+        <v>7.5746802852533851E-2</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -3080,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E3" s="1">
         <v>-3.0699583279999998E-3</v>
@@ -3090,7 +5482,7 @@
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:G29" si="1">(A3*9.8*ABS(E3)*SIN(RADIANS(D3))-0.5*A3*ABS(F3)^2)/(0.5*(ABS(F3)/B3)^2)</f>
-        <v>3.808310013805374E-3</v>
+        <v>3.9807687190367017E-3</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
@@ -3098,7 +5490,7 @@
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J29" si="2">A3*9.8*ABS(E3)*SIN(RADIANS(D3))-A3*ABS(F3)^2/2</f>
-        <v>1.3792898857727088E-3</v>
+        <v>1.441750805964797E-3</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K29" si="3">(ABS(F3)/B3)^2/2</f>
@@ -3106,7 +5498,7 @@
       </c>
       <c r="M3" s="2">
         <f t="shared" ref="M3:M12" si="4">ABS(E3)*SIN(RADIANS(D3))</f>
-        <v>2.1414946750269079E-4</v>
+        <v>2.1949417465984552E-4</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" ref="N3:N12" si="5">ABS(F3)^2</f>
@@ -3119,7 +5511,7 @@
         <v>27</v>
       </c>
       <c r="Q3">
-        <v>4.3439000992437577E-4</v>
+        <v>4.4523144428381545E-4</v>
       </c>
       <c r="R3" t="e">
         <v>#N/A</v>
@@ -3139,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E4" s="1">
         <v>-4.7038086019999996E-3</v>
@@ -3149,7 +5541,7 @@
       </c>
       <c r="G4" s="2">
         <f t="shared" si="1"/>
-        <v>5.2014940765331636E-3</v>
+        <v>5.4087236402593965E-3</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
@@ -3157,7 +5549,7 @@
       </c>
       <c r="J4" s="2">
         <f t="shared" si="2"/>
-        <v>2.4021600238997567E-3</v>
+        <v>2.4978630212364626E-3</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
@@ -3165,7 +5557,7 @@
       </c>
       <c r="M4" s="2">
         <f t="shared" si="4"/>
-        <v>3.281211012428037E-4</v>
+        <v>3.363102936731041E-4</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="5"/>
@@ -3181,7 +5573,7 @@
         <v>0.99875775942334399</v>
       </c>
       <c r="R4">
-        <v>4.3046946586199547E-4</v>
+        <v>4.4121305192811695E-4</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>33</v>
@@ -3198,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E5" s="1">
         <v>-6.3375729320000003E-3</v>
@@ -3208,7 +5600,7 @@
       </c>
       <c r="G5" s="2">
         <f t="shared" si="1"/>
-        <v>2.524783971972277E-3</v>
+        <v>2.6652086455425487E-3</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
@@ -3216,7 +5608,7 @@
       </c>
       <c r="J5" s="2">
         <f t="shared" si="2"/>
-        <v>2.3183535641620747E-3</v>
+        <v>2.4472968900394261E-3</v>
       </c>
       <c r="K5">
         <f t="shared" si="3"/>
@@ -3224,7 +5616,7 @@
       </c>
       <c r="M5" s="2">
         <f t="shared" si="4"/>
-        <v>4.4208673983253726E-4</v>
+        <v>4.5312026791000706E-4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="5"/>
@@ -3237,7 +5629,7 @@
         <v>29</v>
       </c>
       <c r="Q5">
-        <v>28943.893811639398</v>
+        <v>28943.893811639355</v>
       </c>
       <c r="R5">
         <v>36</v>
@@ -3257,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E6" s="1">
         <v>-9.3113753699999996E-3</v>
@@ -3267,7 +5659,7 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>1.0423278231759584E-3</v>
+        <v>1.1457536002229866E-3</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
@@ -3275,7 +5667,7 @@
       </c>
       <c r="J6" s="2">
         <f t="shared" si="2"/>
-        <v>1.9092608648729227E-3</v>
+        <v>2.0987087373601837E-3</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
@@ -3283,7 +5675,7 @@
       </c>
       <c r="M6" s="2">
         <f t="shared" si="4"/>
-        <v>6.4952871151909995E-4</v>
+        <v>6.6573954217731763E-4</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="5"/>
@@ -3296,10 +5688,10 @@
         <v>30</v>
       </c>
       <c r="Q6">
-        <v>5.3634181712037899E-3</v>
+        <v>5.6344776253798041E-3</v>
       </c>
       <c r="R6">
-        <v>6.6709425974224206E-6</v>
+        <v>7.0080824589020354E-6</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>30</v>
@@ -3316,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E7" s="1">
         <v>-1.2845225890000001E-2</v>
@@ -3326,7 +5718,7 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>1.5607132461134025E-3</v>
+        <v>1.6770768012107252E-3</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
@@ -3334,7 +5726,7 @@
       </c>
       <c r="J7" s="2">
         <f t="shared" si="2"/>
-        <v>3.5052885873708209E-3</v>
+        <v>3.7666356622958856E-3</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
@@ -3342,7 +5734,7 @@
       </c>
       <c r="M7" s="2">
         <f t="shared" si="4"/>
-        <v>8.9603766253314361E-4</v>
+        <v>9.184008230110509E-4</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="5"/>
@@ -3363,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E8" s="1">
         <v>-1.6517375179999998E-2</v>
@@ -3373,7 +5765,7 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>2.1731848479350493E-3</v>
+        <v>2.3048343684470137E-3</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
@@ -3381,7 +5773,7 @@
       </c>
       <c r="J8" s="2">
         <f t="shared" si="2"/>
-        <v>5.5474617698621029E-3</v>
+        <v>5.8835218536394899E-3</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
@@ -3389,7 +5781,7 @@
       </c>
       <c r="M8" s="2">
         <f t="shared" si="4"/>
-        <v>1.1521938480655368E-3</v>
+        <v>1.1809501124541379E-3</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="5"/>
@@ -3410,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E9" s="1">
         <v>-2.0527552019999999E-2</v>
@@ -3420,7 +5812,7 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>1.8725713051331225E-3</v>
+        <v>1.9967181623301248E-3</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
@@ -3428,7 +5820,7 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" si="2"/>
-        <v>6.2996394413847214E-3</v>
+        <v>6.7172899927834002E-3</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
@@ -3436,7 +5828,7 @@
       </c>
       <c r="M9" s="2">
         <f t="shared" si="4"/>
-        <v>1.4319296435142963E-3</v>
+        <v>1.4676675078362641E-3</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="5"/>
@@ -3457,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E10" s="1">
         <v>-2.533664398E-2</v>
@@ -3467,7 +5859,7 @@
       </c>
       <c r="G10" s="2">
         <f t="shared" si="1"/>
-        <v>1.7456244954334736E-3</v>
+        <v>1.866603035051675E-3</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
@@ -3475,7 +5867,7 @@
       </c>
       <c r="J10" s="2">
         <f t="shared" si="2"/>
-        <v>7.4381935765611487E-3</v>
+        <v>7.953689204998924E-3</v>
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
@@ -3483,7 +5875,7 @@
       </c>
       <c r="M10" s="2">
         <f t="shared" si="4"/>
-        <v>1.7673949405551204E-3</v>
+        <v>1.8115052925371316E-3</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="5"/>
@@ -3504,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E11" s="1">
         <v>-3.0453048489999999E-2</v>
@@ -3514,7 +5906,7 @@
       </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>1.776214836216796E-3</v>
+        <v>1.8979568445245576E-3</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
@@ -3522,7 +5914,7 @@
       </c>
       <c r="J11" s="2">
         <f t="shared" si="2"/>
-        <v>9.0398599715262734E-3</v>
+        <v>9.659453212903877E-3</v>
       </c>
       <c r="K11">
         <f t="shared" si="3"/>
@@ -3530,7 +5922,7 @@
       </c>
       <c r="M11" s="2">
         <f t="shared" si="4"/>
-        <v>2.1242972774212594E-3</v>
+        <v>2.17731513917436E-3</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="5"/>
@@ -3551,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E12" s="1">
         <v>-3.618407807E-2</v>
@@ -3561,7 +5953,7 @@
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>1.8866853982361675E-3</v>
+        <v>2.0111845126454071E-3</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
@@ -3569,7 +5961,7 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" si="2"/>
-        <v>1.1156465726593311E-2</v>
+        <v>1.189266165210184E-2</v>
       </c>
       <c r="K12">
         <f t="shared" si="3"/>
@@ -3577,7 +5969,7 @@
       </c>
       <c r="M12" s="2">
         <f t="shared" si="4"/>
-        <v>2.5240736918453353E-3</v>
+        <v>2.5870691075393863E-3</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="5"/>
@@ -3598,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E13" s="1">
         <v>-4.2145551449999999E-2</v>
@@ -3608,7 +6000,7 @@
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>1.4397422086926152E-3</v>
+        <v>1.5530865885519547E-3</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
@@ -3616,15 +6008,15 @@
       </c>
       <c r="J13" s="2">
         <f t="shared" si="2"/>
-        <v>1.0892119182062437E-2</v>
+        <v>1.1749606367331491E-2</v>
       </c>
       <c r="K13">
         <f t="shared" si="3"/>
         <v>7.5653260120457455</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" ref="M13:M76" si="6">ABS(E13)*SIN(RADIANS(D13))</f>
-        <v>2.9399250531536069E-3</v>
+        <f t="shared" ref="M13:O76" si="6">ABS(E13)*SIN(RADIANS(D13))</f>
+        <v>3.013299218666725E-3</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" ref="N13:N76" si="7">ABS(F13)^2</f>
@@ -3645,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E14" s="1">
         <v>-4.9409445269999998E-2</v>
@@ -3655,7 +6047,7 @@
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>1.4156009180147462E-3</v>
+        <v>1.5283427835154288E-3</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
@@ -3663,7 +6055,7 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="2"/>
-        <v>1.2622387094642248E-2</v>
+        <v>1.3627664394205912E-2</v>
       </c>
       <c r="K14">
         <f t="shared" si="3"/>
@@ -3671,7 +6063,7 @@
       </c>
       <c r="M14" s="2">
         <f t="shared" si="6"/>
-        <v>3.4466286716885509E-3</v>
+        <v>3.5326490627007163E-3</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="7"/>
@@ -3692,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E15" s="1">
         <v>-5.6503561209999997E-2</v>
@@ -3702,7 +6094,7 @@
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>1.2257189544345095E-3</v>
+        <v>1.3337217771460755E-3</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
@@ -3710,7 +6102,7 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="2"/>
-        <v>1.3046905425857062E-2</v>
+        <v>1.419651856396302E-2</v>
       </c>
       <c r="K15">
         <f t="shared" si="3"/>
@@ -3718,7 +6110,7 @@
       </c>
       <c r="M15" s="2">
         <f t="shared" si="6"/>
-        <v>3.941489183994942E-3</v>
+        <v>4.0398602222104863E-3</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="7"/>
@@ -3739,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E16" s="1">
         <v>-6.5096890439999999E-2</v>
@@ -3749,7 +6141,7 @@
       </c>
       <c r="G16" s="2">
         <f t="shared" si="1"/>
-        <v>1.0051319670398632E-3</v>
+        <v>1.1076294160325406E-3</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
@@ -3757,7 +6149,7 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" si="2"/>
-        <v>1.2988116341869617E-2</v>
+        <v>1.4312568091406845E-2</v>
       </c>
       <c r="K16">
         <f t="shared" si="3"/>
@@ -3765,7 +6157,7 @@
       </c>
       <c r="M16" s="2">
         <f t="shared" si="6"/>
-        <v>4.5409295288020611E-3</v>
+        <v>4.6542613004648542E-3</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="7"/>
@@ -3786,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E17" s="1">
         <v>-7.3788006939999998E-2</v>
@@ -3796,7 +6188,7 @@
       </c>
       <c r="G17" s="2">
         <f t="shared" si="1"/>
-        <v>1.3170504373911881E-3</v>
+        <v>1.4273326962196149E-3</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
@@ -3804,7 +6196,7 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" si="2"/>
-        <v>1.7929097614383431E-2</v>
+        <v>1.9430377540751415E-2</v>
       </c>
       <c r="K17">
         <f t="shared" si="3"/>
@@ -3812,7 +6204,7 @@
       </c>
       <c r="M17" s="2">
         <f t="shared" si="6"/>
-        <v>5.147191168741445E-3</v>
+        <v>5.2756539186124916E-3</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="7"/>
@@ -3835,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E18" s="1">
         <v>-8.2837638450000001E-2</v>
@@ -3845,7 +6237,7 @@
       </c>
       <c r="G18" s="2">
         <f t="shared" si="1"/>
-        <v>1.574141850602413E-3</v>
+        <v>1.6908405545999863E-3</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
@@ -3853,7 +6245,7 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="2"/>
-        <v>2.2734292301855891E-2</v>
+        <v>2.4419694698668656E-2</v>
       </c>
       <c r="K18">
         <f t="shared" si="3"/>
@@ -3861,7 +6253,7 @@
       </c>
       <c r="M18" s="2">
         <f t="shared" si="6"/>
-        <v>5.7784615515627698E-3</v>
+        <v>5.9226794437300372E-3</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="7"/>
@@ -3882,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E19" s="1">
         <v>-9.2061126760000001E-2</v>
@@ -3892,7 +6284,7 @@
       </c>
       <c r="G19" s="2">
         <f t="shared" si="1"/>
-        <v>1.7877317063888206E-3</v>
+        <v>1.9097611508464565E-3</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
@@ -3900,7 +6292,7 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="2"/>
-        <v>2.7440365532287792E-2</v>
+        <v>2.9313427664403521E-2</v>
       </c>
       <c r="K19">
         <f t="shared" si="3"/>
@@ -3908,7 +6300,7 @@
       </c>
       <c r="M19" s="2">
         <f t="shared" si="6"/>
-        <v>6.421859571688531E-3</v>
+        <v>6.5821352857274419E-3</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="7"/>
@@ -3929,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E20" s="1">
         <v>-0.1016757641</v>
@@ -3939,7 +6331,7 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" si="1"/>
-        <v>2.086867823994071E-3</v>
+        <v>2.21636305843182E-3</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
@@ -3947,7 +6339,7 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
-        <v>3.3337612893647325E-2</v>
+        <v>3.5406293021646676E-2</v>
       </c>
       <c r="K20">
         <f t="shared" si="3"/>
@@ -3955,7 +6347,7 @@
       </c>
       <c r="M20" s="2">
         <f t="shared" si="6"/>
-        <v>7.0925427688555281E-3</v>
+        <v>7.2695572837230549E-3</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="7"/>
@@ -3976,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E21" s="1">
         <v>-0.1112793703</v>
@@ -3986,7 +6378,7 @@
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
-        <v>1.4912835379374202E-3</v>
+        <v>1.60591427780744E-3</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
@@ -3994,7 +6386,7 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="2"/>
-        <v>2.9454366432048976E-2</v>
+        <v>3.1718440117981486E-2</v>
       </c>
       <c r="K21">
         <f t="shared" si="3"/>
@@ -4002,7 +6394,7 @@
       </c>
       <c r="M21" s="2">
         <f t="shared" si="6"/>
-        <v>7.7624564725947472E-3</v>
+        <v>7.9561905834005919E-3</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="7"/>
@@ -4023,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E22" s="1">
         <v>-0.1230449829</v>
@@ -4033,7 +6425,7 @@
       </c>
       <c r="G22" s="2">
         <f t="shared" si="1"/>
-        <v>1.457564574465188E-3</v>
+        <v>1.5713537619956041E-3</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
@@ -4041,7 +6433,7 @@
       </c>
       <c r="J22" s="2">
         <f t="shared" si="2"/>
-        <v>3.2067611678066099E-2</v>
+        <v>3.4571066785862539E-2</v>
       </c>
       <c r="K22">
         <f t="shared" si="3"/>
@@ -4049,7 +6441,7 @@
       </c>
       <c r="M22" s="2">
         <f t="shared" si="6"/>
-        <v>8.5831841190101964E-3</v>
+        <v>8.7974018153090406E-3</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="7"/>
@@ -4070,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E23" s="1">
         <v>-0.13383283770000001</v>
@@ -4080,7 +6472,7 @@
       </c>
       <c r="G23" s="2">
         <f t="shared" si="1"/>
-        <v>1.739960762446043E-3</v>
+        <v>1.8607979475486944E-3</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
@@ -4088,7 +6480,7 @@
       </c>
       <c r="J23" s="2">
         <f t="shared" si="2"/>
-        <v>3.9208248236391713E-2</v>
+        <v>4.1931191449795638E-2</v>
       </c>
       <c r="K23">
         <f t="shared" si="3"/>
@@ -4096,7 +6488,7 @@
       </c>
       <c r="M23" s="2">
         <f t="shared" si="6"/>
-        <v>9.3357068291218346E-3</v>
+        <v>9.5687058633411402E-3</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="7"/>
@@ -4117,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E24" s="1">
         <v>-0.14587009440000001</v>
@@ -4127,7 +6519,7 @@
       </c>
       <c r="G24" s="2">
         <f t="shared" si="1"/>
-        <v>1.4509389416306961E-3</v>
+        <v>1.5645627677075241E-3</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
@@ -4135,7 +6527,7 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" si="2"/>
-        <v>3.7898488493783064E-2</v>
+        <v>4.0866339959918924E-2</v>
       </c>
       <c r="K24">
         <f t="shared" si="3"/>
@@ -4143,7 +6535,7 @@
       </c>
       <c r="M24" s="2">
         <f t="shared" si="6"/>
-        <v>1.017538341006668E-2</v>
+        <v>1.0429338954167641E-2</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="7"/>
@@ -4164,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E25" s="1">
         <v>-0.15840708880000001</v>
@@ -4174,7 +6566,7 @@
       </c>
       <c r="G25" s="2">
         <f t="shared" si="1"/>
-        <v>1.3854708428110245E-3</v>
+        <v>1.4974607268547144E-3</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
@@ -4182,7 +6574,7 @@
       </c>
       <c r="J25" s="2">
         <f t="shared" si="2"/>
-        <v>3.9872099633058544E-2</v>
+        <v>4.3095026941600778E-2</v>
       </c>
       <c r="K25">
         <f t="shared" si="3"/>
@@ -4190,7 +6582,7 @@
       </c>
       <c r="M25" s="2">
         <f t="shared" si="6"/>
-        <v>1.1049919930760526E-2</v>
+        <v>1.1325702013380835E-2</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="7"/>
@@ -4201,7 +6593,11 @@
       </c>
       <c r="Q25">
         <f>(Q2*A2*9.8-0.5*A2)*2*B2^2</f>
-        <v>1.3910664516822221E-3</v>
+        <v>1.5031959900109837E-3</v>
+      </c>
+      <c r="R25">
+        <f>((Q2+Q3)*A2*9.8-0.5*A2)*2*B2^2</f>
+        <v>1.5302630222283702E-3</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -4215,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E26" s="1">
         <v>-0.1716647523</v>
@@ -4225,7 +6621,7 @@
       </c>
       <c r="G26" s="2">
         <f t="shared" si="1"/>
-        <v>1.4048781791566806E-3</v>
+        <v>1.5173524283060961E-3</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
@@ -4233,7 +6629,7 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" si="2"/>
-        <v>4.3625718564171828E-2</v>
+        <v>4.7118384342534458E-2</v>
       </c>
       <c r="K26">
         <f t="shared" si="3"/>
@@ -4241,7 +6637,7 @@
       </c>
       <c r="M26" s="2">
         <f t="shared" si="6"/>
-        <v>1.1974727786606723E-2</v>
+        <v>1.2273591071453566E-2</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="7"/>
@@ -4250,6 +6646,10 @@
       <c r="O26">
         <v>1.1974727786606723E-2</v>
       </c>
+      <c r="R26">
+        <f>R25-Q25</f>
+        <v>2.7067032217386504E-5</v>
+      </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27">
@@ -4262,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E27" s="1">
         <v>-0.1852016024</v>
@@ -4272,7 +6672,7 @@
       </c>
       <c r="G27" s="2">
         <f t="shared" si="1"/>
-        <v>1.4554886969335636E-3</v>
+        <v>1.5692260750542711E-3</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
@@ -4280,7 +6680,7 @@
       </c>
       <c r="J27" s="2">
         <f t="shared" si="2"/>
-        <v>4.8219895202902319E-2</v>
+        <v>5.1987979740547974E-2</v>
       </c>
       <c r="K27">
         <f t="shared" si="3"/>
@@ -4288,7 +6688,7 @@
       </c>
       <c r="M27" s="2">
         <f t="shared" si="6"/>
-        <v>1.2919010715185534E-2</v>
+        <v>1.324144125791823E-2</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="7"/>
@@ -4309,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E28" s="1">
         <v>-0.19934070800000001</v>
@@ -4319,7 +6719,7 @@
       </c>
       <c r="G28" s="2">
         <f t="shared" si="1"/>
-        <v>1.5695374166760476E-3</v>
+        <v>1.6861212039696581E-3</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
@@ -4327,7 +6727,7 @@
       </c>
       <c r="J28" s="2">
         <f t="shared" si="2"/>
-        <v>5.4601604899528616E-2</v>
+        <v>5.8657361598198177E-2</v>
       </c>
       <c r="K28">
         <f t="shared" si="3"/>
@@ -4335,7 +6735,7 @@
       </c>
       <c r="M28" s="2">
         <f t="shared" si="6"/>
-        <v>1.3905304863737349E-2</v>
+        <v>1.4252351173468198E-2</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="7"/>
@@ -4356,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E29" s="1">
         <v>-0.21356189989999999</v>
@@ -4366,7 +6766,7 @@
       </c>
       <c r="G29" s="2">
         <f t="shared" si="1"/>
-        <v>1.5118518039514976E-3</v>
+        <v>1.6269958832187971E-3</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
@@ -4374,7 +6774,7 @@
       </c>
       <c r="J29" s="2">
         <f t="shared" si="2"/>
-        <v>5.7051528538957105E-2</v>
+        <v>6.1396627514425886E-2</v>
       </c>
       <c r="K29">
         <f t="shared" si="3"/>
@@ -4382,7 +6782,7 @@
       </c>
       <c r="M29" s="2">
         <f t="shared" si="6"/>
-        <v>1.4897325063119865E-2</v>
+        <v>1.526913004968289E-2</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="7"/>
@@ -4403,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E30" s="1">
         <v>-0.22887815440000001</v>
@@ -4413,7 +6813,7 @@
       </c>
       <c r="G30" s="2">
         <f t="shared" ref="G30:G38" si="8">(A30*9.8*ABS(E30)*SIN(RADIANS(D30))-0.5*A30*ABS(F30)^2)/(0.5*(ABS(F30)/B30)^2)</f>
-        <v>1.2284043178015765E-3</v>
+        <v>1.3364741613699996E-3</v>
       </c>
       <c r="H30">
         <f t="shared" ref="H30:H38" si="9">0.5*A30*(POWER(B30,2)+POWER(C30,2))</f>
@@ -4421,7 +6821,7 @@
       </c>
       <c r="J30" s="2">
         <f t="shared" ref="J30:J38" si="10">A30*9.8*ABS(E30)*SIN(RADIANS(D30))-A30*ABS(F30)^2/2</f>
-        <v>5.2931847429775303E-2</v>
+        <v>5.758856866449133E-2</v>
       </c>
       <c r="K30">
         <f t="shared" ref="K30:K38" si="11">(ABS(F30)/B30)^2/2</f>
@@ -4429,7 +6829,7 @@
       </c>
       <c r="M30" s="2">
         <f t="shared" si="6"/>
-        <v>1.5965732968007459E-2</v>
+        <v>1.6364203103181891E-2</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="7"/>
@@ -4450,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E31" s="1">
         <v>-0.2451251542</v>
@@ -4460,7 +6860,7 @@
       </c>
       <c r="G31" s="2">
         <f t="shared" si="8"/>
-        <v>1.4097182309115877E-3</v>
+        <v>1.5223132772759446E-3</v>
       </c>
       <c r="H31">
         <f t="shared" si="9"/>
@@ -4468,7 +6868,7 @@
       </c>
       <c r="J31" s="2">
         <f t="shared" si="10"/>
-        <v>6.2442000689577531E-2</v>
+        <v>6.7429280990393275E-2</v>
       </c>
       <c r="K31">
         <f t="shared" si="11"/>
@@ -4476,7 +6876,7 @@
       </c>
       <c r="M31" s="2">
         <f t="shared" si="6"/>
-        <v>1.7099066382976966E-2</v>
+        <v>1.7525822066955552E-2</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="7"/>
@@ -4497,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E32" s="1">
         <v>-0.26087934680000002</v>
@@ -4507,7 +6907,7 @@
       </c>
       <c r="G32" s="2">
         <f t="shared" si="8"/>
-        <v>1.3211332450529609E-3</v>
+        <v>1.4315174019229079E-3</v>
       </c>
       <c r="H32">
         <f t="shared" si="9"/>
@@ -4515,7 +6915,7 @@
       </c>
       <c r="J32" s="2">
         <f t="shared" si="10"/>
-        <v>6.3526579597385835E-2</v>
+        <v>6.8834392381559556E-2</v>
       </c>
       <c r="K32">
         <f t="shared" si="11"/>
@@ -4523,7 +6923,7 @@
       </c>
       <c r="M32" s="2">
         <f t="shared" si="6"/>
-        <v>1.8198023305438762E-2</v>
+        <v>1.8652206575380463E-2</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="7"/>
@@ -4533,7 +6933,7 @@
         <v>1.8198023305438762E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>1.1924999999999999</v>
       </c>
@@ -4544,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E33" s="1">
         <v>-0.278467668</v>
@@ -4554,7 +6954,7 @@
       </c>
       <c r="G33" s="2">
         <f t="shared" si="8"/>
-        <v>1.3078157977953538E-3</v>
+        <v>1.4178675800089321E-3</v>
       </c>
       <c r="H33">
         <f t="shared" si="9"/>
@@ -4562,7 +6962,7 @@
       </c>
       <c r="J33" s="2">
         <f t="shared" si="10"/>
-        <v>6.7328691569908589E-2</v>
+        <v>7.2994353747921376E-2</v>
       </c>
       <c r="K33">
         <f t="shared" si="11"/>
@@ -4570,7 +6970,7 @@
       </c>
       <c r="M33" s="2">
         <f t="shared" si="6"/>
-        <v>1.9424922571429803E-2</v>
+        <v>1.9909726591282862E-2</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="7"/>
@@ -4580,7 +6980,7 @@
         <v>1.9424922571429803E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:19">
       <c r="A34">
         <v>1.1924999999999999</v>
       </c>
@@ -4591,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E34" s="1">
         <v>-0.29537947530000003</v>
@@ -4601,7 +7001,7 @@
       </c>
       <c r="G34" s="2">
         <f t="shared" si="8"/>
-        <v>1.2755707560981075E-3</v>
+        <v>1.3848177718691086E-3</v>
       </c>
       <c r="H34">
         <f t="shared" si="9"/>
@@ -4609,7 +7009,7 @@
       </c>
       <c r="J34" s="2">
         <f t="shared" si="10"/>
-        <v>7.0169952729293689E-2</v>
+        <v>7.6179700048930377E-2</v>
       </c>
       <c r="K34">
         <f t="shared" si="11"/>
@@ -4617,7 +7017,7 @@
       </c>
       <c r="M34" s="2">
         <f t="shared" si="6"/>
-        <v>2.0604630613317961E-2</v>
+        <v>2.1118877592279726E-2</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="7"/>
@@ -4627,7 +7027,7 @@
         <v>2.0604630613317961E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:19">
       <c r="A35">
         <v>1.1924999999999999</v>
       </c>
@@ -4638,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E35" s="1">
         <v>-0.31413061520000002</v>
@@ -4648,7 +7048,7 @@
       </c>
       <c r="G35" s="2">
         <f t="shared" si="8"/>
-        <v>1.1276100633126319E-3</v>
+        <v>1.2331643004700305E-3</v>
       </c>
       <c r="H35">
         <f t="shared" si="9"/>
@@ -4656,7 +7056,7 @@
       </c>
       <c r="J35" s="2">
         <f t="shared" si="10"/>
-        <v>6.8276214512465239E-2</v>
+        <v>7.4667469764024719E-2</v>
       </c>
       <c r="K35">
         <f t="shared" si="11"/>
@@ -4664,7 +7064,7 @@
       </c>
       <c r="M35" s="2">
         <f t="shared" si="6"/>
-        <v>2.1912644011424731E-2</v>
+        <v>2.2459536173454381E-2</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="7"/>
@@ -4674,7 +7074,7 @@
         <v>2.1912644011424731E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:19">
       <c r="A36">
         <v>1.1924999999999999</v>
       </c>
@@ -4685,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E36" s="1">
         <v>-0.33279476920000001</v>
@@ -4695,7 +7095,7 @@
       </c>
       <c r="G36" s="2">
         <f t="shared" si="8"/>
-        <v>1.3857433087147435E-3</v>
+        <v>1.4977399929176063E-3</v>
       </c>
       <c r="H36">
         <f t="shared" si="9"/>
@@ -4703,7 +7103,7 @@
       </c>
       <c r="J36" s="2">
         <f t="shared" si="10"/>
-        <v>8.3778005019400553E-2</v>
+        <v>9.0548998400567321E-2</v>
       </c>
       <c r="K36">
         <f t="shared" si="11"/>
@@ -4711,7 +7111,7 @@
       </c>
       <c r="M36" s="2">
         <f t="shared" si="6"/>
-        <v>2.3214589579882039E-2</v>
+        <v>2.3793975485086057E-2</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="7"/>
@@ -4721,7 +7121,7 @@
         <v>2.3214589579882039E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:19">
       <c r="A37">
         <v>1.1924999999999999</v>
       </c>
@@ -4732,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E37" s="1">
         <v>-0.35151734909999999</v>
@@ -4742,7 +7142,7 @@
       </c>
       <c r="G37" s="2">
         <f t="shared" si="8"/>
-        <v>1.4191353170019336E-3</v>
+        <v>1.5319653934507149E-3</v>
       </c>
       <c r="H37">
         <f t="shared" si="9"/>
@@ -4750,7 +7150,7 @@
       </c>
       <c r="J37" s="2">
         <f t="shared" si="10"/>
-        <v>8.9954229493362015E-2</v>
+        <v>9.7106149728896141E-2</v>
       </c>
       <c r="K37">
         <f t="shared" si="11"/>
@@ -4758,7 +7158,7 @@
       </c>
       <c r="M37" s="2">
         <f t="shared" si="6"/>
-        <v>2.4520610733098677E-2</v>
+        <v>2.5132592099250568E-2</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="7"/>
@@ -4768,7 +7168,7 @@
         <v>2.4520610733098677E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:19">
       <c r="A38">
         <v>1.1924999999999999</v>
       </c>
@@ -4779,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E38" s="1">
         <v>-0.37107660930000003</v>
@@ -4789,7 +7189,7 @@
       </c>
       <c r="G38" s="2">
         <f t="shared" si="8"/>
-        <v>1.596049685813104E-3</v>
+        <v>1.71329516195545E-3</v>
       </c>
       <c r="H38">
         <f t="shared" si="9"/>
@@ -4797,7 +7197,7 @@
       </c>
       <c r="J38" s="2">
         <f t="shared" si="10"/>
-        <v>0.10277554529375427</v>
+        <v>0.11032541535786611</v>
       </c>
       <c r="K38">
         <f t="shared" si="11"/>
@@ -4805,7 +7205,7 @@
       </c>
       <c r="M38" s="2">
         <f t="shared" si="6"/>
-        <v>2.5884995753694493E-2</v>
+        <v>2.6531029216588592E-2</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="7"/>
@@ -4815,7 +7215,7 @@
         <v>2.5884995753694493E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:19">
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="2"/>
@@ -4823,7 +7223,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:15" s="5" customFormat="1">
+    <row r="40" spans="1:19" s="5" customFormat="1">
       <c r="A40" s="5" t="s">
         <v>16</v>
       </c>
@@ -4854,10 +7254,14 @@
       <c r="K40" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="M40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -4900,8 +7304,24 @@
         <f t="shared" si="7"/>
         <v>3.8651830718674032E-4</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="O41" s="2">
+        <v>5.7419063172406515E-5</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q41">
+        <f t="array" ref="Q41:R45">LINEST(M41:M78,N41:N78,FALSE, TRUE)</f>
+        <v>7.6073229657173405E-2</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -4944,8 +7364,23 @@
         <f t="shared" si="7"/>
         <v>5.1273604694240295E-4</v>
       </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="O42" s="2">
+        <v>1.1199385074255984E-4</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q42">
+        <v>5.93314317105344E-4</v>
+      </c>
+      <c r="R42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -4988,8 +7423,23 @@
         <f t="shared" si="7"/>
         <v>8.524666741053801E-4</v>
       </c>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="O43" s="2">
+        <v>1.7323244916012248E-4</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q43">
+        <v>0.99775440555201622</v>
+      </c>
+      <c r="R43">
+        <v>6.2313451908579357E-4</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -5032,8 +7482,23 @@
         <f t="shared" si="7"/>
         <v>1.4872222761029888E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="O44" s="2">
+        <v>2.6132504505085868E-4</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q44">
+        <v>16439.706216129704</v>
+      </c>
+      <c r="R44">
+        <v>37</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -5076,8 +7541,23 @@
         <f t="shared" si="7"/>
         <v>2.8062587384956573E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="O45" s="2">
+        <v>3.7047462029857187E-4</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q45">
+        <v>6.3834825034396418E-3</v>
+      </c>
+      <c r="R45">
+        <v>1.4366975268422479E-5</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -5120,8 +7600,11 @@
         <f t="shared" si="7"/>
         <v>7.0661183269098678E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="O46" s="2">
+        <v>5.322666436702113E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -5164,8 +7647,11 @@
         <f t="shared" si="7"/>
         <v>9.8456869707843116E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="O47" s="2">
+        <v>8.0040911026556185E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -5208,8 +7694,11 @@
         <f t="shared" si="7"/>
         <v>1.0343986497439646E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="O48" s="2">
+        <v>1.0397652403481225E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -5252,8 +7741,11 @@
         <f t="shared" si="7"/>
         <v>1.6288697176854147E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49" s="2">
+        <v>1.3205916922497205E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -5296,8 +7788,11 @@
         <f t="shared" si="7"/>
         <v>2.13321021093359E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50" s="2">
+        <v>1.6925274562826695E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -5340,8 +7835,11 @@
         <f t="shared" si="7"/>
         <v>2.5710432374635009E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="O51" s="2">
+        <v>2.0676055534542847E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -5384,8 +7882,11 @@
         <f t="shared" si="7"/>
         <v>2.9483991052224514E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="O52" s="2">
+        <v>2.5126269117278282E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -5428,8 +7929,11 @@
         <f t="shared" si="7"/>
         <v>3.4280657030121987E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="O53" s="2">
+        <v>2.9458288812904548E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -5472,8 +7976,11 @@
         <f t="shared" si="7"/>
         <v>4.3628287553209646E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="O54" s="2">
+        <v>3.4595973067856581E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -5516,8 +8023,11 @@
         <f t="shared" si="7"/>
         <v>5.0371448969735715E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="O55" s="2">
+        <v>4.0141354942945587E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -5560,8 +8070,11 @@
         <f t="shared" si="7"/>
         <v>6.3802166097009921E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="O56" s="2">
+        <v>4.6074973053259506E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -5604,8 +8117,11 @@
         <f t="shared" si="7"/>
         <v>6.6376751373022735E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="O57" s="2">
+        <v>5.306037419340953E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -5648,8 +8164,11 @@
         <f t="shared" si="7"/>
         <v>6.9225263981019136E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="O58" s="2">
+        <v>5.9252072705364587E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -5692,8 +8211,11 @@
         <f t="shared" si="7"/>
         <v>8.5936209443419134E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="O59" s="2">
+        <v>6.6517246882250433E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -5736,8 +8258,11 @@
         <f t="shared" si="7"/>
         <v>9.7911707030584383E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="O60" s="2">
+        <v>7.4245465895937208E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -5780,8 +8305,11 @@
         <f t="shared" si="7"/>
         <v>0.10857616203538063</v>
       </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="O61" s="2">
+        <v>8.2521269044292921E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -5824,8 +8352,19 @@
         <f t="shared" si="7"/>
         <v>0.11603519626779207</v>
       </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="O62" s="2">
+        <v>9.1098537941198127E-3</v>
+      </c>
+      <c r="Q62">
+        <f>(Q41*A41*9.8-0.5*A41)*2*B41^2</f>
+        <v>5.7586226337094897E-4</v>
+      </c>
+      <c r="R62">
+        <f>((Q41+Q42)*A41*9.8-0.5*A41)*2*B41^2</f>
+        <v>5.8950014146870119E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -5868,8 +8407,15 @@
         <f t="shared" si="7"/>
         <v>0.13355006761285274</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="O63" s="2">
+        <v>9.9943617851645534E-3</v>
+      </c>
+      <c r="R63">
+        <f>R62-Q62</f>
+        <v>1.3637878097752217E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -5912,8 +8458,11 @@
         <f t="shared" si="7"/>
         <v>0.14166581561740435</v>
       </c>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="O64" s="2">
+        <v>1.0978959606795843E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -5956,8 +8505,11 @@
         <f t="shared" si="7"/>
         <v>0.15625941248644973</v>
       </c>
-    </row>
-    <row r="66" spans="1:14">
+      <c r="O65" s="2">
+        <v>1.1919422214394031E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -6000,8 +8552,11 @@
         <f t="shared" si="7"/>
         <v>0.1741953833921448</v>
       </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="O66" s="2">
+        <v>1.3000744409989322E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -6044,8 +8599,11 @@
         <f t="shared" si="7"/>
         <v>0.18039053419330306</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="O67" s="2">
+        <v>1.4054089301143841E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -6088,8 +8646,11 @@
         <f t="shared" si="7"/>
         <v>0.19033903601421889</v>
       </c>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="O68" s="2">
+        <v>1.5173038927148545E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -6132,8 +8693,11 @@
         <f t="shared" si="7"/>
         <v>0.20224803801514601</v>
       </c>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="O69" s="2">
+        <v>1.6285480761857655E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -6176,8 +8740,11 @@
         <f t="shared" si="7"/>
         <v>0.22098838792181683</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" s="5" customFormat="1">
+      <c r="O70" s="2">
+        <v>1.7473177449713686E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" s="5" customFormat="1">
       <c r="A71" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -6222,8 +8789,11 @@
         <f t="shared" si="7"/>
         <v>0.23017137974971727</v>
       </c>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="O71" s="2">
+        <v>1.8689824515475639E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -6266,8 +8836,11 @@
         <f t="shared" si="7"/>
         <v>0.25226160947167914</v>
       </c>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="O72" s="2">
+        <v>1.9926968028589519E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -6310,8 +8883,11 @@
         <f t="shared" si="7"/>
         <v>0.26182707967715335</v>
       </c>
-    </row>
-    <row r="74" spans="1:14">
+      <c r="O73" s="2">
+        <v>2.1258666646787605E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -6354,8 +8930,11 @@
         <f t="shared" si="7"/>
         <v>0.28510394634694358</v>
       </c>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="O74" s="2">
+        <v>2.2544060774400881E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -6398,8 +8977,11 @@
         <f t="shared" si="7"/>
         <v>0.33637589586380012</v>
       </c>
-    </row>
-    <row r="76" spans="1:14">
+      <c r="O75" s="2">
+        <v>2.3989614749620448E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -6442,8 +9024,11 @@
         <f t="shared" si="7"/>
         <v>0.33544319655070959</v>
       </c>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="O76" s="2">
+        <v>2.5510423585658842E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -6479,15 +9064,18 @@
         <v>165.71477932610745</v>
       </c>
       <c r="M77" s="2">
-        <f t="shared" ref="M77:M122" si="16">ABS(E77)*SIN(RADIANS(D77))</f>
+        <f t="shared" ref="M77:O122" si="16">ABS(E77)*SIN(RADIANS(D77))</f>
         <v>2.6951862152740213E-2</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" ref="N77:N122" si="17">ABS(F77)^2</f>
         <v>0.37194682219744818</v>
       </c>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="O77" s="2">
+        <v>2.6951862152740213E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -6530,14 +9118,17 @@
         <f t="shared" si="17"/>
         <v>0.39721316771865955</v>
       </c>
-    </row>
-    <row r="79" spans="1:14">
+      <c r="O78" s="2">
+        <v>2.8629688494039941E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="G79" s="2"/>
       <c r="J79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="1:14" s="5" customFormat="1">
+    <row r="80" spans="1:15" s="5" customFormat="1">
       <c r="A80" s="5" t="s">
         <v>16</v>
       </c>
@@ -6568,10 +9159,14 @@
       <c r="K80" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="1:14">
+      <c r="M80" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81">
         <v>2.4095</v>
       </c>
@@ -6582,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E81" s="6">
         <v>-4.84E-4</v>
@@ -6592,7 +9187,7 @@
       </c>
       <c r="G81" s="2">
         <f t="shared" ref="G81:G115" si="18">(A81*9.8*ABS(E81)*SIN(RADIANS(D81))-0.5*A81*ABS(F81)^2)/(0.5*(ABS(F81)/B81)^2)</f>
-        <v>-3.5669577983398807E-3</v>
+        <v>-3.5057155406023584E-3</v>
       </c>
       <c r="H81">
         <f t="shared" ref="H81" si="19">0.5*A81*(POWER(B81,2)+POWER(C81,2))</f>
@@ -6600,7 +9195,7 @@
       </c>
       <c r="J81" s="2">
         <f t="shared" ref="J81:J115" si="20">A81*9.8*ABS(E81)*SIN(RADIANS(D81))-A81*ABS(F81)^2/2</f>
-        <v>-1.1582738912982911E-3</v>
+        <v>-1.1383871104077106E-3</v>
       </c>
       <c r="K81">
         <f t="shared" ref="K81:K115" si="21">(ABS(F81)/B81)^2/2</f>
@@ -6608,14 +9203,24 @@
       </c>
       <c r="M81" s="2">
         <f t="shared" si="16"/>
-        <v>3.7132009613380224E-5</v>
+        <v>3.7974202332276949E-5</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="17"/>
         <v>1.6892099999999998E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:14">
+      <c r="O81">
+        <v>3.7132009613380224E-5</v>
+      </c>
+      <c r="Q81">
+        <f t="array" ref="Q81:R85">LINEST(M81:M122,N81:N122,FALSE,TRUE)</f>
+        <v>7.6008052737036272E-2</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82">
         <v>2.4095</v>
       </c>
@@ -6626,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E82" s="6">
         <v>-1.32E-3</v>
@@ -6636,7 +9241,7 @@
       </c>
       <c r="G82" s="2">
         <f t="shared" si="18"/>
-        <v>7.1803630855809977E-4</v>
+        <v>8.7646670329439181E-4</v>
       </c>
       <c r="H82">
         <f t="shared" ref="H82:H112" si="22">0.5*A82*(POWER(B82,2)+POWER(C82,2))</f>
@@ -6644,7 +9249,7 @@
       </c>
       <c r="J82" s="2">
         <f t="shared" si="20"/>
-        <v>2.4581079964102392E-4</v>
+        <v>3.0004747479715202E-4</v>
       </c>
       <c r="K82">
         <f t="shared" si="21"/>
@@ -6652,14 +9257,23 @@
       </c>
       <c r="M82" s="2">
         <f t="shared" si="16"/>
-        <v>1.0126911712740062E-4</v>
+        <v>1.0356600636075532E-4</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="17"/>
         <v>1.7808400000000001E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:14">
+      <c r="O82">
+        <v>1.0126911712740062E-4</v>
+      </c>
+      <c r="Q82">
+        <v>8.2345638976581345E-4</v>
+      </c>
+      <c r="R82" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83">
         <v>2.4095</v>
       </c>
@@ -6670,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E83" s="6">
         <v>-3.3E-3</v>
@@ -6680,7 +9294,7 @@
       </c>
       <c r="G83" s="2">
         <f t="shared" si="18"/>
-        <v>2.8825151287115835E-3</v>
+        <v>3.0900381613503114E-3</v>
       </c>
       <c r="H83">
         <f t="shared" si="22"/>
@@ -6688,7 +9302,7 @@
       </c>
       <c r="J83" s="2">
         <f t="shared" si="20"/>
-        <v>1.8833817466025592E-3</v>
+        <v>2.0189734344928795E-3</v>
       </c>
       <c r="K83">
         <f t="shared" si="21"/>
@@ -6696,14 +9310,23 @@
       </c>
       <c r="M83" s="2">
         <f t="shared" si="16"/>
-        <v>2.5317279281850152E-4</v>
+        <v>2.5891501590188834E-4</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="17"/>
         <v>3.3988899999999999E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:14">
+      <c r="O83">
+        <v>2.5317279281850152E-4</v>
+      </c>
+      <c r="Q83">
+        <v>0.99521082240855552</v>
+      </c>
+      <c r="R83">
+        <v>1.3177037825844974E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84">
         <v>2.4095</v>
       </c>
@@ -6714,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E84" s="6">
         <v>-5.2100000000000002E-3</v>
@@ -6724,7 +9347,7 @@
       </c>
       <c r="G84" s="2">
         <f t="shared" si="18"/>
-        <v>3.8681459619497563E-4</v>
+        <v>5.3773253692198633E-4</v>
       </c>
       <c r="H84">
         <f t="shared" si="22"/>
@@ -6732,7 +9355,7 @@
       </c>
       <c r="J84" s="2">
         <f t="shared" si="20"/>
-        <v>5.4867962524979795E-4</v>
+        <v>7.6275013855542535E-4</v>
       </c>
       <c r="K84">
         <f t="shared" si="21"/>
@@ -6740,14 +9363,23 @@
       </c>
       <c r="M84" s="2">
         <f t="shared" si="16"/>
-        <v>3.9970613654072518E-4</v>
+        <v>4.0877188874207217E-4</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="17"/>
         <v>7.3788100000000004E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:14">
+      <c r="O84">
+        <v>3.9970613654072518E-4</v>
+      </c>
+      <c r="Q84">
+        <v>8519.9688129427032</v>
+      </c>
+      <c r="R84">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85">
         <v>2.4095</v>
       </c>
@@ -6758,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E85" s="6">
         <v>-9.0200000000000002E-3</v>
@@ -6768,7 +9400,7 @@
       </c>
       <c r="G85" s="2">
         <f t="shared" si="18"/>
-        <v>6.3190450765923851E-4</v>
+        <v>7.8838134328742474E-4</v>
       </c>
       <c r="H85">
         <f t="shared" si="22"/>
@@ -6776,7 +9408,7 @@
       </c>
       <c r="J85" s="2">
         <f t="shared" si="20"/>
-        <v>1.496673479213664E-3</v>
+        <v>1.8672907594472054E-3</v>
       </c>
       <c r="K85">
         <f t="shared" si="21"/>
@@ -6784,14 +9416,23 @@
       </c>
       <c r="M85" s="2">
         <f t="shared" si="16"/>
-        <v>6.9200563370390422E-4</v>
+        <v>7.0770104346516141E-4</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="17"/>
         <v>1.2321E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:14">
+      <c r="O85">
+        <v>6.9200563370390422E-4</v>
+      </c>
+      <c r="Q85">
+        <v>1.4793590412154738E-2</v>
+      </c>
+      <c r="R85">
+        <v>7.1190073604137177E-5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86">
         <v>2.4095</v>
       </c>
@@ -6802,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E86" s="6">
         <v>-1.26E-2</v>
@@ -6812,7 +9453,7 @@
       </c>
       <c r="G86" s="2">
         <f t="shared" si="18"/>
-        <v>2.2606113840185921E-3</v>
+        <v>2.4540289908780949E-3</v>
       </c>
       <c r="H86">
         <f t="shared" si="22"/>
@@ -6820,7 +9461,7 @@
       </c>
       <c r="J86" s="2">
         <f t="shared" si="20"/>
-        <v>6.0508944465734113E-3</v>
+        <v>6.568608163972818E-3</v>
       </c>
       <c r="K86">
         <f t="shared" si="21"/>
@@ -6828,14 +9469,17 @@
       </c>
       <c r="M86" s="2">
         <f t="shared" si="16"/>
-        <v>9.6665975439791493E-4</v>
+        <v>9.8858460617084619E-4</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="17"/>
         <v>1.3923999999999999E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:14">
+      <c r="O86">
+        <v>9.6665975439791493E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87">
         <v>2.4095</v>
       </c>
@@ -6846,7 +9490,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E87" s="6">
         <v>-1.6899999999999998E-2</v>
@@ -6856,7 +9500,7 @@
       </c>
       <c r="G87" s="2">
         <f t="shared" si="18"/>
-        <v>2.6024806995679235E-3</v>
+        <v>2.803652259185913E-3</v>
       </c>
       <c r="H87">
         <f t="shared" si="22"/>
@@ -6864,7 +9508,7 @@
       </c>
       <c r="J87" s="2">
         <f t="shared" si="20"/>
-        <v>8.9831110037373423E-3</v>
+        <v>9.6775047992968613E-3</v>
       </c>
       <c r="K87">
         <f t="shared" si="21"/>
@@ -6872,14 +9516,17 @@
       </c>
       <c r="M87" s="2">
         <f t="shared" si="16"/>
-        <v>1.296551575343235E-3</v>
+        <v>1.3259587178005795E-3</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="17"/>
         <v>1.7956000000000003E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:14">
+      <c r="O87">
+        <v>1.296551575343235E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88">
         <v>2.4095</v>
       </c>
@@ -6890,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E88" s="6">
         <v>-2.1499999999999998E-2</v>
@@ -6900,7 +9547,7 @@
       </c>
       <c r="G88" s="2">
         <f t="shared" si="18"/>
-        <v>3.1091633572277334E-3</v>
+        <v>3.3218270081576502E-3</v>
       </c>
       <c r="H88">
         <f t="shared" si="22"/>
@@ -6908,7 +9555,7 @@
       </c>
       <c r="J88" s="2">
         <f t="shared" si="20"/>
-        <v>1.2915400035819702E-2</v>
+        <v>1.3798800426620274E-2</v>
       </c>
       <c r="K88">
         <f t="shared" si="21"/>
@@ -6916,14 +9563,17 @@
       </c>
       <c r="M88" s="2">
         <f t="shared" si="16"/>
-        <v>1.6494591047266007E-3</v>
+        <v>1.6868705581486662E-3</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="17"/>
         <v>2.1608999999999996E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:14">
+      <c r="O88">
+        <v>1.6494591047266007E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89">
         <v>2.4095</v>
       </c>
@@ -6934,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E89" s="6">
         <v>-2.6700000000000002E-2</v>
@@ -6944,7 +9594,7 @@
       </c>
       <c r="G89" s="2">
         <f t="shared" si="18"/>
-        <v>2.974972547686968E-3</v>
+        <v>3.184592611051472E-3</v>
       </c>
       <c r="H89">
         <f t="shared" si="22"/>
@@ -6952,7 +9602,7 @@
       </c>
       <c r="J89" s="2">
         <f t="shared" si="20"/>
-        <v>1.5569709267738895E-2</v>
+        <v>1.6666769287942397E-2</v>
       </c>
       <c r="K89">
         <f t="shared" si="21"/>
@@ -6960,14 +9610,17 @@
       </c>
       <c r="M89" s="2">
         <f t="shared" si="16"/>
-        <v>2.0483980509860581E-3</v>
+        <v>2.0948578559334603E-3</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="17"/>
         <v>2.7225000000000003E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:14">
+      <c r="O89">
+        <v>2.0483980509860581E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90">
         <v>2.4095</v>
       </c>
@@ -6978,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E90" s="6">
         <v>-3.2500000000000001E-2</v>
@@ -6988,7 +9641,7 @@
       </c>
       <c r="G90" s="2">
         <f t="shared" si="18"/>
-        <v>2.4913271825694893E-3</v>
+        <v>2.6899776644523777E-3</v>
       </c>
       <c r="H90">
         <f t="shared" si="22"/>
@@ -6996,7 +9649,7 @@
       </c>
       <c r="J90" s="2">
         <f t="shared" si="20"/>
-        <v>1.6747254949494902E-2</v>
+        <v>1.808262763326321E-2</v>
       </c>
       <c r="K90">
         <f t="shared" si="21"/>
@@ -7004,14 +9657,17 @@
       </c>
       <c r="M90" s="2">
         <f t="shared" si="16"/>
-        <v>2.4933684141216061E-3</v>
+        <v>2.5499206111549606E-3</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="17"/>
         <v>3.4969E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:14">
+      <c r="O90">
+        <v>2.4933684141216061E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91">
         <v>2.4095</v>
       </c>
@@ -7022,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E91" s="6">
         <v>-3.9199999999999999E-2</v>
@@ -7032,7 +9688,7 @@
       </c>
       <c r="G91" s="2">
         <f t="shared" si="18"/>
-        <v>2.2714742763346911E-3</v>
+        <v>2.4651382649254826E-3</v>
       </c>
       <c r="H91">
         <f t="shared" si="22"/>
@@ -7040,7 +9696,7 @@
       </c>
       <c r="J91" s="2">
         <f t="shared" si="20"/>
-        <v>1.8891400056006161E-2</v>
+        <v>2.0502064954582094E-2</v>
       </c>
       <c r="K91">
         <f t="shared" si="21"/>
@@ -7048,14 +9704,17 @@
       </c>
       <c r="M91" s="2">
         <f t="shared" si="16"/>
-        <v>3.0073859025712907E-3</v>
+        <v>3.0755965525315217E-3</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="17"/>
         <v>4.3263999999999997E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:14">
+      <c r="O91">
+        <v>3.0073859025712907E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92">
         <v>2.4095</v>
       </c>
@@ -7066,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E92" s="6">
         <v>-4.6300000000000001E-2</v>
@@ -7076,7 +9735,7 @@
       </c>
       <c r="G92" s="2">
         <f t="shared" si="18"/>
-        <v>2.3516031518113511E-3</v>
+        <v>2.5470845468986516E-3</v>
       </c>
       <c r="H92">
         <f t="shared" si="22"/>
@@ -7084,7 +9743,7 @@
       </c>
       <c r="J92" s="2">
         <f t="shared" si="20"/>
-        <v>2.288541129574196E-2</v>
+        <v>2.4787803765233422E-2</v>
       </c>
       <c r="K92">
         <f t="shared" si="21"/>
@@ -7092,14 +9751,17 @@
       </c>
       <c r="M92" s="2">
         <f t="shared" si="16"/>
-        <v>3.5520910022717035E-3</v>
+        <v>3.6326561321992209E-3</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="17"/>
         <v>5.0625000000000003E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:14">
+      <c r="O92">
+        <v>3.5520910022717035E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93">
         <v>2.4095</v>
       </c>
@@ -7110,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E93" s="6">
         <v>-5.4199999999999998E-2</v>
@@ -7120,7 +9782,7 @@
       </c>
       <c r="G93" s="2">
         <f t="shared" si="18"/>
-        <v>3.3882858535089519E-3</v>
+        <v>3.6072802938708422E-3</v>
       </c>
       <c r="H93">
         <f t="shared" si="22"/>
@@ -7128,7 +9790,7 @@
       </c>
       <c r="J93" s="2">
         <f t="shared" si="20"/>
-        <v>3.445604030192688E-2</v>
+        <v>3.6683031054549717E-2</v>
       </c>
       <c r="K93">
         <f t="shared" si="21"/>
@@ -7136,14 +9798,17 @@
       </c>
       <c r="M93" s="2">
         <f t="shared" si="16"/>
-        <v>4.1581713244735708E-3</v>
+        <v>4.2524829884491959E-3</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="17"/>
         <v>5.2900000000000003E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:14">
+      <c r="O93">
+        <v>4.1581713244735708E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94">
         <v>2.4095</v>
       </c>
@@ -7154,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E94" s="6">
         <v>-6.1699999999999998E-2</v>
@@ -7164,7 +9829,7 @@
       </c>
       <c r="G94" s="2">
         <f t="shared" si="18"/>
-        <v>2.8167533482129615E-3</v>
+        <v>3.0227848350588742E-3</v>
       </c>
       <c r="H94">
         <f t="shared" si="22"/>
@@ -7172,7 +9837,7 @@
       </c>
       <c r="J94" s="2">
         <f t="shared" si="20"/>
-        <v>3.4659278174887245E-2</v>
+        <v>3.7194431854533541E-2</v>
       </c>
       <c r="K94">
         <f t="shared" si="21"/>
@@ -7180,14 +9845,17 @@
       </c>
       <c r="M94" s="2">
         <f t="shared" si="16"/>
-        <v>4.73356403542471E-3</v>
+        <v>4.8409262064080328E-3</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="17"/>
         <v>6.4008999999999996E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:14">
+      <c r="O94">
+        <v>4.73356403542471E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95">
         <v>2.4095</v>
       </c>
@@ -7198,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E95" s="6">
         <v>-7.0999999999999994E-2</v>
@@ -7208,7 +9876,7 @@
       </c>
       <c r="G95" s="2">
         <f t="shared" si="18"/>
-        <v>2.0872262388162777E-3</v>
+        <v>2.2767112896850163E-3</v>
       </c>
       <c r="H95">
         <f t="shared" si="22"/>
@@ -7216,7 +9884,7 @@
       </c>
       <c r="J95" s="2">
         <f t="shared" si="20"/>
-        <v>3.2134537147358103E-2</v>
+        <v>3.5051812856513501E-2</v>
       </c>
       <c r="K95">
         <f t="shared" si="21"/>
@@ -7224,14 +9892,17 @@
       </c>
       <c r="M95" s="2">
         <f t="shared" si="16"/>
-        <v>5.4470509970041235E-3</v>
+        <v>5.5705957966769902E-3</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="17"/>
         <v>8.008899999999998E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:14">
+      <c r="O95">
+        <v>5.4470509970041235E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96">
         <v>2.4095</v>
       </c>
@@ -7242,7 +9913,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E96" s="6">
         <v>-8.0500000000000002E-2</v>
@@ -7252,7 +9923,7 @@
       </c>
       <c r="G96" s="2">
         <f t="shared" si="18"/>
-        <v>3.5488494901773585E-3</v>
+        <v>3.7714856813394261E-3</v>
       </c>
       <c r="H96">
         <f t="shared" si="22"/>
@@ -7260,7 +9931,7 @@
       </c>
       <c r="J96" s="2">
         <f t="shared" si="20"/>
-        <v>5.2723814686441189E-2</v>
+        <v>5.6031430103159613E-2</v>
       </c>
       <c r="K96">
         <f t="shared" si="21"/>
@@ -7268,14 +9939,17 @@
       </c>
       <c r="M96" s="2">
         <f t="shared" si="16"/>
-        <v>6.1758817642089013E-3</v>
+        <v>6.3159572060915185E-3</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="17"/>
         <v>7.7284000000000019E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:14">
+      <c r="O96">
+        <v>6.1758817642089013E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97">
         <v>2.4095</v>
       </c>
@@ -7286,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E97" s="6">
         <v>-8.9499999999999996E-2</v>
@@ -7296,7 +9970,7 @@
       </c>
       <c r="G97" s="2">
         <f t="shared" si="18"/>
-        <v>2.9806301826634232E-3</v>
+        <v>3.1903785670919613E-3</v>
       </c>
       <c r="H97">
         <f t="shared" si="22"/>
@@ -7304,7 +9978,7 @@
       </c>
       <c r="J97" s="2">
         <f t="shared" si="20"/>
-        <v>5.2257861433993635E-2</v>
+        <v>5.5935272363140193E-2</v>
       </c>
       <c r="K97">
         <f t="shared" si="21"/>
@@ -7312,14 +9986,17 @@
       </c>
       <c r="M97" s="2">
         <f t="shared" si="16"/>
-        <v>6.8663530173502683E-3</v>
+        <v>7.0220890676421224E-3</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="17"/>
         <v>9.1203999999999993E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:14">
+      <c r="O97">
+        <v>6.8663530173502683E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98">
         <v>2.4095</v>
       </c>
@@ -7330,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E98" s="6">
         <v>-0.10100000000000001</v>
@@ -7340,7 +10017,7 @@
       </c>
       <c r="G98" s="2">
         <f t="shared" si="18"/>
-        <v>2.7440587498330504E-3</v>
+        <v>2.9484414473433958E-3</v>
       </c>
       <c r="H98">
         <f t="shared" si="22"/>
@@ -7348,7 +10025,7 @@
       </c>
       <c r="J98" s="2">
         <f t="shared" si="20"/>
-        <v>5.5717263639199544E-2</v>
+        <v>5.9867191056448721E-2</v>
       </c>
       <c r="K98">
         <f t="shared" si="21"/>
@@ -7356,14 +10033,17 @@
       </c>
       <c r="M98" s="2">
         <f t="shared" si="16"/>
-        <v>7.7486218408086838E-3</v>
+        <v>7.9243686685123403E-3</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="17"/>
         <v>0.10562500000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:14">
+      <c r="O98">
+        <v>7.7486218408086838E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99">
         <v>2.4095</v>
       </c>
@@ -7374,7 +10054,7 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E99" s="6">
         <v>-0.111</v>
@@ -7384,7 +10064,7 @@
       </c>
       <c r="G99" s="2">
         <f t="shared" si="18"/>
-        <v>2.6241070015382106E-3</v>
+        <v>2.8257690682482127E-3</v>
       </c>
       <c r="H99">
         <f t="shared" si="22"/>
@@ -7392,7 +10072,7 @@
       </c>
       <c r="J99" s="2">
         <f t="shared" si="20"/>
-        <v>5.9347090469813346E-2</v>
+        <v>6.3907901789760496E-2</v>
       </c>
       <c r="K99">
         <f t="shared" si="21"/>
@@ -7400,14 +10080,17 @@
       </c>
       <c r="M99" s="2">
         <f t="shared" si="16"/>
-        <v>8.5158121220768705E-3</v>
+        <v>8.7089596257907895E-3</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="17"/>
         <v>0.11764900000000002</v>
       </c>
-    </row>
-    <row r="100" spans="1:14">
+      <c r="O99">
+        <v>8.5158121220768705E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100">
         <v>2.4095</v>
       </c>
@@ -7418,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E100" s="6">
         <v>-0.123</v>
@@ -7428,7 +10111,7 @@
       </c>
       <c r="G100" s="2">
         <f t="shared" si="18"/>
-        <v>2.292144625934051E-3</v>
+        <v>2.4862774396197094E-3</v>
       </c>
       <c r="H100">
         <f t="shared" si="22"/>
@@ -7436,7 +10119,7 @@
       </c>
       <c r="J100" s="2">
         <f t="shared" si="20"/>
-        <v>5.9671548216549963E-2</v>
+        <v>6.4725420219734625E-2</v>
       </c>
       <c r="K100">
         <f t="shared" si="21"/>
@@ -7444,14 +10127,17 @@
       </c>
       <c r="M100" s="2">
         <f t="shared" si="16"/>
-        <v>9.4364404595986932E-3</v>
+        <v>9.6504687745249274E-3</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="17"/>
         <v>0.13542399999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:14">
+      <c r="O100">
+        <v>9.4364404595986932E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101">
         <v>2.4095</v>
       </c>
@@ -7462,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E101" s="6">
         <v>-0.13600000000000001</v>
@@ -7472,7 +10158,7 @@
       </c>
       <c r="G101" s="2">
         <f t="shared" si="18"/>
-        <v>2.9447581889189296E-3</v>
+        <v>3.1536929591030874E-3</v>
       </c>
       <c r="H101">
         <f t="shared" si="22"/>
@@ -7480,7 +10166,7 @@
       </c>
       <c r="J101" s="2">
         <f t="shared" si="20"/>
-        <v>7.8758412546347911E-2</v>
+        <v>8.4346433623039896E-2</v>
       </c>
       <c r="K101">
         <f t="shared" si="21"/>
@@ -7488,14 +10174,17 @@
       </c>
       <c r="M101" s="2">
         <f t="shared" si="16"/>
-        <v>1.0433787825247337E-2</v>
+        <v>1.0670437018986912E-2</v>
       </c>
       <c r="N101" s="2">
         <f t="shared" si="17"/>
         <v>0.139129</v>
       </c>
-    </row>
-    <row r="102" spans="1:14">
+      <c r="O101">
+        <v>1.0433787825247337E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102">
         <v>2.4095</v>
       </c>
@@ -7506,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E102" s="6">
         <v>-0.14799999999999999</v>
@@ -7516,7 +10205,7 @@
       </c>
       <c r="G102" s="2">
         <f t="shared" si="18"/>
-        <v>2.5377416417175394E-3</v>
+        <v>2.7374448519594118E-3</v>
       </c>
       <c r="H102">
         <f t="shared" si="22"/>
@@ -7524,7 +10213,7 @@
       </c>
       <c r="J102" s="2">
         <f t="shared" si="20"/>
-        <v>7.7275745293084425E-2</v>
+        <v>8.3356827053013977E-2</v>
       </c>
       <c r="K102">
         <f t="shared" si="21"/>
@@ -7532,14 +10221,25 @@
       </c>
       <c r="M102" s="2">
         <f t="shared" si="16"/>
-        <v>1.135441616276916E-2</v>
+        <v>1.161194616772105E-2</v>
       </c>
       <c r="N102" s="2">
         <f t="shared" si="17"/>
         <v>0.15840400000000002</v>
       </c>
-    </row>
-    <row r="103" spans="1:14">
+      <c r="O102">
+        <v>1.135441616276916E-2</v>
+      </c>
+      <c r="Q102">
+        <f>(Q81*A81*9.8-0.5*A81)*2*B81^2</f>
+        <v>3.0693659719417087E-3</v>
+      </c>
+      <c r="R102">
+        <f>((Q81+Q82)*A81*9.8-0.5*A81)*2*B81^2</f>
+        <v>3.1705155226591938E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103">
         <v>2.4095</v>
       </c>
@@ -7550,7 +10250,7 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E103" s="6">
         <v>-0.16200000000000001</v>
@@ -7560,7 +10260,7 @@
       </c>
       <c r="G103" s="2">
         <f t="shared" si="18"/>
-        <v>2.6400817855248646E-3</v>
+        <v>2.8421061770026249E-3</v>
       </c>
       <c r="H103">
         <f t="shared" si="22"/>
@@ -7568,7 +10268,7 @@
       </c>
       <c r="J103" s="2">
         <f t="shared" si="20"/>
-        <v>8.6985670455943798E-2</v>
+        <v>9.3641989679650484E-2</v>
       </c>
       <c r="K103">
         <f t="shared" si="21"/>
@@ -7576,14 +10276,21 @@
       </c>
       <c r="M103" s="2">
         <f t="shared" si="16"/>
-        <v>1.2428482556544621E-2</v>
+        <v>1.2710373507910881E-2</v>
       </c>
       <c r="N103" s="2">
         <f t="shared" si="17"/>
         <v>0.17139599999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:14">
+      <c r="O103">
+        <v>1.2428482556544621E-2</v>
+      </c>
+      <c r="R103">
+        <f>R102-Q102</f>
+        <v>1.011495507174851E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104">
         <v>2.4095</v>
       </c>
@@ -7594,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E104" s="6">
         <v>-0.17599999999999999</v>
@@ -7604,7 +10311,7 @@
       </c>
       <c r="G104" s="2">
         <f t="shared" si="18"/>
-        <v>2.958762000617514E-3</v>
+        <v>3.1680143918615634E-3</v>
       </c>
       <c r="H104">
         <f t="shared" si="22"/>
@@ -7612,7 +10319,7 @@
       </c>
       <c r="J104" s="2">
         <f t="shared" si="20"/>
-        <v>0.10225190261880321</v>
+        <v>0.10948345930628692</v>
       </c>
       <c r="K104">
         <f t="shared" si="21"/>
@@ -7620,14 +10327,17 @@
       </c>
       <c r="M104" s="2">
         <f t="shared" si="16"/>
-        <v>1.3502548950320081E-2</v>
+        <v>1.3808800848100709E-2</v>
       </c>
       <c r="N104" s="2">
         <f t="shared" si="17"/>
         <v>0.17977599999999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:14">
+      <c r="O104">
+        <v>1.3502548950320081E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105">
         <v>2.4095</v>
       </c>
@@ -7638,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E105" s="6">
         <v>-0.191</v>
@@ -7648,7 +10358,7 @@
       </c>
       <c r="G105" s="2">
         <f t="shared" si="18"/>
-        <v>3.2450976639386642E-3</v>
+        <v>3.4608444467688539E-3</v>
       </c>
       <c r="H105">
         <f t="shared" si="22"/>
@@ -7656,7 +10366,7 @@
       </c>
       <c r="J105" s="2">
         <f t="shared" si="20"/>
-        <v>0.11804183111472391</v>
+        <v>0.12588971365625459</v>
       </c>
       <c r="K105">
         <f t="shared" si="21"/>
@@ -7664,14 +10374,17 @@
       </c>
       <c r="M105" s="2">
         <f t="shared" si="16"/>
-        <v>1.4653334372222361E-2</v>
+        <v>1.4985687284018384E-2</v>
       </c>
       <c r="N105" s="2">
         <f t="shared" si="17"/>
         <v>0.189225</v>
       </c>
-    </row>
-    <row r="106" spans="1:14">
+      <c r="O105">
+        <v>1.4653334372222361E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106">
         <v>2.4095</v>
       </c>
@@ -7682,7 +10395,7 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E106" s="6">
         <v>-0.20499999999999999</v>
@@ -7692,7 +10405,7 @@
       </c>
       <c r="G106" s="2">
         <f t="shared" si="18"/>
-        <v>3.3584122530168183E-3</v>
+        <v>3.5767291289515828E-3</v>
       </c>
       <c r="H106">
         <f t="shared" si="22"/>
@@ -7700,7 +10413,7 @@
       </c>
       <c r="J106" s="2">
         <f t="shared" si="20"/>
-        <v>0.12957454302758317</v>
+        <v>0.13799766303289093</v>
       </c>
       <c r="K106">
         <f t="shared" si="21"/>
@@ -7708,14 +10421,17 @@
       </c>
       <c r="M106" s="2">
         <f t="shared" si="16"/>
-        <v>1.5727400765997823E-2</v>
+        <v>1.6084114624208213E-2</v>
       </c>
       <c r="N106" s="2">
         <f t="shared" si="17"/>
         <v>0.20070400000000002</v>
       </c>
-    </row>
-    <row r="107" spans="1:14">
+      <c r="O106">
+        <v>1.5727400765997823E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107">
         <v>2.4095</v>
       </c>
@@ -7726,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E107" s="6">
         <v>-0.22</v>
@@ -7736,7 +10452,7 @@
       </c>
       <c r="G107" s="2">
         <f t="shared" si="18"/>
-        <v>3.5735398400865157E-3</v>
+        <v>3.7967360341446556E-3</v>
       </c>
       <c r="H107">
         <f t="shared" si="22"/>
@@ -7744,7 +10460,7 @@
       </c>
       <c r="J107" s="2">
         <f t="shared" si="20"/>
-        <v>0.14472836352350393</v>
+        <v>0.15376780938285861</v>
       </c>
       <c r="K107">
         <f t="shared" si="21"/>
@@ -7752,14 +10468,17 @@
       </c>
       <c r="M107" s="2">
         <f t="shared" si="16"/>
-        <v>1.6878186187900102E-2</v>
+        <v>1.7261001060125888E-2</v>
       </c>
       <c r="N107" s="2">
         <f t="shared" si="17"/>
         <v>0.21068100000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:14">
+      <c r="O107">
+        <v>1.6878186187900102E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
       <c r="A108">
         <v>2.4095</v>
       </c>
@@ -7770,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E108" s="6">
         <v>-0.23599999999999999</v>
@@ -7780,7 +10499,7 @@
       </c>
       <c r="G108" s="2">
         <f t="shared" si="18"/>
-        <v>4.8636142296624883E-3</v>
+        <v>5.1160706568469418E-3</v>
       </c>
       <c r="H108">
         <f t="shared" si="22"/>
@@ -7788,7 +10507,7 @@
       </c>
       <c r="J108" s="2">
         <f t="shared" si="20"/>
-        <v>0.18681159085248603</v>
+        <v>0.1965084509561574</v>
       </c>
       <c r="K108">
         <f t="shared" si="21"/>
@@ -7796,14 +10515,17 @@
       </c>
       <c r="M108" s="2">
         <f t="shared" si="16"/>
-        <v>1.81056906379292E-2</v>
+        <v>1.8516346591771406E-2</v>
       </c>
       <c r="N108" s="2">
         <f t="shared" si="17"/>
         <v>0.19980900000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:14">
+      <c r="O108">
+        <v>1.81056906379292E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109">
         <v>2.4095</v>
       </c>
@@ -7814,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E109" s="6">
         <v>-0.25</v>
@@ -7824,7 +10546,7 @@
       </c>
       <c r="G109" s="2">
         <f t="shared" si="18"/>
-        <v>4.5820132275383894E-3</v>
+        <v>4.8280826501924589E-3</v>
       </c>
       <c r="H109">
         <f t="shared" si="22"/>
@@ -7832,7 +10554,7 @@
       </c>
       <c r="J109" s="2">
         <f t="shared" si="20"/>
-        <v>0.19127482976534538</v>
+        <v>0.20154692733279389</v>
       </c>
       <c r="K109">
         <f t="shared" si="21"/>
@@ -7840,14 +10562,17 @@
       </c>
       <c r="M109" s="2">
         <f t="shared" si="16"/>
-        <v>1.9179757031704662E-2</v>
+        <v>1.9614773931961236E-2</v>
       </c>
       <c r="N109" s="2">
         <f t="shared" si="17"/>
         <v>0.21715600000000002</v>
       </c>
-    </row>
-    <row r="110" spans="1:14">
+      <c r="O109">
+        <v>1.9179757031704662E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110">
         <v>2.4095</v>
       </c>
@@ -7858,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E110" s="6">
         <v>-0.26700000000000002</v>
@@ -7868,7 +10593,7 @@
       </c>
       <c r="G110" s="2">
         <f t="shared" si="18"/>
-        <v>3.0740974211310355E-3</v>
+        <v>3.2859657400450058E-3</v>
       </c>
       <c r="H110">
         <f t="shared" si="22"/>
@@ -7876,7 +10601,7 @@
       </c>
       <c r="J110" s="2">
         <f t="shared" si="20"/>
-        <v>0.1591776154273889</v>
+        <v>0.17014821562942389</v>
       </c>
       <c r="K110">
         <f t="shared" si="21"/>
@@ -7884,14 +10609,17 @@
       </c>
       <c r="M110" s="2">
         <f t="shared" si="16"/>
-        <v>2.048398050986058E-2</v>
+        <v>2.0948578559334602E-2</v>
       </c>
       <c r="N110" s="2">
         <f t="shared" si="17"/>
         <v>0.26936100000000002</v>
       </c>
-    </row>
-    <row r="111" spans="1:14">
+      <c r="O110">
+        <v>2.048398050986058E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111">
         <v>2.4095</v>
       </c>
@@ -7902,7 +10630,7 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E111" s="6">
         <v>-0.28499999999999998</v>
@@ -7912,7 +10640,7 @@
       </c>
       <c r="G111" s="2">
         <f t="shared" si="18"/>
-        <v>3.5895624085315546E-3</v>
+        <v>3.8131220111588212E-3</v>
       </c>
       <c r="H111">
         <f t="shared" si="22"/>
@@ -7920,7 +10648,7 @@
       </c>
       <c r="J111" s="2">
         <f t="shared" si="20"/>
-        <v>0.18802351467249373</v>
+        <v>0.19973370589938494</v>
       </c>
       <c r="K111">
         <f t="shared" si="21"/>
@@ -7928,14 +10656,17 @@
       </c>
       <c r="M111" s="2">
         <f t="shared" si="16"/>
-        <v>2.1864923016143314E-2</v>
+        <v>2.2360842282435806E-2</v>
       </c>
       <c r="N111" s="2">
         <f t="shared" si="17"/>
         <v>0.272484</v>
       </c>
-    </row>
-    <row r="112" spans="1:14">
+      <c r="O111">
+        <v>2.1864923016143314E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112">
         <v>2.4095</v>
       </c>
@@ -7946,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E112" s="6">
         <v>-0.30099999999999999</v>
@@ -7956,7 +10687,7 @@
       </c>
       <c r="G112" s="2">
         <f t="shared" si="18"/>
-        <v>4.8116697435660509E-3</v>
+        <v>5.0629480156107022E-3</v>
       </c>
       <c r="H112">
         <f t="shared" si="22"/>
@@ -7964,7 +10695,7 @@
       </c>
       <c r="J112" s="2">
         <f t="shared" si="20"/>
-        <v>0.23682442800147585</v>
+        <v>0.24919203347268393</v>
       </c>
       <c r="K112">
         <f t="shared" si="21"/>
@@ -7972,14 +10703,17 @@
       </c>
       <c r="M112" s="2">
         <f t="shared" si="16"/>
-        <v>2.3092427466172412E-2</v>
+        <v>2.3616187814081327E-2</v>
       </c>
       <c r="N112" s="2">
         <f t="shared" si="17"/>
         <v>0.25603599999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:14">
+      <c r="O112">
+        <v>2.3092427466172412E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113">
         <v>2.4095</v>
       </c>
@@ -7990,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E113" s="6">
         <v>-0.31900000000000001</v>
@@ -8000,7 +10734,7 @@
       </c>
       <c r="G113" s="2">
         <f t="shared" si="18"/>
-        <v>3.9662576697254009E-3</v>
+        <v>4.198361113893258E-3</v>
       </c>
       <c r="H113">
         <f t="shared" ref="H113:H115" si="23">0.5*A113*(POWER(B113,2)+POWER(C113,2))</f>
@@ -8008,7 +10742,7 @@
       </c>
       <c r="J113" s="2">
         <f t="shared" si="20"/>
-        <v>0.22397995349658073</v>
+        <v>0.23708714999264502</v>
       </c>
       <c r="K113">
         <f t="shared" si="21"/>
@@ -8016,14 +10750,17 @@
       </c>
       <c r="M113" s="2">
         <f t="shared" si="16"/>
-        <v>2.4473369972455149E-2</v>
+        <v>2.5028451537182538E-2</v>
       </c>
       <c r="N113" s="2">
         <f t="shared" si="17"/>
         <v>0.29376400000000003</v>
       </c>
-    </row>
-    <row r="114" spans="1:14">
+      <c r="O113">
+        <v>2.4473369972455149E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114">
         <v>2.4095</v>
       </c>
@@ -8034,7 +10771,7 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E114" s="6">
         <v>-0.33800000000000002</v>
@@ -8044,7 +10781,7 @@
       </c>
       <c r="G114" s="2">
         <f t="shared" si="18"/>
-        <v>2.3779057733996681E-3</v>
+        <v>2.5739837393868544E-3</v>
       </c>
       <c r="H114">
         <f t="shared" si="23"/>
@@ -8052,7 +10789,7 @@
       </c>
       <c r="J114" s="2">
         <f t="shared" si="20"/>
-        <v>0.16842310732474708</v>
+        <v>0.18231098323593753</v>
       </c>
       <c r="K114">
         <f t="shared" si="21"/>
@@ -8060,14 +10797,17 @@
       </c>
       <c r="M114" s="2">
         <f t="shared" si="16"/>
-        <v>2.5931031506864703E-2</v>
+        <v>2.6519174356011591E-2</v>
       </c>
       <c r="N114" s="2">
         <f t="shared" si="17"/>
         <v>0.36844899999999997</v>
       </c>
-    </row>
-    <row r="115" spans="1:14">
+      <c r="O114">
+        <v>2.5931031506864703E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115">
         <v>2.4095</v>
       </c>
@@ -8078,7 +10818,7 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E115" s="6">
         <v>-0.35899999999999999</v>
@@ -8088,7 +10828,7 @@
       </c>
       <c r="G115" s="2">
         <f t="shared" si="18"/>
-        <v>2.283943622529325E-3</v>
+        <v>2.4778904289014282E-3</v>
       </c>
       <c r="H115">
         <f t="shared" si="23"/>
@@ -8096,7 +10836,7 @@
       </c>
       <c r="J115" s="2">
         <f t="shared" si="20"/>
-        <v>0.1737066010690359</v>
+        <v>0.18845733317589197</v>
       </c>
       <c r="K115">
         <f t="shared" si="21"/>
@@ -8104,14 +10844,17 @@
       </c>
       <c r="M115" s="2">
         <f t="shared" si="16"/>
-        <v>2.7542131097527893E-2</v>
+        <v>2.8166815366296335E-2</v>
       </c>
       <c r="N115" s="2">
         <f t="shared" si="17"/>
         <v>0.39564100000000002</v>
       </c>
-    </row>
-    <row r="116" spans="1:14">
+      <c r="O115">
+        <v>2.7542131097527893E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116">
         <v>2.4095</v>
       </c>
@@ -8122,7 +10865,7 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E116" s="6">
         <v>-0.379</v>
@@ -8132,7 +10875,7 @@
       </c>
       <c r="G116" s="2">
         <f t="shared" ref="G116:G122" si="24">(A116*9.8*ABS(E116)*SIN(RADIANS(D116))-0.5*A116*ABS(F116)^2)/(0.5*(ABS(F116)/B116)^2)</f>
-        <v>2.7031898915836341E-3</v>
+        <v>2.9066456407492599E-3</v>
       </c>
       <c r="H116">
         <f t="shared" ref="H116:H122" si="25">0.5*A116*(POWER(B116,2)+POWER(C116,2))</f>
@@ -8140,7 +10883,7 @@
       </c>
       <c r="J116" s="2">
         <f t="shared" ref="J116:J122" si="26">A116*9.8*ABS(E116)*SIN(RADIANS(D116))-A116*ABS(F116)^2/2</f>
-        <v>0.20690211273026365</v>
+        <v>0.22247461264251561</v>
       </c>
       <c r="K116">
         <f t="shared" ref="K116:K122" si="27">(ABS(F116)/B116)^2/2</f>
@@ -8148,14 +10891,17 @@
       </c>
       <c r="M116" s="2">
         <f t="shared" si="16"/>
-        <v>2.9076511660064266E-2</v>
+        <v>2.9735997280853233E-2</v>
       </c>
       <c r="N116" s="2">
         <f t="shared" si="17"/>
         <v>0.39816099999999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:14">
+      <c r="O116">
+        <v>2.9076511660064266E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117">
         <v>2.4095</v>
       </c>
@@ -8166,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E117" s="6">
         <v>-0.40100000000000002</v>
@@ -8176,7 +10922,7 @@
       </c>
       <c r="G117" s="2">
         <f t="shared" si="24"/>
-        <v>2.3819303960320231E-3</v>
+        <v>2.5780996446595115E-3</v>
       </c>
       <c r="H117">
         <f t="shared" si="25"/>
@@ -8184,7 +10930,7 @@
       </c>
       <c r="J117" s="2">
         <f t="shared" si="26"/>
-        <v>0.20006063255761397</v>
+        <v>0.21653707705580139</v>
       </c>
       <c r="K117">
         <f t="shared" si="27"/>
@@ -8192,14 +10938,17 @@
       </c>
       <c r="M117" s="2">
         <f t="shared" si="16"/>
-        <v>3.0764330278854279E-2</v>
+        <v>3.1462097386865825E-2</v>
       </c>
       <c r="N117" s="2">
         <f t="shared" si="17"/>
         <v>0.43692100000000006</v>
       </c>
-    </row>
-    <row r="118" spans="1:14">
+      <c r="O117">
+        <v>3.0764330278854279E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118">
         <v>2.4095</v>
       </c>
@@ -8210,7 +10959,7 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E118" s="6">
         <v>-0.42299999999999999</v>
@@ -8220,7 +10969,7 @@
       </c>
       <c r="G118" s="2">
         <f t="shared" si="24"/>
-        <v>2.6395444416438961E-3</v>
+        <v>2.8415566456018084E-3</v>
       </c>
       <c r="H118">
         <f t="shared" si="25"/>
@@ -8228,7 +10977,7 @@
       </c>
       <c r="J118" s="2">
         <f t="shared" si="26"/>
-        <v>0.22709672238496426</v>
+        <v>0.24447711146908713</v>
       </c>
       <c r="K118">
         <f t="shared" si="27"/>
@@ -8236,14 +10985,17 @@
       </c>
       <c r="M118" s="2">
         <f t="shared" si="16"/>
-        <v>3.2452148897644285E-2</v>
+        <v>3.3188197492878407E-2</v>
       </c>
       <c r="N118" s="2">
         <f t="shared" si="17"/>
         <v>0.44756100000000004</v>
       </c>
-    </row>
-    <row r="119" spans="1:14">
+      <c r="O118">
+        <v>3.2452148897644285E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119">
         <v>2.4095</v>
       </c>
@@ -8254,7 +11006,7 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E119" s="6">
         <v>-0.44600000000000001</v>
@@ -8264,7 +11016,7 @@
       </c>
       <c r="G119" s="2">
         <f t="shared" si="24"/>
-        <v>2.8761683550440013E-3</v>
+        <v>3.0835474362341819E-3</v>
       </c>
       <c r="H119">
         <f t="shared" si="25"/>
@@ -8272,7 +11024,7 @@
       </c>
       <c r="J119" s="2">
         <f t="shared" si="26"/>
-        <v>0.25415774204537622</v>
+        <v>0.27248316410570439</v>
       </c>
       <c r="K119">
         <f t="shared" si="27"/>
@@ -8280,14 +11032,17 @@
       </c>
       <c r="M119" s="2">
         <f t="shared" si="16"/>
-        <v>3.4216686544561115E-2</v>
+        <v>3.4992756694618848E-2</v>
       </c>
       <c r="N119" s="2">
         <f t="shared" si="17"/>
         <v>0.45968400000000004</v>
       </c>
-    </row>
-    <row r="120" spans="1:14">
+      <c r="O119">
+        <v>3.4216686544561115E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120">
         <v>2.4095</v>
       </c>
@@ -8298,7 +11053,7 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E120" s="6">
         <v>-0.46899999999999997</v>
@@ -8308,7 +11063,7 @@
       </c>
       <c r="G120" s="2">
         <f t="shared" si="24"/>
-        <v>2.5501327720562602E-3</v>
+        <v>2.750117026062226E-3</v>
       </c>
       <c r="H120">
         <f t="shared" si="25"/>
@@ -8316,7 +11071,7 @@
       </c>
       <c r="J120" s="2">
         <f t="shared" si="26"/>
-        <v>0.245730440955788</v>
+        <v>0.26500089599232135</v>
       </c>
       <c r="K120">
         <f t="shared" si="27"/>
@@ -8324,14 +11079,17 @@
       </c>
       <c r="M120" s="2">
         <f t="shared" si="16"/>
-        <v>3.5981224191477944E-2</v>
+        <v>3.6797315896359276E-2</v>
       </c>
       <c r="N120" s="2">
         <f t="shared" si="17"/>
         <v>0.50126399999999993</v>
       </c>
-    </row>
-    <row r="121" spans="1:14">
+      <c r="O120">
+        <v>3.5981224191477944E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121">
         <v>2.4095</v>
       </c>
@@ -8342,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E121" s="6">
         <v>-0.49299999999999999</v>
@@ -8352,7 +11110,7 @@
       </c>
       <c r="G121" s="2">
         <f t="shared" si="24"/>
-        <v>2.3095414839135911E-3</v>
+        <v>2.5040688764888536E-3</v>
       </c>
       <c r="H121">
         <f t="shared" si="25"/>
@@ -8360,7 +11118,7 @@
       </c>
       <c r="J121" s="2">
         <f t="shared" si="26"/>
-        <v>0.24049776694926117</v>
+        <v>0.26075434335226955</v>
       </c>
       <c r="K121">
         <f t="shared" si="27"/>
@@ -8368,14 +11126,17 @@
       </c>
       <c r="M121" s="2">
         <f t="shared" si="16"/>
-        <v>3.7822480866521596E-2</v>
+        <v>3.8680334193827555E-2</v>
       </c>
       <c r="N121" s="2">
         <f t="shared" si="17"/>
         <v>0.54169599999999996</v>
       </c>
-    </row>
-    <row r="122" spans="1:14">
+      <c r="O121">
+        <v>3.7822480866521596E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122">
         <v>2.4095</v>
       </c>
@@ -8386,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E122" s="6">
         <v>-0.51800000000000002</v>
@@ -8396,7 +11157,7 @@
       </c>
       <c r="G122" s="2">
         <f t="shared" si="24"/>
-        <v>3.0973304998545689E-3</v>
+        <v>3.3097257692337114E-3</v>
       </c>
       <c r="H122">
         <f t="shared" si="25"/>
@@ -8404,7 +11165,7 @@
       </c>
       <c r="J122" s="2">
         <f t="shared" si="26"/>
-        <v>0.31037847602579571</v>
+        <v>0.33166226218554906</v>
       </c>
       <c r="K122">
         <f t="shared" si="27"/>
@@ -8412,11 +11173,14 @@
       </c>
       <c r="M122" s="2">
         <f t="shared" si="16"/>
-        <v>3.9740456569692058E-2</v>
+        <v>4.064181158702368E-2</v>
       </c>
       <c r="N122" s="2">
         <f t="shared" si="17"/>
         <v>0.52128399999999997</v>
+      </c>
+      <c r="O122">
+        <v>3.9740456569692058E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Experiments/Rolling_motion/Final.xlsx
+++ b/Experiments/Rolling_motion/Final.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Data_git\Data_Analysis\Experiments\Rolling_motion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\98415\Data_Analysis\Experiments\Rolling_motion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,8 +17,9 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
   <si>
     <t>下落高度h(m)</t>
   </si>
@@ -134,23 +135,43 @@
   <si>
     <t>Deg of freedom</t>
   </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y_predicted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(h-y_pre)^2/err_y^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -158,7 +179,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -167,7 +188,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -222,7 +243,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -238,9 +259,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -278,7 +299,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -364,7 +385,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -653,7 +674,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-850D-4610-A822-16BBC467C03A}"/>
             </c:ext>
@@ -667,11 +688,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="561533984"/>
-        <c:axId val="561538904"/>
+        <c:axId val="-409750496"/>
+        <c:axId val="-409740704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="561533984"/>
+        <c:axId val="-409750496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -725,15 +746,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561538904"/>
+        <c:crossAx val="-409740704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561538904"/>
+        <c:axId val="-409740704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -787,10 +808,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561533984"/>
+        <c:crossAx val="-409750496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -828,7 +849,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -840,9 +861,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -880,7 +901,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -956,7 +977,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1251,7 +1272,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4654-45EF-97F7-26F9DF26B7C1}"/>
             </c:ext>
@@ -1265,11 +1286,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="515750544"/>
-        <c:axId val="515751528"/>
+        <c:axId val="-409746688"/>
+        <c:axId val="-409749408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="515750544"/>
+        <c:axId val="-409746688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1323,15 +1344,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515751528"/>
+        <c:crossAx val="-409749408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="515751528"/>
+        <c:axId val="-409749408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,10 +1406,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515750544"/>
+        <c:crossAx val="-409746688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1426,7 +1447,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1438,9 +1459,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1478,7 +1499,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1554,7 +1575,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1566,25 +1587,19 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet2!$R$83</c:f>
+                <c:f>Sheet2!$U$74</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
-                  <c:pt idx="0">
-                    <c:v>1.3177037825844974E-3</c:v>
-                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet2!$R$83</c:f>
+                <c:f>Sheet2!$U$74</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
-                  <c:pt idx="0">
-                    <c:v>1.3177037825844974E-3</c:v>
-                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -1744,136 +1759,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>3.7132009613380224E-5</c:v>
+                  <c:v>3.7974202332276949E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0126911712740062E-4</c:v>
+                  <c:v>1.0356600636075532E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5317279281850152E-4</c:v>
+                  <c:v>2.5891501590188834E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9970613654072518E-4</c:v>
+                  <c:v>4.0877188874207217E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9200563370390422E-4</c:v>
+                  <c:v>7.0770104346516141E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6665975439791493E-4</c:v>
+                  <c:v>9.8858460617084619E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.296551575343235E-3</c:v>
+                  <c:v>1.3259587178005795E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6494591047266007E-3</c:v>
+                  <c:v>1.6868705581486662E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0483980509860581E-3</c:v>
+                  <c:v>2.0948578559334603E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4933684141216061E-3</c:v>
+                  <c:v>2.5499206111549606E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0073859025712907E-3</c:v>
+                  <c:v>3.0755965525315217E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5520910022717035E-3</c:v>
+                  <c:v>3.6326561321992209E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1581713244735708E-3</c:v>
+                  <c:v>4.2524829884491959E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.73356403542471E-3</c:v>
+                  <c:v>4.8409262064080328E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4470509970041235E-3</c:v>
+                  <c:v>5.5705957966769902E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.1758817642089013E-3</c:v>
+                  <c:v>6.3159572060915185E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.8663530173502683E-3</c:v>
+                  <c:v>7.0220890676421224E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.7486218408086838E-3</c:v>
+                  <c:v>7.9243686685123403E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.5158121220768705E-3</c:v>
+                  <c:v>8.7089596257907895E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.4364404595986932E-3</c:v>
+                  <c:v>9.6504687745249274E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0433787825247337E-2</c:v>
+                  <c:v>1.0670437018986912E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.135441616276916E-2</c:v>
+                  <c:v>1.161194616772105E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2428482556544621E-2</c:v>
+                  <c:v>1.2710373507910881E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3502548950320081E-2</c:v>
+                  <c:v>1.3808800848100709E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4653334372222361E-2</c:v>
+                  <c:v>1.4985687284018384E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.5727400765997823E-2</c:v>
+                  <c:v>1.6084114624208213E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.6878186187900102E-2</c:v>
+                  <c:v>1.7261001060125888E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.81056906379292E-2</c:v>
+                  <c:v>1.8516346591771406E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.9179757031704662E-2</c:v>
+                  <c:v>1.9614773931961236E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.048398050986058E-2</c:v>
+                  <c:v>2.0948578559334602E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.1864923016143314E-2</c:v>
+                  <c:v>2.2360842282435806E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.3092427466172412E-2</c:v>
+                  <c:v>2.3616187814081327E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.4473369972455149E-2</c:v>
+                  <c:v>2.5028451537182538E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.5931031506864703E-2</c:v>
+                  <c:v>2.6519174356011591E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.7542131097527893E-2</c:v>
+                  <c:v>2.8166815366296335E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.9076511660064266E-2</c:v>
+                  <c:v>2.9735997280853233E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.0764330278854279E-2</c:v>
+                  <c:v>3.1462097386865825E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.2452148897644285E-2</c:v>
+                  <c:v>3.3188197492878407E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.4216686544561115E-2</c:v>
+                  <c:v>3.4992756694618848E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.5981224191477944E-2</c:v>
+                  <c:v>3.6797315896359276E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.7822480866521596E-2</c:v>
+                  <c:v>3.8680334193827555E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.9740456569692058E-2</c:v>
+                  <c:v>4.064181158702368E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7D83-4967-BF06-5BE71659D89A}"/>
             </c:ext>
@@ -1887,11 +1902,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="469633568"/>
-        <c:axId val="469623072"/>
+        <c:axId val="-409746144"/>
+        <c:axId val="-409745600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="469633568"/>
+        <c:axId val="-409746144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1945,15 +1960,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469623072"/>
+        <c:crossAx val="-409745600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="469623072"/>
+        <c:axId val="-409745600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,10 +2022,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469633568"/>
+        <c:crossAx val="-409746144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2048,7 +2063,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4091,27 +4106,27 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4144,7 +4159,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.1924999999999999</v>
       </c>
@@ -4177,7 +4192,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.1924999999999999</v>
       </c>
@@ -4211,7 +4226,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.1924999999999999</v>
       </c>
@@ -4245,7 +4260,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.1924999999999999</v>
       </c>
@@ -4282,13 +4297,13 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.1924999999999999</v>
       </c>
@@ -4328,7 +4343,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.1924999999999999</v>
       </c>
@@ -4368,7 +4383,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.1924999999999999</v>
       </c>
@@ -4408,13 +4423,13 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4423,7 +4438,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -4459,7 +4474,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.0449999999999999</v>
       </c>
@@ -4499,7 +4514,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.0449999999999999</v>
       </c>
@@ -4539,7 +4554,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.0449999999999999</v>
       </c>
@@ -4576,13 +4591,13 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
@@ -4592,7 +4607,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2.4095</v>
       </c>
@@ -4632,7 +4647,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2.4095</v>
       </c>
@@ -4672,7 +4687,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2.4095</v>
       </c>
@@ -4712,7 +4727,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2.4095</v>
       </c>
@@ -4752,7 +4767,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2.4095</v>
       </c>
@@ -4792,7 +4807,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2.4095</v>
       </c>
@@ -4832,7 +4847,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2.4095</v>
       </c>
@@ -4872,7 +4887,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2.4095</v>
       </c>
@@ -4912,7 +4927,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4934,7 +4949,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1.0449999999999999</v>
       </c>
@@ -4974,7 +4989,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1.0449999999999999</v>
       </c>
@@ -5014,7 +5029,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1.0449999999999999</v>
       </c>
@@ -5054,7 +5069,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1.0449999999999999</v>
       </c>
@@ -5094,7 +5109,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.0449999999999999</v>
       </c>
@@ -5130,7 +5145,7 @@
         <v>3.1725328447256792E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5149,7 +5164,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1.1924999999999999</v>
       </c>
@@ -5185,7 +5200,7 @@
         <v>9.5816541280612493E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1.1924999999999999</v>
       </c>
@@ -5221,7 +5236,7 @@
         <v>8.5067487898203425E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1.1924999999999999</v>
       </c>
@@ -5257,7 +5272,7 @@
         <v>8.9679921019184261E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1.1924999999999999</v>
       </c>
@@ -5293,7 +5308,7 @@
         <v>8.9198181954089142E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1.1924999999999999</v>
       </c>
@@ -5342,28 +5357,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S122"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D38"/>
+      <selection activeCell="AC84" sqref="AC83:AC84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" customWidth="1"/>
+    <col min="18" max="18" width="10.88671875" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" customWidth="1"/>
+    <col min="27" max="27" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.88671875" customWidth="1"/>
+    <col min="29" max="29" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1">
+    <row r="1" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -5400,8 +5418,20 @@
       <c r="N1" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="Z1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.1924999999999999</v>
       </c>
@@ -5460,8 +5490,23 @@
       <c r="S2" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="Z2">
+        <v>1.2941716757183499E-4</v>
+      </c>
+      <c r="AA2">
+        <f>N2*0.0757468</f>
+        <v>3.140440233535933E-5</v>
+      </c>
+      <c r="AB2">
+        <f>(Z2-AA2)^2/0.000441^2</f>
+        <v>4.9395581827019058E-2</v>
+      </c>
+      <c r="AC2">
+        <f>SUM(AB2:AB38)</f>
+        <v>36.034792390567844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.1924999999999999</v>
       </c>
@@ -5519,8 +5564,19 @@
       <c r="S3" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="Z3">
+        <v>2.1949417465984552E-4</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA38" si="6">N3*0.0757468</f>
+        <v>1.4271114647763163E-4</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB38" si="7">(Z3-AA3)^2/0.000441^2</f>
+        <v>3.0314701265576859E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.1924999999999999</v>
       </c>
@@ -5578,8 +5634,19 @@
       <c r="S4" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="Z4">
+        <v>3.363102936731041E-4</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="6"/>
+        <v>1.8197363284742715E-4</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="7"/>
+        <v>0.12247882762233868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.1924999999999999</v>
       </c>
@@ -5637,8 +5704,19 @@
       <c r="S5" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="Z5">
+        <v>4.5312026791000706E-4</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="6"/>
+        <v>3.6181792873710145E-4</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="7"/>
+        <v>4.2863401249707146E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.1924999999999999</v>
       </c>
@@ -5696,8 +5774,19 @@
       <c r="S6" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="Z6">
+        <v>6.6573954217731763E-4</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="6"/>
+        <v>7.2176460096989175E-4</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="7"/>
+        <v>1.6139402886201675E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.1924999999999999</v>
       </c>
@@ -5743,8 +5832,19 @@
       <c r="O7">
         <v>8.9603766253314361E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="Z7">
+        <v>9.184008230110509E-4</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="6"/>
+        <v>8.8498375905374531E-4</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="7"/>
+        <v>5.7419499258367273E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.1924999999999999</v>
       </c>
@@ -5790,8 +5890,19 @@
       <c r="O8">
         <v>1.1521938480655368E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="Z8">
+        <v>1.1809501124541379E-3</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="6"/>
+        <v>1.0058478405167591E-3</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="7"/>
+        <v>0.15765450423245328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.1924999999999999</v>
       </c>
@@ -5837,8 +5948,19 @@
       <c r="O9">
         <v>1.4319296435142963E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="Z9">
+        <v>1.4676675078362641E-3</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="6"/>
+        <v>1.3255983888113396E-3</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="7"/>
+        <v>0.10378203824804574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.1924999999999999</v>
       </c>
@@ -5884,8 +6006,19 @@
       <c r="O10">
         <v>1.7673949405551204E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="Z10">
+        <v>1.8115052925371316E-3</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="6"/>
+        <v>1.6790022852314116E-3</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="7"/>
+        <v>9.0276412323361629E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.1924999999999999</v>
       </c>
@@ -5931,8 +6064,19 @@
       <c r="O11">
         <v>2.1242972774212594E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="Z11">
+        <v>2.17731513917436E-3</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="6"/>
+        <v>2.0053992500319892E-3</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="7"/>
+        <v>0.15196894781295814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.1924999999999999</v>
       </c>
@@ -5978,8 +6122,19 @@
       <c r="O12">
         <v>2.5240736918453353E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="Z12">
+        <v>2.5870691075393863E-3</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="6"/>
+        <v>2.3300314633173066E-3</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="7"/>
+        <v>0.33971622187893113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.1924999999999999</v>
       </c>
@@ -6015,18 +6170,29 @@
         <v>7.5653260120457455</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" ref="M13:O76" si="6">ABS(E13)*SIN(RADIANS(D13))</f>
+        <f t="shared" ref="M13:M76" si="8">ABS(E13)*SIN(RADIANS(D13))</f>
         <v>3.013299218666725E-3</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" ref="N13:N76" si="7">ABS(F13)^2</f>
+        <f t="shared" ref="N13:N76" si="9">ABS(F13)^2</f>
         <v>3.935482591466196E-2</v>
       </c>
       <c r="O13">
         <v>2.9399250531536069E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="Z13">
+        <v>3.013299218666725E-3</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="6"/>
+        <v>2.9810021275927167E-3</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="7"/>
+        <v>5.363516702622805E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.1924999999999999</v>
       </c>
@@ -6062,18 +6228,29 @@
         <v>8.9166282205750598</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.5326490627007163E-3</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.638430000343146E-2</v>
       </c>
       <c r="O14">
         <v>3.4466286716885509E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="Z14">
+        <v>3.5326490627007163E-3</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="6"/>
+        <v>3.5134622954999225E-3</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="7"/>
+        <v>1.8928946047040952E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.1924999999999999</v>
       </c>
@@ -6109,18 +6286,29 @@
         <v>10.644287892142703</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.0398602222104863E-3</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.537158561492634E-2</v>
       </c>
       <c r="O15">
         <v>3.941489183994942E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="Z15">
+        <v>4.0398602222104863E-3</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="6"/>
+        <v>4.1942204212567025E-3</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="7"/>
+        <v>0.12251618949711024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.1924999999999999</v>
       </c>
@@ -6156,18 +6344,29 @@
         <v>12.921802079501978</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.6542613004648542E-3</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.721921441756927E-2</v>
       </c>
       <c r="O16">
         <v>4.5409295288020611E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="Z16">
+        <v>4.6542613004648542E-3</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="6"/>
+        <v>5.0916403906447359E-3</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="7"/>
+        <v>0.98364605553540496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.1924999999999999</v>
       </c>
@@ -6203,11 +6402,11 @@
         <v>13.613068342240078</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.2756539186124916E-3</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.0815181516332884E-2</v>
       </c>
       <c r="O17">
@@ -6215,8 +6414,19 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="Z17">
+        <v>5.2756539186124916E-3</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="6"/>
+        <v>5.364023391281364E-3</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="7"/>
+        <v>4.0153864386621753E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.1924999999999999</v>
       </c>
@@ -6252,18 +6462,29 @@
         <v>14.44234030951889</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.9226794437300372E-3</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.5129054290117278E-2</v>
       </c>
       <c r="O18">
         <v>5.7784615515627698E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="Z18">
+        <v>5.9226794437300372E-3</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="6"/>
+        <v>5.6907854495026559E-3</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="7"/>
+        <v>0.27650425778728405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.1924999999999999</v>
       </c>
@@ -6299,18 +6520,29 @@
         <v>15.349263781709581</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.5821352857274419E-3</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.9846870192453234E-2</v>
       </c>
       <c r="O19">
         <v>6.421859571688531E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="Z19">
+        <v>6.5821352857274419E-3</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="6"/>
+        <v>6.0481449070937171E-3</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="7"/>
+        <v>1.4661880825036322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.1924999999999999</v>
       </c>
@@ -6346,18 +6578,29 @@
         <v>15.974951796344357</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.2695572837230549E-3</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.3101699244583327E-2</v>
       </c>
       <c r="O20">
         <v>7.0925427688555281E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="Z20">
+        <v>7.2695572837230549E-3</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="6"/>
+        <v>6.2946877923396047E-3</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="7"/>
+        <v>4.886701144226052</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.1924999999999999</v>
       </c>
@@ -6393,18 +6636,29 @@
         <v>19.75101694798229</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.9561905834005919E-3</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.10274479016340386</v>
       </c>
       <c r="O21">
         <v>7.7624564725947472E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="Z21">
+        <v>7.9561905834005919E-3</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="6"/>
+        <v>7.7825890715493198E-3</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="7"/>
+        <v>0.15496364640786178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.1924999999999999</v>
       </c>
@@ -6440,18 +6694,29 @@
         <v>22.000817143784108</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.7974018153090406E-3</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.11444825078196491</v>
       </c>
       <c r="O22">
         <v>8.5831841190101964E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="Z22">
+        <v>8.7974018153090406E-3</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="6"/>
+        <v>8.6690887623313406E-3</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="7"/>
+        <v>8.4657316470287902E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.1924999999999999</v>
       </c>
@@ -6487,18 +6752,29 @@
         <v>22.53398414644283</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.5687058633411402E-3</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.11722178552979558</v>
       </c>
       <c r="O23">
         <v>9.3357068291218346E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="Z23">
+        <v>9.5687058633411402E-3</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="6"/>
+        <v>8.8791751441683192E-3</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="7"/>
+        <v>2.4447252568785007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.1924999999999999</v>
       </c>
@@ -6534,18 +6810,29 @@
         <v>26.119974732492413</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0429338954167641E-2</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.13587610855842552</v>
       </c>
       <c r="O24">
         <v>1.017538341006668E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="Z24">
+        <v>1.0429338954167641E-2</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="6"/>
+        <v>1.0292180419753346E-2</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="7"/>
+        <v>9.6731627062166037E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1.1924999999999999</v>
       </c>
@@ -6581,11 +6868,11 @@
         <v>28.778736008735351</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1325702013380835E-2</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.14970698471744126</v>
       </c>
       <c r="O25">
@@ -6599,8 +6886,19 @@
         <f>((Q2+Q3)*A2*9.8-0.5*A2)*2*B2^2</f>
         <v>1.5302630222283702E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="Z25">
+        <v>1.1325702013380835E-2</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="6"/>
+        <v>1.1339825029995081E-2</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="7"/>
+        <v>1.025599407069424E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1.1924999999999999</v>
       </c>
@@ -6636,11 +6934,11 @@
         <v>31.053025957282252</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2273591071453566E-2</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.16153784102978225</v>
       </c>
       <c r="O26">
@@ -6650,8 +6948,19 @@
         <f>R25-Q25</f>
         <v>2.7067032217386504E-5</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="Z26">
+        <v>1.2273591071453566E-2</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="6"/>
+        <v>1.2235974536914711E-2</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="7"/>
+        <v>7.2757938858441827E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1.1924999999999999</v>
       </c>
@@ -6687,18 +6996,29 @@
         <v>33.12969403643767</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.324144125791823E-2</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.17234066837754874</v>
       </c>
       <c r="O27">
         <v>1.2919010715185534E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="Z27">
+        <v>1.324144125791823E-2</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="6"/>
+        <v>1.305425413946051E-2</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="7"/>
+        <v>0.18016678912852307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1.1924999999999999</v>
       </c>
@@ -6734,18 +7054,29 @@
         <v>34.788342297161293</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4252351173468198E-2</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.18096895662983303</v>
       </c>
       <c r="O28">
         <v>1.3905304863737349E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="Z28">
+        <v>1.4252351173468198E-2</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="6"/>
+        <v>1.3707819364048638E-2</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="7"/>
+        <v>1.524647093905009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1.1924999999999999</v>
       </c>
@@ -6781,18 +7112,29 @@
         <v>37.736191067036224</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.526913004968289E-2</v>
       </c>
       <c r="N29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.1963036659307224</v>
       </c>
       <c r="O29">
         <v>1.4897325063119865E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="Z29">
+        <v>1.526913004968289E-2</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="6"/>
+        <v>1.4869374522521244E-2</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="7"/>
+        <v>0.8216971400614218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1.1924999999999999</v>
       </c>
@@ -6812,34 +7154,45 @@
         <v>-0.47344881379999998</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" ref="G30:G38" si="8">(A30*9.8*ABS(E30)*SIN(RADIANS(D30))-0.5*A30*ABS(F30)^2)/(0.5*(ABS(F30)/B30)^2)</f>
+        <f t="shared" ref="G30:G38" si="10">(A30*9.8*ABS(E30)*SIN(RADIANS(D30))-0.5*A30*ABS(F30)^2)/(0.5*(ABS(F30)/B30)^2)</f>
         <v>1.3364741613699996E-3</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H38" si="9">0.5*A30*(POWER(B30,2)+POWER(C30,2))</f>
+        <f t="shared" ref="H30:H38" si="11">0.5*A30*(POWER(B30,2)+POWER(C30,2))</f>
         <v>1.5508462499999997E-3</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" ref="J30:J38" si="10">A30*9.8*ABS(E30)*SIN(RADIANS(D30))-A30*ABS(F30)^2/2</f>
+        <f t="shared" ref="J30:J38" si="12">A30*9.8*ABS(E30)*SIN(RADIANS(D30))-A30*ABS(F30)^2/2</f>
         <v>5.758856866449133E-2</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="K30:K38" si="11">(ABS(F30)/B30)^2/2</f>
+        <f t="shared" ref="K30:K38" si="13">(ABS(F30)/B30)^2/2</f>
         <v>43.089922969747619</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6364203103181891E-2</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.22415377928862706</v>
       </c>
       <c r="O30">
         <v>1.5965732968007459E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="Z30">
+        <v>1.6364203103181891E-2</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="6"/>
+        <v>1.6978931489019779E-2</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="7"/>
+        <v>1.9430740707568097</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1.1924999999999999</v>
       </c>
@@ -6859,34 +7212,45 @@
         <v>-0.48001788680000002</v>
       </c>
       <c r="G31" s="2">
+        <f t="shared" si="10"/>
+        <v>1.5223132772759446E-3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="11"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="12"/>
+        <v>6.7429280990393275E-2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="13"/>
+        <v>44.293958409830381</v>
+      </c>
+      <c r="M31" s="2">
         <f t="shared" si="8"/>
-        <v>1.5223132772759446E-3</v>
-      </c>
-      <c r="H31">
+        <v>1.7525822066955552E-2</v>
+      </c>
+      <c r="N31" s="2">
         <f t="shared" si="9"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J31" s="2">
-        <f t="shared" si="10"/>
-        <v>6.7429280990393275E-2</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="11"/>
-        <v>44.293958409830381</v>
-      </c>
-      <c r="M31" s="2">
-        <f t="shared" si="6"/>
-        <v>1.7525822066955552E-2</v>
-      </c>
-      <c r="N31" s="2">
-        <f t="shared" si="7"/>
         <v>0.23041717164793762</v>
       </c>
       <c r="O31">
         <v>1.7099066382976966E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="Z31">
+        <v>1.7525822066955552E-2</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="6"/>
+        <v>1.7453363417382003E-2</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="7"/>
+        <v>2.6996240753710259E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.1924999999999999</v>
       </c>
@@ -6906,34 +7270,45 @@
         <v>-0.50013770810000002</v>
       </c>
       <c r="G32" s="2">
+        <f t="shared" si="10"/>
+        <v>1.4315174019229079E-3</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="11"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="12"/>
+        <v>6.8834392381559556E-2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="13"/>
+        <v>48.08491485265683</v>
+      </c>
+      <c r="M32" s="2">
         <f t="shared" si="8"/>
-        <v>1.4315174019229079E-3</v>
-      </c>
-      <c r="H32">
+        <v>1.8652206575380463E-2</v>
+      </c>
+      <c r="N32" s="2">
         <f t="shared" si="9"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J32" s="2">
-        <f t="shared" si="10"/>
-        <v>6.8834392381559556E-2</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="11"/>
-        <v>48.08491485265683</v>
-      </c>
-      <c r="M32" s="2">
-        <f t="shared" si="6"/>
-        <v>1.8652206575380463E-2</v>
-      </c>
-      <c r="N32" s="2">
-        <f t="shared" si="7"/>
         <v>0.25013772706352083</v>
       </c>
       <c r="O32">
         <v>1.8198023305438762E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="Z32">
+        <v>1.8652206575380463E-2</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="6"/>
+        <v>1.89471323843351E-2</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="7"/>
+        <v>0.44724797171727448</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1.1924999999999999</v>
       </c>
@@ -6953,34 +7328,45 @@
         <v>-0.51750192750000001</v>
       </c>
       <c r="G33" s="2">
+        <f t="shared" si="10"/>
+        <v>1.4178675800089321E-3</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="11"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="12"/>
+        <v>7.2994353747921376E-2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="13"/>
+        <v>51.481784883932207</v>
+      </c>
+      <c r="M33" s="2">
         <f t="shared" si="8"/>
-        <v>1.4178675800089321E-3</v>
-      </c>
-      <c r="H33">
+        <v>1.9909726591282862E-2</v>
+      </c>
+      <c r="N33" s="2">
         <f t="shared" si="9"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J33" s="2">
-        <f t="shared" si="10"/>
-        <v>7.2994353747921376E-2</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="11"/>
-        <v>51.481784883932207</v>
-      </c>
-      <c r="M33" s="2">
-        <f t="shared" si="6"/>
-        <v>1.9909726591282862E-2</v>
-      </c>
-      <c r="N33" s="2">
-        <f t="shared" si="7"/>
         <v>0.26780824496621525</v>
       </c>
       <c r="O33">
         <v>1.9424922571429803E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="Z33">
+        <v>1.9909726591282862E-2</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="6"/>
+        <v>2.0285617569806912E-2</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="7"/>
+        <v>0.7265184143220571</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1.1924999999999999</v>
       </c>
@@ -7000,34 +7386,45 @@
         <v>-0.53494420710000001</v>
       </c>
       <c r="G34" s="2">
+        <f t="shared" si="10"/>
+        <v>1.3848177718691086E-3</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="11"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="12"/>
+        <v>7.6179700048930377E-2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="13"/>
+        <v>55.010631432112206</v>
+      </c>
+      <c r="M34" s="2">
         <f t="shared" si="8"/>
-        <v>1.3848177718691086E-3</v>
-      </c>
-      <c r="H34">
+        <v>2.1118877592279726E-2</v>
+      </c>
+      <c r="N34" s="2">
         <f t="shared" si="9"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J34" s="2">
-        <f t="shared" si="10"/>
-        <v>7.6179700048930377E-2</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="11"/>
-        <v>55.010631432112206</v>
-      </c>
-      <c r="M34" s="2">
-        <f t="shared" si="6"/>
-        <v>2.1118877592279726E-2</v>
-      </c>
-      <c r="N34" s="2">
-        <f t="shared" si="7"/>
         <v>0.28616530470984769</v>
       </c>
       <c r="O34">
         <v>2.0604630613317961E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="Z34">
+        <v>2.1118877592279726E-2</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="6"/>
+        <v>2.167610610279589E-2</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="7"/>
+        <v>1.5965755674439284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1.1924999999999999</v>
       </c>
@@ -7047,34 +7444,45 @@
         <v>-0.56122940779999997</v>
       </c>
       <c r="G35" s="2">
+        <f t="shared" si="10"/>
+        <v>1.2331643004700305E-3</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="11"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="12"/>
+        <v>7.4667469764024719E-2</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="13"/>
+        <v>60.549490230591829</v>
+      </c>
+      <c r="M35" s="2">
         <f t="shared" si="8"/>
-        <v>1.2331643004700305E-3</v>
-      </c>
-      <c r="H35">
+        <v>2.2459536173454381E-2</v>
+      </c>
+      <c r="N35" s="2">
         <f t="shared" si="9"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" si="10"/>
-        <v>7.4667469764024719E-2</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="11"/>
-        <v>60.549490230591829</v>
-      </c>
-      <c r="M35" s="2">
-        <f t="shared" si="6"/>
-        <v>2.2459536173454381E-2</v>
-      </c>
-      <c r="N35" s="2">
-        <f t="shared" si="7"/>
         <v>0.31497844817953868</v>
       </c>
       <c r="O35">
         <v>2.1912644011424731E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="Z35">
+        <v>2.2459536173454381E-2</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="6"/>
+        <v>2.3858609518565881E-2</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="7"/>
+        <v>10.064768409260957</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1.1924999999999999</v>
       </c>
@@ -7094,34 +7502,45 @@
         <v>-0.56080100860000004</v>
       </c>
       <c r="G36" s="2">
+        <f t="shared" si="10"/>
+        <v>1.4977399929176063E-3</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="11"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="12"/>
+        <v>9.0548998400567321E-2</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="13"/>
+        <v>60.457087898265534</v>
+      </c>
+      <c r="M36" s="2">
         <f t="shared" si="8"/>
-        <v>1.4977399929176063E-3</v>
-      </c>
-      <c r="H36">
+        <v>2.3793975485086057E-2</v>
+      </c>
+      <c r="N36" s="2">
         <f t="shared" si="9"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J36" s="2">
-        <f t="shared" si="10"/>
-        <v>9.0548998400567321E-2</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="11"/>
-        <v>60.457087898265534</v>
-      </c>
-      <c r="M36" s="2">
-        <f t="shared" si="6"/>
-        <v>2.3793975485086057E-2</v>
-      </c>
-      <c r="N36" s="2">
-        <f t="shared" si="7"/>
         <v>0.3144977712467773</v>
       </c>
       <c r="O36">
         <v>2.3214589579882039E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="Z36">
+        <v>2.3793975485086057E-2</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="6"/>
+        <v>2.3822199779075393E-2</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="7"/>
+        <v>4.0960853306827158E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1.1924999999999999</v>
       </c>
@@ -7141,34 +7560,45 @@
         <v>-0.57422760129999995</v>
       </c>
       <c r="G37" s="2">
+        <f t="shared" si="10"/>
+        <v>1.5319653934507149E-3</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="11"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="12"/>
+        <v>9.7106149728896141E-2</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="13"/>
+        <v>63.386647077038006</v>
+      </c>
+      <c r="M37" s="2">
         <f t="shared" si="8"/>
-        <v>1.5319653934507149E-3</v>
-      </c>
-      <c r="H37">
+        <v>2.5132592099250568E-2</v>
+      </c>
+      <c r="N37" s="2">
         <f t="shared" si="9"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" si="10"/>
-        <v>9.7106149728896141E-2</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="11"/>
-        <v>63.386647077038006</v>
-      </c>
-      <c r="M37" s="2">
-        <f t="shared" si="6"/>
-        <v>2.5132592099250568E-2</v>
-      </c>
-      <c r="N37" s="2">
-        <f t="shared" si="7"/>
         <v>0.3297373380947517</v>
       </c>
       <c r="O37">
         <v>2.4520610733098677E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="Z37">
+        <v>2.5132592099250568E-2</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="6"/>
+        <v>2.4976548201195541E-2</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="7"/>
+        <v>0.12520348064956416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1.1924999999999999</v>
       </c>
@@ -7188,34 +7618,45 @@
         <v>-0.57877113739999997</v>
       </c>
       <c r="G38" s="2">
+        <f t="shared" si="10"/>
+        <v>1.71329516195545E-3</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="11"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="12"/>
+        <v>0.11032541535786611</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="13"/>
+        <v>64.393700401247528</v>
+      </c>
+      <c r="M38" s="2">
         <f t="shared" si="8"/>
-        <v>1.71329516195545E-3</v>
-      </c>
-      <c r="H38">
+        <v>2.6531029216588592E-2</v>
+      </c>
+      <c r="N38" s="2">
         <f t="shared" si="9"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J38" s="2">
-        <f t="shared" si="10"/>
-        <v>0.11032541535786611</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="11"/>
-        <v>64.393700401247528</v>
-      </c>
-      <c r="M38" s="2">
-        <f t="shared" si="6"/>
-        <v>2.6531029216588592E-2</v>
-      </c>
-      <c r="N38" s="2">
-        <f t="shared" si="7"/>
         <v>0.33497602948728966</v>
       </c>
       <c r="O38">
         <v>2.5884995753694493E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="Z38">
+        <v>2.6531029216588592E-2</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="6"/>
+        <v>2.5373362310367832E-2</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="7"/>
+        <v>6.8911238926103096</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="2"/>
@@ -7223,7 +7664,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:19" s="5" customFormat="1">
+    <row r="40" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>16</v>
       </c>
@@ -7261,7 +7702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7281,27 +7722,27 @@
         <v>-1.966006885E-2</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" ref="G41:G78" si="12">(A41*9.8*ABS(E41)*SIN(RADIANS(D41))-0.5*A41*ABS(F41)^2)/(0.5*(ABS(F41)/B41)^2)</f>
+        <f t="shared" ref="G41:G78" si="14">(A41*9.8*ABS(E41)*SIN(RADIANS(D41))-0.5*A41*ABS(F41)^2)/(0.5*(ABS(F41)/B41)^2)</f>
         <v>2.2419130140241394E-3</v>
       </c>
       <c r="H41">
-        <f t="shared" ref="H41:H78" si="13">0.5*A41*(POWER(B41,2)+POWER(C41,2))</f>
+        <f t="shared" ref="H41:H78" si="15">0.5*A41*(POWER(B41,2)+POWER(C41,2))</f>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" ref="J41:J78" si="14">A41*9.8*ABS(E41)*SIN(RADIANS(D41))-A41*ABS(F41)^2/2</f>
+        <f t="shared" ref="J41:J78" si="16">A41*9.8*ABS(E41)*SIN(RADIANS(D41))-A41*ABS(F41)^2/2</f>
         <v>3.8607281044354328E-4</v>
       </c>
       <c r="K41">
-        <f t="shared" ref="K41:K78" si="15">(ABS(F41)/B41)^2/2</f>
+        <f t="shared" ref="K41:K78" si="17">(ABS(F41)/B41)^2/2</f>
         <v>0.17220686441824024</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.7419063172406515E-5</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.8651830718674032E-4</v>
       </c>
       <c r="O41" s="2">
@@ -7320,8 +7761,22 @@
       <c r="S41" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="Z41">
+        <v>5.7419063172406515E-5</v>
+      </c>
+      <c r="AA41">
+        <f>0.0760732*N41</f>
+        <v>2.9403684486278333E-5</v>
+      </c>
+      <c r="AB41">
+        <f>(Z41-AA41)^2/0.00062313^2</f>
+        <v>2.0213227944847192E-3</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7341,27 +7796,27 @@
         <v>-2.264367565E-2</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.8479259834107533E-3</v>
       </c>
       <c r="H42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.7902444092714978E-4</v>
       </c>
       <c r="K42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.22844109910554816</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1199385074255984E-4</v>
       </c>
       <c r="N42" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.1273604694240295E-4</v>
       </c>
       <c r="O42" s="2">
@@ -7379,8 +7834,23 @@
       <c r="S42" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="Z42">
+        <v>1.1199385074255984E-4</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" ref="AA42:AA78" si="18">0.0760732*N42</f>
+        <v>3.9005471846258805E-5</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" ref="AB42:AB78" si="19">(Z42-AA42)^2/0.00062313^2</f>
+        <v>1.3719873745313726E-2</v>
+      </c>
+      <c r="AC42">
+        <f>SUM(AB41:AB78)</f>
+        <v>37.000536669905642</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7400,27 +7870,27 @@
         <v>-2.919703194E-2</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.4982911711286279E-3</v>
       </c>
       <c r="H43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.3286596746287531E-3</v>
       </c>
       <c r="K43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.37980248345082646</v>
       </c>
       <c r="M43" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7323244916012248E-4</v>
       </c>
       <c r="N43" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.524666741053801E-4</v>
       </c>
       <c r="O43" s="2">
@@ -7438,8 +7908,19 @@
       <c r="S43" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="Z43">
+        <v>1.7323244916012248E-4</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="18"/>
+        <v>6.4849867792553394E-5</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="19"/>
+        <v>3.0252527196562806E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7459,27 +7940,27 @@
         <v>-3.856452095E-2</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.8661862054272544E-3</v>
       </c>
       <c r="H44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.8991561471020319E-3</v>
       </c>
       <c r="K44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.66260738520961859</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6132504505085868E-4</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4872222761029888E-3</v>
       </c>
       <c r="O44" s="2">
@@ -7497,8 +7978,19 @@
       <c r="S44" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="Z44">
+        <v>2.6132504505085868E-4</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="18"/>
+        <v>1.1313775765443788E-4</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="19"/>
+        <v>5.6554162525598903E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7518,27 +8010,27 @@
         <v>-5.2974132729999998E-2</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.8617877732670163E-3</v>
       </c>
       <c r="H45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.3277603956136936E-3</v>
       </c>
       <c r="K45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.250282351746784</v>
       </c>
       <c r="M45" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.7047462029857187E-4</v>
       </c>
       <c r="N45" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.8062587384956573E-3</v>
       </c>
       <c r="O45" s="2">
@@ -7556,8 +8048,19 @@
       <c r="S45" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="Z45">
+        <v>3.7047462029857187E-4</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="18"/>
+        <v>2.1348108226532781E-4</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="19"/>
+        <v>6.3475514964214344E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7577,34 +8080,45 @@
         <v>-8.4060206560000003E-2</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.5870020881278984E-4</v>
       </c>
       <c r="H46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.7588958720162278E-3</v>
       </c>
       <c r="K46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.1481926161327092</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.322666436702113E-4</v>
       </c>
       <c r="N46" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.0661183269098678E-3</v>
       </c>
       <c r="O46" s="2">
         <v>5.322666436702113E-4</v>
       </c>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="Z46">
+        <v>5.322666436702113E-4</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="18"/>
+        <v>5.3754223270667967E-4</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="19"/>
+        <v>7.1677787803236273E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7624,34 +8138,45 @@
         <v>-9.9225435099999995E-2</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.9589879262986183E-4</v>
       </c>
       <c r="H47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.0526182559948156E-3</v>
       </c>
       <c r="K47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.3865836359030119</v>
       </c>
       <c r="M47" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.0040911026556185E-4</v>
       </c>
       <c r="N47" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.8456869707843116E-3</v>
       </c>
       <c r="O47" s="2">
         <v>8.0040911026556185E-4</v>
       </c>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="Z47">
+        <v>8.0040911026556185E-4</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="18"/>
+        <v>7.4899291406586908E-4</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="19"/>
+        <v>6.8083608756093223E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7671,34 +8196,45 @@
         <v>-0.1017053907</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1377665874200357E-3</v>
       </c>
       <c r="H48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.243502881492907E-3</v>
       </c>
       <c r="K48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.6085927812161476</v>
       </c>
       <c r="M48" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0397652403481225E-3</v>
       </c>
       <c r="N48" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0343986497439646E-2</v>
       </c>
       <c r="O48" s="2">
         <v>1.0397652403481225E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="Z48">
+        <v>1.0397652403481225E-3</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="18"/>
+        <v>7.8690015361702567E-4</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="19"/>
+        <v>0.16467224993113183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7718,34 +8254,45 @@
         <v>-0.12762718040000001</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.9081221390385823E-4</v>
       </c>
       <c r="H49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J49" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.0133352454230957E-3</v>
       </c>
       <c r="K49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.257160693630718</v>
       </c>
       <c r="M49" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3205916922497205E-3</v>
       </c>
       <c r="N49" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.6288697176854147E-2</v>
       </c>
       <c r="O49" s="2">
         <v>1.3205916922497205E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="Z49">
+        <v>1.3205916922497205E-3</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="18"/>
+        <v>1.2391333180742608E-3</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="19"/>
+        <v>1.7088901819214953E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7765,34 +8312,45 @@
         <v>-0.14605513379999999</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.509934576190492E-4</v>
       </c>
       <c r="H50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J50" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.1871503276628142E-3</v>
       </c>
       <c r="K50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.5041666782516785</v>
       </c>
       <c r="M50" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6925274562826695E-3</v>
       </c>
       <c r="N50" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.13321021093359E-2</v>
       </c>
       <c r="O50" s="2">
         <v>1.6925274562826695E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="Z50">
+        <v>1.6925274562826695E-3</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="18"/>
+        <v>1.6228012701839318E-3</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="19"/>
+        <v>1.2520869828789508E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7812,34 +8370,45 @@
         <v>-0.1603447298</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.7575228564524948E-4</v>
       </c>
       <c r="H51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.7406475571785358E-3</v>
       </c>
       <c r="K51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>11.454859601084877</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0676055534542847E-3</v>
       </c>
       <c r="N51" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.5710432374635009E-2</v>
       </c>
       <c r="O51" s="2">
         <v>2.0676055534542847E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="Z51">
+        <v>2.0676055534542847E-3</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="18"/>
+        <v>1.9558748641220836E-3</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="19"/>
+        <v>3.2150492899179664E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7859,34 +8428,45 @@
         <v>-0.1717090302</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.8611016694126313E-4</v>
       </c>
       <c r="H52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J52" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.0326426878217382E-2</v>
       </c>
       <c r="K52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>13.136106505780576</v>
       </c>
       <c r="M52" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5126269117278282E-3</v>
       </c>
       <c r="N52" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.9483991052224514E-2</v>
       </c>
       <c r="O52" s="2">
         <v>2.5126269117278282E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="Z52">
+        <v>2.5126269117278282E-3</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="18"/>
+        <v>2.2429415481140858E-3</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="19"/>
+        <v>0.18730847721974689</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7906,34 +8486,45 @@
         <v>-0.18515036330000001</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8.0249094549711777E-4</v>
       </c>
       <c r="H53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J53" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.2256590275056812E-2</v>
       </c>
       <c r="K53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>15.27318201386589</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.9458288812904548E-3</v>
       </c>
       <c r="N53" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.4280657030121987E-2</v>
       </c>
       <c r="O53" s="2">
         <v>2.9458288812904548E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="Z53">
+        <v>2.9458288812904548E-3</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="18"/>
+        <v>2.6078392783838757E-3</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="19"/>
+        <v>0.29420453367443788</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7953,34 +8544,45 @@
         <v>-0.20887385559999999</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.4996623340322381E-4</v>
       </c>
       <c r="H54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.2633955772239885E-2</v>
       </c>
       <c r="K54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>19.437864804281418</v>
       </c>
       <c r="M54" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.4595973067856581E-3</v>
       </c>
       <c r="N54" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.3628287553209646E-2</v>
       </c>
       <c r="O54" s="2">
         <v>3.4595973067856581E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="Z54">
+        <v>3.4595973067856581E-3</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="18"/>
+        <v>3.3189434446928277E-3</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="19"/>
+        <v>5.0950212803218771E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -8000,34 +8602,45 @@
         <v>-0.22443584599999999</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.5901291981893743E-4</v>
       </c>
       <c r="H55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J55" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.4789679510383666E-2</v>
       </c>
       <c r="K55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>22.442169289256274</v>
       </c>
       <c r="M55" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.0141354942945587E-3</v>
       </c>
       <c r="N55" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.0371448969735715E-2</v>
       </c>
       <c r="O55" s="2">
         <v>4.0141354942945587E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="Z55">
+        <v>4.0141354942945587E-3</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="18"/>
+        <v>3.8319173117644986E-3</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="19"/>
+        <v>8.5511810239343497E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -8047,34 +8660,45 @@
         <v>-0.2525909066</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.8718589121155985E-4</v>
       </c>
       <c r="H56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J56" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.3848748118155375E-2</v>
       </c>
       <c r="K56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>28.426004053022904</v>
       </c>
       <c r="M56" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.6074973053259506E-3</v>
       </c>
       <c r="N56" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.3802166097009921E-2</v>
       </c>
       <c r="O56" s="2">
         <v>4.6074973053259506E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="Z56">
+        <v>4.6074973053259506E-3</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="18"/>
+        <v>4.8536349419310548E-3</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="19"/>
+        <v>0.1560266311535134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -8094,34 +8718,45 @@
         <v>-0.25763685949999998</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.6470196957283149E-4</v>
       </c>
       <c r="H57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J57" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.965727661906632E-2</v>
       </c>
       <c r="K57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>29.573068110056909</v>
       </c>
       <c r="M57" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.306037419340953E-3</v>
       </c>
       <c r="N57" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.6376751373022735E-2</v>
       </c>
       <c r="O57" s="2">
         <v>5.306037419340953E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="Z57">
+        <v>5.306037419340953E-3</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="18"/>
+        <v>5.0494918825502331E-3</v>
+      </c>
+      <c r="AB57">
+        <f t="shared" si="19"/>
+        <v>0.16950074292911999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -8141,34 +8776,45 @@
         <v>-0.26310694400000001</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.9468605734989714E-4</v>
       </c>
       <c r="H58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J58" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.4509847227481375E-2</v>
       </c>
       <c r="K58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>30.842175977286317</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.9252072705364587E-3</v>
       </c>
       <c r="N58" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.9225263981019136E-2</v>
       </c>
       <c r="O58" s="2">
         <v>5.9252072705364587E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="Z58">
+        <v>5.9252072705364587E-3</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="18"/>
+        <v>5.2661873518808642E-3</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="19"/>
+        <v>1.1185097173310909</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -8188,34 +8834,45 @@
         <v>-0.29314878379999998</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.0642940584443143E-4</v>
       </c>
       <c r="H59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J59" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.3218643097926164E-2</v>
       </c>
       <c r="K59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>38.287462438591724</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.6517246882250433E-3</v>
       </c>
       <c r="N59" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.5936209443419134E-2</v>
       </c>
       <c r="O59" s="2">
         <v>6.6517246882250433E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="Z59">
+        <v>6.6517246882250433E-3</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="18"/>
+        <v>6.537442448231112E-3</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="19"/>
+        <v>3.363567654748912E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -8235,34 +8892,45 @@
         <v>-0.31290846430000002</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7024836190366337E-4</v>
       </c>
       <c r="H60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J60" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.4875914700548958E-2</v>
       </c>
       <c r="K60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>43.622948108970533</v>
       </c>
       <c r="M60" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.4245465895937208E-3</v>
       </c>
       <c r="N60" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.7911707030584383E-2</v>
       </c>
       <c r="O60" s="2">
         <v>7.4245465895937208E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="Z60">
+        <v>7.4245465895937208E-3</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="18"/>
+        <v>7.4484568712790515E-3</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="19"/>
+        <v>1.472353402051956E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -8282,34 +8950,45 @@
         <v>-0.32950897109999999</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7425069254260334E-4</v>
       </c>
       <c r="H61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J61" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.7778986964773995E-2</v>
       </c>
       <c r="K61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>48.374320354368727</v>
       </c>
       <c r="M61" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.2521269044292921E-3</v>
       </c>
       <c r="N61" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.10857616203538063</v>
       </c>
       <c r="O61" s="2">
         <v>8.2521269044292921E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="Z61">
+        <v>8.2521269044292921E-3</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="18"/>
+        <v>8.2597360897499177E-3</v>
+      </c>
+      <c r="AB61">
+        <f t="shared" si="19"/>
+        <v>1.4911419967467219E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -8329,27 +9008,27 @@
         <v>-0.34063939329999998</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.3185992189318985E-4</v>
       </c>
       <c r="H62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J62" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.2665622655659636E-2</v>
       </c>
       <c r="K62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>51.697570179457372</v>
       </c>
       <c r="M62" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.1098537941198127E-3</v>
       </c>
       <c r="N62" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.11603519626779207</v>
       </c>
       <c r="O62" s="2">
@@ -8363,8 +9042,19 @@
         <f>((Q41+Q42)*A41*9.8-0.5*A41)*2*B41^2</f>
         <v>5.8950014146870119E-4</v>
       </c>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="Z62">
+        <v>9.1098537941198127E-3</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="18"/>
+        <v>8.827168692719E-3</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="19"/>
+        <v>0.20580149215915991</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -8384,27 +9074,27 @@
         <v>-0.36544502680000002</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.4742493205510142E-4</v>
       </c>
       <c r="H63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.2572348714154639E-2</v>
       </c>
       <c r="K63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>59.501032574227089</v>
       </c>
       <c r="M63" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.9943617851645534E-3</v>
       </c>
       <c r="N63" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.13355006761285274</v>
       </c>
       <c r="O63" s="2">
@@ -8414,8 +9104,19 @@
         <f>R62-Q62</f>
         <v>1.3637878097752217E-5</v>
       </c>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="Z63">
+        <v>9.9943617851645534E-3</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="18"/>
+        <v>1.0159581003526067E-2</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="19"/>
+        <v>7.030137276919611E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -8435,34 +9136,45 @@
         <v>-0.37638519580000002</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.0863500405517433E-4</v>
       </c>
       <c r="H64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J64" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.8415136673102465E-2</v>
       </c>
       <c r="K64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>63.116870402051397</v>
       </c>
       <c r="M64" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0978959606795843E-2</v>
       </c>
       <c r="N64" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.14166581561740435</v>
       </c>
       <c r="O64" s="2">
         <v>1.0978959606795843E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:15">
+      <c r="Z64">
+        <v>1.0978959606795843E-2</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="18"/>
+        <v>1.0776971924625924E-2</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" si="19"/>
+        <v>0.10507331891314323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -8482,34 +9194,45 @@
         <v>-0.39529661329999999</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.8060833803404892E-4</v>
       </c>
       <c r="H65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J65" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.0421259873439294E-2</v>
       </c>
       <c r="K65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>69.618807077945974</v>
       </c>
       <c r="M65" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1919422214394031E-2</v>
       </c>
       <c r="N65" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.15625941248644973</v>
       </c>
       <c r="O65" s="2">
         <v>1.1919422214394031E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:15">
+      <c r="Z65">
+        <v>1.1919422214394031E-2</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="18"/>
+        <v>1.1887153537964186E-2</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="19"/>
+        <v>2.6816678389331261E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -8529,34 +9252,45 @@
         <v>-0.41736720449999998</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.4275993997845572E-4</v>
       </c>
       <c r="H66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J66" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.2123535680304997E-2</v>
       </c>
       <c r="K66">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>77.609883444929721</v>
       </c>
       <c r="M66" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3000744409989322E-2</v>
       </c>
       <c r="N66" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.1741953833921448</v>
       </c>
       <c r="O66" s="2">
         <v>1.3000744409989322E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:15">
+      <c r="Z66">
+        <v>1.3000744409989322E-2</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="18"/>
+        <v>1.3251600239867309E-2</v>
+      </c>
+      <c r="AB66">
+        <f t="shared" si="19"/>
+        <v>0.16206568755437853</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -8576,34 +9310,45 @@
         <v>-0.42472406829999998</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.1806464306775875E-4</v>
       </c>
       <c r="H67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J67" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.9673874417013222E-2</v>
       </c>
       <c r="K67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>80.370030827936304</v>
       </c>
       <c r="M67" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4054089301143841E-2</v>
       </c>
       <c r="N67" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.18039053419330306</v>
       </c>
       <c r="O67" s="2">
         <v>1.4054089301143841E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:15">
+      <c r="Z67">
+        <v>1.4054089301143841E-2</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" si="18"/>
+        <v>1.3722885185793982E-2</v>
+      </c>
+      <c r="AB67">
+        <f t="shared" si="19"/>
+        <v>0.2825101969926288</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -8623,34 +9368,45 @@
         <v>-0.436278622</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.5959136619851645E-4</v>
       </c>
       <c r="H68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J68" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.5934945335498878E-2</v>
       </c>
       <c r="K68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>84.802421926584472</v>
       </c>
       <c r="M68" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5173038927148545E-2</v>
       </c>
       <c r="N68" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.19033903601421889</v>
       </c>
       <c r="O68" s="2">
         <v>1.5173038927148545E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="Z68">
+        <v>1.5173038927148545E-2</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="18"/>
+        <v>1.4479699554516876E-2</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="19"/>
+        <v>1.2380392269694613</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -8670,34 +9426,45 @@
         <v>-0.44971995510000001</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.7812866414892743E-4</v>
       </c>
       <c r="H69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J69" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.1105008619270415E-2</v>
       </c>
       <c r="K69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>90.10828158393673</v>
       </c>
       <c r="M69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6285480761857655E-2</v>
       </c>
       <c r="N69" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.20224803801514601</v>
       </c>
       <c r="O69" s="2">
         <v>1.6285480761857655E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="Z69">
+        <v>1.6285480761857655E-2</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="18"/>
+        <v>1.5385655445533804E-2</v>
+      </c>
+      <c r="AB69">
+        <f t="shared" si="19"/>
+        <v>2.0852546321228345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -8717,34 +9484,45 @@
         <v>-0.47009402030000003</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.4470685904922313E-4</v>
       </c>
       <c r="H70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J70" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.3476377573368589E-2</v>
       </c>
       <c r="K70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>98.457735763785621</v>
       </c>
       <c r="M70" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7473177449713686E-2</v>
       </c>
       <c r="N70" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.22098838792181683</v>
       </c>
       <c r="O70" s="2">
         <v>1.7473177449713686E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" s="5" customFormat="1">
+      <c r="Z70">
+        <v>1.7473177449713686E-2</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="18"/>
+        <v>1.6811293832053955E-2</v>
+      </c>
+      <c r="AB70">
+        <f t="shared" si="19"/>
+        <v>1.1282515608755104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -8764,36 +9542,47 @@
         <v>-0.47976179479999997</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.936966797908878E-4</v>
       </c>
       <c r="H71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="I71"/>
       <c r="J71" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.1137946943758731E-2</v>
       </c>
       <c r="K71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>102.54906649575285</v>
       </c>
       <c r="L71"/>
       <c r="M71" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8689824515475639E-2</v>
       </c>
       <c r="N71" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.23017137974971727</v>
       </c>
       <c r="O71" s="2">
         <v>1.8689824515475639E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:15">
+      <c r="Z71" s="5">
+        <v>1.8689824515475639E-2</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="18"/>
+        <v>1.7509873405976189E-2</v>
+      </c>
+      <c r="AB71">
+        <f t="shared" si="19"/>
+        <v>3.5856731985149528</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -8813,34 +9602,45 @@
         <v>-0.50225651760000001</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.4298196274831449E-4</v>
       </c>
       <c r="H72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J72" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.2265388631832933E-2</v>
       </c>
       <c r="K72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>112.39100444271735</v>
       </c>
       <c r="M72" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9926968028589519E-2</v>
       </c>
       <c r="N72" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.25226160947167914</v>
       </c>
       <c r="O72" s="2">
         <v>1.9926968028589519E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:15">
+      <c r="Z72">
+        <v>1.9926968028589519E-2</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" si="18"/>
+        <v>1.919034786966094E-2</v>
+      </c>
+      <c r="AB72">
+        <f t="shared" si="19"/>
+        <v>1.3974294095716773</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -8860,34 +9660,45 @@
         <v>-0.51169041390000003</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.9355725833404808E-4</v>
       </c>
       <c r="H73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J73" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.0905355998439205E-2</v>
       </c>
       <c r="K73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>116.65274211501594</v>
       </c>
       <c r="M73" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1258666646787605E-2</v>
       </c>
       <c r="N73" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.26182707967715335</v>
       </c>
       <c r="O73" s="2">
         <v>2.1258666646787605E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:15">
+      <c r="Z73">
+        <v>2.1258666646787605E-2</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="18"/>
+        <v>1.991802379769602E-2</v>
+      </c>
+      <c r="AB73">
+        <f t="shared" si="19"/>
+        <v>4.6288048478324173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -8907,34 +9718,45 @@
         <v>-0.53395125840000002</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.4481769467253825E-4</v>
       </c>
       <c r="H74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J74" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.1906914424361404E-2</v>
       </c>
       <c r="K74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>127.02336660590045</v>
       </c>
       <c r="M74" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.2544060774400881E-2</v>
       </c>
       <c r="N74" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.28510394634694358</v>
       </c>
       <c r="O74" s="2">
         <v>2.2544060774400881E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:15">
+      <c r="Z74">
+        <v>2.2544060774400881E-2</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="18"/>
+        <v>2.1688769531240305E-2</v>
+      </c>
+      <c r="AB74">
+        <f t="shared" si="19"/>
+        <v>1.8839558899573441</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -8954,34 +9776,45 @@
         <v>-0.57997922020000003</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.66556085036086E-4</v>
       </c>
       <c r="H75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J75" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.992123906202749E-2</v>
       </c>
       <c r="K75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>149.86673907943864</v>
       </c>
       <c r="M75" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.3989614749620448E-2</v>
       </c>
       <c r="N75" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33637589586380012</v>
       </c>
       <c r="O75" s="2">
         <v>2.3989614749620448E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:15">
+      <c r="Z75">
+        <v>2.3989614749620448E-2</v>
+      </c>
+      <c r="AA75">
+        <f t="shared" si="18"/>
+        <v>2.5589190801226038E-2</v>
+      </c>
+      <c r="AB75">
+        <f t="shared" si="19"/>
+        <v>6.5895000535618351</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -9001,34 +9834,45 @@
         <v>-0.57917458209999995</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7532614889376258E-4</v>
       </c>
       <c r="H76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J76" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.5983177742986472E-2</v>
       </c>
       <c r="K76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>149.45119026540854</v>
       </c>
       <c r="M76" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5510423585658842E-2</v>
       </c>
       <c r="N76" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33544319655070959</v>
       </c>
       <c r="O76" s="2">
         <v>2.5510423585658842E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:15">
+      <c r="Z76">
+        <v>2.5510423585658842E-2</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" si="18"/>
+        <v>2.5518237379841439E-2</v>
+      </c>
+      <c r="AB76">
+        <f t="shared" si="19"/>
+        <v>1.5724129587200135E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -9048,34 +9892,45 @@
         <v>-0.60987443149999998</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.9284563537525653E-4</v>
       </c>
       <c r="H77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J77" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.1671805708045858E-2</v>
       </c>
       <c r="K77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>165.71477932610745</v>
       </c>
       <c r="M77" s="2">
-        <f t="shared" ref="M77:O122" si="16">ABS(E77)*SIN(RADIANS(D77))</f>
+        <f t="shared" ref="M77:M122" si="20">ABS(E77)*SIN(RADIANS(D77))</f>
         <v>2.6951862152740213E-2</v>
       </c>
       <c r="N77" s="2">
-        <f t="shared" ref="N77:N122" si="17">ABS(F77)^2</f>
+        <f t="shared" ref="N77:N122" si="21">ABS(F77)^2</f>
         <v>0.37194682219744818</v>
       </c>
       <c r="O77" s="2">
         <v>2.6951862152740213E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:15">
+      <c r="Z77">
+        <v>2.6951862152740213E-2</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" si="18"/>
+        <v>2.8295184994390911E-2</v>
+      </c>
+      <c r="AB77">
+        <f t="shared" si="19"/>
+        <v>4.6473296350088686</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -9095,40 +9950,51 @@
         <v>-0.63024849679999995</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.8399105278445711E-4</v>
       </c>
       <c r="H78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J78" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.5652759734463429E-2</v>
       </c>
       <c r="K78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>176.97178334535957</v>
       </c>
       <c r="M78" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2.8629688494039941E-2</v>
       </c>
       <c r="N78" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.39721316771865955</v>
       </c>
       <c r="O78" s="2">
         <v>2.8629688494039941E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:15">
+      <c r="Z78">
+        <v>2.8629688494039941E-2</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" si="18"/>
+        <v>3.0217276750495129E-2</v>
+      </c>
+      <c r="AB78">
+        <f t="shared" si="19"/>
+        <v>6.4911020140998374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G79" s="2"/>
       <c r="J79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="1:15" s="5" customFormat="1">
+    <row r="80" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>16</v>
       </c>
@@ -9166,7 +10032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2.4095</v>
       </c>
@@ -9186,31 +10052,31 @@
         <v>-4.1099999999999998E-2</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" ref="G81:G115" si="18">(A81*9.8*ABS(E81)*SIN(RADIANS(D81))-0.5*A81*ABS(F81)^2)/(0.5*(ABS(F81)/B81)^2)</f>
+        <f t="shared" ref="G81:G115" si="22">(A81*9.8*ABS(E81)*SIN(RADIANS(D81))-0.5*A81*ABS(F81)^2)/(0.5*(ABS(F81)/B81)^2)</f>
         <v>-3.5057155406023584E-3</v>
       </c>
       <c r="H81">
-        <f t="shared" ref="H81" si="19">0.5*A81*(POWER(B81,2)+POWER(C81,2))</f>
+        <f t="shared" ref="H81" si="23">0.5*A81*(POWER(B81,2)+POWER(C81,2))</f>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J81" s="2">
-        <f t="shared" ref="J81:J115" si="20">A81*9.8*ABS(E81)*SIN(RADIANS(D81))-A81*ABS(F81)^2/2</f>
+        <f t="shared" ref="J81:J115" si="24">A81*9.8*ABS(E81)*SIN(RADIANS(D81))-A81*ABS(F81)^2/2</f>
         <v>-1.1383871104077106E-3</v>
       </c>
       <c r="K81">
-        <f t="shared" ref="K81:K115" si="21">(ABS(F81)/B81)^2/2</f>
+        <f t="shared" ref="K81:K115" si="25">(ABS(F81)/B81)^2/2</f>
         <v>0.32472318339100348</v>
       </c>
       <c r="M81" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3.7974202332276949E-5</v>
       </c>
       <c r="N81" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.6892099999999998E-3</v>
       </c>
       <c r="O81">
-        <v>3.7132009613380224E-5</v>
+        <v>3.7974202332276949E-5</v>
       </c>
       <c r="Q81">
         <f t="array" ref="Q81:R85">LINEST(M81:M122,N81:N122,FALSE,TRUE)</f>
@@ -9219,8 +10085,22 @@
       <c r="R81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="Z81">
+        <v>3.7974202332276949E-5</v>
+      </c>
+      <c r="AA81">
+        <f>0.0760081*Z81</f>
+        <v>2.8863469682919396E-6</v>
+      </c>
+      <c r="AB81">
+        <f>(Z81-AA81)^2/0.0013177^2</f>
+        <v>7.0905603269515822E-4</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2.4095</v>
       </c>
@@ -9240,31 +10120,31 @@
         <v>-4.2200000000000001E-2</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8.7646670329439181E-4</v>
       </c>
       <c r="H82">
-        <f t="shared" ref="H82:H112" si="22">0.5*A82*(POWER(B82,2)+POWER(C82,2))</f>
+        <f t="shared" ref="H82:H112" si="26">0.5*A82*(POWER(B82,2)+POWER(C82,2))</f>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J82" s="2">
+        <f t="shared" si="24"/>
+        <v>3.0004747479715202E-4</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="25"/>
+        <v>0.3423375624759708</v>
+      </c>
+      <c r="M82" s="2">
         <f t="shared" si="20"/>
-        <v>3.0004747479715202E-4</v>
-      </c>
-      <c r="K82">
+        <v>1.0356600636075532E-4</v>
+      </c>
+      <c r="N82" s="2">
         <f t="shared" si="21"/>
-        <v>0.3423375624759708</v>
-      </c>
-      <c r="M82" s="2">
-        <f t="shared" si="16"/>
+        <v>1.7808400000000001E-3</v>
+      </c>
+      <c r="O82">
         <v>1.0356600636075532E-4</v>
-      </c>
-      <c r="N82" s="2">
-        <f t="shared" si="17"/>
-        <v>1.7808400000000001E-3</v>
-      </c>
-      <c r="O82">
-        <v>1.0126911712740062E-4</v>
       </c>
       <c r="Q82">
         <v>8.2345638976581345E-4</v>
@@ -9272,8 +10152,23 @@
       <c r="R82" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="Z82">
+        <v>1.0356600636075532E-4</v>
+      </c>
+      <c r="AA82">
+        <f t="shared" ref="AA82:AA122" si="27">0.0760081*Z82</f>
+        <v>7.8718553680689263E-6</v>
+      </c>
+      <c r="AB82">
+        <f t="shared" ref="AB82:AB122" si="28">(Z82-AA82)^2/0.0013177^2</f>
+        <v>5.2739704911210121E-3</v>
+      </c>
+      <c r="AC82">
+        <f>SUM(AB81:AB122)</f>
+        <v>7309.0635249286806</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2.4095</v>
       </c>
@@ -9293,31 +10188,31 @@
         <v>-5.8299999999999998E-2</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.0900381613503114E-3</v>
       </c>
       <c r="H83">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J83" s="2">
+        <f t="shared" si="24"/>
+        <v>2.0189734344928795E-3</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="25"/>
+        <v>0.65338139177239518</v>
+      </c>
+      <c r="M83" s="2">
         <f t="shared" si="20"/>
-        <v>2.0189734344928795E-3</v>
-      </c>
-      <c r="K83">
+        <v>2.5891501590188834E-4</v>
+      </c>
+      <c r="N83" s="2">
         <f t="shared" si="21"/>
-        <v>0.65338139177239518</v>
-      </c>
-      <c r="M83" s="2">
-        <f t="shared" si="16"/>
+        <v>3.3988899999999999E-3</v>
+      </c>
+      <c r="O83">
         <v>2.5891501590188834E-4</v>
-      </c>
-      <c r="N83" s="2">
-        <f t="shared" si="17"/>
-        <v>3.3988899999999999E-3</v>
-      </c>
-      <c r="O83">
-        <v>2.5317279281850152E-4</v>
       </c>
       <c r="Q83">
         <v>0.99521082240855552</v>
@@ -9325,8 +10220,19 @@
       <c r="R83">
         <v>1.3177037825844974E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="Z83">
+        <v>2.5891501590188834E-4</v>
+      </c>
+      <c r="AA83">
+        <f t="shared" si="27"/>
+        <v>1.9679638420172317E-5</v>
+      </c>
+      <c r="AB83">
+        <f t="shared" si="28"/>
+        <v>3.296231556950633E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2.4095</v>
       </c>
@@ -9346,31 +10252,31 @@
         <v>-8.5900000000000004E-2</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5.3773253692198633E-4</v>
       </c>
       <c r="H84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J84" s="2">
+        <f t="shared" si="24"/>
+        <v>7.6275013855542535E-4</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="25"/>
+        <v>1.4184563629373321</v>
+      </c>
+      <c r="M84" s="2">
         <f t="shared" si="20"/>
-        <v>7.6275013855542535E-4</v>
-      </c>
-      <c r="K84">
+        <v>4.0877188874207217E-4</v>
+      </c>
+      <c r="N84" s="2">
         <f t="shared" si="21"/>
-        <v>1.4184563629373321</v>
-      </c>
-      <c r="M84" s="2">
-        <f t="shared" si="16"/>
+        <v>7.3788100000000004E-3</v>
+      </c>
+      <c r="O84">
         <v>4.0877188874207217E-4</v>
-      </c>
-      <c r="N84" s="2">
-        <f t="shared" si="17"/>
-        <v>7.3788100000000004E-3</v>
-      </c>
-      <c r="O84">
-        <v>3.9970613654072518E-4</v>
       </c>
       <c r="Q84">
         <v>8519.9688129427032</v>
@@ -9378,8 +10284,19 @@
       <c r="R84">
         <v>41</v>
       </c>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="Z84">
+        <v>4.0877188874207217E-4</v>
+      </c>
+      <c r="AA84">
+        <f t="shared" si="27"/>
+        <v>3.1069974596696291E-5</v>
+      </c>
+      <c r="AB84">
+        <f t="shared" si="28"/>
+        <v>8.2160917359985E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2.4095</v>
       </c>
@@ -9399,31 +10316,31 @@
         <v>-0.111</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>7.8838134328742474E-4</v>
       </c>
       <c r="H85">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J85" s="2">
+        <f t="shared" si="24"/>
+        <v>1.8672907594472054E-3</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="25"/>
+        <v>2.3685121107266442</v>
+      </c>
+      <c r="M85" s="2">
         <f t="shared" si="20"/>
-        <v>1.8672907594472054E-3</v>
-      </c>
-      <c r="K85">
+        <v>7.0770104346516141E-4</v>
+      </c>
+      <c r="N85" s="2">
         <f t="shared" si="21"/>
-        <v>2.3685121107266442</v>
-      </c>
-      <c r="M85" s="2">
-        <f t="shared" si="16"/>
+        <v>1.2321E-2</v>
+      </c>
+      <c r="O85">
         <v>7.0770104346516141E-4</v>
-      </c>
-      <c r="N85" s="2">
-        <f t="shared" si="17"/>
-        <v>1.2321E-2</v>
-      </c>
-      <c r="O85">
-        <v>6.9200563370390422E-4</v>
       </c>
       <c r="Q85">
         <v>1.4793590412154738E-2</v>
@@ -9431,8 +10348,19 @@
       <c r="R85">
         <v>7.1190073604137177E-5</v>
       </c>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="Z85">
+        <v>7.0770104346516141E-4</v>
+      </c>
+      <c r="AA85">
+        <f t="shared" si="27"/>
+        <v>5.3791011681804328E-5</v>
+      </c>
+      <c r="AB85">
+        <f t="shared" si="28"/>
+        <v>0.2462651220992895</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2.4095</v>
       </c>
@@ -9452,34 +10380,45 @@
         <v>-0.11799999999999999</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.4540289908780949E-3</v>
       </c>
       <c r="H86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J86" s="2">
+        <f t="shared" si="24"/>
+        <v>6.568608163972818E-3</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="25"/>
+        <v>2.6766628219915423</v>
+      </c>
+      <c r="M86" s="2">
         <f t="shared" si="20"/>
-        <v>6.568608163972818E-3</v>
-      </c>
-      <c r="K86">
+        <v>9.8858460617084619E-4</v>
+      </c>
+      <c r="N86" s="2">
         <f t="shared" si="21"/>
-        <v>2.6766628219915423</v>
-      </c>
-      <c r="M86" s="2">
-        <f t="shared" si="16"/>
+        <v>1.3923999999999999E-2</v>
+      </c>
+      <c r="O86">
         <v>9.8858460617084619E-4</v>
       </c>
-      <c r="N86" s="2">
-        <f t="shared" si="17"/>
-        <v>1.3923999999999999E-2</v>
-      </c>
-      <c r="O86">
-        <v>9.6665975439791493E-4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="Z86">
+        <v>9.8858460617084619E-4</v>
+      </c>
+      <c r="AA86">
+        <f t="shared" si="27"/>
+        <v>7.5140437604294288E-5</v>
+      </c>
+      <c r="AB86">
+        <f t="shared" si="28"/>
+        <v>0.48054152615379458</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2.4095</v>
       </c>
@@ -9499,34 +10438,45 @@
         <v>-0.13400000000000001</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.803652259185913E-3</v>
       </c>
       <c r="H87">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J87" s="2">
+        <f t="shared" si="24"/>
+        <v>9.6775047992968613E-3</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="25"/>
+        <v>3.4517493271818545</v>
+      </c>
+      <c r="M87" s="2">
         <f t="shared" si="20"/>
-        <v>9.6775047992968613E-3</v>
-      </c>
-      <c r="K87">
+        <v>1.3259587178005795E-3</v>
+      </c>
+      <c r="N87" s="2">
         <f t="shared" si="21"/>
-        <v>3.4517493271818545</v>
-      </c>
-      <c r="M87" s="2">
-        <f t="shared" si="16"/>
+        <v>1.7956000000000003E-2</v>
+      </c>
+      <c r="O87">
         <v>1.3259587178005795E-3</v>
       </c>
-      <c r="N87" s="2">
-        <f t="shared" si="17"/>
-        <v>1.7956000000000003E-2</v>
-      </c>
-      <c r="O87">
-        <v>1.296551575343235E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="Z87">
+        <v>1.3259587178005795E-3</v>
+      </c>
+      <c r="AA87">
+        <f t="shared" si="27"/>
+        <v>1.0078360281845822E-4</v>
+      </c>
+      <c r="AB87">
+        <f t="shared" si="28"/>
+        <v>0.86449650595102867</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2.4095</v>
       </c>
@@ -9546,34 +10496,45 @@
         <v>-0.14699999999999999</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.3218270081576502E-3</v>
       </c>
       <c r="H88">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J88" s="2">
+        <f t="shared" si="24"/>
+        <v>1.3798800426620274E-2</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="25"/>
+        <v>4.1539792387543253</v>
+      </c>
+      <c r="M88" s="2">
         <f t="shared" si="20"/>
-        <v>1.3798800426620274E-2</v>
-      </c>
-      <c r="K88">
+        <v>1.6868705581486662E-3</v>
+      </c>
+      <c r="N88" s="2">
         <f t="shared" si="21"/>
-        <v>4.1539792387543253</v>
-      </c>
-      <c r="M88" s="2">
-        <f t="shared" si="16"/>
+        <v>2.1608999999999996E-2</v>
+      </c>
+      <c r="O88">
         <v>1.6868705581486662E-3</v>
       </c>
-      <c r="N88" s="2">
-        <f t="shared" si="17"/>
-        <v>2.1608999999999996E-2</v>
-      </c>
-      <c r="O88">
-        <v>1.6494591047266007E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="Z88">
+        <v>1.6868705581486662E-3</v>
+      </c>
+      <c r="AA88">
+        <f t="shared" si="27"/>
+        <v>1.2821582607081962E-4</v>
+      </c>
+      <c r="AB88">
+        <f t="shared" si="28"/>
+        <v>1.399157977227208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2.4095</v>
       </c>
@@ -9593,34 +10554,45 @@
         <v>-0.16500000000000001</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.184592611051472E-3</v>
       </c>
       <c r="H89">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J89" s="2">
+        <f t="shared" si="24"/>
+        <v>1.6666769287942397E-2</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="25"/>
+        <v>5.2335640138408319</v>
+      </c>
+      <c r="M89" s="2">
         <f t="shared" si="20"/>
-        <v>1.6666769287942397E-2</v>
-      </c>
-      <c r="K89">
+        <v>2.0948578559334603E-3</v>
+      </c>
+      <c r="N89" s="2">
         <f t="shared" si="21"/>
-        <v>5.2335640138408319</v>
-      </c>
-      <c r="M89" s="2">
-        <f t="shared" si="16"/>
+        <v>2.7225000000000003E-2</v>
+      </c>
+      <c r="O89">
         <v>2.0948578559334603E-3</v>
       </c>
-      <c r="N89" s="2">
-        <f t="shared" si="17"/>
-        <v>2.7225000000000003E-2</v>
-      </c>
-      <c r="O89">
-        <v>2.0483980509860581E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="Z89">
+        <v>2.0948578559334603E-3</v>
+      </c>
+      <c r="AA89">
+        <f t="shared" si="27"/>
+        <v>1.5922616539957603E-4</v>
+      </c>
+      <c r="AB89">
+        <f t="shared" si="28"/>
+        <v>2.1578057985624763</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2.4095</v>
       </c>
@@ -9640,34 +10612,45 @@
         <v>-0.187</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.6899776644523777E-3</v>
       </c>
       <c r="H90">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J90" s="2">
+        <f t="shared" si="24"/>
+        <v>1.808262763326321E-2</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="25"/>
+        <v>6.7222222222222232</v>
+      </c>
+      <c r="M90" s="2">
         <f t="shared" si="20"/>
-        <v>1.808262763326321E-2</v>
-      </c>
-      <c r="K90">
+        <v>2.5499206111549606E-3</v>
+      </c>
+      <c r="N90" s="2">
         <f t="shared" si="21"/>
-        <v>6.7222222222222232</v>
-      </c>
-      <c r="M90" s="2">
-        <f t="shared" si="16"/>
+        <v>3.4969E-2</v>
+      </c>
+      <c r="O90">
         <v>2.5499206111549606E-3</v>
       </c>
-      <c r="N90" s="2">
-        <f t="shared" si="17"/>
-        <v>3.4969E-2</v>
-      </c>
-      <c r="O90">
-        <v>2.4933684141216061E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="Z90">
+        <v>2.5499206111549606E-3</v>
+      </c>
+      <c r="AA90">
+        <f t="shared" si="27"/>
+        <v>1.9381462080472734E-4</v>
+      </c>
+      <c r="AB90">
+        <f t="shared" si="28"/>
+        <v>3.1971024628366438</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2.4095</v>
       </c>
@@ -9687,34 +10670,45 @@
         <v>-0.20799999999999999</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.4651382649254826E-3</v>
       </c>
       <c r="H91">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J91" s="2">
+        <f t="shared" si="24"/>
+        <v>2.0502064954582094E-2</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="25"/>
+        <v>8.3168012302960381</v>
+      </c>
+      <c r="M91" s="2">
         <f t="shared" si="20"/>
-        <v>2.0502064954582094E-2</v>
-      </c>
-      <c r="K91">
+        <v>3.0755965525315217E-3</v>
+      </c>
+      <c r="N91" s="2">
         <f t="shared" si="21"/>
-        <v>8.3168012302960381</v>
-      </c>
-      <c r="M91" s="2">
-        <f t="shared" si="16"/>
+        <v>4.3263999999999997E-2</v>
+      </c>
+      <c r="O91">
         <v>3.0755965525315217E-3</v>
       </c>
-      <c r="N91" s="2">
-        <f t="shared" si="17"/>
-        <v>4.3263999999999997E-2</v>
-      </c>
-      <c r="O91">
-        <v>3.0073859025712907E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18">
+      <c r="Z91">
+        <v>3.0755965525315217E-3</v>
+      </c>
+      <c r="AA91">
+        <f t="shared" si="27"/>
+        <v>2.3377025032447115E-4</v>
+      </c>
+      <c r="AB91">
+        <f t="shared" si="28"/>
+        <v>4.6511673642540128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2.4095</v>
       </c>
@@ -9734,34 +10728,45 @@
         <v>-0.22500000000000001</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.5470845468986516E-3</v>
       </c>
       <c r="H92">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J92" s="2">
+        <f t="shared" si="24"/>
+        <v>2.4787803765233422E-2</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="25"/>
+        <v>9.7318339100346041</v>
+      </c>
+      <c r="M92" s="2">
         <f t="shared" si="20"/>
-        <v>2.4787803765233422E-2</v>
-      </c>
-      <c r="K92">
+        <v>3.6326561321992209E-3</v>
+      </c>
+      <c r="N92" s="2">
         <f t="shared" si="21"/>
-        <v>9.7318339100346041</v>
-      </c>
-      <c r="M92" s="2">
-        <f t="shared" si="16"/>
+        <v>5.0625000000000003E-2</v>
+      </c>
+      <c r="O92">
         <v>3.6326561321992209E-3</v>
       </c>
-      <c r="N92" s="2">
-        <f t="shared" si="17"/>
-        <v>5.0625000000000003E-2</v>
-      </c>
-      <c r="O92">
-        <v>3.5520910022717035E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="Z92">
+        <v>3.6326561321992209E-3</v>
+      </c>
+      <c r="AA92">
+        <f t="shared" si="27"/>
+        <v>2.7611129056181159E-4</v>
+      </c>
+      <c r="AB92">
+        <f t="shared" si="28"/>
+        <v>6.4886121453806265</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2.4095</v>
       </c>
@@ -9781,34 +10786,45 @@
         <v>-0.23</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.6072802938708422E-3</v>
       </c>
       <c r="H93">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J93" s="2">
+        <f t="shared" si="24"/>
+        <v>3.6683031054549717E-2</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="25"/>
+        <v>10.169165705497889</v>
+      </c>
+      <c r="M93" s="2">
         <f t="shared" si="20"/>
-        <v>3.6683031054549717E-2</v>
-      </c>
-      <c r="K93">
+        <v>4.2524829884491959E-3</v>
+      </c>
+      <c r="N93" s="2">
         <f t="shared" si="21"/>
-        <v>10.169165705497889</v>
-      </c>
-      <c r="M93" s="2">
-        <f t="shared" si="16"/>
+        <v>5.2900000000000003E-2</v>
+      </c>
+      <c r="O93">
         <v>4.2524829884491959E-3</v>
       </c>
-      <c r="N93" s="2">
-        <f t="shared" si="17"/>
-        <v>5.2900000000000003E-2</v>
-      </c>
-      <c r="O93">
-        <v>4.1581713244735708E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18">
+      <c r="Z93">
+        <v>4.2524829884491959E-3</v>
+      </c>
+      <c r="AA93">
+        <f t="shared" si="27"/>
+        <v>3.2322315223434528E-4</v>
+      </c>
+      <c r="AB93">
+        <f t="shared" si="28"/>
+        <v>8.8917738025348552</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2.4095</v>
       </c>
@@ -9828,34 +10844,45 @@
         <v>-0.253</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.0227848350588742E-3</v>
       </c>
       <c r="H94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J94" s="2">
+        <f t="shared" si="24"/>
+        <v>3.7194431854533541E-2</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="25"/>
+        <v>12.304690503652441</v>
+      </c>
+      <c r="M94" s="2">
         <f t="shared" si="20"/>
-        <v>3.7194431854533541E-2</v>
-      </c>
-      <c r="K94">
+        <v>4.8409262064080328E-3</v>
+      </c>
+      <c r="N94" s="2">
         <f t="shared" si="21"/>
-        <v>12.304690503652441</v>
-      </c>
-      <c r="M94" s="2">
-        <f t="shared" si="16"/>
+        <v>6.4008999999999996E-2</v>
+      </c>
+      <c r="O94">
         <v>4.8409262064080328E-3</v>
       </c>
-      <c r="N94" s="2">
-        <f t="shared" si="17"/>
-        <v>6.4008999999999996E-2</v>
-      </c>
-      <c r="O94">
-        <v>4.73356403542471E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18">
+      <c r="Z94">
+        <v>4.8409262064080328E-3</v>
+      </c>
+      <c r="AA94">
+        <f t="shared" si="27"/>
+        <v>3.6794960318928239E-4</v>
+      </c>
+      <c r="AB94">
+        <f t="shared" si="28"/>
+        <v>11.522856705087046</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2.4095</v>
       </c>
@@ -9875,34 +10902,45 @@
         <v>-0.28299999999999997</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.2767112896850163E-3</v>
       </c>
       <c r="H95">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J95" s="2">
+        <f t="shared" si="24"/>
+        <v>3.5051812856513501E-2</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="25"/>
+        <v>15.395809304113801</v>
+      </c>
+      <c r="M95" s="2">
         <f t="shared" si="20"/>
-        <v>3.5051812856513501E-2</v>
-      </c>
-      <c r="K95">
+        <v>5.5705957966769902E-3</v>
+      </c>
+      <c r="N95" s="2">
         <f t="shared" si="21"/>
-        <v>15.395809304113801</v>
-      </c>
-      <c r="M95" s="2">
-        <f t="shared" si="16"/>
+        <v>8.008899999999998E-2</v>
+      </c>
+      <c r="O95">
         <v>5.5705957966769902E-3</v>
       </c>
-      <c r="N95" s="2">
-        <f t="shared" si="17"/>
-        <v>8.008899999999998E-2</v>
-      </c>
-      <c r="O95">
-        <v>5.4470509970041235E-3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="Z95">
+        <v>5.5705957966769902E-3</v>
+      </c>
+      <c r="AA95">
+        <f t="shared" si="27"/>
+        <v>4.2341040237340433E-4</v>
+      </c>
+      <c r="AB95">
+        <f t="shared" si="28"/>
+        <v>15.258313387133274</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2.4095</v>
       </c>
@@ -9922,34 +10960,45 @@
         <v>-0.27800000000000002</v>
       </c>
       <c r="G96" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.7714856813394261E-3</v>
       </c>
       <c r="H96">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J96" s="2">
+        <f t="shared" si="24"/>
+        <v>5.6031430103159613E-2</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="25"/>
+        <v>14.856593617839298</v>
+      </c>
+      <c r="M96" s="2">
         <f t="shared" si="20"/>
-        <v>5.6031430103159613E-2</v>
-      </c>
-      <c r="K96">
+        <v>6.3159572060915185E-3</v>
+      </c>
+      <c r="N96" s="2">
         <f t="shared" si="21"/>
-        <v>14.856593617839298</v>
-      </c>
-      <c r="M96" s="2">
-        <f t="shared" si="16"/>
+        <v>7.7284000000000019E-2</v>
+      </c>
+      <c r="O96">
         <v>6.3159572060915185E-3</v>
       </c>
-      <c r="N96" s="2">
-        <f t="shared" si="17"/>
-        <v>7.7284000000000019E-2</v>
-      </c>
-      <c r="O96">
-        <v>6.1758817642089013E-3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18">
+      <c r="Z96">
+        <v>6.3159572060915185E-3</v>
+      </c>
+      <c r="AA96">
+        <f t="shared" si="27"/>
+        <v>4.8006390691632473E-4</v>
+      </c>
+      <c r="AB96">
+        <f t="shared" si="28"/>
+        <v>19.614696553654127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2.4095</v>
       </c>
@@ -9969,34 +11018,45 @@
         <v>-0.30199999999999999</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.1903785670919613E-3</v>
       </c>
       <c r="H97">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J97" s="2">
+        <f t="shared" si="24"/>
+        <v>5.5935272363140193E-2</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="25"/>
+        <v>17.532487504805847</v>
+      </c>
+      <c r="M97" s="2">
         <f t="shared" si="20"/>
-        <v>5.5935272363140193E-2</v>
-      </c>
-      <c r="K97">
+        <v>7.0220890676421224E-3</v>
+      </c>
+      <c r="N97" s="2">
         <f t="shared" si="21"/>
-        <v>17.532487504805847</v>
-      </c>
-      <c r="M97" s="2">
-        <f t="shared" si="16"/>
+        <v>9.1203999999999993E-2</v>
+      </c>
+      <c r="O97">
         <v>7.0220890676421224E-3</v>
       </c>
-      <c r="N97" s="2">
-        <f t="shared" si="17"/>
-        <v>9.1203999999999993E-2</v>
-      </c>
-      <c r="O97">
-        <v>6.8663530173502683E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18">
+      <c r="Z97">
+        <v>7.0220890676421224E-3</v>
+      </c>
+      <c r="AA97">
+        <f t="shared" si="27"/>
+        <v>5.3373564806224918E-4</v>
+      </c>
+      <c r="AB97">
+        <f t="shared" si="28"/>
+        <v>24.245765683254181</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2.4095</v>
       </c>
@@ -10016,34 +11076,45 @@
         <v>-0.32500000000000001</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.9484414473433958E-3</v>
       </c>
       <c r="H98">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J98" s="2">
+        <f t="shared" si="24"/>
+        <v>5.9867191056448721E-2</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="25"/>
+        <v>20.304690503652445</v>
+      </c>
+      <c r="M98" s="2">
         <f t="shared" si="20"/>
-        <v>5.9867191056448721E-2</v>
-      </c>
-      <c r="K98">
+        <v>7.9243686685123403E-3</v>
+      </c>
+      <c r="N98" s="2">
         <f t="shared" si="21"/>
-        <v>20.304690503652445</v>
-      </c>
-      <c r="M98" s="2">
-        <f t="shared" si="16"/>
+        <v>0.10562500000000001</v>
+      </c>
+      <c r="O98">
         <v>7.9243686685123403E-3</v>
       </c>
-      <c r="N98" s="2">
-        <f t="shared" si="17"/>
-        <v>0.10562500000000001</v>
-      </c>
-      <c r="O98">
-        <v>7.7486218408086838E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18">
+      <c r="Z98">
+        <v>7.9243686685123403E-3</v>
+      </c>
+      <c r="AA98">
+        <f t="shared" si="27"/>
+        <v>6.0231620619315281E-4</v>
+      </c>
+      <c r="AB98">
+        <f t="shared" si="28"/>
+        <v>30.876821039902119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2.4095</v>
       </c>
@@ -10063,34 +11134,45 @@
         <v>-0.34300000000000003</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.8257690682482127E-3</v>
       </c>
       <c r="H99">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J99" s="2">
+        <f t="shared" si="24"/>
+        <v>6.3907901789760496E-2</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="25"/>
+        <v>22.616109188773557</v>
+      </c>
+      <c r="M99" s="2">
         <f t="shared" si="20"/>
-        <v>6.3907901789760496E-2</v>
-      </c>
-      <c r="K99">
+        <v>8.7089596257907895E-3</v>
+      </c>
+      <c r="N99" s="2">
         <f t="shared" si="21"/>
-        <v>22.616109188773557</v>
-      </c>
-      <c r="M99" s="2">
-        <f t="shared" si="16"/>
+        <v>0.11764900000000002</v>
+      </c>
+      <c r="O99">
         <v>8.7089596257907895E-3</v>
       </c>
-      <c r="N99" s="2">
-        <f t="shared" si="17"/>
-        <v>0.11764900000000002</v>
-      </c>
-      <c r="O99">
-        <v>8.5158121220768705E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18">
+      <c r="Z99">
+        <v>8.7089596257907895E-3</v>
+      </c>
+      <c r="AA99">
+        <f t="shared" si="27"/>
+        <v>6.6195147413306888E-4</v>
+      </c>
+      <c r="AB99">
+        <f t="shared" si="28"/>
+        <v>37.293727284838155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2.4095</v>
       </c>
@@ -10110,34 +11192,45 @@
         <v>-0.36799999999999999</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.4862774396197094E-3</v>
       </c>
       <c r="H100">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J100" s="2">
+        <f t="shared" si="24"/>
+        <v>6.4725420219734625E-2</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="25"/>
+        <v>26.033064206074588</v>
+      </c>
+      <c r="M100" s="2">
         <f t="shared" si="20"/>
-        <v>6.4725420219734625E-2</v>
-      </c>
-      <c r="K100">
+        <v>9.6504687745249274E-3</v>
+      </c>
+      <c r="N100" s="2">
         <f t="shared" si="21"/>
-        <v>26.033064206074588</v>
-      </c>
-      <c r="M100" s="2">
-        <f t="shared" si="16"/>
+        <v>0.13542399999999999</v>
+      </c>
+      <c r="O100">
         <v>9.6504687745249274E-3</v>
       </c>
-      <c r="N100" s="2">
-        <f t="shared" si="17"/>
-        <v>0.13542399999999999</v>
-      </c>
-      <c r="O100">
-        <v>9.4364404595986932E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18">
+      <c r="Z100">
+        <v>9.6504687745249274E-3</v>
+      </c>
+      <c r="AA100">
+        <f t="shared" si="27"/>
+        <v>7.3351379566096808E-4</v>
+      </c>
+      <c r="AB100">
+        <f t="shared" si="28"/>
+        <v>45.79310121681003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2.4095</v>
       </c>
@@ -10157,34 +11250,45 @@
         <v>-0.373</v>
       </c>
       <c r="G101" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.1536929591030874E-3</v>
       </c>
       <c r="H101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J101" s="2">
+        <f t="shared" si="24"/>
+        <v>8.4346433623039896E-2</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="25"/>
+        <v>26.745290272971939</v>
+      </c>
+      <c r="M101" s="2">
         <f t="shared" si="20"/>
-        <v>8.4346433623039896E-2</v>
-      </c>
-      <c r="K101">
+        <v>1.0670437018986912E-2</v>
+      </c>
+      <c r="N101" s="2">
         <f t="shared" si="21"/>
-        <v>26.745290272971939</v>
-      </c>
-      <c r="M101" s="2">
-        <f t="shared" si="16"/>
+        <v>0.139129</v>
+      </c>
+      <c r="O101">
         <v>1.0670437018986912E-2</v>
       </c>
-      <c r="N101" s="2">
-        <f t="shared" si="17"/>
-        <v>0.139129</v>
-      </c>
-      <c r="O101">
-        <v>1.0433787825247337E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18">
+      <c r="Z101">
+        <v>1.0670437018986912E-2</v>
+      </c>
+      <c r="AA101">
+        <f t="shared" si="27"/>
+        <v>8.1103964398285906E-4</v>
+      </c>
+      <c r="AB101">
+        <f t="shared" si="28"/>
+        <v>55.984480144498526</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2.4095</v>
       </c>
@@ -10204,31 +11308,31 @@
         <v>-0.39800000000000002</v>
       </c>
       <c r="G102" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.7374448519594118E-3</v>
       </c>
       <c r="H102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J102" s="2">
+        <f t="shared" si="24"/>
+        <v>8.3356827053013977E-2</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="25"/>
+        <v>30.450595924644372</v>
+      </c>
+      <c r="M102" s="2">
         <f t="shared" si="20"/>
-        <v>8.3356827053013977E-2</v>
-      </c>
-      <c r="K102">
+        <v>1.161194616772105E-2</v>
+      </c>
+      <c r="N102" s="2">
         <f t="shared" si="21"/>
-        <v>30.450595924644372</v>
-      </c>
-      <c r="M102" s="2">
-        <f t="shared" si="16"/>
+        <v>0.15840400000000002</v>
+      </c>
+      <c r="O102">
         <v>1.161194616772105E-2</v>
-      </c>
-      <c r="N102" s="2">
-        <f t="shared" si="17"/>
-        <v>0.15840400000000002</v>
-      </c>
-      <c r="O102">
-        <v>1.135441616276916E-2</v>
       </c>
       <c r="Q102">
         <f>(Q81*A81*9.8-0.5*A81)*2*B81^2</f>
@@ -10238,8 +11342,19 @@
         <f>((Q81+Q82)*A81*9.8-0.5*A81)*2*B81^2</f>
         <v>3.1705155226591938E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:18">
+      <c r="Z102">
+        <v>1.161194616772105E-2</v>
+      </c>
+      <c r="AA102">
+        <f t="shared" si="27"/>
+        <v>8.8260196551075826E-4</v>
+      </c>
+      <c r="AB102">
+        <f t="shared" si="28"/>
+        <v>66.299959617490032</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2.4095</v>
       </c>
@@ -10259,38 +11374,49 @@
         <v>-0.41399999999999998</v>
       </c>
       <c r="G103" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.8421061770026249E-3</v>
       </c>
       <c r="H103">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J103" s="2">
+        <f t="shared" si="24"/>
+        <v>9.3641989679650484E-2</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="25"/>
+        <v>32.948096885813143</v>
+      </c>
+      <c r="M103" s="2">
         <f t="shared" si="20"/>
-        <v>9.3641989679650484E-2</v>
-      </c>
-      <c r="K103">
+        <v>1.2710373507910881E-2</v>
+      </c>
+      <c r="N103" s="2">
         <f t="shared" si="21"/>
-        <v>32.948096885813143</v>
-      </c>
-      <c r="M103" s="2">
-        <f t="shared" si="16"/>
+        <v>0.17139599999999999</v>
+      </c>
+      <c r="O103">
         <v>1.2710373507910881E-2</v>
-      </c>
-      <c r="N103" s="2">
-        <f t="shared" si="17"/>
-        <v>0.17139599999999999</v>
-      </c>
-      <c r="O103">
-        <v>1.2428482556544621E-2</v>
       </c>
       <c r="R103">
         <f>R102-Q102</f>
         <v>1.011495507174851E-4</v>
       </c>
-    </row>
-    <row r="104" spans="1:18">
+      <c r="Z103">
+        <v>1.2710373507910881E-2</v>
+      </c>
+      <c r="AA103">
+        <f t="shared" si="27"/>
+        <v>9.6609134062664091E-4</v>
+      </c>
+      <c r="AB103">
+        <f t="shared" si="28"/>
+        <v>79.436456364198719</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2.4095</v>
       </c>
@@ -10310,34 +11436,45 @@
         <v>-0.42399999999999999</v>
       </c>
       <c r="G104" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.1680143918615634E-3</v>
       </c>
       <c r="H104">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J104" s="2">
+        <f t="shared" si="24"/>
+        <v>0.10948345930628692</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="25"/>
+        <v>34.55901576316802</v>
+      </c>
+      <c r="M104" s="2">
         <f t="shared" si="20"/>
-        <v>0.10948345930628692</v>
-      </c>
-      <c r="K104">
+        <v>1.3808800848100709E-2</v>
+      </c>
+      <c r="N104" s="2">
         <f t="shared" si="21"/>
-        <v>34.55901576316802</v>
-      </c>
-      <c r="M104" s="2">
-        <f t="shared" si="16"/>
+        <v>0.17977599999999999</v>
+      </c>
+      <c r="O104">
         <v>1.3808800848100709E-2</v>
       </c>
-      <c r="N104" s="2">
-        <f t="shared" si="17"/>
-        <v>0.17977599999999999</v>
-      </c>
-      <c r="O104">
-        <v>1.3502548950320081E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18">
+      <c r="Z104">
+        <v>1.3808800848100709E-2</v>
+      </c>
+      <c r="AA104">
+        <f t="shared" si="27"/>
+        <v>1.0495807157425235E-3</v>
+      </c>
+      <c r="AB104">
+        <f t="shared" si="28"/>
+        <v>93.759475397706851</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2.4095</v>
       </c>
@@ -10357,34 +11494,45 @@
         <v>-0.435</v>
       </c>
       <c r="G105" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.4608444467688539E-3</v>
       </c>
       <c r="H105">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J105" s="2">
+        <f t="shared" si="24"/>
+        <v>0.12588971365625459</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="25"/>
+        <v>36.37543252595156</v>
+      </c>
+      <c r="M105" s="2">
         <f t="shared" si="20"/>
-        <v>0.12588971365625459</v>
-      </c>
-      <c r="K105">
+        <v>1.4985687284018384E-2</v>
+      </c>
+      <c r="N105" s="2">
         <f t="shared" si="21"/>
-        <v>36.37543252595156</v>
-      </c>
-      <c r="M105" s="2">
-        <f t="shared" si="16"/>
+        <v>0.189225</v>
+      </c>
+      <c r="O105">
         <v>1.4985687284018384E-2</v>
       </c>
-      <c r="N105" s="2">
-        <f t="shared" si="17"/>
-        <v>0.189225</v>
-      </c>
-      <c r="O105">
-        <v>1.4653334372222361E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18">
+      <c r="Z105">
+        <v>1.4985687284018384E-2</v>
+      </c>
+      <c r="AA105">
+        <f t="shared" si="27"/>
+        <v>1.1390336176523978E-3</v>
+      </c>
+      <c r="AB105">
+        <f t="shared" si="28"/>
+        <v>110.42224373656202</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2.4095</v>
       </c>
@@ -10404,34 +11552,45 @@
         <v>-0.44800000000000001</v>
       </c>
       <c r="G106" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.5767291289515828E-3</v>
       </c>
       <c r="H106">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J106" s="2">
+        <f t="shared" si="24"/>
+        <v>0.13799766303289093</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="25"/>
+        <v>38.582083813917734</v>
+      </c>
+      <c r="M106" s="2">
         <f t="shared" si="20"/>
-        <v>0.13799766303289093</v>
-      </c>
-      <c r="K106">
+        <v>1.6084114624208213E-2</v>
+      </c>
+      <c r="N106" s="2">
         <f t="shared" si="21"/>
-        <v>38.582083813917734</v>
-      </c>
-      <c r="M106" s="2">
-        <f t="shared" si="16"/>
+        <v>0.20070400000000002</v>
+      </c>
+      <c r="O106">
         <v>1.6084114624208213E-2</v>
       </c>
-      <c r="N106" s="2">
-        <f t="shared" si="17"/>
-        <v>0.20070400000000002</v>
-      </c>
-      <c r="O106">
-        <v>1.5727400765997823E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18">
+      <c r="Z106">
+        <v>1.6084114624208213E-2</v>
+      </c>
+      <c r="AA106">
+        <f t="shared" si="27"/>
+        <v>1.2225229927682801E-3</v>
+      </c>
+      <c r="AB106">
+        <f t="shared" si="28"/>
+        <v>127.20305893558339</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2.4095</v>
       </c>
@@ -10451,34 +11610,45 @@
         <v>-0.45900000000000002</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.7967360341446556E-3</v>
       </c>
       <c r="H107">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J107" s="2">
+        <f t="shared" si="24"/>
+        <v>0.15376780938285861</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="25"/>
+        <v>40.500000000000014</v>
+      </c>
+      <c r="M107" s="2">
         <f t="shared" si="20"/>
-        <v>0.15376780938285861</v>
-      </c>
-      <c r="K107">
+        <v>1.7261001060125888E-2</v>
+      </c>
+      <c r="N107" s="2">
         <f t="shared" si="21"/>
-        <v>40.500000000000014</v>
-      </c>
-      <c r="M107" s="2">
-        <f t="shared" si="16"/>
+        <v>0.21068100000000001</v>
+      </c>
+      <c r="O107">
         <v>1.7261001060125888E-2</v>
       </c>
-      <c r="N107" s="2">
-        <f t="shared" si="17"/>
-        <v>0.21068100000000001</v>
-      </c>
-      <c r="O107">
-        <v>1.6878186187900102E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18">
+      <c r="Z107">
+        <v>1.7261001060125888E-2</v>
+      </c>
+      <c r="AA107">
+        <f t="shared" si="27"/>
+        <v>1.3119758946781544E-3</v>
+      </c>
+      <c r="AB107">
+        <f t="shared" si="28"/>
+        <v>146.49918030891703</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2.4095</v>
       </c>
@@ -10498,34 +11668,45 @@
         <v>-0.44700000000000001</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5.1160706568469418E-3</v>
       </c>
       <c r="H108">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J108" s="2">
+        <f t="shared" si="24"/>
+        <v>0.1965084509561574</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="25"/>
+        <v>38.410034602076131</v>
+      </c>
+      <c r="M108" s="2">
         <f t="shared" si="20"/>
-        <v>0.1965084509561574</v>
-      </c>
-      <c r="K108">
+        <v>1.8516346591771406E-2</v>
+      </c>
+      <c r="N108" s="2">
         <f t="shared" si="21"/>
-        <v>38.410034602076131</v>
-      </c>
-      <c r="M108" s="2">
-        <f t="shared" si="16"/>
+        <v>0.19980900000000001</v>
+      </c>
+      <c r="O108">
         <v>1.8516346591771406E-2</v>
       </c>
-      <c r="N108" s="2">
-        <f t="shared" si="17"/>
-        <v>0.19980900000000001</v>
-      </c>
-      <c r="O108">
-        <v>1.81056906379292E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18">
+      <c r="Z108">
+        <v>1.8516346591771406E-2</v>
+      </c>
+      <c r="AA108">
+        <f t="shared" si="27"/>
+        <v>1.4073923233820201E-3</v>
+      </c>
+      <c r="AB108">
+        <f t="shared" si="28"/>
+        <v>168.58302368771572</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2.4095</v>
       </c>
@@ -10545,34 +11726,45 @@
         <v>-0.46600000000000003</v>
       </c>
       <c r="G109" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4.8280826501924589E-3</v>
       </c>
       <c r="H109">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J109" s="2">
+        <f t="shared" si="24"/>
+        <v>0.20154692733279389</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="25"/>
+        <v>41.744713571703201</v>
+      </c>
+      <c r="M109" s="2">
         <f t="shared" si="20"/>
-        <v>0.20154692733279389</v>
-      </c>
-      <c r="K109">
+        <v>1.9614773931961236E-2</v>
+      </c>
+      <c r="N109" s="2">
         <f t="shared" si="21"/>
-        <v>41.744713571703201</v>
-      </c>
-      <c r="M109" s="2">
-        <f t="shared" si="16"/>
+        <v>0.21715600000000002</v>
+      </c>
+      <c r="O109">
         <v>1.9614773931961236E-2</v>
       </c>
-      <c r="N109" s="2">
-        <f t="shared" si="17"/>
-        <v>0.21715600000000002</v>
-      </c>
-      <c r="O109">
-        <v>1.9179757031704662E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18">
+      <c r="Z109">
+        <v>1.9614773931961236E-2</v>
+      </c>
+      <c r="AA109">
+        <f t="shared" si="27"/>
+        <v>1.4908816984979026E-3</v>
+      </c>
+      <c r="AB109">
+        <f t="shared" si="28"/>
+        <v>189.1776605228784</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2.4095</v>
       </c>
@@ -10592,34 +11784,45 @@
         <v>-0.51900000000000002</v>
       </c>
       <c r="G110" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.2859657400450058E-3</v>
       </c>
       <c r="H110">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J110" s="2">
+        <f t="shared" si="24"/>
+        <v>0.17014821562942389</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="25"/>
+        <v>51.78027681660901</v>
+      </c>
+      <c r="M110" s="2">
         <f t="shared" si="20"/>
-        <v>0.17014821562942389</v>
-      </c>
-      <c r="K110">
+        <v>2.0948578559334602E-2</v>
+      </c>
+      <c r="N110" s="2">
         <f t="shared" si="21"/>
-        <v>51.78027681660901</v>
-      </c>
-      <c r="M110" s="2">
-        <f t="shared" si="16"/>
+        <v>0.26936100000000002</v>
+      </c>
+      <c r="O110">
         <v>2.0948578559334602E-2</v>
       </c>
-      <c r="N110" s="2">
-        <f t="shared" si="17"/>
-        <v>0.26936100000000002</v>
-      </c>
-      <c r="O110">
-        <v>2.048398050986058E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18">
+      <c r="Z110">
+        <v>2.0948578559334602E-2</v>
+      </c>
+      <c r="AA110">
+        <f t="shared" si="27"/>
+        <v>1.5922616539957603E-3</v>
+      </c>
+      <c r="AB110">
+        <f t="shared" si="28"/>
+        <v>215.78057985624764</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2.4095</v>
       </c>
@@ -10639,34 +11842,45 @@
         <v>-0.52200000000000002</v>
       </c>
       <c r="G111" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.8131220111588212E-3</v>
       </c>
       <c r="H111">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J111" s="2">
+        <f t="shared" si="24"/>
+        <v>0.19973370589938494</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="25"/>
+        <v>52.380622837370254</v>
+      </c>
+      <c r="M111" s="2">
         <f t="shared" si="20"/>
-        <v>0.19973370589938494</v>
-      </c>
-      <c r="K111">
+        <v>2.2360842282435806E-2</v>
+      </c>
+      <c r="N111" s="2">
         <f t="shared" si="21"/>
-        <v>52.380622837370254</v>
-      </c>
-      <c r="M111" s="2">
-        <f t="shared" si="16"/>
+        <v>0.272484</v>
+      </c>
+      <c r="O111">
         <v>2.2360842282435806E-2</v>
       </c>
-      <c r="N111" s="2">
-        <f t="shared" si="17"/>
-        <v>0.272484</v>
-      </c>
-      <c r="O111">
-        <v>2.1864923016143314E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18">
+      <c r="Z111">
+        <v>2.2360842282435806E-2</v>
+      </c>
+      <c r="AA111">
+        <f t="shared" si="27"/>
+        <v>1.6996051362876089E-3</v>
+      </c>
+      <c r="AB111">
+        <f t="shared" si="28"/>
+        <v>245.85528761553266</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2.4095</v>
       </c>
@@ -10686,34 +11900,45 @@
         <v>-0.50600000000000001</v>
       </c>
       <c r="G112" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5.0629480156107022E-3</v>
       </c>
       <c r="H112">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J112" s="2">
+        <f t="shared" si="24"/>
+        <v>0.24919203347268393</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="25"/>
+        <v>49.218762014609766</v>
+      </c>
+      <c r="M112" s="2">
         <f t="shared" si="20"/>
-        <v>0.24919203347268393</v>
-      </c>
-      <c r="K112">
+        <v>2.3616187814081327E-2</v>
+      </c>
+      <c r="N112" s="2">
         <f t="shared" si="21"/>
-        <v>49.218762014609766</v>
-      </c>
-      <c r="M112" s="2">
-        <f t="shared" si="16"/>
+        <v>0.25603599999999999</v>
+      </c>
+      <c r="O112">
         <v>2.3616187814081327E-2</v>
       </c>
-      <c r="N112" s="2">
-        <f t="shared" si="17"/>
-        <v>0.25603599999999999</v>
-      </c>
-      <c r="O112">
-        <v>2.3092427466172412E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
+      <c r="Z112">
+        <v>2.3616187814081327E-2</v>
+      </c>
+      <c r="AA112">
+        <f t="shared" si="27"/>
+        <v>1.7950215649914748E-3</v>
+      </c>
+      <c r="AB112">
+        <f t="shared" si="28"/>
+        <v>274.2349635365328</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2.4095</v>
       </c>
@@ -10733,34 +11958,45 @@
         <v>-0.54200000000000004</v>
       </c>
       <c r="G113" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4.198361113893258E-3</v>
       </c>
       <c r="H113">
-        <f t="shared" ref="H113:H115" si="23">0.5*A113*(POWER(B113,2)+POWER(C113,2))</f>
+        <f t="shared" ref="H113:H115" si="29">0.5*A113*(POWER(B113,2)+POWER(C113,2))</f>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J113" s="2">
+        <f t="shared" si="24"/>
+        <v>0.23708714999264502</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="25"/>
+        <v>56.471357170319123</v>
+      </c>
+      <c r="M113" s="2">
         <f t="shared" si="20"/>
-        <v>0.23708714999264502</v>
-      </c>
-      <c r="K113">
+        <v>2.5028451537182538E-2</v>
+      </c>
+      <c r="N113" s="2">
         <f t="shared" si="21"/>
-        <v>56.471357170319123</v>
-      </c>
-      <c r="M113" s="2">
-        <f t="shared" si="16"/>
+        <v>0.29376400000000003</v>
+      </c>
+      <c r="O113">
         <v>2.5028451537182538E-2</v>
       </c>
-      <c r="N113" s="2">
-        <f t="shared" si="17"/>
-        <v>0.29376400000000003</v>
-      </c>
-      <c r="O113">
-        <v>2.4473369972455149E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
+      <c r="Z113">
+        <v>2.5028451537182538E-2</v>
+      </c>
+      <c r="AA113">
+        <f t="shared" si="27"/>
+        <v>1.902365047283324E-3</v>
+      </c>
+      <c r="AB113">
+        <f t="shared" si="28"/>
+        <v>308.01452659949808</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2.4095</v>
       </c>
@@ -10780,34 +12016,45 @@
         <v>-0.60699999999999998</v>
       </c>
       <c r="G114" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.5739837393868544E-3</v>
       </c>
       <c r="H114">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J114" s="2">
+        <f t="shared" si="24"/>
+        <v>0.18231098323593753</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="25"/>
+        <v>70.828335255670893</v>
+      </c>
+      <c r="M114" s="2">
         <f t="shared" si="20"/>
-        <v>0.18231098323593753</v>
-      </c>
-      <c r="K114">
+        <v>2.6519174356011591E-2</v>
+      </c>
+      <c r="N114" s="2">
         <f t="shared" si="21"/>
-        <v>70.828335255670893</v>
-      </c>
-      <c r="M114" s="2">
-        <f t="shared" si="16"/>
+        <v>0.36844899999999997</v>
+      </c>
+      <c r="O114">
         <v>2.6519174356011591E-2</v>
       </c>
-      <c r="N114" s="2">
-        <f t="shared" si="17"/>
-        <v>0.36844899999999997</v>
-      </c>
-      <c r="O114">
-        <v>2.5931031506864703E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
+      <c r="Z114">
+        <v>2.6519174356011591E-2</v>
+      </c>
+      <c r="AA114">
+        <f t="shared" si="27"/>
+        <v>2.0156720563691646E-3</v>
+      </c>
+      <c r="AB114">
+        <f t="shared" si="28"/>
+        <v>345.79860238041147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2.4095</v>
       </c>
@@ -10827,34 +12074,45 @@
         <v>-0.629</v>
       </c>
       <c r="G115" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2.4778904289014282E-3</v>
       </c>
       <c r="H115">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J115" s="2">
+        <f t="shared" si="24"/>
+        <v>0.18845733317589197</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="25"/>
+        <v>76.055555555555557</v>
+      </c>
+      <c r="M115" s="2">
         <f t="shared" si="20"/>
-        <v>0.18845733317589197</v>
-      </c>
-      <c r="K115">
+        <v>2.8166815366296335E-2</v>
+      </c>
+      <c r="N115" s="2">
         <f t="shared" si="21"/>
-        <v>76.055555555555557</v>
-      </c>
-      <c r="M115" s="2">
-        <f t="shared" si="16"/>
+        <v>0.39564100000000002</v>
+      </c>
+      <c r="O115">
         <v>2.8166815366296335E-2</v>
       </c>
-      <c r="N115" s="2">
-        <f t="shared" si="17"/>
-        <v>0.39564100000000002</v>
-      </c>
-      <c r="O115">
-        <v>2.7542131097527893E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
+      <c r="Z115">
+        <v>2.8166815366296335E-2</v>
+      </c>
+      <c r="AA115">
+        <f t="shared" si="27"/>
+        <v>2.1409061190429883E-3</v>
+      </c>
+      <c r="AB115">
+        <f t="shared" si="28"/>
+        <v>390.10249705358535</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2.4095</v>
       </c>
@@ -10874,34 +12132,45 @@
         <v>-0.63100000000000001</v>
       </c>
       <c r="G116" s="2">
-        <f t="shared" ref="G116:G122" si="24">(A116*9.8*ABS(E116)*SIN(RADIANS(D116))-0.5*A116*ABS(F116)^2)/(0.5*(ABS(F116)/B116)^2)</f>
+        <f t="shared" ref="G116:G122" si="30">(A116*9.8*ABS(E116)*SIN(RADIANS(D116))-0.5*A116*ABS(F116)^2)/(0.5*(ABS(F116)/B116)^2)</f>
         <v>2.9066456407492599E-3</v>
       </c>
       <c r="H116">
-        <f t="shared" ref="H116:H122" si="25">0.5*A116*(POWER(B116,2)+POWER(C116,2))</f>
+        <f t="shared" ref="H116:H122" si="31">0.5*A116*(POWER(B116,2)+POWER(C116,2))</f>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J116" s="2">
-        <f t="shared" ref="J116:J122" si="26">A116*9.8*ABS(E116)*SIN(RADIANS(D116))-A116*ABS(F116)^2/2</f>
+        <f t="shared" ref="J116:J122" si="32">A116*9.8*ABS(E116)*SIN(RADIANS(D116))-A116*ABS(F116)^2/2</f>
         <v>0.22247461264251561</v>
       </c>
       <c r="K116">
-        <f t="shared" ref="K116:K122" si="27">(ABS(F116)/B116)^2/2</f>
+        <f t="shared" ref="K116:K122" si="33">(ABS(F116)/B116)^2/2</f>
         <v>76.53998462129951</v>
       </c>
       <c r="M116" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2.9735997280853233E-2</v>
       </c>
       <c r="N116" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.39816099999999999</v>
       </c>
       <c r="O116">
-        <v>2.9076511660064266E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
+        <v>2.9735997280853233E-2</v>
+      </c>
+      <c r="Z116">
+        <v>2.9735997280853233E-2</v>
+      </c>
+      <c r="AA116">
+        <f t="shared" si="27"/>
+        <v>2.2601766549228204E-3</v>
+      </c>
+      <c r="AB116">
+        <f t="shared" si="28"/>
+        <v>434.77869336266838</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2.4095</v>
       </c>
@@ -10921,34 +12190,45 @@
         <v>-0.66100000000000003</v>
       </c>
       <c r="G117" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2.5780996446595115E-3</v>
       </c>
       <c r="H117">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J117" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.21653707705580139</v>
       </c>
       <c r="K117">
+        <f t="shared" si="33"/>
+        <v>83.990965013456389</v>
+      </c>
+      <c r="M117" s="2">
+        <f t="shared" si="20"/>
+        <v>3.1462097386865825E-2</v>
+      </c>
+      <c r="N117" s="2">
+        <f t="shared" si="21"/>
+        <v>0.43692100000000006</v>
+      </c>
+      <c r="O117">
+        <v>3.1462097386865825E-2</v>
+      </c>
+      <c r="Z117">
+        <v>3.1462097386865825E-2</v>
+      </c>
+      <c r="AA117">
         <f t="shared" si="27"/>
-        <v>83.990965013456389</v>
-      </c>
-      <c r="M117" s="2">
-        <f t="shared" si="16"/>
-        <v>3.1462097386865825E-2</v>
-      </c>
-      <c r="N117" s="2">
-        <f t="shared" si="17"/>
-        <v>0.43692100000000006</v>
-      </c>
-      <c r="O117">
-        <v>3.0764330278854279E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
+        <v>2.3913742443906361E-3</v>
+      </c>
+      <c r="AB117">
+        <f t="shared" si="28"/>
+        <v>486.71931183582996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2.4095</v>
       </c>
@@ -10968,34 +12248,45 @@
         <v>-0.66900000000000004</v>
       </c>
       <c r="G118" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2.8415566456018084E-3</v>
       </c>
       <c r="H118">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J118" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.24447711146908713</v>
       </c>
       <c r="K118">
+        <f t="shared" si="33"/>
+        <v>86.03633217993081</v>
+      </c>
+      <c r="M118" s="2">
+        <f t="shared" si="20"/>
+        <v>3.3188197492878407E-2</v>
+      </c>
+      <c r="N118" s="2">
+        <f t="shared" si="21"/>
+        <v>0.44756100000000004</v>
+      </c>
+      <c r="O118">
+        <v>3.3188197492878407E-2</v>
+      </c>
+      <c r="Z118">
+        <v>3.3188197492878407E-2</v>
+      </c>
+      <c r="AA118">
         <f t="shared" si="27"/>
-        <v>86.03633217993081</v>
-      </c>
-      <c r="M118" s="2">
-        <f t="shared" si="16"/>
-        <v>3.3188197492878407E-2</v>
-      </c>
-      <c r="N118" s="2">
-        <f t="shared" si="17"/>
-        <v>0.44756100000000004</v>
-      </c>
-      <c r="O118">
-        <v>3.2452148897644285E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
+        <v>2.522571833858451E-3</v>
+      </c>
+      <c r="AB118">
+        <f t="shared" si="28"/>
+        <v>541.5899139151694</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2.4095</v>
       </c>
@@ -11015,34 +12306,45 @@
         <v>-0.67800000000000005</v>
       </c>
       <c r="G119" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>3.0835474362341819E-3</v>
       </c>
       <c r="H119">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J119" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.27248316410570439</v>
       </c>
       <c r="K119">
+        <f t="shared" si="33"/>
+        <v>88.366782006920445</v>
+      </c>
+      <c r="M119" s="2">
+        <f t="shared" si="20"/>
+        <v>3.4992756694618848E-2</v>
+      </c>
+      <c r="N119" s="2">
+        <f t="shared" si="21"/>
+        <v>0.45968400000000004</v>
+      </c>
+      <c r="O119">
+        <v>3.4992756694618848E-2</v>
+      </c>
+      <c r="Z119">
+        <v>3.4992756694618848E-2</v>
+      </c>
+      <c r="AA119">
         <f t="shared" si="27"/>
-        <v>88.366782006920445</v>
-      </c>
-      <c r="M119" s="2">
-        <f t="shared" si="16"/>
-        <v>3.4992756694618848E-2</v>
-      </c>
-      <c r="N119" s="2">
-        <f t="shared" si="17"/>
-        <v>0.45968400000000004</v>
-      </c>
-      <c r="O119">
-        <v>3.4216686544561115E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
+        <v>2.6597329501202587E-3</v>
+      </c>
+      <c r="AB119">
+        <f t="shared" si="28"/>
+        <v>602.0874163291021</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2.4095</v>
       </c>
@@ -11062,34 +12364,45 @@
         <v>-0.70799999999999996</v>
       </c>
       <c r="G120" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2.750117026062226E-3</v>
       </c>
       <c r="H120">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J120" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.26500089599232135</v>
       </c>
       <c r="K120">
+        <f t="shared" si="33"/>
+        <v>96.359861591695505</v>
+      </c>
+      <c r="M120" s="2">
+        <f t="shared" si="20"/>
+        <v>3.6797315896359276E-2</v>
+      </c>
+      <c r="N120" s="2">
+        <f t="shared" si="21"/>
+        <v>0.50126399999999993</v>
+      </c>
+      <c r="O120">
+        <v>3.6797315896359276E-2</v>
+      </c>
+      <c r="Z120">
+        <v>3.6797315896359276E-2</v>
+      </c>
+      <c r="AA120">
         <f t="shared" si="27"/>
-        <v>96.359861591695505</v>
-      </c>
-      <c r="M120" s="2">
-        <f t="shared" si="16"/>
-        <v>3.6797315896359276E-2</v>
-      </c>
-      <c r="N120" s="2">
-        <f t="shared" si="17"/>
-        <v>0.50126399999999993</v>
-      </c>
-      <c r="O120">
-        <v>3.5981224191477944E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
+        <v>2.7968940663820651E-3</v>
+      </c>
+      <c r="AB120">
+        <f t="shared" si="28"/>
+        <v>665.78731818036533</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2.4095</v>
       </c>
@@ -11109,34 +12422,45 @@
         <v>-0.73599999999999999</v>
       </c>
       <c r="G121" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2.5040688764888536E-3</v>
       </c>
       <c r="H121">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J121" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.26075434335226955</v>
       </c>
       <c r="K121">
+        <f t="shared" si="33"/>
+        <v>104.13225682429835</v>
+      </c>
+      <c r="M121" s="2">
+        <f t="shared" si="20"/>
+        <v>3.8680334193827555E-2</v>
+      </c>
+      <c r="N121" s="2">
+        <f t="shared" si="21"/>
+        <v>0.54169599999999996</v>
+      </c>
+      <c r="O121">
+        <v>3.8680334193827555E-2</v>
+      </c>
+      <c r="Z121">
+        <v>3.8680334193827555E-2</v>
+      </c>
+      <c r="AA121">
         <f t="shared" si="27"/>
-        <v>104.13225682429835</v>
-      </c>
-      <c r="M121" s="2">
-        <f t="shared" si="16"/>
-        <v>3.8680334193827555E-2</v>
-      </c>
-      <c r="N121" s="2">
-        <f t="shared" si="17"/>
-        <v>0.54169599999999996</v>
-      </c>
-      <c r="O121">
-        <v>3.7822480866521596E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
+        <v>2.9400187094378639E-3</v>
+      </c>
+      <c r="AB121">
+        <f t="shared" si="28"/>
+        <v>735.67105939880094</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2.4095</v>
       </c>
@@ -11156,36 +12480,48 @@
         <v>-0.72199999999999998</v>
       </c>
       <c r="G122" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>3.3097257692337114E-3</v>
       </c>
       <c r="H122">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J122" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.33166226218554906</v>
       </c>
       <c r="K122">
+        <f t="shared" si="33"/>
+        <v>100.20838139177241</v>
+      </c>
+      <c r="M122" s="2">
+        <f t="shared" si="20"/>
+        <v>4.064181158702368E-2</v>
+      </c>
+      <c r="N122" s="2">
+        <f t="shared" si="21"/>
+        <v>0.52128399999999997</v>
+      </c>
+      <c r="O122">
+        <v>4.064181158702368E-2</v>
+      </c>
+      <c r="Z122">
+        <v>4.064181158702368E-2</v>
+      </c>
+      <c r="AA122">
         <f t="shared" si="27"/>
-        <v>100.20838139177241</v>
-      </c>
-      <c r="M122" s="2">
-        <f t="shared" si="16"/>
-        <v>4.064181158702368E-2</v>
-      </c>
-      <c r="N122" s="2">
-        <f t="shared" si="17"/>
-        <v>0.52128399999999997</v>
-      </c>
-      <c r="O122">
-        <v>3.9740456569692058E-2</v>
+        <v>3.0891068792876543E-3</v>
+      </c>
+      <c r="AB122">
+        <f t="shared" si="28"/>
+        <v>812.17450531425322</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -11194,13 +12530,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>1.262658453882196E-4</v>
       </c>
@@ -11208,7 +12544,7 @@
         <v>4.1459708311584553E-4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2.1414946750269079E-4</v>
       </c>
@@ -11216,7 +12552,7 @@
         <v>1.8840551215052203E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3.281211012428037E-4</v>
       </c>
@@ -11224,7 +12560,7 @@
         <v>2.4023936700616677E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>4.4208673983253726E-4</v>
       </c>
@@ -11232,7 +12568,7 @@
         <v>4.7766760937373118E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>6.4952871151909995E-4</v>
       </c>
@@ -11240,7 +12576,7 @@
         <v>9.5286480877065666E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>8.9603766253314361E-4</v>
       </c>
@@ -11248,7 +12584,7 @@
         <v>1.1683447473078009E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1.1521938480655368E-3</v>
       </c>
@@ -11256,7 +12592,7 @@
         <v>1.3279080311204686E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1.4319296435142963E-3</v>
       </c>
@@ -11264,7 +12600,7 @@
         <v>1.7500387987497024E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1.7673949405551204E-3</v>
       </c>
@@ -11272,7 +12608,7 @@
         <v>2.2165983054484303E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2.1242972774212594E-3</v>
       </c>
@@ -11280,7 +12616,7 @@
         <v>2.6475035909530029E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2.5240736918453353E-3</v>
       </c>
@@ -11288,7 +12624,7 @@
         <v>3.0760790730661975E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2.9399250531536069E-3</v>
       </c>
@@ -11296,7 +12632,7 @@
         <v>3.935482591466196E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3.4466286716885509E-3</v>
       </c>
@@ -11304,7 +12640,7 @@
         <v>4.638430000343146E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3.941489183994942E-3</v>
       </c>
@@ -11312,7 +12648,7 @@
         <v>5.537158561492634E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4.5409295288020611E-3</v>
       </c>
@@ -11320,7 +12656,7 @@
         <v>6.721921441756927E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>5.147191168741445E-3</v>
       </c>
@@ -11328,7 +12664,7 @@
         <v>7.0815181516332884E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>5.7784615515627698E-3</v>
       </c>
@@ -11336,7 +12672,7 @@
         <v>7.5129054290117278E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>6.421859571688531E-3</v>
       </c>
@@ -11344,7 +12680,7 @@
         <v>7.9846870192453234E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>7.0925427688555281E-3</v>
       </c>
@@ -11352,7 +12688,7 @@
         <v>8.3101699244583327E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>7.7624564725947472E-3</v>
       </c>
@@ -11360,7 +12696,7 @@
         <v>0.10274479016340386</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>8.5831841190101964E-3</v>
       </c>
@@ -11368,7 +12704,7 @@
         <v>0.11444825078196491</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>9.3357068291218346E-3</v>
       </c>
@@ -11376,7 +12712,7 @@
         <v>0.11722178552979558</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1.017538341006668E-2</v>
       </c>
@@ -11384,7 +12720,7 @@
         <v>0.13587610855842552</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1.1049919930760526E-2</v>
       </c>
@@ -11392,7 +12728,7 @@
         <v>0.14970698471744126</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1.1974727786606723E-2</v>
       </c>
@@ -11400,7 +12736,7 @@
         <v>0.16153784102978225</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1.2919010715185534E-2</v>
       </c>
@@ -11408,7 +12744,7 @@
         <v>0.17234066837754874</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1.3905304863737349E-2</v>
       </c>
@@ -11416,7 +12752,7 @@
         <v>0.18096895662983303</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1.4897325063119865E-2</v>
       </c>
@@ -11424,7 +12760,7 @@
         <v>0.1963036659307224</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1.5965732968007459E-2</v>
       </c>
@@ -11432,7 +12768,7 @@
         <v>0.22415377928862706</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1.7099066382976966E-2</v>
       </c>
@@ -11440,7 +12776,7 @@
         <v>0.23041717164793762</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1.8198023305438762E-2</v>
       </c>
@@ -11448,7 +12784,7 @@
         <v>0.25013772706352083</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1.9424922571429803E-2</v>
       </c>
@@ -11456,7 +12792,7 @@
         <v>0.26780824496621525</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2.0604630613317961E-2</v>
       </c>
@@ -11464,7 +12800,7 @@
         <v>0.28616530470984769</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2.1912644011424731E-2</v>
       </c>
@@ -11472,7 +12808,7 @@
         <v>0.31497844817953868</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2.3214589579882039E-2</v>
       </c>
@@ -11480,7 +12816,7 @@
         <v>0.3144977712467773</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2.4520610733098677E-2</v>
       </c>
@@ -11488,7 +12824,7 @@
         <v>0.3297373380947517</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2.5884995753694493E-2</v>
       </c>
@@ -11497,6 +12833,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11509,9 +12846,9 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>5.7419063172406515E-5</v>
       </c>
@@ -11519,7 +12856,7 @@
         <v>3.8651830718674032E-4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1.1199385074255984E-4</v>
       </c>
@@ -11527,7 +12864,7 @@
         <v>5.1273604694240295E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1.7323244916012248E-4</v>
       </c>
@@ -11535,7 +12872,7 @@
         <v>8.524666741053801E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2.6132504505085868E-4</v>
       </c>
@@ -11543,7 +12880,7 @@
         <v>1.4872222761029888E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3.7047462029857187E-4</v>
       </c>
@@ -11551,7 +12888,7 @@
         <v>2.8062587384956573E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5.322666436702113E-4</v>
       </c>
@@ -11559,7 +12896,7 @@
         <v>7.0661183269098678E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>8.0040911026556185E-4</v>
       </c>
@@ -11567,7 +12904,7 @@
         <v>9.8456869707843116E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1.0397652403481225E-3</v>
       </c>
@@ -11575,7 +12912,7 @@
         <v>1.0343986497439646E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1.3205916922497205E-3</v>
       </c>
@@ -11583,7 +12920,7 @@
         <v>1.6288697176854147E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1.6925274562826695E-3</v>
       </c>
@@ -11591,7 +12928,7 @@
         <v>2.13321021093359E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2.0676055534542847E-3</v>
       </c>
@@ -11599,7 +12936,7 @@
         <v>2.5710432374635009E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2.5126269117278282E-3</v>
       </c>
@@ -11607,7 +12944,7 @@
         <v>2.9483991052224514E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2.9458288812904548E-3</v>
       </c>
@@ -11615,7 +12952,7 @@
         <v>3.4280657030121987E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3.4595973067856581E-3</v>
       </c>
@@ -11623,7 +12960,7 @@
         <v>4.3628287553209646E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4.0141354942945587E-3</v>
       </c>
@@ -11631,7 +12968,7 @@
         <v>5.0371448969735715E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4.6074973053259506E-3</v>
       </c>
@@ -11639,7 +12976,7 @@
         <v>6.3802166097009921E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>5.306037419340953E-3</v>
       </c>
@@ -11647,7 +12984,7 @@
         <v>6.6376751373022735E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>5.9252072705364587E-3</v>
       </c>
@@ -11655,7 +12992,7 @@
         <v>6.9225263981019136E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>6.6517246882250433E-3</v>
       </c>
@@ -11663,7 +13000,7 @@
         <v>8.5936209443419134E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>7.4245465895937208E-3</v>
       </c>
@@ -11671,7 +13008,7 @@
         <v>9.7911707030584383E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>8.2521269044292921E-3</v>
       </c>
@@ -11679,7 +13016,7 @@
         <v>0.10857616203538063</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>9.1098537941198127E-3</v>
       </c>
@@ -11687,7 +13024,7 @@
         <v>0.11603519626779207</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>9.9943617851645534E-3</v>
       </c>
@@ -11695,7 +13032,7 @@
         <v>0.13355006761285274</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1.0978959606795843E-2</v>
       </c>
@@ -11703,7 +13040,7 @@
         <v>0.14166581561740435</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1.1919422214394031E-2</v>
       </c>
@@ -11711,7 +13048,7 @@
         <v>0.15625941248644973</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1.3000744409989322E-2</v>
       </c>
@@ -11719,7 +13056,7 @@
         <v>0.1741953833921448</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1.4054089301143841E-2</v>
       </c>
@@ -11727,7 +13064,7 @@
         <v>0.18039053419330306</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1.5173038927148545E-2</v>
       </c>
@@ -11735,7 +13072,7 @@
         <v>0.19033903601421889</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1.6285480761857655E-2</v>
       </c>
@@ -11743,7 +13080,7 @@
         <v>0.20224803801514601</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1.7473177449713686E-2</v>
       </c>
@@ -11751,7 +13088,7 @@
         <v>0.22098838792181683</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1.8689824515475639E-2</v>
       </c>
@@ -11759,7 +13096,7 @@
         <v>0.23017137974971727</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1.9926968028589519E-2</v>
       </c>
@@ -11767,7 +13104,7 @@
         <v>0.25226160947167914</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2.1258666646787605E-2</v>
       </c>
@@ -11775,7 +13112,7 @@
         <v>0.26182707967715335</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2.2544060774400881E-2</v>
       </c>
@@ -11783,7 +13120,7 @@
         <v>0.28510394634694358</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2.3989614749620448E-2</v>
       </c>
@@ -11791,7 +13128,7 @@
         <v>0.33637589586380012</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2.5510423585658842E-2</v>
       </c>
@@ -11799,7 +13136,7 @@
         <v>0.33544319655070959</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2.6951862152740213E-2</v>
       </c>
@@ -11807,7 +13144,7 @@
         <v>0.37194682219744818</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2.8629688494039941E-2</v>
       </c>
@@ -11816,6 +13153,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11828,9 +13166,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>3.7132009613380224E-5</v>
       </c>
@@ -11838,7 +13176,7 @@
         <v>1.6892099999999998E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.0126911712740062E-4</v>
       </c>
@@ -11846,7 +13184,7 @@
         <v>1.7808400000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.5317279281850152E-4</v>
       </c>
@@ -11854,7 +13192,7 @@
         <v>3.3988899999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.9970613654072518E-4</v>
       </c>
@@ -11862,7 +13200,7 @@
         <v>7.3788100000000004E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6.9200563370390422E-4</v>
       </c>
@@ -11870,7 +13208,7 @@
         <v>1.2321E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9.6665975439791493E-4</v>
       </c>
@@ -11878,7 +13216,7 @@
         <v>1.3923999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.296551575343235E-3</v>
       </c>
@@ -11886,7 +13224,7 @@
         <v>1.7956000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.6494591047266007E-3</v>
       </c>
@@ -11894,7 +13232,7 @@
         <v>2.1608999999999996E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2.0483980509860581E-3</v>
       </c>
@@ -11902,7 +13240,7 @@
         <v>2.7225000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2.4933684141216061E-3</v>
       </c>
@@ -11910,7 +13248,7 @@
         <v>3.4969E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3.0073859025712907E-3</v>
       </c>
@@ -11918,7 +13256,7 @@
         <v>4.3263999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3.5520910022717035E-3</v>
       </c>
@@ -11926,7 +13264,7 @@
         <v>5.0625000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4.1581713244735708E-3</v>
       </c>
@@ -11934,7 +13272,7 @@
         <v>5.2900000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4.73356403542471E-3</v>
       </c>
@@ -11942,7 +13280,7 @@
         <v>6.4008999999999996E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5.4470509970041235E-3</v>
       </c>
@@ -11950,7 +13288,7 @@
         <v>8.008899999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6.1758817642089013E-3</v>
       </c>
@@ -11958,7 +13296,7 @@
         <v>7.7284000000000019E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6.8663530173502683E-3</v>
       </c>
@@ -11966,7 +13304,7 @@
         <v>9.1203999999999993E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7.7486218408086838E-3</v>
       </c>
@@ -11974,7 +13312,7 @@
         <v>0.10562500000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8.5158121220768705E-3</v>
       </c>
@@ -11982,7 +13320,7 @@
         <v>0.11764900000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9.4364404595986932E-3</v>
       </c>
@@ -11990,7 +13328,7 @@
         <v>0.13542399999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.0433787825247337E-2</v>
       </c>
@@ -11998,7 +13336,7 @@
         <v>0.139129</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.135441616276916E-2</v>
       </c>
@@ -12006,7 +13344,7 @@
         <v>0.15840400000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.2428482556544621E-2</v>
       </c>
@@ -12014,7 +13352,7 @@
         <v>0.17139599999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.3502548950320081E-2</v>
       </c>
@@ -12022,7 +13360,7 @@
         <v>0.17977599999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1.4653334372222361E-2</v>
       </c>
@@ -12030,7 +13368,7 @@
         <v>0.189225</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1.5727400765997823E-2</v>
       </c>
@@ -12038,7 +13376,7 @@
         <v>0.20070400000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1.6878186187900102E-2</v>
       </c>
@@ -12046,7 +13384,7 @@
         <v>0.21068100000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1.81056906379292E-2</v>
       </c>
@@ -12054,7 +13392,7 @@
         <v>0.19980900000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1.9179757031704662E-2</v>
       </c>
@@ -12062,7 +13400,7 @@
         <v>0.21715600000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2.048398050986058E-2</v>
       </c>
@@ -12070,7 +13408,7 @@
         <v>0.26936100000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2.1864923016143314E-2</v>
       </c>
@@ -12078,7 +13416,7 @@
         <v>0.272484</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2.3092427466172412E-2</v>
       </c>
@@ -12086,7 +13424,7 @@
         <v>0.25603599999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2.4473369972455149E-2</v>
       </c>
@@ -12094,7 +13432,7 @@
         <v>0.29376400000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2.5931031506864703E-2</v>
       </c>
@@ -12102,7 +13440,7 @@
         <v>0.36844899999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2.7542131097527893E-2</v>
       </c>
@@ -12110,7 +13448,7 @@
         <v>0.39564100000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2.9076511660064266E-2</v>
       </c>
@@ -12118,7 +13456,7 @@
         <v>0.39816099999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3.0764330278854279E-2</v>
       </c>
@@ -12126,7 +13464,7 @@
         <v>0.43692100000000006</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3.2452148897644285E-2</v>
       </c>
@@ -12134,7 +13472,7 @@
         <v>0.44756100000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.4216686544561115E-2</v>
       </c>
@@ -12142,7 +13480,7 @@
         <v>0.45968400000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3.5981224191477944E-2</v>
       </c>
@@ -12150,7 +13488,7 @@
         <v>0.50126399999999993</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3.7822480866521596E-2</v>
       </c>
@@ -12158,7 +13496,7 @@
         <v>0.54169599999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3.9740456569692058E-2</v>
       </c>
@@ -12167,6 +13505,199 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>3.7974202332276949E-5</v>
+      </c>
+      <c r="B1">
+        <v>1.6892099999999998E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.0356600636075532E-4</v>
+      </c>
+      <c r="B2">
+        <v>1.7808400000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.5891501590188834E-4</v>
+      </c>
+      <c r="B3">
+        <v>3.3988899999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4.0877188874207217E-4</v>
+      </c>
+      <c r="B4">
+        <v>7.3788100000000004E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7.0770104346516141E-4</v>
+      </c>
+      <c r="B5">
+        <v>1.2321E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9.8858460617084619E-4</v>
+      </c>
+      <c r="B6">
+        <v>1.3923999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.3259587178005795E-3</v>
+      </c>
+      <c r="B7">
+        <v>1.7956000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.6868705581486662E-3</v>
+      </c>
+      <c r="B8">
+        <v>2.1608999999999996E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2.0948578559334603E-3</v>
+      </c>
+      <c r="B9">
+        <v>2.7225000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.5499206111549606E-3</v>
+      </c>
+      <c r="B10">
+        <v>3.4969E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3.0755965525315217E-3</v>
+      </c>
+      <c r="B11">
+        <v>4.3263999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3.6326561321992209E-3</v>
+      </c>
+      <c r="B12">
+        <v>5.0625000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4.2524829884491959E-3</v>
+      </c>
+      <c r="B13">
+        <v>5.2900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4.8409262064080328E-3</v>
+      </c>
+      <c r="B14">
+        <v>6.4008999999999996E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5.5705957966769902E-3</v>
+      </c>
+      <c r="B15">
+        <v>8.008899999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6.3159572060915185E-3</v>
+      </c>
+      <c r="B16">
+        <v>7.7284000000000019E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7.0220890676421224E-3</v>
+      </c>
+      <c r="B17">
+        <v>9.1203999999999993E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7.9243686685123403E-3</v>
+      </c>
+      <c r="B18">
+        <v>0.10562500000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8.7089596257907895E-3</v>
+      </c>
+      <c r="B19">
+        <v>0.11764900000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9.6504687745249274E-3</v>
+      </c>
+      <c r="B20">
+        <v>0.13542399999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.0670437018986912E-2</v>
+      </c>
+      <c r="B21">
+        <v>0.139129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1.161194616772105E-2</v>
+      </c>
+      <c r="B22">
+        <v>0.15840400000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Experiments/Rolling_motion/Final.xlsx
+++ b/Experiments/Rolling_motion/Final.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
   <si>
     <t>下落高度h(m)</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>Deg of freedom</t>
+  </si>
+  <si>
+    <t>y^</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>X^2</t>
+  </si>
+  <si>
+    <t>(y-y^)^2</t>
   </si>
 </sst>
 </file>
@@ -539,115 +551,115 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>1.262658453882196E-4</c:v>
+                  <c:v>1.2941716757183477E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1414946750269079E-4</c:v>
+                  <c:v>2.1949417465984552E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.281211012428037E-4</c:v>
+                  <c:v>3.363102936731041E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4208673983253726E-4</c:v>
+                  <c:v>4.5312026791000706E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4952871151909995E-4</c:v>
+                  <c:v>6.6573954217731763E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9603766253314361E-4</c:v>
+                  <c:v>9.184008230110509E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1521938480655368E-3</c:v>
+                  <c:v>1.1809501124541379E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4319296435142963E-3</c:v>
+                  <c:v>1.4676675078362641E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7673949405551204E-3</c:v>
+                  <c:v>1.8115052925371316E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1242972774212594E-3</c:v>
+                  <c:v>2.17731513917436E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5240736918453353E-3</c:v>
+                  <c:v>2.5870691075393863E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.9399250531536069E-3</c:v>
+                  <c:v>3.013299218666725E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.4466286716885509E-3</c:v>
+                  <c:v>3.5326490627007163E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.941489183994942E-3</c:v>
+                  <c:v>4.0398602222104863E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5409295288020611E-3</c:v>
+                  <c:v>4.6542613004648542E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.147191168741445E-3</c:v>
+                  <c:v>5.2756539186124916E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.7784615515627698E-3</c:v>
+                  <c:v>5.9226794437300372E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.421859571688531E-3</c:v>
+                  <c:v>6.5821352857274419E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.0925427688555281E-3</c:v>
+                  <c:v>7.2695572837230549E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.7624564725947472E-3</c:v>
+                  <c:v>7.9561905834005919E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.5831841190101964E-3</c:v>
+                  <c:v>8.7974018153090406E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.3357068291218346E-3</c:v>
+                  <c:v>9.5687058633411402E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.017538341006668E-2</c:v>
+                  <c:v>1.0429338954167641E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1049919930760526E-2</c:v>
+                  <c:v>1.1325702013380835E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.1974727786606723E-2</c:v>
+                  <c:v>1.2273591071453566E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2919010715185534E-2</c:v>
+                  <c:v>1.324144125791823E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3905304863737349E-2</c:v>
+                  <c:v>1.4252351173468198E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.4897325063119865E-2</c:v>
+                  <c:v>1.526913004968289E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.5965732968007459E-2</c:v>
+                  <c:v>1.6364203103181891E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.7099066382976966E-2</c:v>
+                  <c:v>1.7525822066955552E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.8198023305438762E-2</c:v>
+                  <c:v>1.8652206575380463E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.9424922571429803E-2</c:v>
+                  <c:v>1.9909726591282862E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.0604630613317961E-2</c:v>
+                  <c:v>2.1118877592279726E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.1912644011424731E-2</c:v>
+                  <c:v>2.2459536173454381E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.3214589579882039E-2</c:v>
+                  <c:v>2.3793975485086057E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.4520610733098677E-2</c:v>
+                  <c:v>2.5132592099250568E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.5884995753694493E-2</c:v>
+                  <c:v>2.6531029216588592E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3731,16 +3743,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>23811</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>633411</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5342,10 +5354,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S122"/>
+  <dimension ref="A1:W122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D38"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5361,9 +5373,10 @@
     <col min="17" max="17" width="10.42578125" customWidth="1"/>
     <col min="18" max="18" width="10.7109375" customWidth="1"/>
     <col min="19" max="19" width="13.7109375" customWidth="1"/>
+    <col min="21" max="23" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1">
+    <row r="1" spans="1:23" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -5400,8 +5413,20 @@
       <c r="N1" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>1.1924999999999999</v>
       </c>
@@ -5445,7 +5470,7 @@
         <v>4.1459708311584553E-4</v>
       </c>
       <c r="O2">
-        <v>1.262658453882196E-4</v>
+        <v>1.2941716757183477E-4</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>26</v>
@@ -5460,8 +5485,23 @@
       <c r="S2" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2">
+        <v>1.2941716757183477E-4</v>
+      </c>
+      <c r="U2">
+        <f>N2*0.0757468</f>
+        <v>3.140440233535933E-5</v>
+      </c>
+      <c r="V2">
+        <f>(T2-U2)^2</f>
+        <v>9.6065021493004489E-9</v>
+      </c>
+      <c r="W2">
+        <f>SUM(V2:V38)</f>
+        <v>7.0080824589100229E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>1.1924999999999999</v>
       </c>
@@ -5497,7 +5537,7 @@
         <v>0.36217899298447143</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M12" si="4">ABS(E3)*SIN(RADIANS(D3))</f>
+        <f t="shared" ref="M3:O12" si="4">ABS(E3)*SIN(RADIANS(D3))</f>
         <v>2.1949417465984552E-4</v>
       </c>
       <c r="N3" s="2">
@@ -5505,7 +5545,7 @@
         <v>1.8840551215052203E-3</v>
       </c>
       <c r="O3">
-        <v>2.1414946750269079E-4</v>
+        <v>2.1949417465984552E-4</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>27</v>
@@ -5519,8 +5559,22 @@
       <c r="S3" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>2.1949417465984552E-4</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U38" si="6">N3*0.0757468</f>
+        <v>1.4271114647763163E-4</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V38" si="7">(T3-U3)^2</f>
+        <v>5.8956334168306523E-9</v>
+      </c>
+      <c r="W3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>1.1924999999999999</v>
       </c>
@@ -5564,7 +5618,7 @@
         <v>2.4023936700616677E-3</v>
       </c>
       <c r="O4">
-        <v>3.281211012428037E-4</v>
+        <v>3.363102936731041E-4</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>28</v>
@@ -5578,8 +5632,23 @@
       <c r="S4" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>3.363102936731041E-4</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="6"/>
+        <v>1.8197363284742715E-4</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="7"/>
+        <v>2.3819804874820046E-8</v>
+      </c>
+      <c r="W4">
+        <f>W2/(2*R4)^2</f>
+        <v>9.0000000000102567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>1.1924999999999999</v>
       </c>
@@ -5623,7 +5692,7 @@
         <v>4.7766760937373118E-3</v>
       </c>
       <c r="O5">
-        <v>4.4208673983253726E-4</v>
+        <v>4.5312026791000706E-4</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>29</v>
@@ -5637,8 +5706,19 @@
       <c r="S5" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>4.5312026791000706E-4</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="6"/>
+        <v>3.6181792873710145E-4</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="7"/>
+        <v>8.3361171384442946E-9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>1.1924999999999999</v>
       </c>
@@ -5682,7 +5762,7 @@
         <v>9.5286480877065666E-3</v>
       </c>
       <c r="O6">
-        <v>6.4952871151909995E-4</v>
+        <v>6.6573954217731763E-4</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>30</v>
@@ -5696,8 +5776,19 @@
       <c r="S6" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6">
+        <v>6.6573954217731763E-4</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="6"/>
+        <v>7.2176460096989175E-4</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="7"/>
+        <v>3.1388072127113876E-9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>1.1924999999999999</v>
       </c>
@@ -5741,10 +5832,21 @@
         <v>1.1683447473078009E-2</v>
       </c>
       <c r="O7">
-        <v>8.9603766253314361E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>9.184008230110509E-4</v>
+      </c>
+      <c r="T7">
+        <v>9.184008230110509E-4</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="6"/>
+        <v>8.8498375905374531E-4</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="7"/>
+        <v>1.1167001635266525E-9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>1.1924999999999999</v>
       </c>
@@ -5788,10 +5890,21 @@
         <v>1.3279080311204686E-2</v>
       </c>
       <c r="O8">
-        <v>1.1521938480655368E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>1.1809501124541379E-3</v>
+      </c>
+      <c r="T8">
+        <v>1.1809501124541379E-3</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="6"/>
+        <v>1.0058478405167591E-3</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="7"/>
+        <v>3.0660805637631745E-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>1.1924999999999999</v>
       </c>
@@ -5835,10 +5948,21 @@
         <v>1.7500387987497024E-2</v>
       </c>
       <c r="O9">
-        <v>1.4319296435142963E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>1.4676675078362641E-3</v>
+      </c>
+      <c r="T9">
+        <v>1.4676675078362641E-3</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="6"/>
+        <v>1.3255983888113396E-3</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="7"/>
+        <v>2.0183634580518183E-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>1.1924999999999999</v>
       </c>
@@ -5882,10 +6006,21 @@
         <v>2.2165983054484303E-2</v>
       </c>
       <c r="O10">
-        <v>1.7673949405551204E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>1.8115052925371316E-3</v>
+      </c>
+      <c r="T10">
+        <v>1.8115052925371316E-3</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="6"/>
+        <v>1.6790022852314116E-3</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="7"/>
+        <v>1.7557046945059691E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>1.1924999999999999</v>
       </c>
@@ -5929,10 +6064,21 @@
         <v>2.6475035909530029E-2</v>
       </c>
       <c r="O11">
-        <v>2.1242972774212594E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>2.17731513917436E-3</v>
+      </c>
+      <c r="T11">
+        <v>2.17731513917436E-3</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="6"/>
+        <v>2.0053992500319892E-3</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="7"/>
+        <v>2.955507293961191E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>1.1924999999999999</v>
       </c>
@@ -5976,10 +6122,21 @@
         <v>3.0760790730661975E-2</v>
       </c>
       <c r="O12">
-        <v>2.5240736918453353E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>2.5870691075393863E-3</v>
+      </c>
+      <c r="T12">
+        <v>2.5870691075393863E-3</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="6"/>
+        <v>2.3300314633173066E-3</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="7"/>
+        <v>6.6068350547236401E-8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>1.1924999999999999</v>
       </c>
@@ -6015,18 +6172,29 @@
         <v>7.5653260120457455</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" ref="M13:O76" si="6">ABS(E13)*SIN(RADIANS(D13))</f>
+        <f t="shared" ref="M13:O76" si="8">ABS(E13)*SIN(RADIANS(D13))</f>
         <v>3.013299218666725E-3</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" ref="N13:N76" si="7">ABS(F13)^2</f>
+        <f t="shared" ref="N13:N76" si="9">ABS(F13)^2</f>
         <v>3.935482591466196E-2</v>
       </c>
       <c r="O13">
-        <v>2.9399250531536069E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>3.013299218666725E-3</v>
+      </c>
+      <c r="T13">
+        <v>3.013299218666725E-3</v>
+      </c>
+      <c r="U13">
+        <f>N13*0.0757468</f>
+        <v>2.9810021275927167E-3</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="7"/>
+        <v>1.0431020918427856E-9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>1.1924999999999999</v>
       </c>
@@ -6062,18 +6230,29 @@
         <v>8.9166282205750598</v>
       </c>
       <c r="M14" s="2">
+        <f t="shared" si="8"/>
+        <v>3.5326490627007163E-3</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="9"/>
+        <v>4.638430000343146E-2</v>
+      </c>
+      <c r="O14">
+        <v>3.5326490627007163E-3</v>
+      </c>
+      <c r="T14">
+        <v>3.5326490627007163E-3</v>
+      </c>
+      <c r="U14">
         <f t="shared" si="6"/>
-        <v>3.5326490627007163E-3</v>
-      </c>
-      <c r="N14" s="2">
+        <v>3.5134622954999225E-3</v>
+      </c>
+      <c r="V14">
         <f t="shared" si="7"/>
-        <v>4.638430000343146E-2</v>
-      </c>
-      <c r="O14">
-        <v>3.4466286716885509E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>3.681320356174571E-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>1.1924999999999999</v>
       </c>
@@ -6109,18 +6288,29 @@
         <v>10.644287892142703</v>
       </c>
       <c r="M15" s="2">
+        <f t="shared" si="8"/>
+        <v>4.0398602222104863E-3</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="9"/>
+        <v>5.537158561492634E-2</v>
+      </c>
+      <c r="O15">
+        <v>4.0398602222104863E-3</v>
+      </c>
+      <c r="T15">
+        <v>4.0398602222104863E-3</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="6"/>
-        <v>4.0398602222104863E-3</v>
-      </c>
-      <c r="N15" s="2">
+        <v>4.1942204212567025E-3</v>
+      </c>
+      <c r="V15">
         <f t="shared" si="7"/>
-        <v>5.537158561492634E-2</v>
-      </c>
-      <c r="O15">
-        <v>3.941489183994942E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>2.3827071049587494E-8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>1.1924999999999999</v>
       </c>
@@ -6156,18 +6346,29 @@
         <v>12.921802079501978</v>
       </c>
       <c r="M16" s="2">
+        <f t="shared" si="8"/>
+        <v>4.6542613004648542E-3</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="9"/>
+        <v>6.721921441756927E-2</v>
+      </c>
+      <c r="O16">
+        <v>4.6542613004648542E-3</v>
+      </c>
+      <c r="T16">
+        <v>4.6542613004648542E-3</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="6"/>
-        <v>4.6542613004648542E-3</v>
-      </c>
-      <c r="N16" s="2">
+        <v>5.0916403906447359E-3</v>
+      </c>
+      <c r="V16">
         <f t="shared" si="7"/>
-        <v>6.721921441756927E-2</v>
-      </c>
-      <c r="O16">
-        <v>4.5409295288020611E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.9130046852658106E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>1.1924999999999999</v>
       </c>
@@ -6203,20 +6404,31 @@
         <v>13.613068342240078</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.2756539186124916E-3</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.0815181516332884E-2</v>
       </c>
       <c r="O17">
-        <v>5.147191168741445E-3</v>
+        <v>5.2756539186124916E-3</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="T17">
+        <v>5.2756539186124916E-3</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="6"/>
+        <v>5.364023391281364E-3</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="7"/>
+        <v>7.8091636997745849E-9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>1.1924999999999999</v>
       </c>
@@ -6252,18 +6464,29 @@
         <v>14.44234030951889</v>
       </c>
       <c r="M18" s="2">
+        <f t="shared" si="8"/>
+        <v>5.9226794437300372E-3</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="9"/>
+        <v>7.5129054290117278E-2</v>
+      </c>
+      <c r="O18">
+        <v>5.9226794437300372E-3</v>
+      </c>
+      <c r="T18">
+        <v>5.9226794437300372E-3</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="6"/>
-        <v>5.9226794437300372E-3</v>
-      </c>
-      <c r="N18" s="2">
+        <v>5.6907854495026559E-3</v>
+      </c>
+      <c r="V18">
         <f t="shared" si="7"/>
-        <v>7.5129054290117278E-2</v>
-      </c>
-      <c r="O18">
-        <v>5.7784615515627698E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>5.377482455872878E-8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>1.1924999999999999</v>
       </c>
@@ -6299,18 +6522,29 @@
         <v>15.349263781709581</v>
       </c>
       <c r="M19" s="2">
+        <f t="shared" si="8"/>
+        <v>6.5821352857274419E-3</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="9"/>
+        <v>7.9846870192453234E-2</v>
+      </c>
+      <c r="O19">
+        <v>6.5821352857274419E-3</v>
+      </c>
+      <c r="T19">
+        <v>6.5821352857274419E-3</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="6"/>
-        <v>6.5821352857274419E-3</v>
-      </c>
-      <c r="N19" s="2">
+        <v>6.0481449070937171E-3</v>
+      </c>
+      <c r="V19">
         <f t="shared" si="7"/>
-        <v>7.9846870192453234E-2</v>
-      </c>
-      <c r="O19">
-        <v>6.421859571688531E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>2.8514572447338886E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20">
         <v>1.1924999999999999</v>
       </c>
@@ -6346,18 +6580,29 @@
         <v>15.974951796344357</v>
       </c>
       <c r="M20" s="2">
+        <f t="shared" si="8"/>
+        <v>7.2695572837230549E-3</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="9"/>
+        <v>8.3101699244583327E-2</v>
+      </c>
+      <c r="O20">
+        <v>7.2695572837230549E-3</v>
+      </c>
+      <c r="T20">
+        <v>7.2695572837230549E-3</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="6"/>
-        <v>7.2695572837230549E-3</v>
-      </c>
-      <c r="N20" s="2">
+        <v>6.2946877923396047E-3</v>
+      </c>
+      <c r="V20">
         <f t="shared" si="7"/>
-        <v>8.3101699244583327E-2</v>
-      </c>
-      <c r="O20">
-        <v>7.0925427688555281E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>9.5037052523022679E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21">
         <v>1.1924999999999999</v>
       </c>
@@ -6393,18 +6638,29 @@
         <v>19.75101694798229</v>
       </c>
       <c r="M21" s="2">
+        <f t="shared" si="8"/>
+        <v>7.9561905834005919E-3</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="9"/>
+        <v>0.10274479016340386</v>
+      </c>
+      <c r="O21">
+        <v>7.9561905834005919E-3</v>
+      </c>
+      <c r="T21">
+        <v>7.9561905834005919E-3</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="6"/>
-        <v>7.9561905834005919E-3</v>
-      </c>
-      <c r="N21" s="2">
+        <v>7.7825890715493198E-3</v>
+      </c>
+      <c r="V21">
         <f t="shared" si="7"/>
-        <v>0.10274479016340386</v>
-      </c>
-      <c r="O21">
-        <v>7.7624564725947472E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>3.0137484917047363E-8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22">
         <v>1.1924999999999999</v>
       </c>
@@ -6440,18 +6696,29 @@
         <v>22.000817143784108</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.7974018153090406E-3</v>
       </c>
       <c r="N22" s="2">
+        <f t="shared" si="9"/>
+        <v>0.11444825078196491</v>
+      </c>
+      <c r="O22">
+        <v>8.7974018153090406E-3</v>
+      </c>
+      <c r="T22">
+        <v>8.7974018153090406E-3</v>
+      </c>
+      <c r="U22">
+        <f>N22*0.0757468</f>
+        <v>8.6690887623313406E-3</v>
+      </c>
+      <c r="V22">
         <f t="shared" si="7"/>
-        <v>0.11444825078196491</v>
-      </c>
-      <c r="O22">
-        <v>8.5831841190101964E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.6464239564458059E-8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23">
         <v>1.1924999999999999</v>
       </c>
@@ -6487,18 +6754,29 @@
         <v>22.53398414644283</v>
       </c>
       <c r="M23" s="2">
+        <f t="shared" si="8"/>
+        <v>9.5687058633411402E-3</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="9"/>
+        <v>0.11722178552979558</v>
+      </c>
+      <c r="O23">
+        <v>9.5687058633411402E-3</v>
+      </c>
+      <c r="T23">
+        <v>9.5687058633411402E-3</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="6"/>
-        <v>9.5687058633411402E-3</v>
-      </c>
-      <c r="N23" s="2">
+        <v>8.8791751441683192E-3</v>
+      </c>
+      <c r="V23">
         <f t="shared" si="7"/>
-        <v>0.11722178552979558</v>
-      </c>
-      <c r="O23">
-        <v>9.3357068291218346E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>4.7545261268298769E-7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24">
         <v>1.1924999999999999</v>
       </c>
@@ -6534,18 +6812,29 @@
         <v>26.119974732492413</v>
       </c>
       <c r="M24" s="2">
+        <f t="shared" si="8"/>
+        <v>1.0429338954167641E-2</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="9"/>
+        <v>0.13587610855842552</v>
+      </c>
+      <c r="O24">
+        <v>1.0429338954167641E-2</v>
+      </c>
+      <c r="T24">
+        <v>1.0429338954167641E-2</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="6"/>
-        <v>1.0429338954167641E-2</v>
-      </c>
-      <c r="N24" s="2">
+        <v>1.0292180419753346E-2</v>
+      </c>
+      <c r="V24">
         <f t="shared" si="7"/>
-        <v>0.13587610855842552</v>
-      </c>
-      <c r="O24">
-        <v>1.017538341006668E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.881246356267711E-8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25">
         <v>1.1924999999999999</v>
       </c>
@@ -6581,15 +6870,15 @@
         <v>28.778736008735351</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1325702013380835E-2</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.14970698471744126</v>
       </c>
       <c r="O25">
-        <v>1.1049919930760526E-2</v>
+        <v>1.1325702013380835E-2</v>
       </c>
       <c r="Q25">
         <f>(Q2*A2*9.8-0.5*A2)*2*B2^2</f>
@@ -6599,8 +6888,19 @@
         <f>((Q2+Q3)*A2*9.8-0.5*A2)*2*B2^2</f>
         <v>1.5302630222283702E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="T25">
+        <v>1.1325702013380835E-2</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="6"/>
+        <v>1.1339825029995081E-2</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="7"/>
+        <v>1.9945959828626864E-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26">
         <v>1.1924999999999999</v>
       </c>
@@ -6636,22 +6936,33 @@
         <v>31.053025957282252</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2273591071453566E-2</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.16153784102978225</v>
       </c>
       <c r="O26">
-        <v>1.1974727786606723E-2</v>
+        <v>1.2273591071453566E-2</v>
       </c>
       <c r="R26">
         <f>R25-Q25</f>
         <v>2.7067032217386504E-5</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="T26">
+        <v>1.2273591071453566E-2</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="6"/>
+        <v>1.2235974536914711E-2</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="7"/>
+        <v>1.4150036707128624E-9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27">
         <v>1.1924999999999999</v>
       </c>
@@ -6687,18 +6998,29 @@
         <v>33.12969403643767</v>
       </c>
       <c r="M27" s="2">
+        <f t="shared" si="8"/>
+        <v>1.324144125791823E-2</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="9"/>
+        <v>0.17234066837754874</v>
+      </c>
+      <c r="O27">
+        <v>1.324144125791823E-2</v>
+      </c>
+      <c r="T27">
+        <v>1.324144125791823E-2</v>
+      </c>
+      <c r="U27">
         <f t="shared" si="6"/>
-        <v>1.324144125791823E-2</v>
-      </c>
-      <c r="N27" s="2">
+        <v>1.305425413946051E-2</v>
+      </c>
+      <c r="V27">
         <f t="shared" si="7"/>
-        <v>0.17234066837754874</v>
-      </c>
-      <c r="O27">
-        <v>1.2919010715185534E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>3.5039017316504292E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28">
         <v>1.1924999999999999</v>
       </c>
@@ -6734,18 +7056,29 @@
         <v>34.788342297161293</v>
       </c>
       <c r="M28" s="2">
+        <f t="shared" si="8"/>
+        <v>1.4252351173468198E-2</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="9"/>
+        <v>0.18096895662983303</v>
+      </c>
+      <c r="O28">
+        <v>1.4252351173468198E-2</v>
+      </c>
+      <c r="T28">
+        <v>1.4252351173468198E-2</v>
+      </c>
+      <c r="U28">
         <f t="shared" si="6"/>
-        <v>1.4252351173468198E-2</v>
-      </c>
-      <c r="N28" s="2">
+        <v>1.3707819364048638E-2</v>
+      </c>
+      <c r="V28">
         <f t="shared" si="7"/>
-        <v>0.18096895662983303</v>
-      </c>
-      <c r="O28">
-        <v>1.3905304863737349E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>2.9651489146974002E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29">
         <v>1.1924999999999999</v>
       </c>
@@ -6781,18 +7114,29 @@
         <v>37.736191067036224</v>
       </c>
       <c r="M29" s="2">
+        <f t="shared" si="8"/>
+        <v>1.526913004968289E-2</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="9"/>
+        <v>0.1963036659307224</v>
+      </c>
+      <c r="O29">
+        <v>1.526913004968289E-2</v>
+      </c>
+      <c r="T29">
+        <v>1.526913004968289E-2</v>
+      </c>
+      <c r="U29">
         <f t="shared" si="6"/>
-        <v>1.526913004968289E-2</v>
-      </c>
-      <c r="N29" s="2">
+        <v>1.4869374522521244E-2</v>
+      </c>
+      <c r="V29">
         <f t="shared" si="7"/>
-        <v>0.1963036659307224</v>
-      </c>
-      <c r="O29">
-        <v>1.4897325063119865E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>1.5980448149628536E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30">
         <v>1.1924999999999999</v>
       </c>
@@ -6812,34 +7156,45 @@
         <v>-0.47344881379999998</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" ref="G30:G38" si="8">(A30*9.8*ABS(E30)*SIN(RADIANS(D30))-0.5*A30*ABS(F30)^2)/(0.5*(ABS(F30)/B30)^2)</f>
+        <f t="shared" ref="G30:G38" si="10">(A30*9.8*ABS(E30)*SIN(RADIANS(D30))-0.5*A30*ABS(F30)^2)/(0.5*(ABS(F30)/B30)^2)</f>
         <v>1.3364741613699996E-3</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H38" si="9">0.5*A30*(POWER(B30,2)+POWER(C30,2))</f>
+        <f t="shared" ref="H30:H38" si="11">0.5*A30*(POWER(B30,2)+POWER(C30,2))</f>
         <v>1.5508462499999997E-3</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" ref="J30:J38" si="10">A30*9.8*ABS(E30)*SIN(RADIANS(D30))-A30*ABS(F30)^2/2</f>
+        <f t="shared" ref="J30:J38" si="12">A30*9.8*ABS(E30)*SIN(RADIANS(D30))-A30*ABS(F30)^2/2</f>
         <v>5.758856866449133E-2</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="K30:K38" si="11">(ABS(F30)/B30)^2/2</f>
+        <f t="shared" ref="K30:K38" si="13">(ABS(F30)/B30)^2/2</f>
         <v>43.089922969747619</v>
       </c>
       <c r="M30" s="2">
+        <f t="shared" si="8"/>
+        <v>1.6364203103181891E-2</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="9"/>
+        <v>0.22415377928862706</v>
+      </c>
+      <c r="O30">
+        <v>1.6364203103181891E-2</v>
+      </c>
+      <c r="T30">
+        <v>1.6364203103181891E-2</v>
+      </c>
+      <c r="U30">
         <f t="shared" si="6"/>
-        <v>1.6364203103181891E-2</v>
-      </c>
-      <c r="N30" s="2">
+        <v>1.6978931489019779E-2</v>
+      </c>
+      <c r="V30">
         <f t="shared" si="7"/>
-        <v>0.22415377928862706</v>
-      </c>
-      <c r="O30">
-        <v>1.5965732968007459E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>3.7789098835485507E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31">
         <v>1.1924999999999999</v>
       </c>
@@ -6859,34 +7214,45 @@
         <v>-0.48001788680000002</v>
       </c>
       <c r="G31" s="2">
+        <f t="shared" si="10"/>
+        <v>1.5223132772759446E-3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="11"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="12"/>
+        <v>6.7429280990393275E-2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="13"/>
+        <v>44.293958409830381</v>
+      </c>
+      <c r="M31" s="2">
         <f t="shared" si="8"/>
-        <v>1.5223132772759446E-3</v>
-      </c>
-      <c r="H31">
+        <v>1.7525822066955552E-2</v>
+      </c>
+      <c r="N31" s="2">
         <f t="shared" si="9"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J31" s="2">
-        <f t="shared" si="10"/>
-        <v>6.7429280990393275E-2</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="11"/>
-        <v>44.293958409830381</v>
-      </c>
-      <c r="M31" s="2">
+        <v>0.23041717164793762</v>
+      </c>
+      <c r="O31">
+        <v>1.7525822066955552E-2</v>
+      </c>
+      <c r="T31">
+        <v>1.7525822066955552E-2</v>
+      </c>
+      <c r="U31">
         <f t="shared" si="6"/>
-        <v>1.7525822066955552E-2</v>
-      </c>
-      <c r="N31" s="2">
+        <v>1.7453363417382003E-2</v>
+      </c>
+      <c r="V31">
         <f t="shared" si="7"/>
-        <v>0.23041717164793762</v>
-      </c>
-      <c r="O31">
-        <v>1.7099066382976966E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>5.250255898022324E-9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32">
         <v>1.1924999999999999</v>
       </c>
@@ -6906,34 +7272,45 @@
         <v>-0.50013770810000002</v>
       </c>
       <c r="G32" s="2">
+        <f t="shared" si="10"/>
+        <v>1.4315174019229079E-3</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="11"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="12"/>
+        <v>6.8834392381559556E-2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="13"/>
+        <v>48.08491485265683</v>
+      </c>
+      <c r="M32" s="2">
         <f t="shared" si="8"/>
-        <v>1.4315174019229079E-3</v>
-      </c>
-      <c r="H32">
+        <v>1.8652206575380463E-2</v>
+      </c>
+      <c r="N32" s="2">
         <f t="shared" si="9"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J32" s="2">
-        <f t="shared" si="10"/>
-        <v>6.8834392381559556E-2</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="11"/>
-        <v>48.08491485265683</v>
-      </c>
-      <c r="M32" s="2">
+        <v>0.25013772706352083</v>
+      </c>
+      <c r="O32">
+        <v>1.8652206575380463E-2</v>
+      </c>
+      <c r="T32">
+        <v>1.8652206575380463E-2</v>
+      </c>
+      <c r="U32">
         <f t="shared" si="6"/>
-        <v>1.8652206575380463E-2</v>
-      </c>
-      <c r="N32" s="2">
+        <v>1.89471323843351E-2</v>
+      </c>
+      <c r="V32">
         <f t="shared" si="7"/>
-        <v>0.25013772706352083</v>
-      </c>
-      <c r="O32">
-        <v>1.8198023305438762E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>8.698123278754725E-8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33">
         <v>1.1924999999999999</v>
       </c>
@@ -6953,34 +7330,45 @@
         <v>-0.51750192750000001</v>
       </c>
       <c r="G33" s="2">
+        <f t="shared" si="10"/>
+        <v>1.4178675800089321E-3</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="11"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="12"/>
+        <v>7.2994353747921376E-2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="13"/>
+        <v>51.481784883932207</v>
+      </c>
+      <c r="M33" s="2">
         <f t="shared" si="8"/>
-        <v>1.4178675800089321E-3</v>
-      </c>
-      <c r="H33">
+        <v>1.9909726591282862E-2</v>
+      </c>
+      <c r="N33" s="2">
         <f t="shared" si="9"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J33" s="2">
-        <f t="shared" si="10"/>
-        <v>7.2994353747921376E-2</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="11"/>
-        <v>51.481784883932207</v>
-      </c>
-      <c r="M33" s="2">
-        <f t="shared" si="6"/>
+        <v>0.26780824496621525</v>
+      </c>
+      <c r="O33">
         <v>1.9909726591282862E-2</v>
       </c>
-      <c r="N33" s="2">
+      <c r="T33">
+        <v>1.9909726591282862E-2</v>
+      </c>
+      <c r="U33">
+        <f>N33*0.0757468</f>
+        <v>2.0285617569806912E-2</v>
+      </c>
+      <c r="V33">
         <f t="shared" si="7"/>
-        <v>0.26780824496621525</v>
-      </c>
-      <c r="O33">
-        <v>1.9424922571429803E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>1.4129402773576798E-7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34">
         <v>1.1924999999999999</v>
       </c>
@@ -7000,34 +7388,45 @@
         <v>-0.53494420710000001</v>
       </c>
       <c r="G34" s="2">
+        <f t="shared" si="10"/>
+        <v>1.3848177718691086E-3</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="11"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="12"/>
+        <v>7.6179700048930377E-2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="13"/>
+        <v>55.010631432112206</v>
+      </c>
+      <c r="M34" s="2">
         <f t="shared" si="8"/>
-        <v>1.3848177718691086E-3</v>
-      </c>
-      <c r="H34">
+        <v>2.1118877592279726E-2</v>
+      </c>
+      <c r="N34" s="2">
         <f t="shared" si="9"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J34" s="2">
-        <f t="shared" si="10"/>
-        <v>7.6179700048930377E-2</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="11"/>
-        <v>55.010631432112206</v>
-      </c>
-      <c r="M34" s="2">
+        <v>0.28616530470984769</v>
+      </c>
+      <c r="O34">
+        <v>2.1118877592279726E-2</v>
+      </c>
+      <c r="T34">
+        <v>2.1118877592279726E-2</v>
+      </c>
+      <c r="U34">
         <f t="shared" si="6"/>
-        <v>2.1118877592279726E-2</v>
-      </c>
-      <c r="N34" s="2">
+        <v>2.167610610279589E-2</v>
+      </c>
+      <c r="V34">
         <f t="shared" si="7"/>
-        <v>0.28616530470984769</v>
-      </c>
-      <c r="O34">
-        <v>2.0604630613317961E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>3.1050361293206262E-7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35">
         <v>1.1924999999999999</v>
       </c>
@@ -7047,34 +7446,45 @@
         <v>-0.56122940779999997</v>
       </c>
       <c r="G35" s="2">
+        <f t="shared" si="10"/>
+        <v>1.2331643004700305E-3</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="11"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="12"/>
+        <v>7.4667469764024719E-2</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="13"/>
+        <v>60.549490230591829</v>
+      </c>
+      <c r="M35" s="2">
         <f t="shared" si="8"/>
-        <v>1.2331643004700305E-3</v>
-      </c>
-      <c r="H35">
+        <v>2.2459536173454381E-2</v>
+      </c>
+      <c r="N35" s="2">
         <f t="shared" si="9"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" si="10"/>
-        <v>7.4667469764024719E-2</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="11"/>
-        <v>60.549490230591829</v>
-      </c>
-      <c r="M35" s="2">
+        <v>0.31497844817953868</v>
+      </c>
+      <c r="O35">
+        <v>2.2459536173454381E-2</v>
+      </c>
+      <c r="T35">
+        <v>2.2459536173454381E-2</v>
+      </c>
+      <c r="U35">
         <f t="shared" si="6"/>
-        <v>2.2459536173454381E-2</v>
-      </c>
-      <c r="N35" s="2">
+        <v>2.3858609518565881E-2</v>
+      </c>
+      <c r="V35">
         <f t="shared" si="7"/>
-        <v>0.31497844817953868</v>
-      </c>
-      <c r="O35">
-        <v>2.1912644011424731E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>1.9574062250014799E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36">
         <v>1.1924999999999999</v>
       </c>
@@ -7094,34 +7504,45 @@
         <v>-0.56080100860000004</v>
       </c>
       <c r="G36" s="2">
+        <f t="shared" si="10"/>
+        <v>1.4977399929176063E-3</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="11"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="12"/>
+        <v>9.0548998400567321E-2</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="13"/>
+        <v>60.457087898265534</v>
+      </c>
+      <c r="M36" s="2">
         <f t="shared" si="8"/>
-        <v>1.4977399929176063E-3</v>
-      </c>
-      <c r="H36">
+        <v>2.3793975485086057E-2</v>
+      </c>
+      <c r="N36" s="2">
         <f t="shared" si="9"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J36" s="2">
-        <f t="shared" si="10"/>
-        <v>9.0548998400567321E-2</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="11"/>
-        <v>60.457087898265534</v>
-      </c>
-      <c r="M36" s="2">
+        <v>0.3144977712467773</v>
+      </c>
+      <c r="O36">
+        <v>2.3793975485086057E-2</v>
+      </c>
+      <c r="T36">
+        <v>2.3793975485086057E-2</v>
+      </c>
+      <c r="U36">
         <f t="shared" si="6"/>
-        <v>2.3793975485086057E-2</v>
-      </c>
-      <c r="N36" s="2">
+        <v>2.3822199779075393E-2</v>
+      </c>
+      <c r="V36">
         <f t="shared" si="7"/>
-        <v>0.3144977712467773</v>
-      </c>
-      <c r="O36">
-        <v>2.3214589579882039E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>7.9661077119650509E-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37">
         <v>1.1924999999999999</v>
       </c>
@@ -7141,34 +7562,45 @@
         <v>-0.57422760129999995</v>
       </c>
       <c r="G37" s="2">
+        <f t="shared" si="10"/>
+        <v>1.5319653934507149E-3</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="11"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="12"/>
+        <v>9.7106149728896141E-2</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="13"/>
+        <v>63.386647077038006</v>
+      </c>
+      <c r="M37" s="2">
         <f t="shared" si="8"/>
-        <v>1.5319653934507149E-3</v>
-      </c>
-      <c r="H37">
+        <v>2.5132592099250568E-2</v>
+      </c>
+      <c r="N37" s="2">
         <f t="shared" si="9"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" si="10"/>
-        <v>9.7106149728896141E-2</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="11"/>
-        <v>63.386647077038006</v>
-      </c>
-      <c r="M37" s="2">
+        <v>0.3297373380947517</v>
+      </c>
+      <c r="O37">
+        <v>2.5132592099250568E-2</v>
+      </c>
+      <c r="T37">
+        <v>2.5132592099250568E-2</v>
+      </c>
+      <c r="U37">
         <f t="shared" si="6"/>
-        <v>2.5132592099250568E-2</v>
-      </c>
-      <c r="N37" s="2">
+        <v>2.4976548201195541E-2</v>
+      </c>
+      <c r="V37">
         <f t="shared" si="7"/>
-        <v>0.3297373380947517</v>
-      </c>
-      <c r="O37">
-        <v>2.4520610733098677E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>2.4349698120207884E-8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38">
         <v>1.1924999999999999</v>
       </c>
@@ -7188,34 +7620,45 @@
         <v>-0.57877113739999997</v>
       </c>
       <c r="G38" s="2">
+        <f t="shared" si="10"/>
+        <v>1.71329516195545E-3</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="11"/>
+        <v>1.5508462499999997E-3</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="12"/>
+        <v>0.11032541535786611</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="13"/>
+        <v>64.393700401247528</v>
+      </c>
+      <c r="M38" s="2">
         <f t="shared" si="8"/>
-        <v>1.71329516195545E-3</v>
-      </c>
-      <c r="H38">
+        <v>2.6531029216588592E-2</v>
+      </c>
+      <c r="N38" s="2">
         <f t="shared" si="9"/>
-        <v>1.5508462499999997E-3</v>
-      </c>
-      <c r="J38" s="2">
-        <f t="shared" si="10"/>
-        <v>0.11032541535786611</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="11"/>
-        <v>64.393700401247528</v>
-      </c>
-      <c r="M38" s="2">
+        <v>0.33497602948728966</v>
+      </c>
+      <c r="O38">
+        <v>2.6531029216588592E-2</v>
+      </c>
+      <c r="T38">
+        <v>2.6531029216588592E-2</v>
+      </c>
+      <c r="U38">
         <f t="shared" si="6"/>
-        <v>2.6531029216588592E-2</v>
-      </c>
-      <c r="N38" s="2">
+        <v>2.5373362310367832E-2</v>
+      </c>
+      <c r="V38">
         <f t="shared" si="7"/>
-        <v>0.33497602948728966</v>
-      </c>
-      <c r="O38">
-        <v>2.5884995753694493E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>1.3401926657587455E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="2"/>
@@ -7223,7 +7666,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:19" s="5" customFormat="1">
+    <row r="40" spans="1:22" s="5" customFormat="1">
       <c r="A40" s="5" t="s">
         <v>16</v>
       </c>
@@ -7261,7 +7704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:22">
       <c r="A41" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7281,27 +7724,27 @@
         <v>-1.966006885E-2</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" ref="G41:G78" si="12">(A41*9.8*ABS(E41)*SIN(RADIANS(D41))-0.5*A41*ABS(F41)^2)/(0.5*(ABS(F41)/B41)^2)</f>
+        <f t="shared" ref="G41:G78" si="14">(A41*9.8*ABS(E41)*SIN(RADIANS(D41))-0.5*A41*ABS(F41)^2)/(0.5*(ABS(F41)/B41)^2)</f>
         <v>2.2419130140241394E-3</v>
       </c>
       <c r="H41">
-        <f t="shared" ref="H41:H78" si="13">0.5*A41*(POWER(B41,2)+POWER(C41,2))</f>
+        <f t="shared" ref="H41:H78" si="15">0.5*A41*(POWER(B41,2)+POWER(C41,2))</f>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" ref="J41:J78" si="14">A41*9.8*ABS(E41)*SIN(RADIANS(D41))-A41*ABS(F41)^2/2</f>
+        <f t="shared" ref="J41:J78" si="16">A41*9.8*ABS(E41)*SIN(RADIANS(D41))-A41*ABS(F41)^2/2</f>
         <v>3.8607281044354328E-4</v>
       </c>
       <c r="K41">
-        <f t="shared" ref="K41:K78" si="15">(ABS(F41)/B41)^2/2</f>
+        <f t="shared" ref="K41:K78" si="17">(ABS(F41)/B41)^2/2</f>
         <v>0.17220686441824024</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.7419063172406515E-5</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.8651830718674032E-4</v>
       </c>
       <c r="O41" s="2">
@@ -7321,7 +7764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:22">
       <c r="A42" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7341,27 +7784,27 @@
         <v>-2.264367565E-2</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.8479259834107533E-3</v>
       </c>
       <c r="H42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.7902444092714978E-4</v>
       </c>
       <c r="K42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.22844109910554816</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1199385074255984E-4</v>
       </c>
       <c r="N42" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.1273604694240295E-4</v>
       </c>
       <c r="O42" s="2">
@@ -7380,7 +7823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:22">
       <c r="A43" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7400,27 +7843,27 @@
         <v>-2.919703194E-2</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.4982911711286279E-3</v>
       </c>
       <c r="H43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.3286596746287531E-3</v>
       </c>
       <c r="K43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.37980248345082646</v>
       </c>
       <c r="M43" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7323244916012248E-4</v>
       </c>
       <c r="N43" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.524666741053801E-4</v>
       </c>
       <c r="O43" s="2">
@@ -7439,7 +7882,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:22">
       <c r="A44" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7459,27 +7902,27 @@
         <v>-3.856452095E-2</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.8661862054272544E-3</v>
       </c>
       <c r="H44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.8991561471020319E-3</v>
       </c>
       <c r="K44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.66260738520961859</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6132504505085868E-4</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4872222761029888E-3</v>
       </c>
       <c r="O44" s="2">
@@ -7498,7 +7941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:22">
       <c r="A45" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7518,27 +7961,27 @@
         <v>-5.2974132729999998E-2</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.8617877732670163E-3</v>
       </c>
       <c r="H45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.3277603956136936E-3</v>
       </c>
       <c r="K45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.250282351746784</v>
       </c>
       <c r="M45" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.7047462029857187E-4</v>
       </c>
       <c r="N45" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.8062587384956573E-3</v>
       </c>
       <c r="O45" s="2">
@@ -7557,7 +8000,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:22">
       <c r="A46" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7577,34 +8020,34 @@
         <v>-8.4060206560000003E-2</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.5870020881278984E-4</v>
       </c>
       <c r="H46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.7588958720162278E-3</v>
       </c>
       <c r="K46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.1481926161327092</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.322666436702113E-4</v>
       </c>
       <c r="N46" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.0661183269098678E-3</v>
       </c>
       <c r="O46" s="2">
         <v>5.322666436702113E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:22">
       <c r="A47" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7624,34 +8067,34 @@
         <v>-9.9225435099999995E-2</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.9589879262986183E-4</v>
       </c>
       <c r="H47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.0526182559948156E-3</v>
       </c>
       <c r="K47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.3865836359030119</v>
       </c>
       <c r="M47" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.0040911026556185E-4</v>
       </c>
       <c r="N47" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.8456869707843116E-3</v>
       </c>
       <c r="O47" s="2">
         <v>8.0040911026556185E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:22">
       <c r="A48" s="4">
         <v>1.0449999999999999</v>
       </c>
@@ -7671,27 +8114,27 @@
         <v>-0.1017053907</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1377665874200357E-3</v>
       </c>
       <c r="H48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.243502881492907E-3</v>
       </c>
       <c r="K48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.6085927812161476</v>
       </c>
       <c r="M48" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0397652403481225E-3</v>
       </c>
       <c r="N48" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0343986497439646E-2</v>
       </c>
       <c r="O48" s="2">
@@ -7718,27 +8161,27 @@
         <v>-0.12762718040000001</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.9081221390385823E-4</v>
       </c>
       <c r="H49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J49" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.0133352454230957E-3</v>
       </c>
       <c r="K49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.257160693630718</v>
       </c>
       <c r="M49" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3205916922497205E-3</v>
       </c>
       <c r="N49" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.6288697176854147E-2</v>
       </c>
       <c r="O49" s="2">
@@ -7765,27 +8208,27 @@
         <v>-0.14605513379999999</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.509934576190492E-4</v>
       </c>
       <c r="H50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J50" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.1871503276628142E-3</v>
       </c>
       <c r="K50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.5041666782516785</v>
       </c>
       <c r="M50" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6925274562826695E-3</v>
       </c>
       <c r="N50" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.13321021093359E-2</v>
       </c>
       <c r="O50" s="2">
@@ -7812,27 +8255,27 @@
         <v>-0.1603447298</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.7575228564524948E-4</v>
       </c>
       <c r="H51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.7406475571785358E-3</v>
       </c>
       <c r="K51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>11.454859601084877</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0676055534542847E-3</v>
       </c>
       <c r="N51" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.5710432374635009E-2</v>
       </c>
       <c r="O51" s="2">
@@ -7859,27 +8302,27 @@
         <v>-0.1717090302</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.8611016694126313E-4</v>
       </c>
       <c r="H52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J52" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.0326426878217382E-2</v>
       </c>
       <c r="K52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>13.136106505780576</v>
       </c>
       <c r="M52" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5126269117278282E-3</v>
       </c>
       <c r="N52" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.9483991052224514E-2</v>
       </c>
       <c r="O52" s="2">
@@ -7906,27 +8349,27 @@
         <v>-0.18515036330000001</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8.0249094549711777E-4</v>
       </c>
       <c r="H53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J53" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.2256590275056812E-2</v>
       </c>
       <c r="K53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>15.27318201386589</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.9458288812904548E-3</v>
       </c>
       <c r="N53" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.4280657030121987E-2</v>
       </c>
       <c r="O53" s="2">
@@ -7953,27 +8396,27 @@
         <v>-0.20887385559999999</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.4996623340322381E-4</v>
       </c>
       <c r="H54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.2633955772239885E-2</v>
       </c>
       <c r="K54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>19.437864804281418</v>
       </c>
       <c r="M54" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.4595973067856581E-3</v>
       </c>
       <c r="N54" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.3628287553209646E-2</v>
       </c>
       <c r="O54" s="2">
@@ -8000,27 +8443,27 @@
         <v>-0.22443584599999999</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.5901291981893743E-4</v>
       </c>
       <c r="H55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J55" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.4789679510383666E-2</v>
       </c>
       <c r="K55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>22.442169289256274</v>
       </c>
       <c r="M55" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.0141354942945587E-3</v>
       </c>
       <c r="N55" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.0371448969735715E-2</v>
       </c>
       <c r="O55" s="2">
@@ -8047,27 +8490,27 @@
         <v>-0.2525909066</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.8718589121155985E-4</v>
       </c>
       <c r="H56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J56" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.3848748118155375E-2</v>
       </c>
       <c r="K56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>28.426004053022904</v>
       </c>
       <c r="M56" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.6074973053259506E-3</v>
       </c>
       <c r="N56" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.3802166097009921E-2</v>
       </c>
       <c r="O56" s="2">
@@ -8094,27 +8537,27 @@
         <v>-0.25763685949999998</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.6470196957283149E-4</v>
       </c>
       <c r="H57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J57" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.965727661906632E-2</v>
       </c>
       <c r="K57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>29.573068110056909</v>
       </c>
       <c r="M57" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.306037419340953E-3</v>
       </c>
       <c r="N57" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.6376751373022735E-2</v>
       </c>
       <c r="O57" s="2">
@@ -8141,27 +8584,27 @@
         <v>-0.26310694400000001</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.9468605734989714E-4</v>
       </c>
       <c r="H58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J58" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.4509847227481375E-2</v>
       </c>
       <c r="K58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>30.842175977286317</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.9252072705364587E-3</v>
       </c>
       <c r="N58" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.9225263981019136E-2</v>
       </c>
       <c r="O58" s="2">
@@ -8188,27 +8631,27 @@
         <v>-0.29314878379999998</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.0642940584443143E-4</v>
       </c>
       <c r="H59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J59" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.3218643097926164E-2</v>
       </c>
       <c r="K59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>38.287462438591724</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.6517246882250433E-3</v>
       </c>
       <c r="N59" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.5936209443419134E-2</v>
       </c>
       <c r="O59" s="2">
@@ -8235,27 +8678,27 @@
         <v>-0.31290846430000002</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7024836190366337E-4</v>
       </c>
       <c r="H60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J60" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.4875914700548958E-2</v>
       </c>
       <c r="K60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>43.622948108970533</v>
       </c>
       <c r="M60" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.4245465895937208E-3</v>
       </c>
       <c r="N60" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.7911707030584383E-2</v>
       </c>
       <c r="O60" s="2">
@@ -8282,27 +8725,27 @@
         <v>-0.32950897109999999</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7425069254260334E-4</v>
       </c>
       <c r="H61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J61" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.7778986964773995E-2</v>
       </c>
       <c r="K61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>48.374320354368727</v>
       </c>
       <c r="M61" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.2521269044292921E-3</v>
       </c>
       <c r="N61" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.10857616203538063</v>
       </c>
       <c r="O61" s="2">
@@ -8329,27 +8772,27 @@
         <v>-0.34063939329999998</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.3185992189318985E-4</v>
       </c>
       <c r="H62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J62" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.2665622655659636E-2</v>
       </c>
       <c r="K62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>51.697570179457372</v>
       </c>
       <c r="M62" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.1098537941198127E-3</v>
       </c>
       <c r="N62" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.11603519626779207</v>
       </c>
       <c r="O62" s="2">
@@ -8384,27 +8827,27 @@
         <v>-0.36544502680000002</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.4742493205510142E-4</v>
       </c>
       <c r="H63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.2572348714154639E-2</v>
       </c>
       <c r="K63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>59.501032574227089</v>
       </c>
       <c r="M63" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.9943617851645534E-3</v>
       </c>
       <c r="N63" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.13355006761285274</v>
       </c>
       <c r="O63" s="2">
@@ -8435,27 +8878,27 @@
         <v>-0.37638519580000002</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.0863500405517433E-4</v>
       </c>
       <c r="H64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J64" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.8415136673102465E-2</v>
       </c>
       <c r="K64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>63.116870402051397</v>
       </c>
       <c r="M64" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0978959606795843E-2</v>
       </c>
       <c r="N64" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.14166581561740435</v>
       </c>
       <c r="O64" s="2">
@@ -8482,27 +8925,27 @@
         <v>-0.39529661329999999</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.8060833803404892E-4</v>
       </c>
       <c r="H65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J65" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.0421259873439294E-2</v>
       </c>
       <c r="K65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>69.618807077945974</v>
       </c>
       <c r="M65" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1919422214394031E-2</v>
       </c>
       <c r="N65" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.15625941248644973</v>
       </c>
       <c r="O65" s="2">
@@ -8529,27 +8972,27 @@
         <v>-0.41736720449999998</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.4275993997845572E-4</v>
       </c>
       <c r="H66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J66" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.2123535680304997E-2</v>
       </c>
       <c r="K66">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>77.609883444929721</v>
       </c>
       <c r="M66" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3000744409989322E-2</v>
       </c>
       <c r="N66" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.1741953833921448</v>
       </c>
       <c r="O66" s="2">
@@ -8576,27 +9019,27 @@
         <v>-0.42472406829999998</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.1806464306775875E-4</v>
       </c>
       <c r="H67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J67" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.9673874417013222E-2</v>
       </c>
       <c r="K67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>80.370030827936304</v>
       </c>
       <c r="M67" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4054089301143841E-2</v>
       </c>
       <c r="N67" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.18039053419330306</v>
       </c>
       <c r="O67" s="2">
@@ -8623,27 +9066,27 @@
         <v>-0.436278622</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.5959136619851645E-4</v>
       </c>
       <c r="H68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J68" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.5934945335498878E-2</v>
       </c>
       <c r="K68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>84.802421926584472</v>
       </c>
       <c r="M68" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5173038927148545E-2</v>
       </c>
       <c r="N68" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.19033903601421889</v>
       </c>
       <c r="O68" s="2">
@@ -8670,27 +9113,27 @@
         <v>-0.44971995510000001</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.7812866414892743E-4</v>
       </c>
       <c r="H69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J69" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.1105008619270415E-2</v>
       </c>
       <c r="K69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>90.10828158393673</v>
       </c>
       <c r="M69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6285480761857655E-2</v>
       </c>
       <c r="N69" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.20224803801514601</v>
       </c>
       <c r="O69" s="2">
@@ -8717,27 +9160,27 @@
         <v>-0.47009402030000003</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.4470685904922313E-4</v>
       </c>
       <c r="H70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J70" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.3476377573368589E-2</v>
       </c>
       <c r="K70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>98.457735763785621</v>
       </c>
       <c r="M70" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7473177449713686E-2</v>
       </c>
       <c r="N70" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.22098838792181683</v>
       </c>
       <c r="O70" s="2">
@@ -8764,29 +9207,29 @@
         <v>-0.47976179479999997</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.936966797908878E-4</v>
       </c>
       <c r="H71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="I71"/>
       <c r="J71" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.1137946943758731E-2</v>
       </c>
       <c r="K71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>102.54906649575285</v>
       </c>
       <c r="L71"/>
       <c r="M71" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8689824515475639E-2</v>
       </c>
       <c r="N71" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.23017137974971727</v>
       </c>
       <c r="O71" s="2">
@@ -8813,27 +9256,27 @@
         <v>-0.50225651760000001</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.4298196274831449E-4</v>
       </c>
       <c r="H72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J72" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.2265388631832933E-2</v>
       </c>
       <c r="K72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>112.39100444271735</v>
       </c>
       <c r="M72" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9926968028589519E-2</v>
       </c>
       <c r="N72" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.25226160947167914</v>
       </c>
       <c r="O72" s="2">
@@ -8860,27 +9303,27 @@
         <v>-0.51169041390000003</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.9355725833404808E-4</v>
       </c>
       <c r="H73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J73" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.0905355998439205E-2</v>
       </c>
       <c r="K73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>116.65274211501594</v>
       </c>
       <c r="M73" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1258666646787605E-2</v>
       </c>
       <c r="N73" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.26182707967715335</v>
       </c>
       <c r="O73" s="2">
@@ -8907,27 +9350,27 @@
         <v>-0.53395125840000002</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.4481769467253825E-4</v>
       </c>
       <c r="H74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J74" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.1906914424361404E-2</v>
       </c>
       <c r="K74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>127.02336660590045</v>
       </c>
       <c r="M74" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.2544060774400881E-2</v>
       </c>
       <c r="N74" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.28510394634694358</v>
       </c>
       <c r="O74" s="2">
@@ -8954,27 +9397,27 @@
         <v>-0.57997922020000003</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.66556085036086E-4</v>
       </c>
       <c r="H75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J75" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.992123906202749E-2</v>
       </c>
       <c r="K75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>149.86673907943864</v>
       </c>
       <c r="M75" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.3989614749620448E-2</v>
       </c>
       <c r="N75" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33637589586380012</v>
       </c>
       <c r="O75" s="2">
@@ -9001,27 +9444,27 @@
         <v>-0.57917458209999995</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.7532614889376258E-4</v>
       </c>
       <c r="H76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J76" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.5983177742986472E-2</v>
       </c>
       <c r="K76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>149.45119026540854</v>
       </c>
       <c r="M76" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5510423585658842E-2</v>
       </c>
       <c r="N76" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33544319655070959</v>
       </c>
       <c r="O76" s="2">
@@ -9048,27 +9491,27 @@
         <v>-0.60987443149999998</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.9284563537525653E-4</v>
       </c>
       <c r="H77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J77" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.1671805708045858E-2</v>
       </c>
       <c r="K77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>165.71477932610745</v>
       </c>
       <c r="M77" s="2">
-        <f t="shared" ref="M77:O122" si="16">ABS(E77)*SIN(RADIANS(D77))</f>
+        <f t="shared" ref="M77:M122" si="18">ABS(E77)*SIN(RADIANS(D77))</f>
         <v>2.6951862152740213E-2</v>
       </c>
       <c r="N77" s="2">
-        <f t="shared" ref="N77:N122" si="17">ABS(F77)^2</f>
+        <f t="shared" ref="N77:N122" si="19">ABS(F77)^2</f>
         <v>0.37194682219744818</v>
       </c>
       <c r="O77" s="2">
@@ -9095,27 +9538,27 @@
         <v>-0.63024849679999995</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.8399105278445711E-4</v>
       </c>
       <c r="H78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.8637562500000009E-4</v>
       </c>
       <c r="J78" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.5652759734463429E-2</v>
       </c>
       <c r="K78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>176.97178334535957</v>
       </c>
       <c r="M78" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.8629688494039941E-2</v>
       </c>
       <c r="N78" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.39721316771865955</v>
       </c>
       <c r="O78" s="2">
@@ -9186,27 +9629,27 @@
         <v>-4.1099999999999998E-2</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" ref="G81:G115" si="18">(A81*9.8*ABS(E81)*SIN(RADIANS(D81))-0.5*A81*ABS(F81)^2)/(0.5*(ABS(F81)/B81)^2)</f>
+        <f t="shared" ref="G81:G115" si="20">(A81*9.8*ABS(E81)*SIN(RADIANS(D81))-0.5*A81*ABS(F81)^2)/(0.5*(ABS(F81)/B81)^2)</f>
         <v>-3.5057155406023584E-3</v>
       </c>
       <c r="H81">
-        <f t="shared" ref="H81" si="19">0.5*A81*(POWER(B81,2)+POWER(C81,2))</f>
+        <f t="shared" ref="H81" si="21">0.5*A81*(POWER(B81,2)+POWER(C81,2))</f>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J81" s="2">
-        <f t="shared" ref="J81:J115" si="20">A81*9.8*ABS(E81)*SIN(RADIANS(D81))-A81*ABS(F81)^2/2</f>
+        <f t="shared" ref="J81:J115" si="22">A81*9.8*ABS(E81)*SIN(RADIANS(D81))-A81*ABS(F81)^2/2</f>
         <v>-1.1383871104077106E-3</v>
       </c>
       <c r="K81">
-        <f t="shared" ref="K81:K115" si="21">(ABS(F81)/B81)^2/2</f>
+        <f t="shared" ref="K81:K115" si="23">(ABS(F81)/B81)^2/2</f>
         <v>0.32472318339100348</v>
       </c>
       <c r="M81" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.7974202332276949E-5</v>
       </c>
       <c r="N81" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.6892099999999998E-3</v>
       </c>
       <c r="O81">
@@ -9240,27 +9683,27 @@
         <v>-4.2200000000000001E-2</v>
       </c>
       <c r="G82" s="2">
+        <f t="shared" si="20"/>
+        <v>8.7646670329439181E-4</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ref="H82:H112" si="24">0.5*A82*(POWER(B82,2)+POWER(C82,2))</f>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J82" s="2">
+        <f t="shared" si="22"/>
+        <v>3.0004747479715202E-4</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="23"/>
+        <v>0.3423375624759708</v>
+      </c>
+      <c r="M82" s="2">
         <f t="shared" si="18"/>
-        <v>8.7646670329439181E-4</v>
-      </c>
-      <c r="H82">
-        <f t="shared" ref="H82:H112" si="22">0.5*A82*(POWER(B82,2)+POWER(C82,2))</f>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J82" s="2">
-        <f t="shared" si="20"/>
-        <v>3.0004747479715202E-4</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="21"/>
-        <v>0.3423375624759708</v>
-      </c>
-      <c r="M82" s="2">
-        <f t="shared" si="16"/>
         <v>1.0356600636075532E-4</v>
       </c>
       <c r="N82" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.7808400000000001E-3</v>
       </c>
       <c r="O82">
@@ -9293,27 +9736,27 @@
         <v>-5.8299999999999998E-2</v>
       </c>
       <c r="G83" s="2">
+        <f t="shared" si="20"/>
+        <v>3.0900381613503114E-3</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J83" s="2">
+        <f t="shared" si="22"/>
+        <v>2.0189734344928795E-3</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="23"/>
+        <v>0.65338139177239518</v>
+      </c>
+      <c r="M83" s="2">
         <f t="shared" si="18"/>
-        <v>3.0900381613503114E-3</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J83" s="2">
-        <f t="shared" si="20"/>
-        <v>2.0189734344928795E-3</v>
-      </c>
-      <c r="K83">
-        <f t="shared" si="21"/>
-        <v>0.65338139177239518</v>
-      </c>
-      <c r="M83" s="2">
-        <f t="shared" si="16"/>
         <v>2.5891501590188834E-4</v>
       </c>
       <c r="N83" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.3988899999999999E-3</v>
       </c>
       <c r="O83">
@@ -9346,27 +9789,27 @@
         <v>-8.5900000000000004E-2</v>
       </c>
       <c r="G84" s="2">
+        <f t="shared" si="20"/>
+        <v>5.3773253692198633E-4</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J84" s="2">
+        <f t="shared" si="22"/>
+        <v>7.6275013855542535E-4</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="23"/>
+        <v>1.4184563629373321</v>
+      </c>
+      <c r="M84" s="2">
         <f t="shared" si="18"/>
-        <v>5.3773253692198633E-4</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J84" s="2">
-        <f t="shared" si="20"/>
-        <v>7.6275013855542535E-4</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="21"/>
-        <v>1.4184563629373321</v>
-      </c>
-      <c r="M84" s="2">
-        <f t="shared" si="16"/>
         <v>4.0877188874207217E-4</v>
       </c>
       <c r="N84" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>7.3788100000000004E-3</v>
       </c>
       <c r="O84">
@@ -9399,27 +9842,27 @@
         <v>-0.111</v>
       </c>
       <c r="G85" s="2">
+        <f t="shared" si="20"/>
+        <v>7.8838134328742474E-4</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J85" s="2">
+        <f t="shared" si="22"/>
+        <v>1.8672907594472054E-3</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="23"/>
+        <v>2.3685121107266442</v>
+      </c>
+      <c r="M85" s="2">
         <f t="shared" si="18"/>
-        <v>7.8838134328742474E-4</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J85" s="2">
-        <f t="shared" si="20"/>
-        <v>1.8672907594472054E-3</v>
-      </c>
-      <c r="K85">
-        <f t="shared" si="21"/>
-        <v>2.3685121107266442</v>
-      </c>
-      <c r="M85" s="2">
-        <f t="shared" si="16"/>
         <v>7.0770104346516141E-4</v>
       </c>
       <c r="N85" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.2321E-2</v>
       </c>
       <c r="O85">
@@ -9452,27 +9895,27 @@
         <v>-0.11799999999999999</v>
       </c>
       <c r="G86" s="2">
+        <f t="shared" si="20"/>
+        <v>2.4540289908780949E-3</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J86" s="2">
+        <f t="shared" si="22"/>
+        <v>6.568608163972818E-3</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="23"/>
+        <v>2.6766628219915423</v>
+      </c>
+      <c r="M86" s="2">
         <f t="shared" si="18"/>
-        <v>2.4540289908780949E-3</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J86" s="2">
-        <f t="shared" si="20"/>
-        <v>6.568608163972818E-3</v>
-      </c>
-      <c r="K86">
-        <f t="shared" si="21"/>
-        <v>2.6766628219915423</v>
-      </c>
-      <c r="M86" s="2">
-        <f t="shared" si="16"/>
         <v>9.8858460617084619E-4</v>
       </c>
       <c r="N86" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.3923999999999999E-2</v>
       </c>
       <c r="O86">
@@ -9499,27 +9942,27 @@
         <v>-0.13400000000000001</v>
       </c>
       <c r="G87" s="2">
+        <f t="shared" si="20"/>
+        <v>2.803652259185913E-3</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" si="22"/>
+        <v>9.6775047992968613E-3</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="23"/>
+        <v>3.4517493271818545</v>
+      </c>
+      <c r="M87" s="2">
         <f t="shared" si="18"/>
-        <v>2.803652259185913E-3</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J87" s="2">
-        <f t="shared" si="20"/>
-        <v>9.6775047992968613E-3</v>
-      </c>
-      <c r="K87">
-        <f t="shared" si="21"/>
-        <v>3.4517493271818545</v>
-      </c>
-      <c r="M87" s="2">
-        <f t="shared" si="16"/>
         <v>1.3259587178005795E-3</v>
       </c>
       <c r="N87" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.7956000000000003E-2</v>
       </c>
       <c r="O87">
@@ -9546,27 +9989,27 @@
         <v>-0.14699999999999999</v>
       </c>
       <c r="G88" s="2">
+        <f t="shared" si="20"/>
+        <v>3.3218270081576502E-3</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J88" s="2">
+        <f t="shared" si="22"/>
+        <v>1.3798800426620274E-2</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="23"/>
+        <v>4.1539792387543253</v>
+      </c>
+      <c r="M88" s="2">
         <f t="shared" si="18"/>
-        <v>3.3218270081576502E-3</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J88" s="2">
-        <f t="shared" si="20"/>
-        <v>1.3798800426620274E-2</v>
-      </c>
-      <c r="K88">
-        <f t="shared" si="21"/>
-        <v>4.1539792387543253</v>
-      </c>
-      <c r="M88" s="2">
-        <f t="shared" si="16"/>
         <v>1.6868705581486662E-3</v>
       </c>
       <c r="N88" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.1608999999999996E-2</v>
       </c>
       <c r="O88">
@@ -9593,27 +10036,27 @@
         <v>-0.16500000000000001</v>
       </c>
       <c r="G89" s="2">
+        <f t="shared" si="20"/>
+        <v>3.184592611051472E-3</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J89" s="2">
+        <f t="shared" si="22"/>
+        <v>1.6666769287942397E-2</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="23"/>
+        <v>5.2335640138408319</v>
+      </c>
+      <c r="M89" s="2">
         <f t="shared" si="18"/>
-        <v>3.184592611051472E-3</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J89" s="2">
-        <f t="shared" si="20"/>
-        <v>1.6666769287942397E-2</v>
-      </c>
-      <c r="K89">
-        <f t="shared" si="21"/>
-        <v>5.2335640138408319</v>
-      </c>
-      <c r="M89" s="2">
-        <f t="shared" si="16"/>
         <v>2.0948578559334603E-3</v>
       </c>
       <c r="N89" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.7225000000000003E-2</v>
       </c>
       <c r="O89">
@@ -9640,27 +10083,27 @@
         <v>-0.187</v>
       </c>
       <c r="G90" s="2">
+        <f t="shared" si="20"/>
+        <v>2.6899776644523777E-3</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J90" s="2">
+        <f t="shared" si="22"/>
+        <v>1.808262763326321E-2</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="23"/>
+        <v>6.7222222222222232</v>
+      </c>
+      <c r="M90" s="2">
         <f t="shared" si="18"/>
-        <v>2.6899776644523777E-3</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J90" s="2">
-        <f t="shared" si="20"/>
-        <v>1.808262763326321E-2</v>
-      </c>
-      <c r="K90">
-        <f t="shared" si="21"/>
-        <v>6.7222222222222232</v>
-      </c>
-      <c r="M90" s="2">
-        <f t="shared" si="16"/>
         <v>2.5499206111549606E-3</v>
       </c>
       <c r="N90" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.4969E-2</v>
       </c>
       <c r="O90">
@@ -9687,27 +10130,27 @@
         <v>-0.20799999999999999</v>
       </c>
       <c r="G91" s="2">
+        <f t="shared" si="20"/>
+        <v>2.4651382649254826E-3</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J91" s="2">
+        <f t="shared" si="22"/>
+        <v>2.0502064954582094E-2</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="23"/>
+        <v>8.3168012302960381</v>
+      </c>
+      <c r="M91" s="2">
         <f t="shared" si="18"/>
-        <v>2.4651382649254826E-3</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J91" s="2">
-        <f t="shared" si="20"/>
-        <v>2.0502064954582094E-2</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="21"/>
-        <v>8.3168012302960381</v>
-      </c>
-      <c r="M91" s="2">
-        <f t="shared" si="16"/>
         <v>3.0755965525315217E-3</v>
       </c>
       <c r="N91" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.3263999999999997E-2</v>
       </c>
       <c r="O91">
@@ -9734,27 +10177,27 @@
         <v>-0.22500000000000001</v>
       </c>
       <c r="G92" s="2">
+        <f t="shared" si="20"/>
+        <v>2.5470845468986516E-3</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J92" s="2">
+        <f t="shared" si="22"/>
+        <v>2.4787803765233422E-2</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="23"/>
+        <v>9.7318339100346041</v>
+      </c>
+      <c r="M92" s="2">
         <f t="shared" si="18"/>
-        <v>2.5470845468986516E-3</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J92" s="2">
-        <f t="shared" si="20"/>
-        <v>2.4787803765233422E-2</v>
-      </c>
-      <c r="K92">
-        <f t="shared" si="21"/>
-        <v>9.7318339100346041</v>
-      </c>
-      <c r="M92" s="2">
-        <f t="shared" si="16"/>
         <v>3.6326561321992209E-3</v>
       </c>
       <c r="N92" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0625000000000003E-2</v>
       </c>
       <c r="O92">
@@ -9781,27 +10224,27 @@
         <v>-0.23</v>
       </c>
       <c r="G93" s="2">
+        <f t="shared" si="20"/>
+        <v>3.6072802938708422E-3</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J93" s="2">
+        <f t="shared" si="22"/>
+        <v>3.6683031054549717E-2</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="23"/>
+        <v>10.169165705497889</v>
+      </c>
+      <c r="M93" s="2">
         <f t="shared" si="18"/>
-        <v>3.6072802938708422E-3</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J93" s="2">
-        <f t="shared" si="20"/>
-        <v>3.6683031054549717E-2</v>
-      </c>
-      <c r="K93">
-        <f t="shared" si="21"/>
-        <v>10.169165705497889</v>
-      </c>
-      <c r="M93" s="2">
-        <f t="shared" si="16"/>
         <v>4.2524829884491959E-3</v>
       </c>
       <c r="N93" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.2900000000000003E-2</v>
       </c>
       <c r="O93">
@@ -9828,27 +10271,27 @@
         <v>-0.253</v>
       </c>
       <c r="G94" s="2">
+        <f t="shared" si="20"/>
+        <v>3.0227848350588742E-3</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J94" s="2">
+        <f t="shared" si="22"/>
+        <v>3.7194431854533541E-2</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="23"/>
+        <v>12.304690503652441</v>
+      </c>
+      <c r="M94" s="2">
         <f t="shared" si="18"/>
-        <v>3.0227848350588742E-3</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J94" s="2">
-        <f t="shared" si="20"/>
-        <v>3.7194431854533541E-2</v>
-      </c>
-      <c r="K94">
-        <f t="shared" si="21"/>
-        <v>12.304690503652441</v>
-      </c>
-      <c r="M94" s="2">
-        <f t="shared" si="16"/>
         <v>4.8409262064080328E-3</v>
       </c>
       <c r="N94" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.4008999999999996E-2</v>
       </c>
       <c r="O94">
@@ -9875,27 +10318,27 @@
         <v>-0.28299999999999997</v>
       </c>
       <c r="G95" s="2">
+        <f t="shared" si="20"/>
+        <v>2.2767112896850163E-3</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J95" s="2">
+        <f t="shared" si="22"/>
+        <v>3.5051812856513501E-2</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="23"/>
+        <v>15.395809304113801</v>
+      </c>
+      <c r="M95" s="2">
         <f t="shared" si="18"/>
-        <v>2.2767112896850163E-3</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J95" s="2">
-        <f t="shared" si="20"/>
-        <v>3.5051812856513501E-2</v>
-      </c>
-      <c r="K95">
-        <f t="shared" si="21"/>
-        <v>15.395809304113801</v>
-      </c>
-      <c r="M95" s="2">
-        <f t="shared" si="16"/>
         <v>5.5705957966769902E-3</v>
       </c>
       <c r="N95" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>8.008899999999998E-2</v>
       </c>
       <c r="O95">
@@ -9922,27 +10365,27 @@
         <v>-0.27800000000000002</v>
       </c>
       <c r="G96" s="2">
+        <f t="shared" si="20"/>
+        <v>3.7714856813394261E-3</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J96" s="2">
+        <f t="shared" si="22"/>
+        <v>5.6031430103159613E-2</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="23"/>
+        <v>14.856593617839298</v>
+      </c>
+      <c r="M96" s="2">
         <f t="shared" si="18"/>
-        <v>3.7714856813394261E-3</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J96" s="2">
-        <f t="shared" si="20"/>
-        <v>5.6031430103159613E-2</v>
-      </c>
-      <c r="K96">
-        <f t="shared" si="21"/>
-        <v>14.856593617839298</v>
-      </c>
-      <c r="M96" s="2">
-        <f t="shared" si="16"/>
         <v>6.3159572060915185E-3</v>
       </c>
       <c r="N96" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>7.7284000000000019E-2</v>
       </c>
       <c r="O96">
@@ -9969,27 +10412,27 @@
         <v>-0.30199999999999999</v>
       </c>
       <c r="G97" s="2">
+        <f t="shared" si="20"/>
+        <v>3.1903785670919613E-3</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J97" s="2">
+        <f t="shared" si="22"/>
+        <v>5.5935272363140193E-2</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="23"/>
+        <v>17.532487504805847</v>
+      </c>
+      <c r="M97" s="2">
         <f t="shared" si="18"/>
-        <v>3.1903785670919613E-3</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J97" s="2">
-        <f t="shared" si="20"/>
-        <v>5.5935272363140193E-2</v>
-      </c>
-      <c r="K97">
-        <f t="shared" si="21"/>
-        <v>17.532487504805847</v>
-      </c>
-      <c r="M97" s="2">
-        <f t="shared" si="16"/>
         <v>7.0220890676421224E-3</v>
       </c>
       <c r="N97" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.1203999999999993E-2</v>
       </c>
       <c r="O97">
@@ -10016,27 +10459,27 @@
         <v>-0.32500000000000001</v>
       </c>
       <c r="G98" s="2">
+        <f t="shared" si="20"/>
+        <v>2.9484414473433958E-3</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J98" s="2">
+        <f t="shared" si="22"/>
+        <v>5.9867191056448721E-2</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="23"/>
+        <v>20.304690503652445</v>
+      </c>
+      <c r="M98" s="2">
         <f t="shared" si="18"/>
-        <v>2.9484414473433958E-3</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J98" s="2">
-        <f t="shared" si="20"/>
-        <v>5.9867191056448721E-2</v>
-      </c>
-      <c r="K98">
-        <f t="shared" si="21"/>
-        <v>20.304690503652445</v>
-      </c>
-      <c r="M98" s="2">
-        <f t="shared" si="16"/>
         <v>7.9243686685123403E-3</v>
       </c>
       <c r="N98" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.10562500000000001</v>
       </c>
       <c r="O98">
@@ -10063,27 +10506,27 @@
         <v>-0.34300000000000003</v>
       </c>
       <c r="G99" s="2">
+        <f t="shared" si="20"/>
+        <v>2.8257690682482127E-3</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J99" s="2">
+        <f t="shared" si="22"/>
+        <v>6.3907901789760496E-2</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="23"/>
+        <v>22.616109188773557</v>
+      </c>
+      <c r="M99" s="2">
         <f t="shared" si="18"/>
-        <v>2.8257690682482127E-3</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J99" s="2">
-        <f t="shared" si="20"/>
-        <v>6.3907901789760496E-2</v>
-      </c>
-      <c r="K99">
-        <f t="shared" si="21"/>
-        <v>22.616109188773557</v>
-      </c>
-      <c r="M99" s="2">
-        <f t="shared" si="16"/>
         <v>8.7089596257907895E-3</v>
       </c>
       <c r="N99" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.11764900000000002</v>
       </c>
       <c r="O99">
@@ -10110,27 +10553,27 @@
         <v>-0.36799999999999999</v>
       </c>
       <c r="G100" s="2">
+        <f t="shared" si="20"/>
+        <v>2.4862774396197094E-3</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J100" s="2">
+        <f t="shared" si="22"/>
+        <v>6.4725420219734625E-2</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="23"/>
+        <v>26.033064206074588</v>
+      </c>
+      <c r="M100" s="2">
         <f t="shared" si="18"/>
-        <v>2.4862774396197094E-3</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J100" s="2">
-        <f t="shared" si="20"/>
-        <v>6.4725420219734625E-2</v>
-      </c>
-      <c r="K100">
-        <f t="shared" si="21"/>
-        <v>26.033064206074588</v>
-      </c>
-      <c r="M100" s="2">
-        <f t="shared" si="16"/>
         <v>9.6504687745249274E-3</v>
       </c>
       <c r="N100" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.13542399999999999</v>
       </c>
       <c r="O100">
@@ -10157,27 +10600,27 @@
         <v>-0.373</v>
       </c>
       <c r="G101" s="2">
+        <f t="shared" si="20"/>
+        <v>3.1536929591030874E-3</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J101" s="2">
+        <f t="shared" si="22"/>
+        <v>8.4346433623039896E-2</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="23"/>
+        <v>26.745290272971939</v>
+      </c>
+      <c r="M101" s="2">
         <f t="shared" si="18"/>
-        <v>3.1536929591030874E-3</v>
-      </c>
-      <c r="H101">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J101" s="2">
-        <f t="shared" si="20"/>
-        <v>8.4346433623039896E-2</v>
-      </c>
-      <c r="K101">
-        <f t="shared" si="21"/>
-        <v>26.745290272971939</v>
-      </c>
-      <c r="M101" s="2">
-        <f t="shared" si="16"/>
         <v>1.0670437018986912E-2</v>
       </c>
       <c r="N101" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.139129</v>
       </c>
       <c r="O101">
@@ -10204,27 +10647,27 @@
         <v>-0.39800000000000002</v>
       </c>
       <c r="G102" s="2">
+        <f t="shared" si="20"/>
+        <v>2.7374448519594118E-3</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J102" s="2">
+        <f t="shared" si="22"/>
+        <v>8.3356827053013977E-2</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="23"/>
+        <v>30.450595924644372</v>
+      </c>
+      <c r="M102" s="2">
         <f t="shared" si="18"/>
-        <v>2.7374448519594118E-3</v>
-      </c>
-      <c r="H102">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J102" s="2">
-        <f t="shared" si="20"/>
-        <v>8.3356827053013977E-2</v>
-      </c>
-      <c r="K102">
-        <f t="shared" si="21"/>
-        <v>30.450595924644372</v>
-      </c>
-      <c r="M102" s="2">
-        <f t="shared" si="16"/>
         <v>1.161194616772105E-2</v>
       </c>
       <c r="N102" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.15840400000000002</v>
       </c>
       <c r="O102">
@@ -10259,27 +10702,27 @@
         <v>-0.41399999999999998</v>
       </c>
       <c r="G103" s="2">
+        <f t="shared" si="20"/>
+        <v>2.8421061770026249E-3</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J103" s="2">
+        <f t="shared" si="22"/>
+        <v>9.3641989679650484E-2</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="23"/>
+        <v>32.948096885813143</v>
+      </c>
+      <c r="M103" s="2">
         <f t="shared" si="18"/>
-        <v>2.8421061770026249E-3</v>
-      </c>
-      <c r="H103">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J103" s="2">
-        <f t="shared" si="20"/>
-        <v>9.3641989679650484E-2</v>
-      </c>
-      <c r="K103">
-        <f t="shared" si="21"/>
-        <v>32.948096885813143</v>
-      </c>
-      <c r="M103" s="2">
-        <f t="shared" si="16"/>
         <v>1.2710373507910881E-2</v>
       </c>
       <c r="N103" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.17139599999999999</v>
       </c>
       <c r="O103">
@@ -10310,27 +10753,27 @@
         <v>-0.42399999999999999</v>
       </c>
       <c r="G104" s="2">
+        <f t="shared" si="20"/>
+        <v>3.1680143918615634E-3</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J104" s="2">
+        <f t="shared" si="22"/>
+        <v>0.10948345930628692</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="23"/>
+        <v>34.55901576316802</v>
+      </c>
+      <c r="M104" s="2">
         <f t="shared" si="18"/>
-        <v>3.1680143918615634E-3</v>
-      </c>
-      <c r="H104">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J104" s="2">
-        <f t="shared" si="20"/>
-        <v>0.10948345930628692</v>
-      </c>
-      <c r="K104">
-        <f t="shared" si="21"/>
-        <v>34.55901576316802</v>
-      </c>
-      <c r="M104" s="2">
-        <f t="shared" si="16"/>
         <v>1.3808800848100709E-2</v>
       </c>
       <c r="N104" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.17977599999999999</v>
       </c>
       <c r="O104">
@@ -10357,27 +10800,27 @@
         <v>-0.435</v>
       </c>
       <c r="G105" s="2">
+        <f t="shared" si="20"/>
+        <v>3.4608444467688539E-3</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J105" s="2">
+        <f t="shared" si="22"/>
+        <v>0.12588971365625459</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="23"/>
+        <v>36.37543252595156</v>
+      </c>
+      <c r="M105" s="2">
         <f t="shared" si="18"/>
-        <v>3.4608444467688539E-3</v>
-      </c>
-      <c r="H105">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J105" s="2">
-        <f t="shared" si="20"/>
-        <v>0.12588971365625459</v>
-      </c>
-      <c r="K105">
-        <f t="shared" si="21"/>
-        <v>36.37543252595156</v>
-      </c>
-      <c r="M105" s="2">
-        <f t="shared" si="16"/>
         <v>1.4985687284018384E-2</v>
       </c>
       <c r="N105" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.189225</v>
       </c>
       <c r="O105">
@@ -10404,27 +10847,27 @@
         <v>-0.44800000000000001</v>
       </c>
       <c r="G106" s="2">
+        <f t="shared" si="20"/>
+        <v>3.5767291289515828E-3</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J106" s="2">
+        <f t="shared" si="22"/>
+        <v>0.13799766303289093</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="23"/>
+        <v>38.582083813917734</v>
+      </c>
+      <c r="M106" s="2">
         <f t="shared" si="18"/>
-        <v>3.5767291289515828E-3</v>
-      </c>
-      <c r="H106">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J106" s="2">
-        <f t="shared" si="20"/>
-        <v>0.13799766303289093</v>
-      </c>
-      <c r="K106">
-        <f t="shared" si="21"/>
-        <v>38.582083813917734</v>
-      </c>
-      <c r="M106" s="2">
-        <f t="shared" si="16"/>
         <v>1.6084114624208213E-2</v>
       </c>
       <c r="N106" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.20070400000000002</v>
       </c>
       <c r="O106">
@@ -10451,27 +10894,27 @@
         <v>-0.45900000000000002</v>
       </c>
       <c r="G107" s="2">
+        <f t="shared" si="20"/>
+        <v>3.7967360341446556E-3</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J107" s="2">
+        <f t="shared" si="22"/>
+        <v>0.15376780938285861</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="23"/>
+        <v>40.500000000000014</v>
+      </c>
+      <c r="M107" s="2">
         <f t="shared" si="18"/>
-        <v>3.7967360341446556E-3</v>
-      </c>
-      <c r="H107">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J107" s="2">
-        <f t="shared" si="20"/>
-        <v>0.15376780938285861</v>
-      </c>
-      <c r="K107">
-        <f t="shared" si="21"/>
-        <v>40.500000000000014</v>
-      </c>
-      <c r="M107" s="2">
-        <f t="shared" si="16"/>
         <v>1.7261001060125888E-2</v>
       </c>
       <c r="N107" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.21068100000000001</v>
       </c>
       <c r="O107">
@@ -10498,27 +10941,27 @@
         <v>-0.44700000000000001</v>
       </c>
       <c r="G108" s="2">
+        <f t="shared" si="20"/>
+        <v>5.1160706568469418E-3</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J108" s="2">
+        <f t="shared" si="22"/>
+        <v>0.1965084509561574</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="23"/>
+        <v>38.410034602076131</v>
+      </c>
+      <c r="M108" s="2">
         <f t="shared" si="18"/>
-        <v>5.1160706568469418E-3</v>
-      </c>
-      <c r="H108">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J108" s="2">
-        <f t="shared" si="20"/>
-        <v>0.1965084509561574</v>
-      </c>
-      <c r="K108">
-        <f t="shared" si="21"/>
-        <v>38.410034602076131</v>
-      </c>
-      <c r="M108" s="2">
-        <f t="shared" si="16"/>
         <v>1.8516346591771406E-2</v>
       </c>
       <c r="N108" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.19980900000000001</v>
       </c>
       <c r="O108">
@@ -10545,27 +10988,27 @@
         <v>-0.46600000000000003</v>
       </c>
       <c r="G109" s="2">
+        <f t="shared" si="20"/>
+        <v>4.8280826501924589E-3</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J109" s="2">
+        <f t="shared" si="22"/>
+        <v>0.20154692733279389</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="23"/>
+        <v>41.744713571703201</v>
+      </c>
+      <c r="M109" s="2">
         <f t="shared" si="18"/>
-        <v>4.8280826501924589E-3</v>
-      </c>
-      <c r="H109">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J109" s="2">
-        <f t="shared" si="20"/>
-        <v>0.20154692733279389</v>
-      </c>
-      <c r="K109">
-        <f t="shared" si="21"/>
-        <v>41.744713571703201</v>
-      </c>
-      <c r="M109" s="2">
-        <f t="shared" si="16"/>
         <v>1.9614773931961236E-2</v>
       </c>
       <c r="N109" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.21715600000000002</v>
       </c>
       <c r="O109">
@@ -10592,27 +11035,27 @@
         <v>-0.51900000000000002</v>
       </c>
       <c r="G110" s="2">
+        <f t="shared" si="20"/>
+        <v>3.2859657400450058E-3</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J110" s="2">
+        <f t="shared" si="22"/>
+        <v>0.17014821562942389</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="23"/>
+        <v>51.78027681660901</v>
+      </c>
+      <c r="M110" s="2">
         <f t="shared" si="18"/>
-        <v>3.2859657400450058E-3</v>
-      </c>
-      <c r="H110">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J110" s="2">
-        <f t="shared" si="20"/>
-        <v>0.17014821562942389</v>
-      </c>
-      <c r="K110">
-        <f t="shared" si="21"/>
-        <v>51.78027681660901</v>
-      </c>
-      <c r="M110" s="2">
-        <f t="shared" si="16"/>
         <v>2.0948578559334602E-2</v>
       </c>
       <c r="N110" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.26936100000000002</v>
       </c>
       <c r="O110">
@@ -10639,27 +11082,27 @@
         <v>-0.52200000000000002</v>
       </c>
       <c r="G111" s="2">
+        <f t="shared" si="20"/>
+        <v>3.8131220111588212E-3</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J111" s="2">
+        <f t="shared" si="22"/>
+        <v>0.19973370589938494</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="23"/>
+        <v>52.380622837370254</v>
+      </c>
+      <c r="M111" s="2">
         <f t="shared" si="18"/>
-        <v>3.8131220111588212E-3</v>
-      </c>
-      <c r="H111">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J111" s="2">
-        <f t="shared" si="20"/>
-        <v>0.19973370589938494</v>
-      </c>
-      <c r="K111">
-        <f t="shared" si="21"/>
-        <v>52.380622837370254</v>
-      </c>
-      <c r="M111" s="2">
-        <f t="shared" si="16"/>
         <v>2.2360842282435806E-2</v>
       </c>
       <c r="N111" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.272484</v>
       </c>
       <c r="O111">
@@ -10686,27 +11129,27 @@
         <v>-0.50600000000000001</v>
       </c>
       <c r="G112" s="2">
+        <f t="shared" si="20"/>
+        <v>5.0629480156107022E-3</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="24"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J112" s="2">
+        <f t="shared" si="22"/>
+        <v>0.24919203347268393</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="23"/>
+        <v>49.218762014609766</v>
+      </c>
+      <c r="M112" s="2">
         <f t="shared" si="18"/>
-        <v>5.0629480156107022E-3</v>
-      </c>
-      <c r="H112">
-        <f t="shared" si="22"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J112" s="2">
-        <f t="shared" si="20"/>
-        <v>0.24919203347268393</v>
-      </c>
-      <c r="K112">
-        <f t="shared" si="21"/>
-        <v>49.218762014609766</v>
-      </c>
-      <c r="M112" s="2">
-        <f t="shared" si="16"/>
         <v>2.3616187814081327E-2</v>
       </c>
       <c r="N112" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.25603599999999999</v>
       </c>
       <c r="O112">
@@ -10733,27 +11176,27 @@
         <v>-0.54200000000000004</v>
       </c>
       <c r="G113" s="2">
+        <f t="shared" si="20"/>
+        <v>4.198361113893258E-3</v>
+      </c>
+      <c r="H113">
+        <f t="shared" ref="H113:H115" si="25">0.5*A113*(POWER(B113,2)+POWER(C113,2))</f>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J113" s="2">
+        <f t="shared" si="22"/>
+        <v>0.23708714999264502</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="23"/>
+        <v>56.471357170319123</v>
+      </c>
+      <c r="M113" s="2">
         <f t="shared" si="18"/>
-        <v>4.198361113893258E-3</v>
-      </c>
-      <c r="H113">
-        <f t="shared" ref="H113:H115" si="23">0.5*A113*(POWER(B113,2)+POWER(C113,2))</f>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J113" s="2">
-        <f t="shared" si="20"/>
-        <v>0.23708714999264502</v>
-      </c>
-      <c r="K113">
-        <f t="shared" si="21"/>
-        <v>56.471357170319123</v>
-      </c>
-      <c r="M113" s="2">
-        <f t="shared" si="16"/>
         <v>2.5028451537182538E-2</v>
       </c>
       <c r="N113" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.29376400000000003</v>
       </c>
       <c r="O113">
@@ -10780,27 +11223,27 @@
         <v>-0.60699999999999998</v>
       </c>
       <c r="G114" s="2">
+        <f t="shared" si="20"/>
+        <v>2.5739837393868544E-3</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="25"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J114" s="2">
+        <f t="shared" si="22"/>
+        <v>0.18231098323593753</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="23"/>
+        <v>70.828335255670893</v>
+      </c>
+      <c r="M114" s="2">
         <f t="shared" si="18"/>
-        <v>2.5739837393868544E-3</v>
-      </c>
-      <c r="H114">
-        <f t="shared" si="23"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J114" s="2">
-        <f t="shared" si="20"/>
-        <v>0.18231098323593753</v>
-      </c>
-      <c r="K114">
-        <f t="shared" si="21"/>
-        <v>70.828335255670893</v>
-      </c>
-      <c r="M114" s="2">
-        <f t="shared" si="16"/>
         <v>2.6519174356011591E-2</v>
       </c>
       <c r="N114" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.36844899999999997</v>
       </c>
       <c r="O114">
@@ -10827,27 +11270,27 @@
         <v>-0.629</v>
       </c>
       <c r="G115" s="2">
+        <f t="shared" si="20"/>
+        <v>2.4778904289014282E-3</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="25"/>
+        <v>3.1335547499999994E-3</v>
+      </c>
+      <c r="J115" s="2">
+        <f t="shared" si="22"/>
+        <v>0.18845733317589197</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="23"/>
+        <v>76.055555555555557</v>
+      </c>
+      <c r="M115" s="2">
         <f t="shared" si="18"/>
-        <v>2.4778904289014282E-3</v>
-      </c>
-      <c r="H115">
-        <f t="shared" si="23"/>
-        <v>3.1335547499999994E-3</v>
-      </c>
-      <c r="J115" s="2">
-        <f t="shared" si="20"/>
-        <v>0.18845733317589197</v>
-      </c>
-      <c r="K115">
-        <f t="shared" si="21"/>
-        <v>76.055555555555557</v>
-      </c>
-      <c r="M115" s="2">
-        <f t="shared" si="16"/>
         <v>2.8166815366296335E-2</v>
       </c>
       <c r="N115" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.39564100000000002</v>
       </c>
       <c r="O115">
@@ -10874,27 +11317,27 @@
         <v>-0.63100000000000001</v>
       </c>
       <c r="G116" s="2">
-        <f t="shared" ref="G116:G122" si="24">(A116*9.8*ABS(E116)*SIN(RADIANS(D116))-0.5*A116*ABS(F116)^2)/(0.5*(ABS(F116)/B116)^2)</f>
+        <f t="shared" ref="G116:G122" si="26">(A116*9.8*ABS(E116)*SIN(RADIANS(D116))-0.5*A116*ABS(F116)^2)/(0.5*(ABS(F116)/B116)^2)</f>
         <v>2.9066456407492599E-3</v>
       </c>
       <c r="H116">
-        <f t="shared" ref="H116:H122" si="25">0.5*A116*(POWER(B116,2)+POWER(C116,2))</f>
+        <f t="shared" ref="H116:H122" si="27">0.5*A116*(POWER(B116,2)+POWER(C116,2))</f>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J116" s="2">
-        <f t="shared" ref="J116:J122" si="26">A116*9.8*ABS(E116)*SIN(RADIANS(D116))-A116*ABS(F116)^2/2</f>
+        <f t="shared" ref="J116:J122" si="28">A116*9.8*ABS(E116)*SIN(RADIANS(D116))-A116*ABS(F116)^2/2</f>
         <v>0.22247461264251561</v>
       </c>
       <c r="K116">
-        <f t="shared" ref="K116:K122" si="27">(ABS(F116)/B116)^2/2</f>
+        <f t="shared" ref="K116:K122" si="29">(ABS(F116)/B116)^2/2</f>
         <v>76.53998462129951</v>
       </c>
       <c r="M116" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.9735997280853233E-2</v>
       </c>
       <c r="N116" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.39816099999999999</v>
       </c>
       <c r="O116">
@@ -10921,27 +11364,27 @@
         <v>-0.66100000000000003</v>
       </c>
       <c r="G117" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.5780996446595115E-3</v>
       </c>
       <c r="H117">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J117" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.21653707705580139</v>
       </c>
       <c r="K117">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>83.990965013456389</v>
       </c>
       <c r="M117" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.1462097386865825E-2</v>
       </c>
       <c r="N117" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.43692100000000006</v>
       </c>
       <c r="O117">
@@ -10968,27 +11411,27 @@
         <v>-0.66900000000000004</v>
       </c>
       <c r="G118" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.8415566456018084E-3</v>
       </c>
       <c r="H118">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J118" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.24447711146908713</v>
       </c>
       <c r="K118">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>86.03633217993081</v>
       </c>
       <c r="M118" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.3188197492878407E-2</v>
       </c>
       <c r="N118" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.44756100000000004</v>
       </c>
       <c r="O118">
@@ -11015,27 +11458,27 @@
         <v>-0.67800000000000005</v>
       </c>
       <c r="G119" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.0835474362341819E-3</v>
       </c>
       <c r="H119">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J119" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.27248316410570439</v>
       </c>
       <c r="K119">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>88.366782006920445</v>
       </c>
       <c r="M119" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.4992756694618848E-2</v>
       </c>
       <c r="N119" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.45968400000000004</v>
       </c>
       <c r="O119">
@@ -11062,27 +11505,27 @@
         <v>-0.70799999999999996</v>
       </c>
       <c r="G120" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.750117026062226E-3</v>
       </c>
       <c r="H120">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J120" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.26500089599232135</v>
       </c>
       <c r="K120">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>96.359861591695505</v>
       </c>
       <c r="M120" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.6797315896359276E-2</v>
       </c>
       <c r="N120" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.50126399999999993</v>
       </c>
       <c r="O120">
@@ -11109,27 +11552,27 @@
         <v>-0.73599999999999999</v>
       </c>
       <c r="G121" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.5040688764888536E-3</v>
       </c>
       <c r="H121">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J121" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.26075434335226955</v>
       </c>
       <c r="K121">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>104.13225682429835</v>
       </c>
       <c r="M121" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.8680334193827555E-2</v>
       </c>
       <c r="N121" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.54169599999999996</v>
       </c>
       <c r="O121">
@@ -11156,27 +11599,27 @@
         <v>-0.72199999999999998</v>
       </c>
       <c r="G122" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.3097257692337114E-3</v>
       </c>
       <c r="H122">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.1335547499999994E-3</v>
       </c>
       <c r="J122" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.33166226218554906</v>
       </c>
       <c r="K122">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100.20838139177241</v>
       </c>
       <c r="M122" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.064181158702368E-2</v>
       </c>
       <c r="N122" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.52128399999999997</v>
       </c>
       <c r="O122">
